--- a/Meteora_Ecommerce_2.xlsx
+++ b/Meteora_Ecommerce_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Exel\Meteora-Exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E27097-5922-4160-9C7F-5906B15CC366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97109778-9C3F-44F9-B9C2-98D380C53D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="698" activeTab="4" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
   </bookViews>
@@ -1477,33 +1477,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1556,6 +1529,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6775,14 +6775,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>541019</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>264794</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>400050</xdr:rowOff>
     </xdr:to>
@@ -6847,14 +6847,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>407670</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>131445</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>400050</xdr:rowOff>
     </xdr:to>
@@ -6916,14 +6916,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>442913</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>519113</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1422083</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>279083</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>400050</xdr:rowOff>
     </xdr:to>
@@ -6985,14 +6985,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>400050</xdr:rowOff>
     </xdr:to>
@@ -7110,7 +7110,7 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>895349</xdr:colOff>
+      <xdr:colOff>933449</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
@@ -7182,13 +7182,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>226695</xdr:colOff>
+      <xdr:colOff>264795</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>400050</xdr:rowOff>
     </xdr:to>
@@ -7251,13 +7251,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>661988</xdr:colOff>
+      <xdr:colOff>147638</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>507683</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1126808</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>400050</xdr:rowOff>
     </xdr:to>
@@ -7320,13 +7320,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>569595</xdr:colOff>
+      <xdr:colOff>55245</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>400050</xdr:rowOff>
     </xdr:to>
@@ -8861,7 +8861,7 @@
       <c r="E5" s="42"/>
       <c r="F5" s="42"/>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="15.75">
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="18.75">
       <c r="B6" s="34" t="s">
         <v>30</v>
       </c>
@@ -10100,10 +10100,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="40" customFormat="1" ht="40.15" customHeight="1">
@@ -10123,7 +10123,7 @@
       <c r="A3" s="42"/>
       <c r="B3" s="42"/>
     </row>
-    <row r="4" spans="1:5" ht="18.75">
+    <row r="4" spans="1:5" ht="21.75">
       <c r="A4" s="52" t="s">
         <v>30</v>
       </c>
@@ -10225,14 +10225,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="40" customFormat="1" ht="40.15" customHeight="1">
@@ -10261,7 +10261,7 @@
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
+    <row r="4" spans="1:9" ht="19.5">
       <c r="A4" s="11" t="s">
         <v>125</v>
       </c>
@@ -12606,7 +12606,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" zeroHeight="1"/>
@@ -12667,13 +12667,13 @@
         <v>155</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E6" s="73" t="s">
         <v>160</v>
       </c>
       <c r="F6" s="77">
-        <v>45024</v>
+        <v>45018</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="24.6" customHeight="1" thickTop="1" thickBot="1">
@@ -12682,12 +12682,15 @@
       </c>
       <c r="C7" s="50" t="str">
         <f>IFERROR(VLOOKUP(C6,TB_Produtos[#All],2,FALSE),"Não encontrado")</f>
-        <v>Calça jeans</v>
+        <v>Bermuda</v>
       </c>
       <c r="E7" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="F7" s="50"/>
+      <c r="F7" s="50" t="str">
+        <f>_xlfn.XLOOKUP(WEEKDAY(F6),'Cadastros Auxiliares'!B4:I4,'Cadastros Auxiliares'!B5:I5)</f>
+        <v>Domingo</v>
+      </c>
       <c r="G7" s="49"/>
     </row>
     <row r="8" spans="1:9" ht="24.6" customHeight="1" thickTop="1" thickBot="1">
@@ -12696,7 +12699,7 @@
       </c>
       <c r="C8" s="48" t="str" cm="1">
         <f t="array" ref="C8">_xlfn.XLOOKUP(C6,TB_Produtos[[#All],[Código]],TB_Produtos[[#All],[Tamanho]],"Não encontrado")</f>
-        <v>P</v>
+        <v>M</v>
       </c>
       <c r="E8" s="74" t="s">
         <v>164</v>
@@ -12717,7 +12720,7 @@
       </c>
       <c r="F9" s="51">
         <f>SUMIF(TB_Vendas[[#All],[Data]],Consultas!$F$6,TB_Vendas[[#All],[Qtd]])</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" s="49"/>
     </row>
@@ -12727,7 +12730,7 @@
       </c>
       <c r="C10" s="78">
         <f>VLOOKUP(C6,TB_Produtos[#All],6,FALSE)</f>
-        <v>85.9</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="G10" s="49"/>
     </row>
@@ -12737,16 +12740,23 @@
       </c>
       <c r="C11" s="50" cm="1">
         <f t="array" ref="C11">_xlfn.XLOOKUP(C6,TB_Produtos[[#All],[Código]],TB_Produtos[[#All],[Estoque]],"Você fez merda")</f>
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <f>WEEKDAY(F6)</f>
+        <v>1</v>
       </c>
       <c r="G11" s="49"/>
     </row>
-    <row r="12" spans="1:9" ht="22.5" thickTop="1" thickBot="1">
+    <row r="12" spans="1:9" ht="23.25" thickTop="1" thickBot="1">
       <c r="B12" s="79" t="s">
         <v>166</v>
       </c>
       <c r="C12" s="51"/>
-      <c r="E12" s="80"/>
+      <c r="E12" s="80" t="str">
+        <f>HLOOKUP(E11,'Cadastros Auxiliares'!B4:I5,2,)</f>
+        <v>Domingo</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="23.25">
       <c r="E13" s="81"/>
@@ -12833,7 +12843,7 @@
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
     </row>
-    <row r="4" spans="2:10" ht="19.5" thickBot="1">
+    <row r="4" spans="2:10" ht="22.5" thickBot="1">
       <c r="B4" s="35" t="s">
         <v>30</v>
       </c>
@@ -12859,7 +12869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:10" s="56" customFormat="1" ht="19.5" thickBot="1">
+    <row r="5" spans="2:10" s="56" customFormat="1" ht="22.5" thickBot="1">
       <c r="B5" s="54" t="s">
         <v>137</v>
       </c>
@@ -12886,7 +12896,7 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75" thickBot="1"/>
-    <row r="8" spans="2:10" ht="38.25" thickBot="1">
+    <row r="8" spans="2:10" ht="44.25" thickBot="1">
       <c r="B8" s="60" t="s">
         <v>153</v>
       </c>
@@ -12900,7 +12910,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15.75" thickBot="1">
+    <row r="9" spans="2:10" ht="18.75" thickBot="1">
       <c r="B9" s="55">
         <v>1</v>
       </c>
@@ -12915,7 +12925,7 @@
       </c>
       <c r="G9" s="69"/>
     </row>
-    <row r="10" spans="2:10" ht="15.75" thickBot="1">
+    <row r="10" spans="2:10" ht="18.75" thickBot="1">
       <c r="B10" s="55">
         <v>2</v>
       </c>
@@ -12930,7 +12940,7 @@
       </c>
       <c r="G10" s="69"/>
     </row>
-    <row r="11" spans="2:10" ht="15.75" thickBot="1">
+    <row r="11" spans="2:10" ht="18.75" thickBot="1">
       <c r="B11" s="55">
         <v>3</v>
       </c>
@@ -12944,7 +12954,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="15.75" thickBot="1">
+    <row r="12" spans="2:10" ht="18.75" thickBot="1">
       <c r="B12" s="55">
         <v>5</v>
       </c>
@@ -12958,7 +12968,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="15.75" thickBot="1">
+    <row r="13" spans="2:10" ht="18.75" thickBot="1">
       <c r="B13" s="55">
         <v>10</v>
       </c>
@@ -13353,237 +13363,237 @@
       <c r="CB3" s="90"/>
     </row>
     <row r="4" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W4" s="100">
+      <c r="W4" s="91">
         <f>COUNTA(TB_Produtos[Código])</f>
         <v>60</v>
       </c>
-      <c r="X4" s="101"/>
-      <c r="Y4" s="101"/>
-      <c r="Z4" s="101"/>
-      <c r="AA4" s="101"/>
-      <c r="AB4" s="101"/>
-      <c r="AC4" s="101"/>
-      <c r="AD4" s="101"/>
-      <c r="AE4" s="101"/>
-      <c r="AF4" s="101"/>
-      <c r="AG4" s="101"/>
-      <c r="AH4" s="101"/>
-      <c r="AI4" s="101"/>
-      <c r="AJ4" s="101"/>
-      <c r="AK4" s="101"/>
-      <c r="AL4" s="101"/>
-      <c r="AM4" s="101"/>
-      <c r="AN4" s="102"/>
-      <c r="AQ4" s="100">
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="92"/>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="92"/>
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="93"/>
+      <c r="AQ4" s="91">
         <f>SUM(TB_Vendas[Qtd])</f>
         <v>250</v>
       </c>
-      <c r="AR4" s="101"/>
-      <c r="AS4" s="101"/>
-      <c r="AT4" s="101"/>
-      <c r="AU4" s="101"/>
-      <c r="AV4" s="101"/>
-      <c r="AW4" s="101"/>
-      <c r="AX4" s="101"/>
-      <c r="AY4" s="101"/>
-      <c r="AZ4" s="101"/>
-      <c r="BA4" s="101"/>
-      <c r="BB4" s="101"/>
-      <c r="BC4" s="101"/>
-      <c r="BD4" s="101"/>
-      <c r="BE4" s="101"/>
-      <c r="BF4" s="101"/>
-      <c r="BG4" s="101"/>
-      <c r="BH4" s="102"/>
-      <c r="BK4" s="109">
+      <c r="AR4" s="92"/>
+      <c r="AS4" s="92"/>
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="92"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="92"/>
+      <c r="AZ4" s="92"/>
+      <c r="BA4" s="92"/>
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="92"/>
+      <c r="BD4" s="92"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="92"/>
+      <c r="BG4" s="92"/>
+      <c r="BH4" s="93"/>
+      <c r="BK4" s="100">
         <f>SUM(TB_Vendas[Total])</f>
         <v>0</v>
       </c>
-      <c r="BL4" s="110"/>
-      <c r="BM4" s="110"/>
-      <c r="BN4" s="110"/>
-      <c r="BO4" s="110"/>
-      <c r="BP4" s="110"/>
-      <c r="BQ4" s="110"/>
-      <c r="BR4" s="110"/>
-      <c r="BS4" s="110"/>
-      <c r="BT4" s="110"/>
-      <c r="BU4" s="110"/>
-      <c r="BV4" s="110"/>
-      <c r="BW4" s="110"/>
-      <c r="BX4" s="110"/>
-      <c r="BY4" s="110"/>
-      <c r="BZ4" s="110"/>
-      <c r="CA4" s="110"/>
-      <c r="CB4" s="111"/>
+      <c r="BL4" s="101"/>
+      <c r="BM4" s="101"/>
+      <c r="BN4" s="101"/>
+      <c r="BO4" s="101"/>
+      <c r="BP4" s="101"/>
+      <c r="BQ4" s="101"/>
+      <c r="BR4" s="101"/>
+      <c r="BS4" s="101"/>
+      <c r="BT4" s="101"/>
+      <c r="BU4" s="101"/>
+      <c r="BV4" s="101"/>
+      <c r="BW4" s="101"/>
+      <c r="BX4" s="101"/>
+      <c r="BY4" s="101"/>
+      <c r="BZ4" s="101"/>
+      <c r="CA4" s="101"/>
+      <c r="CB4" s="102"/>
     </row>
     <row r="5" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W5" s="103"/>
-      <c r="X5" s="104"/>
-      <c r="Y5" s="104"/>
-      <c r="Z5" s="104"/>
-      <c r="AA5" s="104"/>
-      <c r="AB5" s="104"/>
-      <c r="AC5" s="104"/>
-      <c r="AD5" s="104"/>
-      <c r="AE5" s="104"/>
-      <c r="AF5" s="104"/>
-      <c r="AG5" s="104"/>
-      <c r="AH5" s="104"/>
-      <c r="AI5" s="104"/>
-      <c r="AJ5" s="104"/>
-      <c r="AK5" s="104"/>
-      <c r="AL5" s="104"/>
-      <c r="AM5" s="104"/>
-      <c r="AN5" s="105"/>
-      <c r="AQ5" s="103"/>
-      <c r="AR5" s="104"/>
-      <c r="AS5" s="104"/>
-      <c r="AT5" s="104"/>
-      <c r="AU5" s="104"/>
-      <c r="AV5" s="104"/>
-      <c r="AW5" s="104"/>
-      <c r="AX5" s="104"/>
-      <c r="AY5" s="104"/>
-      <c r="AZ5" s="104"/>
-      <c r="BA5" s="104"/>
-      <c r="BB5" s="104"/>
-      <c r="BC5" s="104"/>
-      <c r="BD5" s="104"/>
-      <c r="BE5" s="104"/>
-      <c r="BF5" s="104"/>
-      <c r="BG5" s="104"/>
-      <c r="BH5" s="105"/>
-      <c r="BK5" s="112"/>
-      <c r="BL5" s="113"/>
-      <c r="BM5" s="113"/>
-      <c r="BN5" s="113"/>
-      <c r="BO5" s="113"/>
-      <c r="BP5" s="113"/>
-      <c r="BQ5" s="113"/>
-      <c r="BR5" s="113"/>
-      <c r="BS5" s="113"/>
-      <c r="BT5" s="113"/>
-      <c r="BU5" s="113"/>
-      <c r="BV5" s="113"/>
-      <c r="BW5" s="113"/>
-      <c r="BX5" s="113"/>
-      <c r="BY5" s="113"/>
-      <c r="BZ5" s="113"/>
-      <c r="CA5" s="113"/>
-      <c r="CB5" s="114"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="95"/>
+      <c r="Y5" s="95"/>
+      <c r="Z5" s="95"/>
+      <c r="AA5" s="95"/>
+      <c r="AB5" s="95"/>
+      <c r="AC5" s="95"/>
+      <c r="AD5" s="95"/>
+      <c r="AE5" s="95"/>
+      <c r="AF5" s="95"/>
+      <c r="AG5" s="95"/>
+      <c r="AH5" s="95"/>
+      <c r="AI5" s="95"/>
+      <c r="AJ5" s="95"/>
+      <c r="AK5" s="95"/>
+      <c r="AL5" s="95"/>
+      <c r="AM5" s="95"/>
+      <c r="AN5" s="96"/>
+      <c r="AQ5" s="94"/>
+      <c r="AR5" s="95"/>
+      <c r="AS5" s="95"/>
+      <c r="AT5" s="95"/>
+      <c r="AU5" s="95"/>
+      <c r="AV5" s="95"/>
+      <c r="AW5" s="95"/>
+      <c r="AX5" s="95"/>
+      <c r="AY5" s="95"/>
+      <c r="AZ5" s="95"/>
+      <c r="BA5" s="95"/>
+      <c r="BB5" s="95"/>
+      <c r="BC5" s="95"/>
+      <c r="BD5" s="95"/>
+      <c r="BE5" s="95"/>
+      <c r="BF5" s="95"/>
+      <c r="BG5" s="95"/>
+      <c r="BH5" s="96"/>
+      <c r="BK5" s="103"/>
+      <c r="BL5" s="104"/>
+      <c r="BM5" s="104"/>
+      <c r="BN5" s="104"/>
+      <c r="BO5" s="104"/>
+      <c r="BP5" s="104"/>
+      <c r="BQ5" s="104"/>
+      <c r="BR5" s="104"/>
+      <c r="BS5" s="104"/>
+      <c r="BT5" s="104"/>
+      <c r="BU5" s="104"/>
+      <c r="BV5" s="104"/>
+      <c r="BW5" s="104"/>
+      <c r="BX5" s="104"/>
+      <c r="BY5" s="104"/>
+      <c r="BZ5" s="104"/>
+      <c r="CA5" s="104"/>
+      <c r="CB5" s="105"/>
     </row>
     <row r="6" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W6" s="103"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
-      <c r="Z6" s="104"/>
-      <c r="AA6" s="104"/>
-      <c r="AB6" s="104"/>
-      <c r="AC6" s="104"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="104"/>
-      <c r="AF6" s="104"/>
-      <c r="AG6" s="104"/>
-      <c r="AH6" s="104"/>
-      <c r="AI6" s="104"/>
-      <c r="AJ6" s="104"/>
-      <c r="AK6" s="104"/>
-      <c r="AL6" s="104"/>
-      <c r="AM6" s="104"/>
-      <c r="AN6" s="105"/>
-      <c r="AQ6" s="103"/>
-      <c r="AR6" s="104"/>
-      <c r="AS6" s="104"/>
-      <c r="AT6" s="104"/>
-      <c r="AU6" s="104"/>
-      <c r="AV6" s="104"/>
-      <c r="AW6" s="104"/>
-      <c r="AX6" s="104"/>
-      <c r="AY6" s="104"/>
-      <c r="AZ6" s="104"/>
-      <c r="BA6" s="104"/>
-      <c r="BB6" s="104"/>
-      <c r="BC6" s="104"/>
-      <c r="BD6" s="104"/>
-      <c r="BE6" s="104"/>
-      <c r="BF6" s="104"/>
-      <c r="BG6" s="104"/>
-      <c r="BH6" s="105"/>
-      <c r="BK6" s="112"/>
-      <c r="BL6" s="113"/>
-      <c r="BM6" s="113"/>
-      <c r="BN6" s="113"/>
-      <c r="BO6" s="113"/>
-      <c r="BP6" s="113"/>
-      <c r="BQ6" s="113"/>
-      <c r="BR6" s="113"/>
-      <c r="BS6" s="113"/>
-      <c r="BT6" s="113"/>
-      <c r="BU6" s="113"/>
-      <c r="BV6" s="113"/>
-      <c r="BW6" s="113"/>
-      <c r="BX6" s="113"/>
-      <c r="BY6" s="113"/>
-      <c r="BZ6" s="113"/>
-      <c r="CA6" s="113"/>
-      <c r="CB6" s="114"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="95"/>
+      <c r="Y6" s="95"/>
+      <c r="Z6" s="95"/>
+      <c r="AA6" s="95"/>
+      <c r="AB6" s="95"/>
+      <c r="AC6" s="95"/>
+      <c r="AD6" s="95"/>
+      <c r="AE6" s="95"/>
+      <c r="AF6" s="95"/>
+      <c r="AG6" s="95"/>
+      <c r="AH6" s="95"/>
+      <c r="AI6" s="95"/>
+      <c r="AJ6" s="95"/>
+      <c r="AK6" s="95"/>
+      <c r="AL6" s="95"/>
+      <c r="AM6" s="95"/>
+      <c r="AN6" s="96"/>
+      <c r="AQ6" s="94"/>
+      <c r="AR6" s="95"/>
+      <c r="AS6" s="95"/>
+      <c r="AT6" s="95"/>
+      <c r="AU6" s="95"/>
+      <c r="AV6" s="95"/>
+      <c r="AW6" s="95"/>
+      <c r="AX6" s="95"/>
+      <c r="AY6" s="95"/>
+      <c r="AZ6" s="95"/>
+      <c r="BA6" s="95"/>
+      <c r="BB6" s="95"/>
+      <c r="BC6" s="95"/>
+      <c r="BD6" s="95"/>
+      <c r="BE6" s="95"/>
+      <c r="BF6" s="95"/>
+      <c r="BG6" s="95"/>
+      <c r="BH6" s="96"/>
+      <c r="BK6" s="103"/>
+      <c r="BL6" s="104"/>
+      <c r="BM6" s="104"/>
+      <c r="BN6" s="104"/>
+      <c r="BO6" s="104"/>
+      <c r="BP6" s="104"/>
+      <c r="BQ6" s="104"/>
+      <c r="BR6" s="104"/>
+      <c r="BS6" s="104"/>
+      <c r="BT6" s="104"/>
+      <c r="BU6" s="104"/>
+      <c r="BV6" s="104"/>
+      <c r="BW6" s="104"/>
+      <c r="BX6" s="104"/>
+      <c r="BY6" s="104"/>
+      <c r="BZ6" s="104"/>
+      <c r="CA6" s="104"/>
+      <c r="CB6" s="105"/>
     </row>
     <row r="7" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="W7" s="106"/>
-      <c r="X7" s="107"/>
-      <c r="Y7" s="107"/>
-      <c r="Z7" s="107"/>
-      <c r="AA7" s="107"/>
-      <c r="AB7" s="107"/>
-      <c r="AC7" s="107"/>
-      <c r="AD7" s="107"/>
-      <c r="AE7" s="107"/>
-      <c r="AF7" s="107"/>
-      <c r="AG7" s="107"/>
-      <c r="AH7" s="107"/>
-      <c r="AI7" s="107"/>
-      <c r="AJ7" s="107"/>
-      <c r="AK7" s="107"/>
-      <c r="AL7" s="107"/>
-      <c r="AM7" s="107"/>
-      <c r="AN7" s="108"/>
-      <c r="AQ7" s="106"/>
-      <c r="AR7" s="107"/>
-      <c r="AS7" s="107"/>
-      <c r="AT7" s="107"/>
-      <c r="AU7" s="107"/>
-      <c r="AV7" s="107"/>
-      <c r="AW7" s="107"/>
-      <c r="AX7" s="107"/>
-      <c r="AY7" s="107"/>
-      <c r="AZ7" s="107"/>
-      <c r="BA7" s="107"/>
-      <c r="BB7" s="107"/>
-      <c r="BC7" s="107"/>
-      <c r="BD7" s="107"/>
-      <c r="BE7" s="107"/>
-      <c r="BF7" s="107"/>
-      <c r="BG7" s="107"/>
-      <c r="BH7" s="108"/>
-      <c r="BK7" s="115"/>
-      <c r="BL7" s="116"/>
-      <c r="BM7" s="116"/>
-      <c r="BN7" s="116"/>
-      <c r="BO7" s="116"/>
-      <c r="BP7" s="116"/>
-      <c r="BQ7" s="116"/>
-      <c r="BR7" s="116"/>
-      <c r="BS7" s="116"/>
-      <c r="BT7" s="116"/>
-      <c r="BU7" s="116"/>
-      <c r="BV7" s="116"/>
-      <c r="BW7" s="116"/>
-      <c r="BX7" s="116"/>
-      <c r="BY7" s="116"/>
-      <c r="BZ7" s="116"/>
-      <c r="CA7" s="116"/>
-      <c r="CB7" s="117"/>
+      <c r="W7" s="97"/>
+      <c r="X7" s="98"/>
+      <c r="Y7" s="98"/>
+      <c r="Z7" s="98"/>
+      <c r="AA7" s="98"/>
+      <c r="AB7" s="98"/>
+      <c r="AC7" s="98"/>
+      <c r="AD7" s="98"/>
+      <c r="AE7" s="98"/>
+      <c r="AF7" s="98"/>
+      <c r="AG7" s="98"/>
+      <c r="AH7" s="98"/>
+      <c r="AI7" s="98"/>
+      <c r="AJ7" s="98"/>
+      <c r="AK7" s="98"/>
+      <c r="AL7" s="98"/>
+      <c r="AM7" s="98"/>
+      <c r="AN7" s="99"/>
+      <c r="AQ7" s="97"/>
+      <c r="AR7" s="98"/>
+      <c r="AS7" s="98"/>
+      <c r="AT7" s="98"/>
+      <c r="AU7" s="98"/>
+      <c r="AV7" s="98"/>
+      <c r="AW7" s="98"/>
+      <c r="AX7" s="98"/>
+      <c r="AY7" s="98"/>
+      <c r="AZ7" s="98"/>
+      <c r="BA7" s="98"/>
+      <c r="BB7" s="98"/>
+      <c r="BC7" s="98"/>
+      <c r="BD7" s="98"/>
+      <c r="BE7" s="98"/>
+      <c r="BF7" s="98"/>
+      <c r="BG7" s="98"/>
+      <c r="BH7" s="99"/>
+      <c r="BK7" s="106"/>
+      <c r="BL7" s="107"/>
+      <c r="BM7" s="107"/>
+      <c r="BN7" s="107"/>
+      <c r="BO7" s="107"/>
+      <c r="BP7" s="107"/>
+      <c r="BQ7" s="107"/>
+      <c r="BR7" s="107"/>
+      <c r="BS7" s="107"/>
+      <c r="BT7" s="107"/>
+      <c r="BU7" s="107"/>
+      <c r="BV7" s="107"/>
+      <c r="BW7" s="107"/>
+      <c r="BX7" s="107"/>
+      <c r="BY7" s="107"/>
+      <c r="BZ7" s="107"/>
+      <c r="CA7" s="107"/>
+      <c r="CB7" s="108"/>
     </row>
     <row r="8" spans="3:80" ht="9.75" customHeight="1" thickBot="1"/>
     <row r="9" spans="3:80" ht="9.75" customHeight="1">
@@ -13749,1124 +13759,1124 @@
       <c r="CB10" s="90"/>
     </row>
     <row r="11" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C11" s="91"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="92"/>
-      <c r="Y11" s="92"/>
-      <c r="Z11" s="92"/>
-      <c r="AA11" s="92"/>
-      <c r="AB11" s="92"/>
-      <c r="AC11" s="92"/>
-      <c r="AD11" s="92"/>
-      <c r="AE11" s="92"/>
-      <c r="AF11" s="92"/>
-      <c r="AG11" s="92"/>
-      <c r="AH11" s="92"/>
-      <c r="AI11" s="92"/>
-      <c r="AJ11" s="92"/>
-      <c r="AK11" s="92"/>
-      <c r="AL11" s="92"/>
-      <c r="AM11" s="92"/>
-      <c r="AN11" s="92"/>
-      <c r="AO11" s="92"/>
-      <c r="AP11" s="92"/>
-      <c r="AQ11" s="92"/>
-      <c r="AR11" s="92"/>
-      <c r="AS11" s="92"/>
-      <c r="AT11" s="92"/>
-      <c r="AU11" s="92"/>
-      <c r="AV11" s="92"/>
-      <c r="AW11" s="92"/>
-      <c r="AX11" s="92"/>
-      <c r="AY11" s="92"/>
-      <c r="AZ11" s="92"/>
-      <c r="BA11" s="92"/>
-      <c r="BB11" s="92"/>
-      <c r="BC11" s="92"/>
-      <c r="BD11" s="92"/>
-      <c r="BE11" s="92"/>
-      <c r="BF11" s="92"/>
-      <c r="BG11" s="92"/>
-      <c r="BH11" s="92"/>
-      <c r="BI11" s="92"/>
-      <c r="BJ11" s="92"/>
-      <c r="BK11" s="92"/>
-      <c r="BL11" s="92"/>
-      <c r="BM11" s="92"/>
-      <c r="BN11" s="92"/>
-      <c r="BO11" s="92"/>
-      <c r="BP11" s="92"/>
-      <c r="BQ11" s="92"/>
-      <c r="BR11" s="92"/>
-      <c r="BS11" s="92"/>
-      <c r="BT11" s="92"/>
-      <c r="BU11" s="92"/>
-      <c r="BV11" s="92"/>
-      <c r="BW11" s="92"/>
-      <c r="BX11" s="92"/>
-      <c r="BY11" s="92"/>
-      <c r="BZ11" s="92"/>
-      <c r="CA11" s="92"/>
-      <c r="CB11" s="93"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="110"/>
+      <c r="S11" s="110"/>
+      <c r="T11" s="110"/>
+      <c r="U11" s="110"/>
+      <c r="V11" s="110"/>
+      <c r="W11" s="110"/>
+      <c r="X11" s="110"/>
+      <c r="Y11" s="110"/>
+      <c r="Z11" s="110"/>
+      <c r="AA11" s="110"/>
+      <c r="AB11" s="110"/>
+      <c r="AC11" s="110"/>
+      <c r="AD11" s="110"/>
+      <c r="AE11" s="110"/>
+      <c r="AF11" s="110"/>
+      <c r="AG11" s="110"/>
+      <c r="AH11" s="110"/>
+      <c r="AI11" s="110"/>
+      <c r="AJ11" s="110"/>
+      <c r="AK11" s="110"/>
+      <c r="AL11" s="110"/>
+      <c r="AM11" s="110"/>
+      <c r="AN11" s="110"/>
+      <c r="AO11" s="110"/>
+      <c r="AP11" s="110"/>
+      <c r="AQ11" s="110"/>
+      <c r="AR11" s="110"/>
+      <c r="AS11" s="110"/>
+      <c r="AT11" s="110"/>
+      <c r="AU11" s="110"/>
+      <c r="AV11" s="110"/>
+      <c r="AW11" s="110"/>
+      <c r="AX11" s="110"/>
+      <c r="AY11" s="110"/>
+      <c r="AZ11" s="110"/>
+      <c r="BA11" s="110"/>
+      <c r="BB11" s="110"/>
+      <c r="BC11" s="110"/>
+      <c r="BD11" s="110"/>
+      <c r="BE11" s="110"/>
+      <c r="BF11" s="110"/>
+      <c r="BG11" s="110"/>
+      <c r="BH11" s="110"/>
+      <c r="BI11" s="110"/>
+      <c r="BJ11" s="110"/>
+      <c r="BK11" s="110"/>
+      <c r="BL11" s="110"/>
+      <c r="BM11" s="110"/>
+      <c r="BN11" s="110"/>
+      <c r="BO11" s="110"/>
+      <c r="BP11" s="110"/>
+      <c r="BQ11" s="110"/>
+      <c r="BR11" s="110"/>
+      <c r="BS11" s="110"/>
+      <c r="BT11" s="110"/>
+      <c r="BU11" s="110"/>
+      <c r="BV11" s="110"/>
+      <c r="BW11" s="110"/>
+      <c r="BX11" s="110"/>
+      <c r="BY11" s="110"/>
+      <c r="BZ11" s="110"/>
+      <c r="CA11" s="110"/>
+      <c r="CB11" s="111"/>
     </row>
     <row r="12" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C12" s="94"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="95"/>
-      <c r="U12" s="95"/>
-      <c r="V12" s="95"/>
-      <c r="W12" s="95"/>
-      <c r="X12" s="95"/>
-      <c r="Y12" s="95"/>
-      <c r="Z12" s="95"/>
-      <c r="AA12" s="95"/>
-      <c r="AB12" s="95"/>
-      <c r="AC12" s="95"/>
-      <c r="AD12" s="95"/>
-      <c r="AE12" s="95"/>
-      <c r="AF12" s="95"/>
-      <c r="AG12" s="95"/>
-      <c r="AH12" s="95"/>
-      <c r="AI12" s="95"/>
-      <c r="AJ12" s="95"/>
-      <c r="AK12" s="95"/>
-      <c r="AL12" s="95"/>
-      <c r="AM12" s="95"/>
-      <c r="AN12" s="95"/>
-      <c r="AO12" s="95"/>
-      <c r="AP12" s="95"/>
-      <c r="AQ12" s="95"/>
-      <c r="AR12" s="95"/>
-      <c r="AS12" s="95"/>
-      <c r="AT12" s="95"/>
-      <c r="AU12" s="95"/>
-      <c r="AV12" s="95"/>
-      <c r="AW12" s="95"/>
-      <c r="AX12" s="95"/>
-      <c r="AY12" s="95"/>
-      <c r="AZ12" s="95"/>
-      <c r="BA12" s="95"/>
-      <c r="BB12" s="95"/>
-      <c r="BC12" s="95"/>
-      <c r="BD12" s="95"/>
-      <c r="BE12" s="95"/>
-      <c r="BF12" s="95"/>
-      <c r="BG12" s="95"/>
-      <c r="BH12" s="95"/>
-      <c r="BI12" s="95"/>
-      <c r="BJ12" s="95"/>
-      <c r="BK12" s="95"/>
-      <c r="BL12" s="95"/>
-      <c r="BM12" s="95"/>
-      <c r="BN12" s="95"/>
-      <c r="BO12" s="95"/>
-      <c r="BP12" s="95"/>
-      <c r="BQ12" s="95"/>
-      <c r="BR12" s="95"/>
-      <c r="BS12" s="95"/>
-      <c r="BT12" s="95"/>
-      <c r="BU12" s="95"/>
-      <c r="BV12" s="95"/>
-      <c r="BW12" s="95"/>
-      <c r="BX12" s="95"/>
-      <c r="BY12" s="95"/>
-      <c r="BZ12" s="95"/>
-      <c r="CA12" s="95"/>
-      <c r="CB12" s="96"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="113"/>
+      <c r="R12" s="113"/>
+      <c r="S12" s="113"/>
+      <c r="T12" s="113"/>
+      <c r="U12" s="113"/>
+      <c r="V12" s="113"/>
+      <c r="W12" s="113"/>
+      <c r="X12" s="113"/>
+      <c r="Y12" s="113"/>
+      <c r="Z12" s="113"/>
+      <c r="AA12" s="113"/>
+      <c r="AB12" s="113"/>
+      <c r="AC12" s="113"/>
+      <c r="AD12" s="113"/>
+      <c r="AE12" s="113"/>
+      <c r="AF12" s="113"/>
+      <c r="AG12" s="113"/>
+      <c r="AH12" s="113"/>
+      <c r="AI12" s="113"/>
+      <c r="AJ12" s="113"/>
+      <c r="AK12" s="113"/>
+      <c r="AL12" s="113"/>
+      <c r="AM12" s="113"/>
+      <c r="AN12" s="113"/>
+      <c r="AO12" s="113"/>
+      <c r="AP12" s="113"/>
+      <c r="AQ12" s="113"/>
+      <c r="AR12" s="113"/>
+      <c r="AS12" s="113"/>
+      <c r="AT12" s="113"/>
+      <c r="AU12" s="113"/>
+      <c r="AV12" s="113"/>
+      <c r="AW12" s="113"/>
+      <c r="AX12" s="113"/>
+      <c r="AY12" s="113"/>
+      <c r="AZ12" s="113"/>
+      <c r="BA12" s="113"/>
+      <c r="BB12" s="113"/>
+      <c r="BC12" s="113"/>
+      <c r="BD12" s="113"/>
+      <c r="BE12" s="113"/>
+      <c r="BF12" s="113"/>
+      <c r="BG12" s="113"/>
+      <c r="BH12" s="113"/>
+      <c r="BI12" s="113"/>
+      <c r="BJ12" s="113"/>
+      <c r="BK12" s="113"/>
+      <c r="BL12" s="113"/>
+      <c r="BM12" s="113"/>
+      <c r="BN12" s="113"/>
+      <c r="BO12" s="113"/>
+      <c r="BP12" s="113"/>
+      <c r="BQ12" s="113"/>
+      <c r="BR12" s="113"/>
+      <c r="BS12" s="113"/>
+      <c r="BT12" s="113"/>
+      <c r="BU12" s="113"/>
+      <c r="BV12" s="113"/>
+      <c r="BW12" s="113"/>
+      <c r="BX12" s="113"/>
+      <c r="BY12" s="113"/>
+      <c r="BZ12" s="113"/>
+      <c r="CA12" s="113"/>
+      <c r="CB12" s="114"/>
     </row>
     <row r="13" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C13" s="94"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="95"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="95"/>
-      <c r="W13" s="95"/>
-      <c r="X13" s="95"/>
-      <c r="Y13" s="95"/>
-      <c r="Z13" s="95"/>
-      <c r="AA13" s="95"/>
-      <c r="AB13" s="95"/>
-      <c r="AC13" s="95"/>
-      <c r="AD13" s="95"/>
-      <c r="AE13" s="95"/>
-      <c r="AF13" s="95"/>
-      <c r="AG13" s="95"/>
-      <c r="AH13" s="95"/>
-      <c r="AI13" s="95"/>
-      <c r="AJ13" s="95"/>
-      <c r="AK13" s="95"/>
-      <c r="AL13" s="95"/>
-      <c r="AM13" s="95"/>
-      <c r="AN13" s="95"/>
-      <c r="AO13" s="95"/>
-      <c r="AP13" s="95"/>
-      <c r="AQ13" s="95"/>
-      <c r="AR13" s="95"/>
-      <c r="AS13" s="95"/>
-      <c r="AT13" s="95"/>
-      <c r="AU13" s="95"/>
-      <c r="AV13" s="95"/>
-      <c r="AW13" s="95"/>
-      <c r="AX13" s="95"/>
-      <c r="AY13" s="95"/>
-      <c r="AZ13" s="95"/>
-      <c r="BA13" s="95"/>
-      <c r="BB13" s="95"/>
-      <c r="BC13" s="95"/>
-      <c r="BD13" s="95"/>
-      <c r="BE13" s="95"/>
-      <c r="BF13" s="95"/>
-      <c r="BG13" s="95"/>
-      <c r="BH13" s="95"/>
-      <c r="BI13" s="95"/>
-      <c r="BJ13" s="95"/>
-      <c r="BK13" s="95"/>
-      <c r="BL13" s="95"/>
-      <c r="BM13" s="95"/>
-      <c r="BN13" s="95"/>
-      <c r="BO13" s="95"/>
-      <c r="BP13" s="95"/>
-      <c r="BQ13" s="95"/>
-      <c r="BR13" s="95"/>
-      <c r="BS13" s="95"/>
-      <c r="BT13" s="95"/>
-      <c r="BU13" s="95"/>
-      <c r="BV13" s="95"/>
-      <c r="BW13" s="95"/>
-      <c r="BX13" s="95"/>
-      <c r="BY13" s="95"/>
-      <c r="BZ13" s="95"/>
-      <c r="CA13" s="95"/>
-      <c r="CB13" s="96"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="113"/>
+      <c r="O13" s="113"/>
+      <c r="P13" s="113"/>
+      <c r="Q13" s="113"/>
+      <c r="R13" s="113"/>
+      <c r="S13" s="113"/>
+      <c r="T13" s="113"/>
+      <c r="U13" s="113"/>
+      <c r="V13" s="113"/>
+      <c r="W13" s="113"/>
+      <c r="X13" s="113"/>
+      <c r="Y13" s="113"/>
+      <c r="Z13" s="113"/>
+      <c r="AA13" s="113"/>
+      <c r="AB13" s="113"/>
+      <c r="AC13" s="113"/>
+      <c r="AD13" s="113"/>
+      <c r="AE13" s="113"/>
+      <c r="AF13" s="113"/>
+      <c r="AG13" s="113"/>
+      <c r="AH13" s="113"/>
+      <c r="AI13" s="113"/>
+      <c r="AJ13" s="113"/>
+      <c r="AK13" s="113"/>
+      <c r="AL13" s="113"/>
+      <c r="AM13" s="113"/>
+      <c r="AN13" s="113"/>
+      <c r="AO13" s="113"/>
+      <c r="AP13" s="113"/>
+      <c r="AQ13" s="113"/>
+      <c r="AR13" s="113"/>
+      <c r="AS13" s="113"/>
+      <c r="AT13" s="113"/>
+      <c r="AU13" s="113"/>
+      <c r="AV13" s="113"/>
+      <c r="AW13" s="113"/>
+      <c r="AX13" s="113"/>
+      <c r="AY13" s="113"/>
+      <c r="AZ13" s="113"/>
+      <c r="BA13" s="113"/>
+      <c r="BB13" s="113"/>
+      <c r="BC13" s="113"/>
+      <c r="BD13" s="113"/>
+      <c r="BE13" s="113"/>
+      <c r="BF13" s="113"/>
+      <c r="BG13" s="113"/>
+      <c r="BH13" s="113"/>
+      <c r="BI13" s="113"/>
+      <c r="BJ13" s="113"/>
+      <c r="BK13" s="113"/>
+      <c r="BL13" s="113"/>
+      <c r="BM13" s="113"/>
+      <c r="BN13" s="113"/>
+      <c r="BO13" s="113"/>
+      <c r="BP13" s="113"/>
+      <c r="BQ13" s="113"/>
+      <c r="BR13" s="113"/>
+      <c r="BS13" s="113"/>
+      <c r="BT13" s="113"/>
+      <c r="BU13" s="113"/>
+      <c r="BV13" s="113"/>
+      <c r="BW13" s="113"/>
+      <c r="BX13" s="113"/>
+      <c r="BY13" s="113"/>
+      <c r="BZ13" s="113"/>
+      <c r="CA13" s="113"/>
+      <c r="CB13" s="114"/>
     </row>
     <row r="14" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C14" s="94"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="95"/>
-      <c r="U14" s="95"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="95"/>
-      <c r="X14" s="95"/>
-      <c r="Y14" s="95"/>
-      <c r="Z14" s="95"/>
-      <c r="AA14" s="95"/>
-      <c r="AB14" s="95"/>
-      <c r="AC14" s="95"/>
-      <c r="AD14" s="95"/>
-      <c r="AE14" s="95"/>
-      <c r="AF14" s="95"/>
-      <c r="AG14" s="95"/>
-      <c r="AH14" s="95"/>
-      <c r="AI14" s="95"/>
-      <c r="AJ14" s="95"/>
-      <c r="AK14" s="95"/>
-      <c r="AL14" s="95"/>
-      <c r="AM14" s="95"/>
-      <c r="AN14" s="95"/>
-      <c r="AO14" s="95"/>
-      <c r="AP14" s="95"/>
-      <c r="AQ14" s="95"/>
-      <c r="AR14" s="95"/>
-      <c r="AS14" s="95"/>
-      <c r="AT14" s="95"/>
-      <c r="AU14" s="95"/>
-      <c r="AV14" s="95"/>
-      <c r="AW14" s="95"/>
-      <c r="AX14" s="95"/>
-      <c r="AY14" s="95"/>
-      <c r="AZ14" s="95"/>
-      <c r="BA14" s="95"/>
-      <c r="BB14" s="95"/>
-      <c r="BC14" s="95"/>
-      <c r="BD14" s="95"/>
-      <c r="BE14" s="95"/>
-      <c r="BF14" s="95"/>
-      <c r="BG14" s="95"/>
-      <c r="BH14" s="95"/>
-      <c r="BI14" s="95"/>
-      <c r="BJ14" s="95"/>
-      <c r="BK14" s="95"/>
-      <c r="BL14" s="95"/>
-      <c r="BM14" s="95"/>
-      <c r="BN14" s="95"/>
-      <c r="BO14" s="95"/>
-      <c r="BP14" s="95"/>
-      <c r="BQ14" s="95"/>
-      <c r="BR14" s="95"/>
-      <c r="BS14" s="95"/>
-      <c r="BT14" s="95"/>
-      <c r="BU14" s="95"/>
-      <c r="BV14" s="95"/>
-      <c r="BW14" s="95"/>
-      <c r="BX14" s="95"/>
-      <c r="BY14" s="95"/>
-      <c r="BZ14" s="95"/>
-      <c r="CA14" s="95"/>
-      <c r="CB14" s="96"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="113"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="113"/>
+      <c r="P14" s="113"/>
+      <c r="Q14" s="113"/>
+      <c r="R14" s="113"/>
+      <c r="S14" s="113"/>
+      <c r="T14" s="113"/>
+      <c r="U14" s="113"/>
+      <c r="V14" s="113"/>
+      <c r="W14" s="113"/>
+      <c r="X14" s="113"/>
+      <c r="Y14" s="113"/>
+      <c r="Z14" s="113"/>
+      <c r="AA14" s="113"/>
+      <c r="AB14" s="113"/>
+      <c r="AC14" s="113"/>
+      <c r="AD14" s="113"/>
+      <c r="AE14" s="113"/>
+      <c r="AF14" s="113"/>
+      <c r="AG14" s="113"/>
+      <c r="AH14" s="113"/>
+      <c r="AI14" s="113"/>
+      <c r="AJ14" s="113"/>
+      <c r="AK14" s="113"/>
+      <c r="AL14" s="113"/>
+      <c r="AM14" s="113"/>
+      <c r="AN14" s="113"/>
+      <c r="AO14" s="113"/>
+      <c r="AP14" s="113"/>
+      <c r="AQ14" s="113"/>
+      <c r="AR14" s="113"/>
+      <c r="AS14" s="113"/>
+      <c r="AT14" s="113"/>
+      <c r="AU14" s="113"/>
+      <c r="AV14" s="113"/>
+      <c r="AW14" s="113"/>
+      <c r="AX14" s="113"/>
+      <c r="AY14" s="113"/>
+      <c r="AZ14" s="113"/>
+      <c r="BA14" s="113"/>
+      <c r="BB14" s="113"/>
+      <c r="BC14" s="113"/>
+      <c r="BD14" s="113"/>
+      <c r="BE14" s="113"/>
+      <c r="BF14" s="113"/>
+      <c r="BG14" s="113"/>
+      <c r="BH14" s="113"/>
+      <c r="BI14" s="113"/>
+      <c r="BJ14" s="113"/>
+      <c r="BK14" s="113"/>
+      <c r="BL14" s="113"/>
+      <c r="BM14" s="113"/>
+      <c r="BN14" s="113"/>
+      <c r="BO14" s="113"/>
+      <c r="BP14" s="113"/>
+      <c r="BQ14" s="113"/>
+      <c r="BR14" s="113"/>
+      <c r="BS14" s="113"/>
+      <c r="BT14" s="113"/>
+      <c r="BU14" s="113"/>
+      <c r="BV14" s="113"/>
+      <c r="BW14" s="113"/>
+      <c r="BX14" s="113"/>
+      <c r="BY14" s="113"/>
+      <c r="BZ14" s="113"/>
+      <c r="CA14" s="113"/>
+      <c r="CB14" s="114"/>
     </row>
     <row r="15" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95"/>
-      <c r="N15" s="95"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="95"/>
-      <c r="U15" s="95"/>
-      <c r="V15" s="95"/>
-      <c r="W15" s="95"/>
-      <c r="X15" s="95"/>
-      <c r="Y15" s="95"/>
-      <c r="Z15" s="95"/>
-      <c r="AA15" s="95"/>
-      <c r="AB15" s="95"/>
-      <c r="AC15" s="95"/>
-      <c r="AD15" s="95"/>
-      <c r="AE15" s="95"/>
-      <c r="AF15" s="95"/>
-      <c r="AG15" s="95"/>
-      <c r="AH15" s="95"/>
-      <c r="AI15" s="95"/>
-      <c r="AJ15" s="95"/>
-      <c r="AK15" s="95"/>
-      <c r="AL15" s="95"/>
-      <c r="AM15" s="95"/>
-      <c r="AN15" s="95"/>
-      <c r="AO15" s="95"/>
-      <c r="AP15" s="95"/>
-      <c r="AQ15" s="95"/>
-      <c r="AR15" s="95"/>
-      <c r="AS15" s="95"/>
-      <c r="AT15" s="95"/>
-      <c r="AU15" s="95"/>
-      <c r="AV15" s="95"/>
-      <c r="AW15" s="95"/>
-      <c r="AX15" s="95"/>
-      <c r="AY15" s="95"/>
-      <c r="AZ15" s="95"/>
-      <c r="BA15" s="95"/>
-      <c r="BB15" s="95"/>
-      <c r="BC15" s="95"/>
-      <c r="BD15" s="95"/>
-      <c r="BE15" s="95"/>
-      <c r="BF15" s="95"/>
-      <c r="BG15" s="95"/>
-      <c r="BH15" s="95"/>
-      <c r="BI15" s="95"/>
-      <c r="BJ15" s="95"/>
-      <c r="BK15" s="95"/>
-      <c r="BL15" s="95"/>
-      <c r="BM15" s="95"/>
-      <c r="BN15" s="95"/>
-      <c r="BO15" s="95"/>
-      <c r="BP15" s="95"/>
-      <c r="BQ15" s="95"/>
-      <c r="BR15" s="95"/>
-      <c r="BS15" s="95"/>
-      <c r="BT15" s="95"/>
-      <c r="BU15" s="95"/>
-      <c r="BV15" s="95"/>
-      <c r="BW15" s="95"/>
-      <c r="BX15" s="95"/>
-      <c r="BY15" s="95"/>
-      <c r="BZ15" s="95"/>
-      <c r="CA15" s="95"/>
-      <c r="CB15" s="96"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="113"/>
+      <c r="M15" s="113"/>
+      <c r="N15" s="113"/>
+      <c r="O15" s="113"/>
+      <c r="P15" s="113"/>
+      <c r="Q15" s="113"/>
+      <c r="R15" s="113"/>
+      <c r="S15" s="113"/>
+      <c r="T15" s="113"/>
+      <c r="U15" s="113"/>
+      <c r="V15" s="113"/>
+      <c r="W15" s="113"/>
+      <c r="X15" s="113"/>
+      <c r="Y15" s="113"/>
+      <c r="Z15" s="113"/>
+      <c r="AA15" s="113"/>
+      <c r="AB15" s="113"/>
+      <c r="AC15" s="113"/>
+      <c r="AD15" s="113"/>
+      <c r="AE15" s="113"/>
+      <c r="AF15" s="113"/>
+      <c r="AG15" s="113"/>
+      <c r="AH15" s="113"/>
+      <c r="AI15" s="113"/>
+      <c r="AJ15" s="113"/>
+      <c r="AK15" s="113"/>
+      <c r="AL15" s="113"/>
+      <c r="AM15" s="113"/>
+      <c r="AN15" s="113"/>
+      <c r="AO15" s="113"/>
+      <c r="AP15" s="113"/>
+      <c r="AQ15" s="113"/>
+      <c r="AR15" s="113"/>
+      <c r="AS15" s="113"/>
+      <c r="AT15" s="113"/>
+      <c r="AU15" s="113"/>
+      <c r="AV15" s="113"/>
+      <c r="AW15" s="113"/>
+      <c r="AX15" s="113"/>
+      <c r="AY15" s="113"/>
+      <c r="AZ15" s="113"/>
+      <c r="BA15" s="113"/>
+      <c r="BB15" s="113"/>
+      <c r="BC15" s="113"/>
+      <c r="BD15" s="113"/>
+      <c r="BE15" s="113"/>
+      <c r="BF15" s="113"/>
+      <c r="BG15" s="113"/>
+      <c r="BH15" s="113"/>
+      <c r="BI15" s="113"/>
+      <c r="BJ15" s="113"/>
+      <c r="BK15" s="113"/>
+      <c r="BL15" s="113"/>
+      <c r="BM15" s="113"/>
+      <c r="BN15" s="113"/>
+      <c r="BO15" s="113"/>
+      <c r="BP15" s="113"/>
+      <c r="BQ15" s="113"/>
+      <c r="BR15" s="113"/>
+      <c r="BS15" s="113"/>
+      <c r="BT15" s="113"/>
+      <c r="BU15" s="113"/>
+      <c r="BV15" s="113"/>
+      <c r="BW15" s="113"/>
+      <c r="BX15" s="113"/>
+      <c r="BY15" s="113"/>
+      <c r="BZ15" s="113"/>
+      <c r="CA15" s="113"/>
+      <c r="CB15" s="114"/>
     </row>
     <row r="16" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C16" s="94"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="95"/>
-      <c r="S16" s="95"/>
-      <c r="T16" s="95"/>
-      <c r="U16" s="95"/>
-      <c r="V16" s="95"/>
-      <c r="W16" s="95"/>
-      <c r="X16" s="95"/>
-      <c r="Y16" s="95"/>
-      <c r="Z16" s="95"/>
-      <c r="AA16" s="95"/>
-      <c r="AB16" s="95"/>
-      <c r="AC16" s="95"/>
-      <c r="AD16" s="95"/>
-      <c r="AE16" s="95"/>
-      <c r="AF16" s="95"/>
-      <c r="AG16" s="95"/>
-      <c r="AH16" s="95"/>
-      <c r="AI16" s="95"/>
-      <c r="AJ16" s="95"/>
-      <c r="AK16" s="95"/>
-      <c r="AL16" s="95"/>
-      <c r="AM16" s="95"/>
-      <c r="AN16" s="95"/>
-      <c r="AO16" s="95"/>
-      <c r="AP16" s="95"/>
-      <c r="AQ16" s="95"/>
-      <c r="AR16" s="95"/>
-      <c r="AS16" s="95"/>
-      <c r="AT16" s="95"/>
-      <c r="AU16" s="95"/>
-      <c r="AV16" s="95"/>
-      <c r="AW16" s="95"/>
-      <c r="AX16" s="95"/>
-      <c r="AY16" s="95"/>
-      <c r="AZ16" s="95"/>
-      <c r="BA16" s="95"/>
-      <c r="BB16" s="95"/>
-      <c r="BC16" s="95"/>
-      <c r="BD16" s="95"/>
-      <c r="BE16" s="95"/>
-      <c r="BF16" s="95"/>
-      <c r="BG16" s="95"/>
-      <c r="BH16" s="95"/>
-      <c r="BI16" s="95"/>
-      <c r="BJ16" s="95"/>
-      <c r="BK16" s="95"/>
-      <c r="BL16" s="95"/>
-      <c r="BM16" s="95"/>
-      <c r="BN16" s="95"/>
-      <c r="BO16" s="95"/>
-      <c r="BP16" s="95"/>
-      <c r="BQ16" s="95"/>
-      <c r="BR16" s="95"/>
-      <c r="BS16" s="95"/>
-      <c r="BT16" s="95"/>
-      <c r="BU16" s="95"/>
-      <c r="BV16" s="95"/>
-      <c r="BW16" s="95"/>
-      <c r="BX16" s="95"/>
-      <c r="BY16" s="95"/>
-      <c r="BZ16" s="95"/>
-      <c r="CA16" s="95"/>
-      <c r="CB16" s="96"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="113"/>
+      <c r="Q16" s="113"/>
+      <c r="R16" s="113"/>
+      <c r="S16" s="113"/>
+      <c r="T16" s="113"/>
+      <c r="U16" s="113"/>
+      <c r="V16" s="113"/>
+      <c r="W16" s="113"/>
+      <c r="X16" s="113"/>
+      <c r="Y16" s="113"/>
+      <c r="Z16" s="113"/>
+      <c r="AA16" s="113"/>
+      <c r="AB16" s="113"/>
+      <c r="AC16" s="113"/>
+      <c r="AD16" s="113"/>
+      <c r="AE16" s="113"/>
+      <c r="AF16" s="113"/>
+      <c r="AG16" s="113"/>
+      <c r="AH16" s="113"/>
+      <c r="AI16" s="113"/>
+      <c r="AJ16" s="113"/>
+      <c r="AK16" s="113"/>
+      <c r="AL16" s="113"/>
+      <c r="AM16" s="113"/>
+      <c r="AN16" s="113"/>
+      <c r="AO16" s="113"/>
+      <c r="AP16" s="113"/>
+      <c r="AQ16" s="113"/>
+      <c r="AR16" s="113"/>
+      <c r="AS16" s="113"/>
+      <c r="AT16" s="113"/>
+      <c r="AU16" s="113"/>
+      <c r="AV16" s="113"/>
+      <c r="AW16" s="113"/>
+      <c r="AX16" s="113"/>
+      <c r="AY16" s="113"/>
+      <c r="AZ16" s="113"/>
+      <c r="BA16" s="113"/>
+      <c r="BB16" s="113"/>
+      <c r="BC16" s="113"/>
+      <c r="BD16" s="113"/>
+      <c r="BE16" s="113"/>
+      <c r="BF16" s="113"/>
+      <c r="BG16" s="113"/>
+      <c r="BH16" s="113"/>
+      <c r="BI16" s="113"/>
+      <c r="BJ16" s="113"/>
+      <c r="BK16" s="113"/>
+      <c r="BL16" s="113"/>
+      <c r="BM16" s="113"/>
+      <c r="BN16" s="113"/>
+      <c r="BO16" s="113"/>
+      <c r="BP16" s="113"/>
+      <c r="BQ16" s="113"/>
+      <c r="BR16" s="113"/>
+      <c r="BS16" s="113"/>
+      <c r="BT16" s="113"/>
+      <c r="BU16" s="113"/>
+      <c r="BV16" s="113"/>
+      <c r="BW16" s="113"/>
+      <c r="BX16" s="113"/>
+      <c r="BY16" s="113"/>
+      <c r="BZ16" s="113"/>
+      <c r="CA16" s="113"/>
+      <c r="CB16" s="114"/>
     </row>
     <row r="17" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C17" s="94"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="95"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="95"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="95"/>
-      <c r="U17" s="95"/>
-      <c r="V17" s="95"/>
-      <c r="W17" s="95"/>
-      <c r="X17" s="95"/>
-      <c r="Y17" s="95"/>
-      <c r="Z17" s="95"/>
-      <c r="AA17" s="95"/>
-      <c r="AB17" s="95"/>
-      <c r="AC17" s="95"/>
-      <c r="AD17" s="95"/>
-      <c r="AE17" s="95"/>
-      <c r="AF17" s="95"/>
-      <c r="AG17" s="95"/>
-      <c r="AH17" s="95"/>
-      <c r="AI17" s="95"/>
-      <c r="AJ17" s="95"/>
-      <c r="AK17" s="95"/>
-      <c r="AL17" s="95"/>
-      <c r="AM17" s="95"/>
-      <c r="AN17" s="95"/>
-      <c r="AO17" s="95"/>
-      <c r="AP17" s="95"/>
-      <c r="AQ17" s="95"/>
-      <c r="AR17" s="95"/>
-      <c r="AS17" s="95"/>
-      <c r="AT17" s="95"/>
-      <c r="AU17" s="95"/>
-      <c r="AV17" s="95"/>
-      <c r="AW17" s="95"/>
-      <c r="AX17" s="95"/>
-      <c r="AY17" s="95"/>
-      <c r="AZ17" s="95"/>
-      <c r="BA17" s="95"/>
-      <c r="BB17" s="95"/>
-      <c r="BC17" s="95"/>
-      <c r="BD17" s="95"/>
-      <c r="BE17" s="95"/>
-      <c r="BF17" s="95"/>
-      <c r="BG17" s="95"/>
-      <c r="BH17" s="95"/>
-      <c r="BI17" s="95"/>
-      <c r="BJ17" s="95"/>
-      <c r="BK17" s="95"/>
-      <c r="BL17" s="95"/>
-      <c r="BM17" s="95"/>
-      <c r="BN17" s="95"/>
-      <c r="BO17" s="95"/>
-      <c r="BP17" s="95"/>
-      <c r="BQ17" s="95"/>
-      <c r="BR17" s="95"/>
-      <c r="BS17" s="95"/>
-      <c r="BT17" s="95"/>
-      <c r="BU17" s="95"/>
-      <c r="BV17" s="95"/>
-      <c r="BW17" s="95"/>
-      <c r="BX17" s="95"/>
-      <c r="BY17" s="95"/>
-      <c r="BZ17" s="95"/>
-      <c r="CA17" s="95"/>
-      <c r="CB17" s="96"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="113"/>
+      <c r="P17" s="113"/>
+      <c r="Q17" s="113"/>
+      <c r="R17" s="113"/>
+      <c r="S17" s="113"/>
+      <c r="T17" s="113"/>
+      <c r="U17" s="113"/>
+      <c r="V17" s="113"/>
+      <c r="W17" s="113"/>
+      <c r="X17" s="113"/>
+      <c r="Y17" s="113"/>
+      <c r="Z17" s="113"/>
+      <c r="AA17" s="113"/>
+      <c r="AB17" s="113"/>
+      <c r="AC17" s="113"/>
+      <c r="AD17" s="113"/>
+      <c r="AE17" s="113"/>
+      <c r="AF17" s="113"/>
+      <c r="AG17" s="113"/>
+      <c r="AH17" s="113"/>
+      <c r="AI17" s="113"/>
+      <c r="AJ17" s="113"/>
+      <c r="AK17" s="113"/>
+      <c r="AL17" s="113"/>
+      <c r="AM17" s="113"/>
+      <c r="AN17" s="113"/>
+      <c r="AO17" s="113"/>
+      <c r="AP17" s="113"/>
+      <c r="AQ17" s="113"/>
+      <c r="AR17" s="113"/>
+      <c r="AS17" s="113"/>
+      <c r="AT17" s="113"/>
+      <c r="AU17" s="113"/>
+      <c r="AV17" s="113"/>
+      <c r="AW17" s="113"/>
+      <c r="AX17" s="113"/>
+      <c r="AY17" s="113"/>
+      <c r="AZ17" s="113"/>
+      <c r="BA17" s="113"/>
+      <c r="BB17" s="113"/>
+      <c r="BC17" s="113"/>
+      <c r="BD17" s="113"/>
+      <c r="BE17" s="113"/>
+      <c r="BF17" s="113"/>
+      <c r="BG17" s="113"/>
+      <c r="BH17" s="113"/>
+      <c r="BI17" s="113"/>
+      <c r="BJ17" s="113"/>
+      <c r="BK17" s="113"/>
+      <c r="BL17" s="113"/>
+      <c r="BM17" s="113"/>
+      <c r="BN17" s="113"/>
+      <c r="BO17" s="113"/>
+      <c r="BP17" s="113"/>
+      <c r="BQ17" s="113"/>
+      <c r="BR17" s="113"/>
+      <c r="BS17" s="113"/>
+      <c r="BT17" s="113"/>
+      <c r="BU17" s="113"/>
+      <c r="BV17" s="113"/>
+      <c r="BW17" s="113"/>
+      <c r="BX17" s="113"/>
+      <c r="BY17" s="113"/>
+      <c r="BZ17" s="113"/>
+      <c r="CA17" s="113"/>
+      <c r="CB17" s="114"/>
     </row>
     <row r="18" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C18" s="94"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="95"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="95"/>
-      <c r="S18" s="95"/>
-      <c r="T18" s="95"/>
-      <c r="U18" s="95"/>
-      <c r="V18" s="95"/>
-      <c r="W18" s="95"/>
-      <c r="X18" s="95"/>
-      <c r="Y18" s="95"/>
-      <c r="Z18" s="95"/>
-      <c r="AA18" s="95"/>
-      <c r="AB18" s="95"/>
-      <c r="AC18" s="95"/>
-      <c r="AD18" s="95"/>
-      <c r="AE18" s="95"/>
-      <c r="AF18" s="95"/>
-      <c r="AG18" s="95"/>
-      <c r="AH18" s="95"/>
-      <c r="AI18" s="95"/>
-      <c r="AJ18" s="95"/>
-      <c r="AK18" s="95"/>
-      <c r="AL18" s="95"/>
-      <c r="AM18" s="95"/>
-      <c r="AN18" s="95"/>
-      <c r="AO18" s="95"/>
-      <c r="AP18" s="95"/>
-      <c r="AQ18" s="95"/>
-      <c r="AR18" s="95"/>
-      <c r="AS18" s="95"/>
-      <c r="AT18" s="95"/>
-      <c r="AU18" s="95"/>
-      <c r="AV18" s="95"/>
-      <c r="AW18" s="95"/>
-      <c r="AX18" s="95"/>
-      <c r="AY18" s="95"/>
-      <c r="AZ18" s="95"/>
-      <c r="BA18" s="95"/>
-      <c r="BB18" s="95"/>
-      <c r="BC18" s="95"/>
-      <c r="BD18" s="95"/>
-      <c r="BE18" s="95"/>
-      <c r="BF18" s="95"/>
-      <c r="BG18" s="95"/>
-      <c r="BH18" s="95"/>
-      <c r="BI18" s="95"/>
-      <c r="BJ18" s="95"/>
-      <c r="BK18" s="95"/>
-      <c r="BL18" s="95"/>
-      <c r="BM18" s="95"/>
-      <c r="BN18" s="95"/>
-      <c r="BO18" s="95"/>
-      <c r="BP18" s="95"/>
-      <c r="BQ18" s="95"/>
-      <c r="BR18" s="95"/>
-      <c r="BS18" s="95"/>
-      <c r="BT18" s="95"/>
-      <c r="BU18" s="95"/>
-      <c r="BV18" s="95"/>
-      <c r="BW18" s="95"/>
-      <c r="BX18" s="95"/>
-      <c r="BY18" s="95"/>
-      <c r="BZ18" s="95"/>
-      <c r="CA18" s="95"/>
-      <c r="CB18" s="96"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="113"/>
+      <c r="L18" s="113"/>
+      <c r="M18" s="113"/>
+      <c r="N18" s="113"/>
+      <c r="O18" s="113"/>
+      <c r="P18" s="113"/>
+      <c r="Q18" s="113"/>
+      <c r="R18" s="113"/>
+      <c r="S18" s="113"/>
+      <c r="T18" s="113"/>
+      <c r="U18" s="113"/>
+      <c r="V18" s="113"/>
+      <c r="W18" s="113"/>
+      <c r="X18" s="113"/>
+      <c r="Y18" s="113"/>
+      <c r="Z18" s="113"/>
+      <c r="AA18" s="113"/>
+      <c r="AB18" s="113"/>
+      <c r="AC18" s="113"/>
+      <c r="AD18" s="113"/>
+      <c r="AE18" s="113"/>
+      <c r="AF18" s="113"/>
+      <c r="AG18" s="113"/>
+      <c r="AH18" s="113"/>
+      <c r="AI18" s="113"/>
+      <c r="AJ18" s="113"/>
+      <c r="AK18" s="113"/>
+      <c r="AL18" s="113"/>
+      <c r="AM18" s="113"/>
+      <c r="AN18" s="113"/>
+      <c r="AO18" s="113"/>
+      <c r="AP18" s="113"/>
+      <c r="AQ18" s="113"/>
+      <c r="AR18" s="113"/>
+      <c r="AS18" s="113"/>
+      <c r="AT18" s="113"/>
+      <c r="AU18" s="113"/>
+      <c r="AV18" s="113"/>
+      <c r="AW18" s="113"/>
+      <c r="AX18" s="113"/>
+      <c r="AY18" s="113"/>
+      <c r="AZ18" s="113"/>
+      <c r="BA18" s="113"/>
+      <c r="BB18" s="113"/>
+      <c r="BC18" s="113"/>
+      <c r="BD18" s="113"/>
+      <c r="BE18" s="113"/>
+      <c r="BF18" s="113"/>
+      <c r="BG18" s="113"/>
+      <c r="BH18" s="113"/>
+      <c r="BI18" s="113"/>
+      <c r="BJ18" s="113"/>
+      <c r="BK18" s="113"/>
+      <c r="BL18" s="113"/>
+      <c r="BM18" s="113"/>
+      <c r="BN18" s="113"/>
+      <c r="BO18" s="113"/>
+      <c r="BP18" s="113"/>
+      <c r="BQ18" s="113"/>
+      <c r="BR18" s="113"/>
+      <c r="BS18" s="113"/>
+      <c r="BT18" s="113"/>
+      <c r="BU18" s="113"/>
+      <c r="BV18" s="113"/>
+      <c r="BW18" s="113"/>
+      <c r="BX18" s="113"/>
+      <c r="BY18" s="113"/>
+      <c r="BZ18" s="113"/>
+      <c r="CA18" s="113"/>
+      <c r="CB18" s="114"/>
     </row>
     <row r="19" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C19" s="94"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="95"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="95"/>
-      <c r="U19" s="95"/>
-      <c r="V19" s="95"/>
-      <c r="W19" s="95"/>
-      <c r="X19" s="95"/>
-      <c r="Y19" s="95"/>
-      <c r="Z19" s="95"/>
-      <c r="AA19" s="95"/>
-      <c r="AB19" s="95"/>
-      <c r="AC19" s="95"/>
-      <c r="AD19" s="95"/>
-      <c r="AE19" s="95"/>
-      <c r="AF19" s="95"/>
-      <c r="AG19" s="95"/>
-      <c r="AH19" s="95"/>
-      <c r="AI19" s="95"/>
-      <c r="AJ19" s="95"/>
-      <c r="AK19" s="95"/>
-      <c r="AL19" s="95"/>
-      <c r="AM19" s="95"/>
-      <c r="AN19" s="95"/>
-      <c r="AO19" s="95"/>
-      <c r="AP19" s="95"/>
-      <c r="AQ19" s="95"/>
-      <c r="AR19" s="95"/>
-      <c r="AS19" s="95"/>
-      <c r="AT19" s="95"/>
-      <c r="AU19" s="95"/>
-      <c r="AV19" s="95"/>
-      <c r="AW19" s="95"/>
-      <c r="AX19" s="95"/>
-      <c r="AY19" s="95"/>
-      <c r="AZ19" s="95"/>
-      <c r="BA19" s="95"/>
-      <c r="BB19" s="95"/>
-      <c r="BC19" s="95"/>
-      <c r="BD19" s="95"/>
-      <c r="BE19" s="95"/>
-      <c r="BF19" s="95"/>
-      <c r="BG19" s="95"/>
-      <c r="BH19" s="95"/>
-      <c r="BI19" s="95"/>
-      <c r="BJ19" s="95"/>
-      <c r="BK19" s="95"/>
-      <c r="BL19" s="95"/>
-      <c r="BM19" s="95"/>
-      <c r="BN19" s="95"/>
-      <c r="BO19" s="95"/>
-      <c r="BP19" s="95"/>
-      <c r="BQ19" s="95"/>
-      <c r="BR19" s="95"/>
-      <c r="BS19" s="95"/>
-      <c r="BT19" s="95"/>
-      <c r="BU19" s="95"/>
-      <c r="BV19" s="95"/>
-      <c r="BW19" s="95"/>
-      <c r="BX19" s="95"/>
-      <c r="BY19" s="95"/>
-      <c r="BZ19" s="95"/>
-      <c r="CA19" s="95"/>
-      <c r="CB19" s="96"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="113"/>
+      <c r="M19" s="113"/>
+      <c r="N19" s="113"/>
+      <c r="O19" s="113"/>
+      <c r="P19" s="113"/>
+      <c r="Q19" s="113"/>
+      <c r="R19" s="113"/>
+      <c r="S19" s="113"/>
+      <c r="T19" s="113"/>
+      <c r="U19" s="113"/>
+      <c r="V19" s="113"/>
+      <c r="W19" s="113"/>
+      <c r="X19" s="113"/>
+      <c r="Y19" s="113"/>
+      <c r="Z19" s="113"/>
+      <c r="AA19" s="113"/>
+      <c r="AB19" s="113"/>
+      <c r="AC19" s="113"/>
+      <c r="AD19" s="113"/>
+      <c r="AE19" s="113"/>
+      <c r="AF19" s="113"/>
+      <c r="AG19" s="113"/>
+      <c r="AH19" s="113"/>
+      <c r="AI19" s="113"/>
+      <c r="AJ19" s="113"/>
+      <c r="AK19" s="113"/>
+      <c r="AL19" s="113"/>
+      <c r="AM19" s="113"/>
+      <c r="AN19" s="113"/>
+      <c r="AO19" s="113"/>
+      <c r="AP19" s="113"/>
+      <c r="AQ19" s="113"/>
+      <c r="AR19" s="113"/>
+      <c r="AS19" s="113"/>
+      <c r="AT19" s="113"/>
+      <c r="AU19" s="113"/>
+      <c r="AV19" s="113"/>
+      <c r="AW19" s="113"/>
+      <c r="AX19" s="113"/>
+      <c r="AY19" s="113"/>
+      <c r="AZ19" s="113"/>
+      <c r="BA19" s="113"/>
+      <c r="BB19" s="113"/>
+      <c r="BC19" s="113"/>
+      <c r="BD19" s="113"/>
+      <c r="BE19" s="113"/>
+      <c r="BF19" s="113"/>
+      <c r="BG19" s="113"/>
+      <c r="BH19" s="113"/>
+      <c r="BI19" s="113"/>
+      <c r="BJ19" s="113"/>
+      <c r="BK19" s="113"/>
+      <c r="BL19" s="113"/>
+      <c r="BM19" s="113"/>
+      <c r="BN19" s="113"/>
+      <c r="BO19" s="113"/>
+      <c r="BP19" s="113"/>
+      <c r="BQ19" s="113"/>
+      <c r="BR19" s="113"/>
+      <c r="BS19" s="113"/>
+      <c r="BT19" s="113"/>
+      <c r="BU19" s="113"/>
+      <c r="BV19" s="113"/>
+      <c r="BW19" s="113"/>
+      <c r="BX19" s="113"/>
+      <c r="BY19" s="113"/>
+      <c r="BZ19" s="113"/>
+      <c r="CA19" s="113"/>
+      <c r="CB19" s="114"/>
     </row>
     <row r="20" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C20" s="94"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="95"/>
-      <c r="U20" s="95"/>
-      <c r="V20" s="95"/>
-      <c r="W20" s="95"/>
-      <c r="X20" s="95"/>
-      <c r="Y20" s="95"/>
-      <c r="Z20" s="95"/>
-      <c r="AA20" s="95"/>
-      <c r="AB20" s="95"/>
-      <c r="AC20" s="95"/>
-      <c r="AD20" s="95"/>
-      <c r="AE20" s="95"/>
-      <c r="AF20" s="95"/>
-      <c r="AG20" s="95"/>
-      <c r="AH20" s="95"/>
-      <c r="AI20" s="95"/>
-      <c r="AJ20" s="95"/>
-      <c r="AK20" s="95"/>
-      <c r="AL20" s="95"/>
-      <c r="AM20" s="95"/>
-      <c r="AN20" s="95"/>
-      <c r="AO20" s="95"/>
-      <c r="AP20" s="95"/>
-      <c r="AQ20" s="95"/>
-      <c r="AR20" s="95"/>
-      <c r="AS20" s="95"/>
-      <c r="AT20" s="95"/>
-      <c r="AU20" s="95"/>
-      <c r="AV20" s="95"/>
-      <c r="AW20" s="95"/>
-      <c r="AX20" s="95"/>
-      <c r="AY20" s="95"/>
-      <c r="AZ20" s="95"/>
-      <c r="BA20" s="95"/>
-      <c r="BB20" s="95"/>
-      <c r="BC20" s="95"/>
-      <c r="BD20" s="95"/>
-      <c r="BE20" s="95"/>
-      <c r="BF20" s="95"/>
-      <c r="BG20" s="95"/>
-      <c r="BH20" s="95"/>
-      <c r="BI20" s="95"/>
-      <c r="BJ20" s="95"/>
-      <c r="BK20" s="95"/>
-      <c r="BL20" s="95"/>
-      <c r="BM20" s="95"/>
-      <c r="BN20" s="95"/>
-      <c r="BO20" s="95"/>
-      <c r="BP20" s="95"/>
-      <c r="BQ20" s="95"/>
-      <c r="BR20" s="95"/>
-      <c r="BS20" s="95"/>
-      <c r="BT20" s="95"/>
-      <c r="BU20" s="95"/>
-      <c r="BV20" s="95"/>
-      <c r="BW20" s="95"/>
-      <c r="BX20" s="95"/>
-      <c r="BY20" s="95"/>
-      <c r="BZ20" s="95"/>
-      <c r="CA20" s="95"/>
-      <c r="CB20" s="96"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="113"/>
+      <c r="Q20" s="113"/>
+      <c r="R20" s="113"/>
+      <c r="S20" s="113"/>
+      <c r="T20" s="113"/>
+      <c r="U20" s="113"/>
+      <c r="V20" s="113"/>
+      <c r="W20" s="113"/>
+      <c r="X20" s="113"/>
+      <c r="Y20" s="113"/>
+      <c r="Z20" s="113"/>
+      <c r="AA20" s="113"/>
+      <c r="AB20" s="113"/>
+      <c r="AC20" s="113"/>
+      <c r="AD20" s="113"/>
+      <c r="AE20" s="113"/>
+      <c r="AF20" s="113"/>
+      <c r="AG20" s="113"/>
+      <c r="AH20" s="113"/>
+      <c r="AI20" s="113"/>
+      <c r="AJ20" s="113"/>
+      <c r="AK20" s="113"/>
+      <c r="AL20" s="113"/>
+      <c r="AM20" s="113"/>
+      <c r="AN20" s="113"/>
+      <c r="AO20" s="113"/>
+      <c r="AP20" s="113"/>
+      <c r="AQ20" s="113"/>
+      <c r="AR20" s="113"/>
+      <c r="AS20" s="113"/>
+      <c r="AT20" s="113"/>
+      <c r="AU20" s="113"/>
+      <c r="AV20" s="113"/>
+      <c r="AW20" s="113"/>
+      <c r="AX20" s="113"/>
+      <c r="AY20" s="113"/>
+      <c r="AZ20" s="113"/>
+      <c r="BA20" s="113"/>
+      <c r="BB20" s="113"/>
+      <c r="BC20" s="113"/>
+      <c r="BD20" s="113"/>
+      <c r="BE20" s="113"/>
+      <c r="BF20" s="113"/>
+      <c r="BG20" s="113"/>
+      <c r="BH20" s="113"/>
+      <c r="BI20" s="113"/>
+      <c r="BJ20" s="113"/>
+      <c r="BK20" s="113"/>
+      <c r="BL20" s="113"/>
+      <c r="BM20" s="113"/>
+      <c r="BN20" s="113"/>
+      <c r="BO20" s="113"/>
+      <c r="BP20" s="113"/>
+      <c r="BQ20" s="113"/>
+      <c r="BR20" s="113"/>
+      <c r="BS20" s="113"/>
+      <c r="BT20" s="113"/>
+      <c r="BU20" s="113"/>
+      <c r="BV20" s="113"/>
+      <c r="BW20" s="113"/>
+      <c r="BX20" s="113"/>
+      <c r="BY20" s="113"/>
+      <c r="BZ20" s="113"/>
+      <c r="CA20" s="113"/>
+      <c r="CB20" s="114"/>
     </row>
     <row r="21" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C21" s="94"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="95"/>
-      <c r="T21" s="95"/>
-      <c r="U21" s="95"/>
-      <c r="V21" s="95"/>
-      <c r="W21" s="95"/>
-      <c r="X21" s="95"/>
-      <c r="Y21" s="95"/>
-      <c r="Z21" s="95"/>
-      <c r="AA21" s="95"/>
-      <c r="AB21" s="95"/>
-      <c r="AC21" s="95"/>
-      <c r="AD21" s="95"/>
-      <c r="AE21" s="95"/>
-      <c r="AF21" s="95"/>
-      <c r="AG21" s="95"/>
-      <c r="AH21" s="95"/>
-      <c r="AI21" s="95"/>
-      <c r="AJ21" s="95"/>
-      <c r="AK21" s="95"/>
-      <c r="AL21" s="95"/>
-      <c r="AM21" s="95"/>
-      <c r="AN21" s="95"/>
-      <c r="AO21" s="95"/>
-      <c r="AP21" s="95"/>
-      <c r="AQ21" s="95"/>
-      <c r="AR21" s="95"/>
-      <c r="AS21" s="95"/>
-      <c r="AT21" s="95"/>
-      <c r="AU21" s="95"/>
-      <c r="AV21" s="95"/>
-      <c r="AW21" s="95"/>
-      <c r="AX21" s="95"/>
-      <c r="AY21" s="95"/>
-      <c r="AZ21" s="95"/>
-      <c r="BA21" s="95"/>
-      <c r="BB21" s="95"/>
-      <c r="BC21" s="95"/>
-      <c r="BD21" s="95"/>
-      <c r="BE21" s="95"/>
-      <c r="BF21" s="95"/>
-      <c r="BG21" s="95"/>
-      <c r="BH21" s="95"/>
-      <c r="BI21" s="95"/>
-      <c r="BJ21" s="95"/>
-      <c r="BK21" s="95"/>
-      <c r="BL21" s="95"/>
-      <c r="BM21" s="95"/>
-      <c r="BN21" s="95"/>
-      <c r="BO21" s="95"/>
-      <c r="BP21" s="95"/>
-      <c r="BQ21" s="95"/>
-      <c r="BR21" s="95"/>
-      <c r="BS21" s="95"/>
-      <c r="BT21" s="95"/>
-      <c r="BU21" s="95"/>
-      <c r="BV21" s="95"/>
-      <c r="BW21" s="95"/>
-      <c r="BX21" s="95"/>
-      <c r="BY21" s="95"/>
-      <c r="BZ21" s="95"/>
-      <c r="CA21" s="95"/>
-      <c r="CB21" s="96"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="113"/>
+      <c r="O21" s="113"/>
+      <c r="P21" s="113"/>
+      <c r="Q21" s="113"/>
+      <c r="R21" s="113"/>
+      <c r="S21" s="113"/>
+      <c r="T21" s="113"/>
+      <c r="U21" s="113"/>
+      <c r="V21" s="113"/>
+      <c r="W21" s="113"/>
+      <c r="X21" s="113"/>
+      <c r="Y21" s="113"/>
+      <c r="Z21" s="113"/>
+      <c r="AA21" s="113"/>
+      <c r="AB21" s="113"/>
+      <c r="AC21" s="113"/>
+      <c r="AD21" s="113"/>
+      <c r="AE21" s="113"/>
+      <c r="AF21" s="113"/>
+      <c r="AG21" s="113"/>
+      <c r="AH21" s="113"/>
+      <c r="AI21" s="113"/>
+      <c r="AJ21" s="113"/>
+      <c r="AK21" s="113"/>
+      <c r="AL21" s="113"/>
+      <c r="AM21" s="113"/>
+      <c r="AN21" s="113"/>
+      <c r="AO21" s="113"/>
+      <c r="AP21" s="113"/>
+      <c r="AQ21" s="113"/>
+      <c r="AR21" s="113"/>
+      <c r="AS21" s="113"/>
+      <c r="AT21" s="113"/>
+      <c r="AU21" s="113"/>
+      <c r="AV21" s="113"/>
+      <c r="AW21" s="113"/>
+      <c r="AX21" s="113"/>
+      <c r="AY21" s="113"/>
+      <c r="AZ21" s="113"/>
+      <c r="BA21" s="113"/>
+      <c r="BB21" s="113"/>
+      <c r="BC21" s="113"/>
+      <c r="BD21" s="113"/>
+      <c r="BE21" s="113"/>
+      <c r="BF21" s="113"/>
+      <c r="BG21" s="113"/>
+      <c r="BH21" s="113"/>
+      <c r="BI21" s="113"/>
+      <c r="BJ21" s="113"/>
+      <c r="BK21" s="113"/>
+      <c r="BL21" s="113"/>
+      <c r="BM21" s="113"/>
+      <c r="BN21" s="113"/>
+      <c r="BO21" s="113"/>
+      <c r="BP21" s="113"/>
+      <c r="BQ21" s="113"/>
+      <c r="BR21" s="113"/>
+      <c r="BS21" s="113"/>
+      <c r="BT21" s="113"/>
+      <c r="BU21" s="113"/>
+      <c r="BV21" s="113"/>
+      <c r="BW21" s="113"/>
+      <c r="BX21" s="113"/>
+      <c r="BY21" s="113"/>
+      <c r="BZ21" s="113"/>
+      <c r="CA21" s="113"/>
+      <c r="CB21" s="114"/>
     </row>
     <row r="22" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C22" s="94"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="95"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="95"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="95"/>
-      <c r="U22" s="95"/>
-      <c r="V22" s="95"/>
-      <c r="W22" s="95"/>
-      <c r="X22" s="95"/>
-      <c r="Y22" s="95"/>
-      <c r="Z22" s="95"/>
-      <c r="AA22" s="95"/>
-      <c r="AB22" s="95"/>
-      <c r="AC22" s="95"/>
-      <c r="AD22" s="95"/>
-      <c r="AE22" s="95"/>
-      <c r="AF22" s="95"/>
-      <c r="AG22" s="95"/>
-      <c r="AH22" s="95"/>
-      <c r="AI22" s="95"/>
-      <c r="AJ22" s="95"/>
-      <c r="AK22" s="95"/>
-      <c r="AL22" s="95"/>
-      <c r="AM22" s="95"/>
-      <c r="AN22" s="95"/>
-      <c r="AO22" s="95"/>
-      <c r="AP22" s="95"/>
-      <c r="AQ22" s="95"/>
-      <c r="AR22" s="95"/>
-      <c r="AS22" s="95"/>
-      <c r="AT22" s="95"/>
-      <c r="AU22" s="95"/>
-      <c r="AV22" s="95"/>
-      <c r="AW22" s="95"/>
-      <c r="AX22" s="95"/>
-      <c r="AY22" s="95"/>
-      <c r="AZ22" s="95"/>
-      <c r="BA22" s="95"/>
-      <c r="BB22" s="95"/>
-      <c r="BC22" s="95"/>
-      <c r="BD22" s="95"/>
-      <c r="BE22" s="95"/>
-      <c r="BF22" s="95"/>
-      <c r="BG22" s="95"/>
-      <c r="BH22" s="95"/>
-      <c r="BI22" s="95"/>
-      <c r="BJ22" s="95"/>
-      <c r="BK22" s="95"/>
-      <c r="BL22" s="95"/>
-      <c r="BM22" s="95"/>
-      <c r="BN22" s="95"/>
-      <c r="BO22" s="95"/>
-      <c r="BP22" s="95"/>
-      <c r="BQ22" s="95"/>
-      <c r="BR22" s="95"/>
-      <c r="BS22" s="95"/>
-      <c r="BT22" s="95"/>
-      <c r="BU22" s="95"/>
-      <c r="BV22" s="95"/>
-      <c r="BW22" s="95"/>
-      <c r="BX22" s="95"/>
-      <c r="BY22" s="95"/>
-      <c r="BZ22" s="95"/>
-      <c r="CA22" s="95"/>
-      <c r="CB22" s="96"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="113"/>
+      <c r="Q22" s="113"/>
+      <c r="R22" s="113"/>
+      <c r="S22" s="113"/>
+      <c r="T22" s="113"/>
+      <c r="U22" s="113"/>
+      <c r="V22" s="113"/>
+      <c r="W22" s="113"/>
+      <c r="X22" s="113"/>
+      <c r="Y22" s="113"/>
+      <c r="Z22" s="113"/>
+      <c r="AA22" s="113"/>
+      <c r="AB22" s="113"/>
+      <c r="AC22" s="113"/>
+      <c r="AD22" s="113"/>
+      <c r="AE22" s="113"/>
+      <c r="AF22" s="113"/>
+      <c r="AG22" s="113"/>
+      <c r="AH22" s="113"/>
+      <c r="AI22" s="113"/>
+      <c r="AJ22" s="113"/>
+      <c r="AK22" s="113"/>
+      <c r="AL22" s="113"/>
+      <c r="AM22" s="113"/>
+      <c r="AN22" s="113"/>
+      <c r="AO22" s="113"/>
+      <c r="AP22" s="113"/>
+      <c r="AQ22" s="113"/>
+      <c r="AR22" s="113"/>
+      <c r="AS22" s="113"/>
+      <c r="AT22" s="113"/>
+      <c r="AU22" s="113"/>
+      <c r="AV22" s="113"/>
+      <c r="AW22" s="113"/>
+      <c r="AX22" s="113"/>
+      <c r="AY22" s="113"/>
+      <c r="AZ22" s="113"/>
+      <c r="BA22" s="113"/>
+      <c r="BB22" s="113"/>
+      <c r="BC22" s="113"/>
+      <c r="BD22" s="113"/>
+      <c r="BE22" s="113"/>
+      <c r="BF22" s="113"/>
+      <c r="BG22" s="113"/>
+      <c r="BH22" s="113"/>
+      <c r="BI22" s="113"/>
+      <c r="BJ22" s="113"/>
+      <c r="BK22" s="113"/>
+      <c r="BL22" s="113"/>
+      <c r="BM22" s="113"/>
+      <c r="BN22" s="113"/>
+      <c r="BO22" s="113"/>
+      <c r="BP22" s="113"/>
+      <c r="BQ22" s="113"/>
+      <c r="BR22" s="113"/>
+      <c r="BS22" s="113"/>
+      <c r="BT22" s="113"/>
+      <c r="BU22" s="113"/>
+      <c r="BV22" s="113"/>
+      <c r="BW22" s="113"/>
+      <c r="BX22" s="113"/>
+      <c r="BY22" s="113"/>
+      <c r="BZ22" s="113"/>
+      <c r="CA22" s="113"/>
+      <c r="CB22" s="114"/>
     </row>
     <row r="23" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C23" s="94"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="95"/>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="95"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="95"/>
-      <c r="U23" s="95"/>
-      <c r="V23" s="95"/>
-      <c r="W23" s="95"/>
-      <c r="X23" s="95"/>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="95"/>
-      <c r="AA23" s="95"/>
-      <c r="AB23" s="95"/>
-      <c r="AC23" s="95"/>
-      <c r="AD23" s="95"/>
-      <c r="AE23" s="95"/>
-      <c r="AF23" s="95"/>
-      <c r="AG23" s="95"/>
-      <c r="AH23" s="95"/>
-      <c r="AI23" s="95"/>
-      <c r="AJ23" s="95"/>
-      <c r="AK23" s="95"/>
-      <c r="AL23" s="95"/>
-      <c r="AM23" s="95"/>
-      <c r="AN23" s="95"/>
-      <c r="AO23" s="95"/>
-      <c r="AP23" s="95"/>
-      <c r="AQ23" s="95"/>
-      <c r="AR23" s="95"/>
-      <c r="AS23" s="95"/>
-      <c r="AT23" s="95"/>
-      <c r="AU23" s="95"/>
-      <c r="AV23" s="95"/>
-      <c r="AW23" s="95"/>
-      <c r="AX23" s="95"/>
-      <c r="AY23" s="95"/>
-      <c r="AZ23" s="95"/>
-      <c r="BA23" s="95"/>
-      <c r="BB23" s="95"/>
-      <c r="BC23" s="95"/>
-      <c r="BD23" s="95"/>
-      <c r="BE23" s="95"/>
-      <c r="BF23" s="95"/>
-      <c r="BG23" s="95"/>
-      <c r="BH23" s="95"/>
-      <c r="BI23" s="95"/>
-      <c r="BJ23" s="95"/>
-      <c r="BK23" s="95"/>
-      <c r="BL23" s="95"/>
-      <c r="BM23" s="95"/>
-      <c r="BN23" s="95"/>
-      <c r="BO23" s="95"/>
-      <c r="BP23" s="95"/>
-      <c r="BQ23" s="95"/>
-      <c r="BR23" s="95"/>
-      <c r="BS23" s="95"/>
-      <c r="BT23" s="95"/>
-      <c r="BU23" s="95"/>
-      <c r="BV23" s="95"/>
-      <c r="BW23" s="95"/>
-      <c r="BX23" s="95"/>
-      <c r="BY23" s="95"/>
-      <c r="BZ23" s="95"/>
-      <c r="CA23" s="95"/>
-      <c r="CB23" s="96"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="113"/>
+      <c r="O23" s="113"/>
+      <c r="P23" s="113"/>
+      <c r="Q23" s="113"/>
+      <c r="R23" s="113"/>
+      <c r="S23" s="113"/>
+      <c r="T23" s="113"/>
+      <c r="U23" s="113"/>
+      <c r="V23" s="113"/>
+      <c r="W23" s="113"/>
+      <c r="X23" s="113"/>
+      <c r="Y23" s="113"/>
+      <c r="Z23" s="113"/>
+      <c r="AA23" s="113"/>
+      <c r="AB23" s="113"/>
+      <c r="AC23" s="113"/>
+      <c r="AD23" s="113"/>
+      <c r="AE23" s="113"/>
+      <c r="AF23" s="113"/>
+      <c r="AG23" s="113"/>
+      <c r="AH23" s="113"/>
+      <c r="AI23" s="113"/>
+      <c r="AJ23" s="113"/>
+      <c r="AK23" s="113"/>
+      <c r="AL23" s="113"/>
+      <c r="AM23" s="113"/>
+      <c r="AN23" s="113"/>
+      <c r="AO23" s="113"/>
+      <c r="AP23" s="113"/>
+      <c r="AQ23" s="113"/>
+      <c r="AR23" s="113"/>
+      <c r="AS23" s="113"/>
+      <c r="AT23" s="113"/>
+      <c r="AU23" s="113"/>
+      <c r="AV23" s="113"/>
+      <c r="AW23" s="113"/>
+      <c r="AX23" s="113"/>
+      <c r="AY23" s="113"/>
+      <c r="AZ23" s="113"/>
+      <c r="BA23" s="113"/>
+      <c r="BB23" s="113"/>
+      <c r="BC23" s="113"/>
+      <c r="BD23" s="113"/>
+      <c r="BE23" s="113"/>
+      <c r="BF23" s="113"/>
+      <c r="BG23" s="113"/>
+      <c r="BH23" s="113"/>
+      <c r="BI23" s="113"/>
+      <c r="BJ23" s="113"/>
+      <c r="BK23" s="113"/>
+      <c r="BL23" s="113"/>
+      <c r="BM23" s="113"/>
+      <c r="BN23" s="113"/>
+      <c r="BO23" s="113"/>
+      <c r="BP23" s="113"/>
+      <c r="BQ23" s="113"/>
+      <c r="BR23" s="113"/>
+      <c r="BS23" s="113"/>
+      <c r="BT23" s="113"/>
+      <c r="BU23" s="113"/>
+      <c r="BV23" s="113"/>
+      <c r="BW23" s="113"/>
+      <c r="BX23" s="113"/>
+      <c r="BY23" s="113"/>
+      <c r="BZ23" s="113"/>
+      <c r="CA23" s="113"/>
+      <c r="CB23" s="114"/>
     </row>
     <row r="24" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C24" s="97"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="98"/>
-      <c r="P24" s="98"/>
-      <c r="Q24" s="98"/>
-      <c r="R24" s="98"/>
-      <c r="S24" s="98"/>
-      <c r="T24" s="98"/>
-      <c r="U24" s="98"/>
-      <c r="V24" s="98"/>
-      <c r="W24" s="98"/>
-      <c r="X24" s="98"/>
-      <c r="Y24" s="98"/>
-      <c r="Z24" s="98"/>
-      <c r="AA24" s="98"/>
-      <c r="AB24" s="98"/>
-      <c r="AC24" s="98"/>
-      <c r="AD24" s="98"/>
-      <c r="AE24" s="98"/>
-      <c r="AF24" s="98"/>
-      <c r="AG24" s="98"/>
-      <c r="AH24" s="98"/>
-      <c r="AI24" s="98"/>
-      <c r="AJ24" s="98"/>
-      <c r="AK24" s="98"/>
-      <c r="AL24" s="98"/>
-      <c r="AM24" s="98"/>
-      <c r="AN24" s="98"/>
-      <c r="AO24" s="98"/>
-      <c r="AP24" s="98"/>
-      <c r="AQ24" s="98"/>
-      <c r="AR24" s="98"/>
-      <c r="AS24" s="98"/>
-      <c r="AT24" s="98"/>
-      <c r="AU24" s="98"/>
-      <c r="AV24" s="98"/>
-      <c r="AW24" s="98"/>
-      <c r="AX24" s="98"/>
-      <c r="AY24" s="98"/>
-      <c r="AZ24" s="98"/>
-      <c r="BA24" s="98"/>
-      <c r="BB24" s="98"/>
-      <c r="BC24" s="98"/>
-      <c r="BD24" s="98"/>
-      <c r="BE24" s="98"/>
-      <c r="BF24" s="98"/>
-      <c r="BG24" s="98"/>
-      <c r="BH24" s="98"/>
-      <c r="BI24" s="98"/>
-      <c r="BJ24" s="98"/>
-      <c r="BK24" s="98"/>
-      <c r="BL24" s="98"/>
-      <c r="BM24" s="98"/>
-      <c r="BN24" s="98"/>
-      <c r="BO24" s="98"/>
-      <c r="BP24" s="98"/>
-      <c r="BQ24" s="98"/>
-      <c r="BR24" s="98"/>
-      <c r="BS24" s="98"/>
-      <c r="BT24" s="98"/>
-      <c r="BU24" s="98"/>
-      <c r="BV24" s="98"/>
-      <c r="BW24" s="98"/>
-      <c r="BX24" s="98"/>
-      <c r="BY24" s="98"/>
-      <c r="BZ24" s="98"/>
-      <c r="CA24" s="98"/>
-      <c r="CB24" s="99"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="116"/>
+      <c r="K24" s="116"/>
+      <c r="L24" s="116"/>
+      <c r="M24" s="116"/>
+      <c r="N24" s="116"/>
+      <c r="O24" s="116"/>
+      <c r="P24" s="116"/>
+      <c r="Q24" s="116"/>
+      <c r="R24" s="116"/>
+      <c r="S24" s="116"/>
+      <c r="T24" s="116"/>
+      <c r="U24" s="116"/>
+      <c r="V24" s="116"/>
+      <c r="W24" s="116"/>
+      <c r="X24" s="116"/>
+      <c r="Y24" s="116"/>
+      <c r="Z24" s="116"/>
+      <c r="AA24" s="116"/>
+      <c r="AB24" s="116"/>
+      <c r="AC24" s="116"/>
+      <c r="AD24" s="116"/>
+      <c r="AE24" s="116"/>
+      <c r="AF24" s="116"/>
+      <c r="AG24" s="116"/>
+      <c r="AH24" s="116"/>
+      <c r="AI24" s="116"/>
+      <c r="AJ24" s="116"/>
+      <c r="AK24" s="116"/>
+      <c r="AL24" s="116"/>
+      <c r="AM24" s="116"/>
+      <c r="AN24" s="116"/>
+      <c r="AO24" s="116"/>
+      <c r="AP24" s="116"/>
+      <c r="AQ24" s="116"/>
+      <c r="AR24" s="116"/>
+      <c r="AS24" s="116"/>
+      <c r="AT24" s="116"/>
+      <c r="AU24" s="116"/>
+      <c r="AV24" s="116"/>
+      <c r="AW24" s="116"/>
+      <c r="AX24" s="116"/>
+      <c r="AY24" s="116"/>
+      <c r="AZ24" s="116"/>
+      <c r="BA24" s="116"/>
+      <c r="BB24" s="116"/>
+      <c r="BC24" s="116"/>
+      <c r="BD24" s="116"/>
+      <c r="BE24" s="116"/>
+      <c r="BF24" s="116"/>
+      <c r="BG24" s="116"/>
+      <c r="BH24" s="116"/>
+      <c r="BI24" s="116"/>
+      <c r="BJ24" s="116"/>
+      <c r="BK24" s="116"/>
+      <c r="BL24" s="116"/>
+      <c r="BM24" s="116"/>
+      <c r="BN24" s="116"/>
+      <c r="BO24" s="116"/>
+      <c r="BP24" s="116"/>
+      <c r="BQ24" s="116"/>
+      <c r="BR24" s="116"/>
+      <c r="BS24" s="116"/>
+      <c r="BT24" s="116"/>
+      <c r="BU24" s="116"/>
+      <c r="BV24" s="116"/>
+      <c r="BW24" s="116"/>
+      <c r="BX24" s="116"/>
+      <c r="BY24" s="116"/>
+      <c r="BZ24" s="116"/>
+      <c r="CA24" s="116"/>
+      <c r="CB24" s="117"/>
     </row>
     <row r="25" spans="3:80" ht="9.75" customHeight="1" thickBot="1"/>
     <row r="26" spans="3:80" ht="9.75" customHeight="1">
@@ -15034,1501 +15044,1501 @@
       <c r="CB27" s="90"/>
     </row>
     <row r="28" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C28" s="91"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="92"/>
-      <c r="Q28" s="92"/>
-      <c r="R28" s="92"/>
-      <c r="S28" s="92"/>
-      <c r="T28" s="92"/>
-      <c r="U28" s="92"/>
-      <c r="V28" s="92"/>
-      <c r="W28" s="92"/>
-      <c r="X28" s="92"/>
-      <c r="Y28" s="92"/>
-      <c r="Z28" s="92"/>
-      <c r="AA28" s="92"/>
-      <c r="AB28" s="92"/>
-      <c r="AC28" s="92"/>
-      <c r="AD28" s="92"/>
-      <c r="AE28" s="92"/>
-      <c r="AF28" s="92"/>
-      <c r="AG28" s="92"/>
-      <c r="AH28" s="92"/>
-      <c r="AI28" s="92"/>
-      <c r="AJ28" s="92"/>
-      <c r="AK28" s="92"/>
-      <c r="AL28" s="92"/>
-      <c r="AM28" s="92"/>
-      <c r="AN28" s="93"/>
-      <c r="AQ28" s="91"/>
-      <c r="AR28" s="92"/>
-      <c r="AS28" s="92"/>
-      <c r="AT28" s="92"/>
-      <c r="AU28" s="92"/>
-      <c r="AV28" s="92"/>
-      <c r="AW28" s="92"/>
-      <c r="AX28" s="92"/>
-      <c r="AY28" s="92"/>
-      <c r="AZ28" s="92"/>
-      <c r="BA28" s="92"/>
-      <c r="BB28" s="92"/>
-      <c r="BC28" s="92"/>
-      <c r="BD28" s="92"/>
-      <c r="BE28" s="92"/>
-      <c r="BF28" s="92"/>
-      <c r="BG28" s="92"/>
-      <c r="BH28" s="92"/>
-      <c r="BI28" s="92"/>
-      <c r="BJ28" s="92"/>
-      <c r="BK28" s="92"/>
-      <c r="BL28" s="92"/>
-      <c r="BM28" s="92"/>
-      <c r="BN28" s="92"/>
-      <c r="BO28" s="92"/>
-      <c r="BP28" s="92"/>
-      <c r="BQ28" s="92"/>
-      <c r="BR28" s="92"/>
-      <c r="BS28" s="92"/>
-      <c r="BT28" s="92"/>
-      <c r="BU28" s="92"/>
-      <c r="BV28" s="92"/>
-      <c r="BW28" s="92"/>
-      <c r="BX28" s="92"/>
-      <c r="BY28" s="92"/>
-      <c r="BZ28" s="92"/>
-      <c r="CA28" s="92"/>
-      <c r="CB28" s="93"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="110"/>
+      <c r="N28" s="110"/>
+      <c r="O28" s="110"/>
+      <c r="P28" s="110"/>
+      <c r="Q28" s="110"/>
+      <c r="R28" s="110"/>
+      <c r="S28" s="110"/>
+      <c r="T28" s="110"/>
+      <c r="U28" s="110"/>
+      <c r="V28" s="110"/>
+      <c r="W28" s="110"/>
+      <c r="X28" s="110"/>
+      <c r="Y28" s="110"/>
+      <c r="Z28" s="110"/>
+      <c r="AA28" s="110"/>
+      <c r="AB28" s="110"/>
+      <c r="AC28" s="110"/>
+      <c r="AD28" s="110"/>
+      <c r="AE28" s="110"/>
+      <c r="AF28" s="110"/>
+      <c r="AG28" s="110"/>
+      <c r="AH28" s="110"/>
+      <c r="AI28" s="110"/>
+      <c r="AJ28" s="110"/>
+      <c r="AK28" s="110"/>
+      <c r="AL28" s="110"/>
+      <c r="AM28" s="110"/>
+      <c r="AN28" s="111"/>
+      <c r="AQ28" s="109"/>
+      <c r="AR28" s="110"/>
+      <c r="AS28" s="110"/>
+      <c r="AT28" s="110"/>
+      <c r="AU28" s="110"/>
+      <c r="AV28" s="110"/>
+      <c r="AW28" s="110"/>
+      <c r="AX28" s="110"/>
+      <c r="AY28" s="110"/>
+      <c r="AZ28" s="110"/>
+      <c r="BA28" s="110"/>
+      <c r="BB28" s="110"/>
+      <c r="BC28" s="110"/>
+      <c r="BD28" s="110"/>
+      <c r="BE28" s="110"/>
+      <c r="BF28" s="110"/>
+      <c r="BG28" s="110"/>
+      <c r="BH28" s="110"/>
+      <c r="BI28" s="110"/>
+      <c r="BJ28" s="110"/>
+      <c r="BK28" s="110"/>
+      <c r="BL28" s="110"/>
+      <c r="BM28" s="110"/>
+      <c r="BN28" s="110"/>
+      <c r="BO28" s="110"/>
+      <c r="BP28" s="110"/>
+      <c r="BQ28" s="110"/>
+      <c r="BR28" s="110"/>
+      <c r="BS28" s="110"/>
+      <c r="BT28" s="110"/>
+      <c r="BU28" s="110"/>
+      <c r="BV28" s="110"/>
+      <c r="BW28" s="110"/>
+      <c r="BX28" s="110"/>
+      <c r="BY28" s="110"/>
+      <c r="BZ28" s="110"/>
+      <c r="CA28" s="110"/>
+      <c r="CB28" s="111"/>
     </row>
     <row r="29" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C29" s="94"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="95"/>
-      <c r="U29" s="95"/>
-      <c r="V29" s="95"/>
-      <c r="W29" s="95"/>
-      <c r="X29" s="95"/>
-      <c r="Y29" s="95"/>
-      <c r="Z29" s="95"/>
-      <c r="AA29" s="95"/>
-      <c r="AB29" s="95"/>
-      <c r="AC29" s="95"/>
-      <c r="AD29" s="95"/>
-      <c r="AE29" s="95"/>
-      <c r="AF29" s="95"/>
-      <c r="AG29" s="95"/>
-      <c r="AH29" s="95"/>
-      <c r="AI29" s="95"/>
-      <c r="AJ29" s="95"/>
-      <c r="AK29" s="95"/>
-      <c r="AL29" s="95"/>
-      <c r="AM29" s="95"/>
-      <c r="AN29" s="96"/>
-      <c r="AQ29" s="94"/>
-      <c r="AR29" s="95"/>
-      <c r="AS29" s="95"/>
-      <c r="AT29" s="95"/>
-      <c r="AU29" s="95"/>
-      <c r="AV29" s="95"/>
-      <c r="AW29" s="95"/>
-      <c r="AX29" s="95"/>
-      <c r="AY29" s="95"/>
-      <c r="AZ29" s="95"/>
-      <c r="BA29" s="95"/>
-      <c r="BB29" s="95"/>
-      <c r="BC29" s="95"/>
-      <c r="BD29" s="95"/>
-      <c r="BE29" s="95"/>
-      <c r="BF29" s="95"/>
-      <c r="BG29" s="95"/>
-      <c r="BH29" s="95"/>
-      <c r="BI29" s="95"/>
-      <c r="BJ29" s="95"/>
-      <c r="BK29" s="95"/>
-      <c r="BL29" s="95"/>
-      <c r="BM29" s="95"/>
-      <c r="BN29" s="95"/>
-      <c r="BO29" s="95"/>
-      <c r="BP29" s="95"/>
-      <c r="BQ29" s="95"/>
-      <c r="BR29" s="95"/>
-      <c r="BS29" s="95"/>
-      <c r="BT29" s="95"/>
-      <c r="BU29" s="95"/>
-      <c r="BV29" s="95"/>
-      <c r="BW29" s="95"/>
-      <c r="BX29" s="95"/>
-      <c r="BY29" s="95"/>
-      <c r="BZ29" s="95"/>
-      <c r="CA29" s="95"/>
-      <c r="CB29" s="96"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="113"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="113"/>
+      <c r="L29" s="113"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="113"/>
+      <c r="P29" s="113"/>
+      <c r="Q29" s="113"/>
+      <c r="R29" s="113"/>
+      <c r="S29" s="113"/>
+      <c r="T29" s="113"/>
+      <c r="U29" s="113"/>
+      <c r="V29" s="113"/>
+      <c r="W29" s="113"/>
+      <c r="X29" s="113"/>
+      <c r="Y29" s="113"/>
+      <c r="Z29" s="113"/>
+      <c r="AA29" s="113"/>
+      <c r="AB29" s="113"/>
+      <c r="AC29" s="113"/>
+      <c r="AD29" s="113"/>
+      <c r="AE29" s="113"/>
+      <c r="AF29" s="113"/>
+      <c r="AG29" s="113"/>
+      <c r="AH29" s="113"/>
+      <c r="AI29" s="113"/>
+      <c r="AJ29" s="113"/>
+      <c r="AK29" s="113"/>
+      <c r="AL29" s="113"/>
+      <c r="AM29" s="113"/>
+      <c r="AN29" s="114"/>
+      <c r="AQ29" s="112"/>
+      <c r="AR29" s="113"/>
+      <c r="AS29" s="113"/>
+      <c r="AT29" s="113"/>
+      <c r="AU29" s="113"/>
+      <c r="AV29" s="113"/>
+      <c r="AW29" s="113"/>
+      <c r="AX29" s="113"/>
+      <c r="AY29" s="113"/>
+      <c r="AZ29" s="113"/>
+      <c r="BA29" s="113"/>
+      <c r="BB29" s="113"/>
+      <c r="BC29" s="113"/>
+      <c r="BD29" s="113"/>
+      <c r="BE29" s="113"/>
+      <c r="BF29" s="113"/>
+      <c r="BG29" s="113"/>
+      <c r="BH29" s="113"/>
+      <c r="BI29" s="113"/>
+      <c r="BJ29" s="113"/>
+      <c r="BK29" s="113"/>
+      <c r="BL29" s="113"/>
+      <c r="BM29" s="113"/>
+      <c r="BN29" s="113"/>
+      <c r="BO29" s="113"/>
+      <c r="BP29" s="113"/>
+      <c r="BQ29" s="113"/>
+      <c r="BR29" s="113"/>
+      <c r="BS29" s="113"/>
+      <c r="BT29" s="113"/>
+      <c r="BU29" s="113"/>
+      <c r="BV29" s="113"/>
+      <c r="BW29" s="113"/>
+      <c r="BX29" s="113"/>
+      <c r="BY29" s="113"/>
+      <c r="BZ29" s="113"/>
+      <c r="CA29" s="113"/>
+      <c r="CB29" s="114"/>
     </row>
     <row r="30" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C30" s="94"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="95"/>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="95"/>
-      <c r="S30" s="95"/>
-      <c r="T30" s="95"/>
-      <c r="U30" s="95"/>
-      <c r="V30" s="95"/>
-      <c r="W30" s="95"/>
-      <c r="X30" s="95"/>
-      <c r="Y30" s="95"/>
-      <c r="Z30" s="95"/>
-      <c r="AA30" s="95"/>
-      <c r="AB30" s="95"/>
-      <c r="AC30" s="95"/>
-      <c r="AD30" s="95"/>
-      <c r="AE30" s="95"/>
-      <c r="AF30" s="95"/>
-      <c r="AG30" s="95"/>
-      <c r="AH30" s="95"/>
-      <c r="AI30" s="95"/>
-      <c r="AJ30" s="95"/>
-      <c r="AK30" s="95"/>
-      <c r="AL30" s="95"/>
-      <c r="AM30" s="95"/>
-      <c r="AN30" s="96"/>
-      <c r="AQ30" s="94"/>
-      <c r="AR30" s="95"/>
-      <c r="AS30" s="95"/>
-      <c r="AT30" s="95"/>
-      <c r="AU30" s="95"/>
-      <c r="AV30" s="95"/>
-      <c r="AW30" s="95"/>
-      <c r="AX30" s="95"/>
-      <c r="AY30" s="95"/>
-      <c r="AZ30" s="95"/>
-      <c r="BA30" s="95"/>
-      <c r="BB30" s="95"/>
-      <c r="BC30" s="95"/>
-      <c r="BD30" s="95"/>
-      <c r="BE30" s="95"/>
-      <c r="BF30" s="95"/>
-      <c r="BG30" s="95"/>
-      <c r="BH30" s="95"/>
-      <c r="BI30" s="95"/>
-      <c r="BJ30" s="95"/>
-      <c r="BK30" s="95"/>
-      <c r="BL30" s="95"/>
-      <c r="BM30" s="95"/>
-      <c r="BN30" s="95"/>
-      <c r="BO30" s="95"/>
-      <c r="BP30" s="95"/>
-      <c r="BQ30" s="95"/>
-      <c r="BR30" s="95"/>
-      <c r="BS30" s="95"/>
-      <c r="BT30" s="95"/>
-      <c r="BU30" s="95"/>
-      <c r="BV30" s="95"/>
-      <c r="BW30" s="95"/>
-      <c r="BX30" s="95"/>
-      <c r="BY30" s="95"/>
-      <c r="BZ30" s="95"/>
-      <c r="CA30" s="95"/>
-      <c r="CB30" s="96"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="113"/>
+      <c r="L30" s="113"/>
+      <c r="M30" s="113"/>
+      <c r="N30" s="113"/>
+      <c r="O30" s="113"/>
+      <c r="P30" s="113"/>
+      <c r="Q30" s="113"/>
+      <c r="R30" s="113"/>
+      <c r="S30" s="113"/>
+      <c r="T30" s="113"/>
+      <c r="U30" s="113"/>
+      <c r="V30" s="113"/>
+      <c r="W30" s="113"/>
+      <c r="X30" s="113"/>
+      <c r="Y30" s="113"/>
+      <c r="Z30" s="113"/>
+      <c r="AA30" s="113"/>
+      <c r="AB30" s="113"/>
+      <c r="AC30" s="113"/>
+      <c r="AD30" s="113"/>
+      <c r="AE30" s="113"/>
+      <c r="AF30" s="113"/>
+      <c r="AG30" s="113"/>
+      <c r="AH30" s="113"/>
+      <c r="AI30" s="113"/>
+      <c r="AJ30" s="113"/>
+      <c r="AK30" s="113"/>
+      <c r="AL30" s="113"/>
+      <c r="AM30" s="113"/>
+      <c r="AN30" s="114"/>
+      <c r="AQ30" s="112"/>
+      <c r="AR30" s="113"/>
+      <c r="AS30" s="113"/>
+      <c r="AT30" s="113"/>
+      <c r="AU30" s="113"/>
+      <c r="AV30" s="113"/>
+      <c r="AW30" s="113"/>
+      <c r="AX30" s="113"/>
+      <c r="AY30" s="113"/>
+      <c r="AZ30" s="113"/>
+      <c r="BA30" s="113"/>
+      <c r="BB30" s="113"/>
+      <c r="BC30" s="113"/>
+      <c r="BD30" s="113"/>
+      <c r="BE30" s="113"/>
+      <c r="BF30" s="113"/>
+      <c r="BG30" s="113"/>
+      <c r="BH30" s="113"/>
+      <c r="BI30" s="113"/>
+      <c r="BJ30" s="113"/>
+      <c r="BK30" s="113"/>
+      <c r="BL30" s="113"/>
+      <c r="BM30" s="113"/>
+      <c r="BN30" s="113"/>
+      <c r="BO30" s="113"/>
+      <c r="BP30" s="113"/>
+      <c r="BQ30" s="113"/>
+      <c r="BR30" s="113"/>
+      <c r="BS30" s="113"/>
+      <c r="BT30" s="113"/>
+      <c r="BU30" s="113"/>
+      <c r="BV30" s="113"/>
+      <c r="BW30" s="113"/>
+      <c r="BX30" s="113"/>
+      <c r="BY30" s="113"/>
+      <c r="BZ30" s="113"/>
+      <c r="CA30" s="113"/>
+      <c r="CB30" s="114"/>
     </row>
     <row r="31" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C31" s="94"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="95"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="95"/>
-      <c r="U31" s="95"/>
-      <c r="V31" s="95"/>
-      <c r="W31" s="95"/>
-      <c r="X31" s="95"/>
-      <c r="Y31" s="95"/>
-      <c r="Z31" s="95"/>
-      <c r="AA31" s="95"/>
-      <c r="AB31" s="95"/>
-      <c r="AC31" s="95"/>
-      <c r="AD31" s="95"/>
-      <c r="AE31" s="95"/>
-      <c r="AF31" s="95"/>
-      <c r="AG31" s="95"/>
-      <c r="AH31" s="95"/>
-      <c r="AI31" s="95"/>
-      <c r="AJ31" s="95"/>
-      <c r="AK31" s="95"/>
-      <c r="AL31" s="95"/>
-      <c r="AM31" s="95"/>
-      <c r="AN31" s="96"/>
-      <c r="AQ31" s="94"/>
-      <c r="AR31" s="95"/>
-      <c r="AS31" s="95"/>
-      <c r="AT31" s="95"/>
-      <c r="AU31" s="95"/>
-      <c r="AV31" s="95"/>
-      <c r="AW31" s="95"/>
-      <c r="AX31" s="95"/>
-      <c r="AY31" s="95"/>
-      <c r="AZ31" s="95"/>
-      <c r="BA31" s="95"/>
-      <c r="BB31" s="95"/>
-      <c r="BC31" s="95"/>
-      <c r="BD31" s="95"/>
-      <c r="BE31" s="95"/>
-      <c r="BF31" s="95"/>
-      <c r="BG31" s="95"/>
-      <c r="BH31" s="95"/>
-      <c r="BI31" s="95"/>
-      <c r="BJ31" s="95"/>
-      <c r="BK31" s="95"/>
-      <c r="BL31" s="95"/>
-      <c r="BM31" s="95"/>
-      <c r="BN31" s="95"/>
-      <c r="BO31" s="95"/>
-      <c r="BP31" s="95"/>
-      <c r="BQ31" s="95"/>
-      <c r="BR31" s="95"/>
-      <c r="BS31" s="95"/>
-      <c r="BT31" s="95"/>
-      <c r="BU31" s="95"/>
-      <c r="BV31" s="95"/>
-      <c r="BW31" s="95"/>
-      <c r="BX31" s="95"/>
-      <c r="BY31" s="95"/>
-      <c r="BZ31" s="95"/>
-      <c r="CA31" s="95"/>
-      <c r="CB31" s="96"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="113"/>
+      <c r="L31" s="113"/>
+      <c r="M31" s="113"/>
+      <c r="N31" s="113"/>
+      <c r="O31" s="113"/>
+      <c r="P31" s="113"/>
+      <c r="Q31" s="113"/>
+      <c r="R31" s="113"/>
+      <c r="S31" s="113"/>
+      <c r="T31" s="113"/>
+      <c r="U31" s="113"/>
+      <c r="V31" s="113"/>
+      <c r="W31" s="113"/>
+      <c r="X31" s="113"/>
+      <c r="Y31" s="113"/>
+      <c r="Z31" s="113"/>
+      <c r="AA31" s="113"/>
+      <c r="AB31" s="113"/>
+      <c r="AC31" s="113"/>
+      <c r="AD31" s="113"/>
+      <c r="AE31" s="113"/>
+      <c r="AF31" s="113"/>
+      <c r="AG31" s="113"/>
+      <c r="AH31" s="113"/>
+      <c r="AI31" s="113"/>
+      <c r="AJ31" s="113"/>
+      <c r="AK31" s="113"/>
+      <c r="AL31" s="113"/>
+      <c r="AM31" s="113"/>
+      <c r="AN31" s="114"/>
+      <c r="AQ31" s="112"/>
+      <c r="AR31" s="113"/>
+      <c r="AS31" s="113"/>
+      <c r="AT31" s="113"/>
+      <c r="AU31" s="113"/>
+      <c r="AV31" s="113"/>
+      <c r="AW31" s="113"/>
+      <c r="AX31" s="113"/>
+      <c r="AY31" s="113"/>
+      <c r="AZ31" s="113"/>
+      <c r="BA31" s="113"/>
+      <c r="BB31" s="113"/>
+      <c r="BC31" s="113"/>
+      <c r="BD31" s="113"/>
+      <c r="BE31" s="113"/>
+      <c r="BF31" s="113"/>
+      <c r="BG31" s="113"/>
+      <c r="BH31" s="113"/>
+      <c r="BI31" s="113"/>
+      <c r="BJ31" s="113"/>
+      <c r="BK31" s="113"/>
+      <c r="BL31" s="113"/>
+      <c r="BM31" s="113"/>
+      <c r="BN31" s="113"/>
+      <c r="BO31" s="113"/>
+      <c r="BP31" s="113"/>
+      <c r="BQ31" s="113"/>
+      <c r="BR31" s="113"/>
+      <c r="BS31" s="113"/>
+      <c r="BT31" s="113"/>
+      <c r="BU31" s="113"/>
+      <c r="BV31" s="113"/>
+      <c r="BW31" s="113"/>
+      <c r="BX31" s="113"/>
+      <c r="BY31" s="113"/>
+      <c r="BZ31" s="113"/>
+      <c r="CA31" s="113"/>
+      <c r="CB31" s="114"/>
     </row>
     <row r="32" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C32" s="94"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="95"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="95"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="95"/>
-      <c r="S32" s="95"/>
-      <c r="T32" s="95"/>
-      <c r="U32" s="95"/>
-      <c r="V32" s="95"/>
-      <c r="W32" s="95"/>
-      <c r="X32" s="95"/>
-      <c r="Y32" s="95"/>
-      <c r="Z32" s="95"/>
-      <c r="AA32" s="95"/>
-      <c r="AB32" s="95"/>
-      <c r="AC32" s="95"/>
-      <c r="AD32" s="95"/>
-      <c r="AE32" s="95"/>
-      <c r="AF32" s="95"/>
-      <c r="AG32" s="95"/>
-      <c r="AH32" s="95"/>
-      <c r="AI32" s="95"/>
-      <c r="AJ32" s="95"/>
-      <c r="AK32" s="95"/>
-      <c r="AL32" s="95"/>
-      <c r="AM32" s="95"/>
-      <c r="AN32" s="96"/>
-      <c r="AQ32" s="94"/>
-      <c r="AR32" s="95"/>
-      <c r="AS32" s="95"/>
-      <c r="AT32" s="95"/>
-      <c r="AU32" s="95"/>
-      <c r="AV32" s="95"/>
-      <c r="AW32" s="95"/>
-      <c r="AX32" s="95"/>
-      <c r="AY32" s="95"/>
-      <c r="AZ32" s="95"/>
-      <c r="BA32" s="95"/>
-      <c r="BB32" s="95"/>
-      <c r="BC32" s="95"/>
-      <c r="BD32" s="95"/>
-      <c r="BE32" s="95"/>
-      <c r="BF32" s="95"/>
-      <c r="BG32" s="95"/>
-      <c r="BH32" s="95"/>
-      <c r="BI32" s="95"/>
-      <c r="BJ32" s="95"/>
-      <c r="BK32" s="95"/>
-      <c r="BL32" s="95"/>
-      <c r="BM32" s="95"/>
-      <c r="BN32" s="95"/>
-      <c r="BO32" s="95"/>
-      <c r="BP32" s="95"/>
-      <c r="BQ32" s="95"/>
-      <c r="BR32" s="95"/>
-      <c r="BS32" s="95"/>
-      <c r="BT32" s="95"/>
-      <c r="BU32" s="95"/>
-      <c r="BV32" s="95"/>
-      <c r="BW32" s="95"/>
-      <c r="BX32" s="95"/>
-      <c r="BY32" s="95"/>
-      <c r="BZ32" s="95"/>
-      <c r="CA32" s="95"/>
-      <c r="CB32" s="96"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="113"/>
+      <c r="M32" s="113"/>
+      <c r="N32" s="113"/>
+      <c r="O32" s="113"/>
+      <c r="P32" s="113"/>
+      <c r="Q32" s="113"/>
+      <c r="R32" s="113"/>
+      <c r="S32" s="113"/>
+      <c r="T32" s="113"/>
+      <c r="U32" s="113"/>
+      <c r="V32" s="113"/>
+      <c r="W32" s="113"/>
+      <c r="X32" s="113"/>
+      <c r="Y32" s="113"/>
+      <c r="Z32" s="113"/>
+      <c r="AA32" s="113"/>
+      <c r="AB32" s="113"/>
+      <c r="AC32" s="113"/>
+      <c r="AD32" s="113"/>
+      <c r="AE32" s="113"/>
+      <c r="AF32" s="113"/>
+      <c r="AG32" s="113"/>
+      <c r="AH32" s="113"/>
+      <c r="AI32" s="113"/>
+      <c r="AJ32" s="113"/>
+      <c r="AK32" s="113"/>
+      <c r="AL32" s="113"/>
+      <c r="AM32" s="113"/>
+      <c r="AN32" s="114"/>
+      <c r="AQ32" s="112"/>
+      <c r="AR32" s="113"/>
+      <c r="AS32" s="113"/>
+      <c r="AT32" s="113"/>
+      <c r="AU32" s="113"/>
+      <c r="AV32" s="113"/>
+      <c r="AW32" s="113"/>
+      <c r="AX32" s="113"/>
+      <c r="AY32" s="113"/>
+      <c r="AZ32" s="113"/>
+      <c r="BA32" s="113"/>
+      <c r="BB32" s="113"/>
+      <c r="BC32" s="113"/>
+      <c r="BD32" s="113"/>
+      <c r="BE32" s="113"/>
+      <c r="BF32" s="113"/>
+      <c r="BG32" s="113"/>
+      <c r="BH32" s="113"/>
+      <c r="BI32" s="113"/>
+      <c r="BJ32" s="113"/>
+      <c r="BK32" s="113"/>
+      <c r="BL32" s="113"/>
+      <c r="BM32" s="113"/>
+      <c r="BN32" s="113"/>
+      <c r="BO32" s="113"/>
+      <c r="BP32" s="113"/>
+      <c r="BQ32" s="113"/>
+      <c r="BR32" s="113"/>
+      <c r="BS32" s="113"/>
+      <c r="BT32" s="113"/>
+      <c r="BU32" s="113"/>
+      <c r="BV32" s="113"/>
+      <c r="BW32" s="113"/>
+      <c r="BX32" s="113"/>
+      <c r="BY32" s="113"/>
+      <c r="BZ32" s="113"/>
+      <c r="CA32" s="113"/>
+      <c r="CB32" s="114"/>
     </row>
     <row r="33" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C33" s="94"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="95"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="95"/>
-      <c r="K33" s="95"/>
-      <c r="L33" s="95"/>
-      <c r="M33" s="95"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="95"/>
-      <c r="Q33" s="95"/>
-      <c r="R33" s="95"/>
-      <c r="S33" s="95"/>
-      <c r="T33" s="95"/>
-      <c r="U33" s="95"/>
-      <c r="V33" s="95"/>
-      <c r="W33" s="95"/>
-      <c r="X33" s="95"/>
-      <c r="Y33" s="95"/>
-      <c r="Z33" s="95"/>
-      <c r="AA33" s="95"/>
-      <c r="AB33" s="95"/>
-      <c r="AC33" s="95"/>
-      <c r="AD33" s="95"/>
-      <c r="AE33" s="95"/>
-      <c r="AF33" s="95"/>
-      <c r="AG33" s="95"/>
-      <c r="AH33" s="95"/>
-      <c r="AI33" s="95"/>
-      <c r="AJ33" s="95"/>
-      <c r="AK33" s="95"/>
-      <c r="AL33" s="95"/>
-      <c r="AM33" s="95"/>
-      <c r="AN33" s="96"/>
-      <c r="AQ33" s="94"/>
-      <c r="AR33" s="95"/>
-      <c r="AS33" s="95"/>
-      <c r="AT33" s="95"/>
-      <c r="AU33" s="95"/>
-      <c r="AV33" s="95"/>
-      <c r="AW33" s="95"/>
-      <c r="AX33" s="95"/>
-      <c r="AY33" s="95"/>
-      <c r="AZ33" s="95"/>
-      <c r="BA33" s="95"/>
-      <c r="BB33" s="95"/>
-      <c r="BC33" s="95"/>
-      <c r="BD33" s="95"/>
-      <c r="BE33" s="95"/>
-      <c r="BF33" s="95"/>
-      <c r="BG33" s="95"/>
-      <c r="BH33" s="95"/>
-      <c r="BI33" s="95"/>
-      <c r="BJ33" s="95"/>
-      <c r="BK33" s="95"/>
-      <c r="BL33" s="95"/>
-      <c r="BM33" s="95"/>
-      <c r="BN33" s="95"/>
-      <c r="BO33" s="95"/>
-      <c r="BP33" s="95"/>
-      <c r="BQ33" s="95"/>
-      <c r="BR33" s="95"/>
-      <c r="BS33" s="95"/>
-      <c r="BT33" s="95"/>
-      <c r="BU33" s="95"/>
-      <c r="BV33" s="95"/>
-      <c r="BW33" s="95"/>
-      <c r="BX33" s="95"/>
-      <c r="BY33" s="95"/>
-      <c r="BZ33" s="95"/>
-      <c r="CA33" s="95"/>
-      <c r="CB33" s="96"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="113"/>
+      <c r="L33" s="113"/>
+      <c r="M33" s="113"/>
+      <c r="N33" s="113"/>
+      <c r="O33" s="113"/>
+      <c r="P33" s="113"/>
+      <c r="Q33" s="113"/>
+      <c r="R33" s="113"/>
+      <c r="S33" s="113"/>
+      <c r="T33" s="113"/>
+      <c r="U33" s="113"/>
+      <c r="V33" s="113"/>
+      <c r="W33" s="113"/>
+      <c r="X33" s="113"/>
+      <c r="Y33" s="113"/>
+      <c r="Z33" s="113"/>
+      <c r="AA33" s="113"/>
+      <c r="AB33" s="113"/>
+      <c r="AC33" s="113"/>
+      <c r="AD33" s="113"/>
+      <c r="AE33" s="113"/>
+      <c r="AF33" s="113"/>
+      <c r="AG33" s="113"/>
+      <c r="AH33" s="113"/>
+      <c r="AI33" s="113"/>
+      <c r="AJ33" s="113"/>
+      <c r="AK33" s="113"/>
+      <c r="AL33" s="113"/>
+      <c r="AM33" s="113"/>
+      <c r="AN33" s="114"/>
+      <c r="AQ33" s="112"/>
+      <c r="AR33" s="113"/>
+      <c r="AS33" s="113"/>
+      <c r="AT33" s="113"/>
+      <c r="AU33" s="113"/>
+      <c r="AV33" s="113"/>
+      <c r="AW33" s="113"/>
+      <c r="AX33" s="113"/>
+      <c r="AY33" s="113"/>
+      <c r="AZ33" s="113"/>
+      <c r="BA33" s="113"/>
+      <c r="BB33" s="113"/>
+      <c r="BC33" s="113"/>
+      <c r="BD33" s="113"/>
+      <c r="BE33" s="113"/>
+      <c r="BF33" s="113"/>
+      <c r="BG33" s="113"/>
+      <c r="BH33" s="113"/>
+      <c r="BI33" s="113"/>
+      <c r="BJ33" s="113"/>
+      <c r="BK33" s="113"/>
+      <c r="BL33" s="113"/>
+      <c r="BM33" s="113"/>
+      <c r="BN33" s="113"/>
+      <c r="BO33" s="113"/>
+      <c r="BP33" s="113"/>
+      <c r="BQ33" s="113"/>
+      <c r="BR33" s="113"/>
+      <c r="BS33" s="113"/>
+      <c r="BT33" s="113"/>
+      <c r="BU33" s="113"/>
+      <c r="BV33" s="113"/>
+      <c r="BW33" s="113"/>
+      <c r="BX33" s="113"/>
+      <c r="BY33" s="113"/>
+      <c r="BZ33" s="113"/>
+      <c r="CA33" s="113"/>
+      <c r="CB33" s="114"/>
     </row>
     <row r="34" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C34" s="94"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="95"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="95"/>
-      <c r="O34" s="95"/>
-      <c r="P34" s="95"/>
-      <c r="Q34" s="95"/>
-      <c r="R34" s="95"/>
-      <c r="S34" s="95"/>
-      <c r="T34" s="95"/>
-      <c r="U34" s="95"/>
-      <c r="V34" s="95"/>
-      <c r="W34" s="95"/>
-      <c r="X34" s="95"/>
-      <c r="Y34" s="95"/>
-      <c r="Z34" s="95"/>
-      <c r="AA34" s="95"/>
-      <c r="AB34" s="95"/>
-      <c r="AC34" s="95"/>
-      <c r="AD34" s="95"/>
-      <c r="AE34" s="95"/>
-      <c r="AF34" s="95"/>
-      <c r="AG34" s="95"/>
-      <c r="AH34" s="95"/>
-      <c r="AI34" s="95"/>
-      <c r="AJ34" s="95"/>
-      <c r="AK34" s="95"/>
-      <c r="AL34" s="95"/>
-      <c r="AM34" s="95"/>
-      <c r="AN34" s="96"/>
-      <c r="AQ34" s="94"/>
-      <c r="AR34" s="95"/>
-      <c r="AS34" s="95"/>
-      <c r="AT34" s="95"/>
-      <c r="AU34" s="95"/>
-      <c r="AV34" s="95"/>
-      <c r="AW34" s="95"/>
-      <c r="AX34" s="95"/>
-      <c r="AY34" s="95"/>
-      <c r="AZ34" s="95"/>
-      <c r="BA34" s="95"/>
-      <c r="BB34" s="95"/>
-      <c r="BC34" s="95"/>
-      <c r="BD34" s="95"/>
-      <c r="BE34" s="95"/>
-      <c r="BF34" s="95"/>
-      <c r="BG34" s="95"/>
-      <c r="BH34" s="95"/>
-      <c r="BI34" s="95"/>
-      <c r="BJ34" s="95"/>
-      <c r="BK34" s="95"/>
-      <c r="BL34" s="95"/>
-      <c r="BM34" s="95"/>
-      <c r="BN34" s="95"/>
-      <c r="BO34" s="95"/>
-      <c r="BP34" s="95"/>
-      <c r="BQ34" s="95"/>
-      <c r="BR34" s="95"/>
-      <c r="BS34" s="95"/>
-      <c r="BT34" s="95"/>
-      <c r="BU34" s="95"/>
-      <c r="BV34" s="95"/>
-      <c r="BW34" s="95"/>
-      <c r="BX34" s="95"/>
-      <c r="BY34" s="95"/>
-      <c r="BZ34" s="95"/>
-      <c r="CA34" s="95"/>
-      <c r="CB34" s="96"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="113"/>
+      <c r="L34" s="113"/>
+      <c r="M34" s="113"/>
+      <c r="N34" s="113"/>
+      <c r="O34" s="113"/>
+      <c r="P34" s="113"/>
+      <c r="Q34" s="113"/>
+      <c r="R34" s="113"/>
+      <c r="S34" s="113"/>
+      <c r="T34" s="113"/>
+      <c r="U34" s="113"/>
+      <c r="V34" s="113"/>
+      <c r="W34" s="113"/>
+      <c r="X34" s="113"/>
+      <c r="Y34" s="113"/>
+      <c r="Z34" s="113"/>
+      <c r="AA34" s="113"/>
+      <c r="AB34" s="113"/>
+      <c r="AC34" s="113"/>
+      <c r="AD34" s="113"/>
+      <c r="AE34" s="113"/>
+      <c r="AF34" s="113"/>
+      <c r="AG34" s="113"/>
+      <c r="AH34" s="113"/>
+      <c r="AI34" s="113"/>
+      <c r="AJ34" s="113"/>
+      <c r="AK34" s="113"/>
+      <c r="AL34" s="113"/>
+      <c r="AM34" s="113"/>
+      <c r="AN34" s="114"/>
+      <c r="AQ34" s="112"/>
+      <c r="AR34" s="113"/>
+      <c r="AS34" s="113"/>
+      <c r="AT34" s="113"/>
+      <c r="AU34" s="113"/>
+      <c r="AV34" s="113"/>
+      <c r="AW34" s="113"/>
+      <c r="AX34" s="113"/>
+      <c r="AY34" s="113"/>
+      <c r="AZ34" s="113"/>
+      <c r="BA34" s="113"/>
+      <c r="BB34" s="113"/>
+      <c r="BC34" s="113"/>
+      <c r="BD34" s="113"/>
+      <c r="BE34" s="113"/>
+      <c r="BF34" s="113"/>
+      <c r="BG34" s="113"/>
+      <c r="BH34" s="113"/>
+      <c r="BI34" s="113"/>
+      <c r="BJ34" s="113"/>
+      <c r="BK34" s="113"/>
+      <c r="BL34" s="113"/>
+      <c r="BM34" s="113"/>
+      <c r="BN34" s="113"/>
+      <c r="BO34" s="113"/>
+      <c r="BP34" s="113"/>
+      <c r="BQ34" s="113"/>
+      <c r="BR34" s="113"/>
+      <c r="BS34" s="113"/>
+      <c r="BT34" s="113"/>
+      <c r="BU34" s="113"/>
+      <c r="BV34" s="113"/>
+      <c r="BW34" s="113"/>
+      <c r="BX34" s="113"/>
+      <c r="BY34" s="113"/>
+      <c r="BZ34" s="113"/>
+      <c r="CA34" s="113"/>
+      <c r="CB34" s="114"/>
     </row>
     <row r="35" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C35" s="94"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="95"/>
-      <c r="N35" s="95"/>
-      <c r="O35" s="95"/>
-      <c r="P35" s="95"/>
-      <c r="Q35" s="95"/>
-      <c r="R35" s="95"/>
-      <c r="S35" s="95"/>
-      <c r="T35" s="95"/>
-      <c r="U35" s="95"/>
-      <c r="V35" s="95"/>
-      <c r="W35" s="95"/>
-      <c r="X35" s="95"/>
-      <c r="Y35" s="95"/>
-      <c r="Z35" s="95"/>
-      <c r="AA35" s="95"/>
-      <c r="AB35" s="95"/>
-      <c r="AC35" s="95"/>
-      <c r="AD35" s="95"/>
-      <c r="AE35" s="95"/>
-      <c r="AF35" s="95"/>
-      <c r="AG35" s="95"/>
-      <c r="AH35" s="95"/>
-      <c r="AI35" s="95"/>
-      <c r="AJ35" s="95"/>
-      <c r="AK35" s="95"/>
-      <c r="AL35" s="95"/>
-      <c r="AM35" s="95"/>
-      <c r="AN35" s="96"/>
-      <c r="AQ35" s="94"/>
-      <c r="AR35" s="95"/>
-      <c r="AS35" s="95"/>
-      <c r="AT35" s="95"/>
-      <c r="AU35" s="95"/>
-      <c r="AV35" s="95"/>
-      <c r="AW35" s="95"/>
-      <c r="AX35" s="95"/>
-      <c r="AY35" s="95"/>
-      <c r="AZ35" s="95"/>
-      <c r="BA35" s="95"/>
-      <c r="BB35" s="95"/>
-      <c r="BC35" s="95"/>
-      <c r="BD35" s="95"/>
-      <c r="BE35" s="95"/>
-      <c r="BF35" s="95"/>
-      <c r="BG35" s="95"/>
-      <c r="BH35" s="95"/>
-      <c r="BI35" s="95"/>
-      <c r="BJ35" s="95"/>
-      <c r="BK35" s="95"/>
-      <c r="BL35" s="95"/>
-      <c r="BM35" s="95"/>
-      <c r="BN35" s="95"/>
-      <c r="BO35" s="95"/>
-      <c r="BP35" s="95"/>
-      <c r="BQ35" s="95"/>
-      <c r="BR35" s="95"/>
-      <c r="BS35" s="95"/>
-      <c r="BT35" s="95"/>
-      <c r="BU35" s="95"/>
-      <c r="BV35" s="95"/>
-      <c r="BW35" s="95"/>
-      <c r="BX35" s="95"/>
-      <c r="BY35" s="95"/>
-      <c r="BZ35" s="95"/>
-      <c r="CA35" s="95"/>
-      <c r="CB35" s="96"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="113"/>
+      <c r="L35" s="113"/>
+      <c r="M35" s="113"/>
+      <c r="N35" s="113"/>
+      <c r="O35" s="113"/>
+      <c r="P35" s="113"/>
+      <c r="Q35" s="113"/>
+      <c r="R35" s="113"/>
+      <c r="S35" s="113"/>
+      <c r="T35" s="113"/>
+      <c r="U35" s="113"/>
+      <c r="V35" s="113"/>
+      <c r="W35" s="113"/>
+      <c r="X35" s="113"/>
+      <c r="Y35" s="113"/>
+      <c r="Z35" s="113"/>
+      <c r="AA35" s="113"/>
+      <c r="AB35" s="113"/>
+      <c r="AC35" s="113"/>
+      <c r="AD35" s="113"/>
+      <c r="AE35" s="113"/>
+      <c r="AF35" s="113"/>
+      <c r="AG35" s="113"/>
+      <c r="AH35" s="113"/>
+      <c r="AI35" s="113"/>
+      <c r="AJ35" s="113"/>
+      <c r="AK35" s="113"/>
+      <c r="AL35" s="113"/>
+      <c r="AM35" s="113"/>
+      <c r="AN35" s="114"/>
+      <c r="AQ35" s="112"/>
+      <c r="AR35" s="113"/>
+      <c r="AS35" s="113"/>
+      <c r="AT35" s="113"/>
+      <c r="AU35" s="113"/>
+      <c r="AV35" s="113"/>
+      <c r="AW35" s="113"/>
+      <c r="AX35" s="113"/>
+      <c r="AY35" s="113"/>
+      <c r="AZ35" s="113"/>
+      <c r="BA35" s="113"/>
+      <c r="BB35" s="113"/>
+      <c r="BC35" s="113"/>
+      <c r="BD35" s="113"/>
+      <c r="BE35" s="113"/>
+      <c r="BF35" s="113"/>
+      <c r="BG35" s="113"/>
+      <c r="BH35" s="113"/>
+      <c r="BI35" s="113"/>
+      <c r="BJ35" s="113"/>
+      <c r="BK35" s="113"/>
+      <c r="BL35" s="113"/>
+      <c r="BM35" s="113"/>
+      <c r="BN35" s="113"/>
+      <c r="BO35" s="113"/>
+      <c r="BP35" s="113"/>
+      <c r="BQ35" s="113"/>
+      <c r="BR35" s="113"/>
+      <c r="BS35" s="113"/>
+      <c r="BT35" s="113"/>
+      <c r="BU35" s="113"/>
+      <c r="BV35" s="113"/>
+      <c r="BW35" s="113"/>
+      <c r="BX35" s="113"/>
+      <c r="BY35" s="113"/>
+      <c r="BZ35" s="113"/>
+      <c r="CA35" s="113"/>
+      <c r="CB35" s="114"/>
     </row>
     <row r="36" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C36" s="94"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="95"/>
-      <c r="H36" s="95"/>
-      <c r="I36" s="95"/>
-      <c r="J36" s="95"/>
-      <c r="K36" s="95"/>
-      <c r="L36" s="95"/>
-      <c r="M36" s="95"/>
-      <c r="N36" s="95"/>
-      <c r="O36" s="95"/>
-      <c r="P36" s="95"/>
-      <c r="Q36" s="95"/>
-      <c r="R36" s="95"/>
-      <c r="S36" s="95"/>
-      <c r="T36" s="95"/>
-      <c r="U36" s="95"/>
-      <c r="V36" s="95"/>
-      <c r="W36" s="95"/>
-      <c r="X36" s="95"/>
-      <c r="Y36" s="95"/>
-      <c r="Z36" s="95"/>
-      <c r="AA36" s="95"/>
-      <c r="AB36" s="95"/>
-      <c r="AC36" s="95"/>
-      <c r="AD36" s="95"/>
-      <c r="AE36" s="95"/>
-      <c r="AF36" s="95"/>
-      <c r="AG36" s="95"/>
-      <c r="AH36" s="95"/>
-      <c r="AI36" s="95"/>
-      <c r="AJ36" s="95"/>
-      <c r="AK36" s="95"/>
-      <c r="AL36" s="95"/>
-      <c r="AM36" s="95"/>
-      <c r="AN36" s="96"/>
-      <c r="AQ36" s="94"/>
-      <c r="AR36" s="95"/>
-      <c r="AS36" s="95"/>
-      <c r="AT36" s="95"/>
-      <c r="AU36" s="95"/>
-      <c r="AV36" s="95"/>
-      <c r="AW36" s="95"/>
-      <c r="AX36" s="95"/>
-      <c r="AY36" s="95"/>
-      <c r="AZ36" s="95"/>
-      <c r="BA36" s="95"/>
-      <c r="BB36" s="95"/>
-      <c r="BC36" s="95"/>
-      <c r="BD36" s="95"/>
-      <c r="BE36" s="95"/>
-      <c r="BF36" s="95"/>
-      <c r="BG36" s="95"/>
-      <c r="BH36" s="95"/>
-      <c r="BI36" s="95"/>
-      <c r="BJ36" s="95"/>
-      <c r="BK36" s="95"/>
-      <c r="BL36" s="95"/>
-      <c r="BM36" s="95"/>
-      <c r="BN36" s="95"/>
-      <c r="BO36" s="95"/>
-      <c r="BP36" s="95"/>
-      <c r="BQ36" s="95"/>
-      <c r="BR36" s="95"/>
-      <c r="BS36" s="95"/>
-      <c r="BT36" s="95"/>
-      <c r="BU36" s="95"/>
-      <c r="BV36" s="95"/>
-      <c r="BW36" s="95"/>
-      <c r="BX36" s="95"/>
-      <c r="BY36" s="95"/>
-      <c r="BZ36" s="95"/>
-      <c r="CA36" s="95"/>
-      <c r="CB36" s="96"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="113"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="113"/>
+      <c r="L36" s="113"/>
+      <c r="M36" s="113"/>
+      <c r="N36" s="113"/>
+      <c r="O36" s="113"/>
+      <c r="P36" s="113"/>
+      <c r="Q36" s="113"/>
+      <c r="R36" s="113"/>
+      <c r="S36" s="113"/>
+      <c r="T36" s="113"/>
+      <c r="U36" s="113"/>
+      <c r="V36" s="113"/>
+      <c r="W36" s="113"/>
+      <c r="X36" s="113"/>
+      <c r="Y36" s="113"/>
+      <c r="Z36" s="113"/>
+      <c r="AA36" s="113"/>
+      <c r="AB36" s="113"/>
+      <c r="AC36" s="113"/>
+      <c r="AD36" s="113"/>
+      <c r="AE36" s="113"/>
+      <c r="AF36" s="113"/>
+      <c r="AG36" s="113"/>
+      <c r="AH36" s="113"/>
+      <c r="AI36" s="113"/>
+      <c r="AJ36" s="113"/>
+      <c r="AK36" s="113"/>
+      <c r="AL36" s="113"/>
+      <c r="AM36" s="113"/>
+      <c r="AN36" s="114"/>
+      <c r="AQ36" s="112"/>
+      <c r="AR36" s="113"/>
+      <c r="AS36" s="113"/>
+      <c r="AT36" s="113"/>
+      <c r="AU36" s="113"/>
+      <c r="AV36" s="113"/>
+      <c r="AW36" s="113"/>
+      <c r="AX36" s="113"/>
+      <c r="AY36" s="113"/>
+      <c r="AZ36" s="113"/>
+      <c r="BA36" s="113"/>
+      <c r="BB36" s="113"/>
+      <c r="BC36" s="113"/>
+      <c r="BD36" s="113"/>
+      <c r="BE36" s="113"/>
+      <c r="BF36" s="113"/>
+      <c r="BG36" s="113"/>
+      <c r="BH36" s="113"/>
+      <c r="BI36" s="113"/>
+      <c r="BJ36" s="113"/>
+      <c r="BK36" s="113"/>
+      <c r="BL36" s="113"/>
+      <c r="BM36" s="113"/>
+      <c r="BN36" s="113"/>
+      <c r="BO36" s="113"/>
+      <c r="BP36" s="113"/>
+      <c r="BQ36" s="113"/>
+      <c r="BR36" s="113"/>
+      <c r="BS36" s="113"/>
+      <c r="BT36" s="113"/>
+      <c r="BU36" s="113"/>
+      <c r="BV36" s="113"/>
+      <c r="BW36" s="113"/>
+      <c r="BX36" s="113"/>
+      <c r="BY36" s="113"/>
+      <c r="BZ36" s="113"/>
+      <c r="CA36" s="113"/>
+      <c r="CB36" s="114"/>
     </row>
     <row r="37" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C37" s="94"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="95"/>
-      <c r="L37" s="95"/>
-      <c r="M37" s="95"/>
-      <c r="N37" s="95"/>
-      <c r="O37" s="95"/>
-      <c r="P37" s="95"/>
-      <c r="Q37" s="95"/>
-      <c r="R37" s="95"/>
-      <c r="S37" s="95"/>
-      <c r="T37" s="95"/>
-      <c r="U37" s="95"/>
-      <c r="V37" s="95"/>
-      <c r="W37" s="95"/>
-      <c r="X37" s="95"/>
-      <c r="Y37" s="95"/>
-      <c r="Z37" s="95"/>
-      <c r="AA37" s="95"/>
-      <c r="AB37" s="95"/>
-      <c r="AC37" s="95"/>
-      <c r="AD37" s="95"/>
-      <c r="AE37" s="95"/>
-      <c r="AF37" s="95"/>
-      <c r="AG37" s="95"/>
-      <c r="AH37" s="95"/>
-      <c r="AI37" s="95"/>
-      <c r="AJ37" s="95"/>
-      <c r="AK37" s="95"/>
-      <c r="AL37" s="95"/>
-      <c r="AM37" s="95"/>
-      <c r="AN37" s="96"/>
-      <c r="AQ37" s="94"/>
-      <c r="AR37" s="95"/>
-      <c r="AS37" s="95"/>
-      <c r="AT37" s="95"/>
-      <c r="AU37" s="95"/>
-      <c r="AV37" s="95"/>
-      <c r="AW37" s="95"/>
-      <c r="AX37" s="95"/>
-      <c r="AY37" s="95"/>
-      <c r="AZ37" s="95"/>
-      <c r="BA37" s="95"/>
-      <c r="BB37" s="95"/>
-      <c r="BC37" s="95"/>
-      <c r="BD37" s="95"/>
-      <c r="BE37" s="95"/>
-      <c r="BF37" s="95"/>
-      <c r="BG37" s="95"/>
-      <c r="BH37" s="95"/>
-      <c r="BI37" s="95"/>
-      <c r="BJ37" s="95"/>
-      <c r="BK37" s="95"/>
-      <c r="BL37" s="95"/>
-      <c r="BM37" s="95"/>
-      <c r="BN37" s="95"/>
-      <c r="BO37" s="95"/>
-      <c r="BP37" s="95"/>
-      <c r="BQ37" s="95"/>
-      <c r="BR37" s="95"/>
-      <c r="BS37" s="95"/>
-      <c r="BT37" s="95"/>
-      <c r="BU37" s="95"/>
-      <c r="BV37" s="95"/>
-      <c r="BW37" s="95"/>
-      <c r="BX37" s="95"/>
-      <c r="BY37" s="95"/>
-      <c r="BZ37" s="95"/>
-      <c r="CA37" s="95"/>
-      <c r="CB37" s="96"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="113"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="113"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="113"/>
+      <c r="K37" s="113"/>
+      <c r="L37" s="113"/>
+      <c r="M37" s="113"/>
+      <c r="N37" s="113"/>
+      <c r="O37" s="113"/>
+      <c r="P37" s="113"/>
+      <c r="Q37" s="113"/>
+      <c r="R37" s="113"/>
+      <c r="S37" s="113"/>
+      <c r="T37" s="113"/>
+      <c r="U37" s="113"/>
+      <c r="V37" s="113"/>
+      <c r="W37" s="113"/>
+      <c r="X37" s="113"/>
+      <c r="Y37" s="113"/>
+      <c r="Z37" s="113"/>
+      <c r="AA37" s="113"/>
+      <c r="AB37" s="113"/>
+      <c r="AC37" s="113"/>
+      <c r="AD37" s="113"/>
+      <c r="AE37" s="113"/>
+      <c r="AF37" s="113"/>
+      <c r="AG37" s="113"/>
+      <c r="AH37" s="113"/>
+      <c r="AI37" s="113"/>
+      <c r="AJ37" s="113"/>
+      <c r="AK37" s="113"/>
+      <c r="AL37" s="113"/>
+      <c r="AM37" s="113"/>
+      <c r="AN37" s="114"/>
+      <c r="AQ37" s="112"/>
+      <c r="AR37" s="113"/>
+      <c r="AS37" s="113"/>
+      <c r="AT37" s="113"/>
+      <c r="AU37" s="113"/>
+      <c r="AV37" s="113"/>
+      <c r="AW37" s="113"/>
+      <c r="AX37" s="113"/>
+      <c r="AY37" s="113"/>
+      <c r="AZ37" s="113"/>
+      <c r="BA37" s="113"/>
+      <c r="BB37" s="113"/>
+      <c r="BC37" s="113"/>
+      <c r="BD37" s="113"/>
+      <c r="BE37" s="113"/>
+      <c r="BF37" s="113"/>
+      <c r="BG37" s="113"/>
+      <c r="BH37" s="113"/>
+      <c r="BI37" s="113"/>
+      <c r="BJ37" s="113"/>
+      <c r="BK37" s="113"/>
+      <c r="BL37" s="113"/>
+      <c r="BM37" s="113"/>
+      <c r="BN37" s="113"/>
+      <c r="BO37" s="113"/>
+      <c r="BP37" s="113"/>
+      <c r="BQ37" s="113"/>
+      <c r="BR37" s="113"/>
+      <c r="BS37" s="113"/>
+      <c r="BT37" s="113"/>
+      <c r="BU37" s="113"/>
+      <c r="BV37" s="113"/>
+      <c r="BW37" s="113"/>
+      <c r="BX37" s="113"/>
+      <c r="BY37" s="113"/>
+      <c r="BZ37" s="113"/>
+      <c r="CA37" s="113"/>
+      <c r="CB37" s="114"/>
     </row>
     <row r="38" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C38" s="94"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="95"/>
-      <c r="G38" s="95"/>
-      <c r="H38" s="95"/>
-      <c r="I38" s="95"/>
-      <c r="J38" s="95"/>
-      <c r="K38" s="95"/>
-      <c r="L38" s="95"/>
-      <c r="M38" s="95"/>
-      <c r="N38" s="95"/>
-      <c r="O38" s="95"/>
-      <c r="P38" s="95"/>
-      <c r="Q38" s="95"/>
-      <c r="R38" s="95"/>
-      <c r="S38" s="95"/>
-      <c r="T38" s="95"/>
-      <c r="U38" s="95"/>
-      <c r="V38" s="95"/>
-      <c r="W38" s="95"/>
-      <c r="X38" s="95"/>
-      <c r="Y38" s="95"/>
-      <c r="Z38" s="95"/>
-      <c r="AA38" s="95"/>
-      <c r="AB38" s="95"/>
-      <c r="AC38" s="95"/>
-      <c r="AD38" s="95"/>
-      <c r="AE38" s="95"/>
-      <c r="AF38" s="95"/>
-      <c r="AG38" s="95"/>
-      <c r="AH38" s="95"/>
-      <c r="AI38" s="95"/>
-      <c r="AJ38" s="95"/>
-      <c r="AK38" s="95"/>
-      <c r="AL38" s="95"/>
-      <c r="AM38" s="95"/>
-      <c r="AN38" s="96"/>
-      <c r="AQ38" s="94"/>
-      <c r="AR38" s="95"/>
-      <c r="AS38" s="95"/>
-      <c r="AT38" s="95"/>
-      <c r="AU38" s="95"/>
-      <c r="AV38" s="95"/>
-      <c r="AW38" s="95"/>
-      <c r="AX38" s="95"/>
-      <c r="AY38" s="95"/>
-      <c r="AZ38" s="95"/>
-      <c r="BA38" s="95"/>
-      <c r="BB38" s="95"/>
-      <c r="BC38" s="95"/>
-      <c r="BD38" s="95"/>
-      <c r="BE38" s="95"/>
-      <c r="BF38" s="95"/>
-      <c r="BG38" s="95"/>
-      <c r="BH38" s="95"/>
-      <c r="BI38" s="95"/>
-      <c r="BJ38" s="95"/>
-      <c r="BK38" s="95"/>
-      <c r="BL38" s="95"/>
-      <c r="BM38" s="95"/>
-      <c r="BN38" s="95"/>
-      <c r="BO38" s="95"/>
-      <c r="BP38" s="95"/>
-      <c r="BQ38" s="95"/>
-      <c r="BR38" s="95"/>
-      <c r="BS38" s="95"/>
-      <c r="BT38" s="95"/>
-      <c r="BU38" s="95"/>
-      <c r="BV38" s="95"/>
-      <c r="BW38" s="95"/>
-      <c r="BX38" s="95"/>
-      <c r="BY38" s="95"/>
-      <c r="BZ38" s="95"/>
-      <c r="CA38" s="95"/>
-      <c r="CB38" s="96"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="113"/>
+      <c r="K38" s="113"/>
+      <c r="L38" s="113"/>
+      <c r="M38" s="113"/>
+      <c r="N38" s="113"/>
+      <c r="O38" s="113"/>
+      <c r="P38" s="113"/>
+      <c r="Q38" s="113"/>
+      <c r="R38" s="113"/>
+      <c r="S38" s="113"/>
+      <c r="T38" s="113"/>
+      <c r="U38" s="113"/>
+      <c r="V38" s="113"/>
+      <c r="W38" s="113"/>
+      <c r="X38" s="113"/>
+      <c r="Y38" s="113"/>
+      <c r="Z38" s="113"/>
+      <c r="AA38" s="113"/>
+      <c r="AB38" s="113"/>
+      <c r="AC38" s="113"/>
+      <c r="AD38" s="113"/>
+      <c r="AE38" s="113"/>
+      <c r="AF38" s="113"/>
+      <c r="AG38" s="113"/>
+      <c r="AH38" s="113"/>
+      <c r="AI38" s="113"/>
+      <c r="AJ38" s="113"/>
+      <c r="AK38" s="113"/>
+      <c r="AL38" s="113"/>
+      <c r="AM38" s="113"/>
+      <c r="AN38" s="114"/>
+      <c r="AQ38" s="112"/>
+      <c r="AR38" s="113"/>
+      <c r="AS38" s="113"/>
+      <c r="AT38" s="113"/>
+      <c r="AU38" s="113"/>
+      <c r="AV38" s="113"/>
+      <c r="AW38" s="113"/>
+      <c r="AX38" s="113"/>
+      <c r="AY38" s="113"/>
+      <c r="AZ38" s="113"/>
+      <c r="BA38" s="113"/>
+      <c r="BB38" s="113"/>
+      <c r="BC38" s="113"/>
+      <c r="BD38" s="113"/>
+      <c r="BE38" s="113"/>
+      <c r="BF38" s="113"/>
+      <c r="BG38" s="113"/>
+      <c r="BH38" s="113"/>
+      <c r="BI38" s="113"/>
+      <c r="BJ38" s="113"/>
+      <c r="BK38" s="113"/>
+      <c r="BL38" s="113"/>
+      <c r="BM38" s="113"/>
+      <c r="BN38" s="113"/>
+      <c r="BO38" s="113"/>
+      <c r="BP38" s="113"/>
+      <c r="BQ38" s="113"/>
+      <c r="BR38" s="113"/>
+      <c r="BS38" s="113"/>
+      <c r="BT38" s="113"/>
+      <c r="BU38" s="113"/>
+      <c r="BV38" s="113"/>
+      <c r="BW38" s="113"/>
+      <c r="BX38" s="113"/>
+      <c r="BY38" s="113"/>
+      <c r="BZ38" s="113"/>
+      <c r="CA38" s="113"/>
+      <c r="CB38" s="114"/>
     </row>
     <row r="39" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C39" s="94"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="95"/>
-      <c r="I39" s="95"/>
-      <c r="J39" s="95"/>
-      <c r="K39" s="95"/>
-      <c r="L39" s="95"/>
-      <c r="M39" s="95"/>
-      <c r="N39" s="95"/>
-      <c r="O39" s="95"/>
-      <c r="P39" s="95"/>
-      <c r="Q39" s="95"/>
-      <c r="R39" s="95"/>
-      <c r="S39" s="95"/>
-      <c r="T39" s="95"/>
-      <c r="U39" s="95"/>
-      <c r="V39" s="95"/>
-      <c r="W39" s="95"/>
-      <c r="X39" s="95"/>
-      <c r="Y39" s="95"/>
-      <c r="Z39" s="95"/>
-      <c r="AA39" s="95"/>
-      <c r="AB39" s="95"/>
-      <c r="AC39" s="95"/>
-      <c r="AD39" s="95"/>
-      <c r="AE39" s="95"/>
-      <c r="AF39" s="95"/>
-      <c r="AG39" s="95"/>
-      <c r="AH39" s="95"/>
-      <c r="AI39" s="95"/>
-      <c r="AJ39" s="95"/>
-      <c r="AK39" s="95"/>
-      <c r="AL39" s="95"/>
-      <c r="AM39" s="95"/>
-      <c r="AN39" s="96"/>
-      <c r="AQ39" s="94"/>
-      <c r="AR39" s="95"/>
-      <c r="AS39" s="95"/>
-      <c r="AT39" s="95"/>
-      <c r="AU39" s="95"/>
-      <c r="AV39" s="95"/>
-      <c r="AW39" s="95"/>
-      <c r="AX39" s="95"/>
-      <c r="AY39" s="95"/>
-      <c r="AZ39" s="95"/>
-      <c r="BA39" s="95"/>
-      <c r="BB39" s="95"/>
-      <c r="BC39" s="95"/>
-      <c r="BD39" s="95"/>
-      <c r="BE39" s="95"/>
-      <c r="BF39" s="95"/>
-      <c r="BG39" s="95"/>
-      <c r="BH39" s="95"/>
-      <c r="BI39" s="95"/>
-      <c r="BJ39" s="95"/>
-      <c r="BK39" s="95"/>
-      <c r="BL39" s="95"/>
-      <c r="BM39" s="95"/>
-      <c r="BN39" s="95"/>
-      <c r="BO39" s="95"/>
-      <c r="BP39" s="95"/>
-      <c r="BQ39" s="95"/>
-      <c r="BR39" s="95"/>
-      <c r="BS39" s="95"/>
-      <c r="BT39" s="95"/>
-      <c r="BU39" s="95"/>
-      <c r="BV39" s="95"/>
-      <c r="BW39" s="95"/>
-      <c r="BX39" s="95"/>
-      <c r="BY39" s="95"/>
-      <c r="BZ39" s="95"/>
-      <c r="CA39" s="95"/>
-      <c r="CB39" s="96"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="113"/>
+      <c r="I39" s="113"/>
+      <c r="J39" s="113"/>
+      <c r="K39" s="113"/>
+      <c r="L39" s="113"/>
+      <c r="M39" s="113"/>
+      <c r="N39" s="113"/>
+      <c r="O39" s="113"/>
+      <c r="P39" s="113"/>
+      <c r="Q39" s="113"/>
+      <c r="R39" s="113"/>
+      <c r="S39" s="113"/>
+      <c r="T39" s="113"/>
+      <c r="U39" s="113"/>
+      <c r="V39" s="113"/>
+      <c r="W39" s="113"/>
+      <c r="X39" s="113"/>
+      <c r="Y39" s="113"/>
+      <c r="Z39" s="113"/>
+      <c r="AA39" s="113"/>
+      <c r="AB39" s="113"/>
+      <c r="AC39" s="113"/>
+      <c r="AD39" s="113"/>
+      <c r="AE39" s="113"/>
+      <c r="AF39" s="113"/>
+      <c r="AG39" s="113"/>
+      <c r="AH39" s="113"/>
+      <c r="AI39" s="113"/>
+      <c r="AJ39" s="113"/>
+      <c r="AK39" s="113"/>
+      <c r="AL39" s="113"/>
+      <c r="AM39" s="113"/>
+      <c r="AN39" s="114"/>
+      <c r="AQ39" s="112"/>
+      <c r="AR39" s="113"/>
+      <c r="AS39" s="113"/>
+      <c r="AT39" s="113"/>
+      <c r="AU39" s="113"/>
+      <c r="AV39" s="113"/>
+      <c r="AW39" s="113"/>
+      <c r="AX39" s="113"/>
+      <c r="AY39" s="113"/>
+      <c r="AZ39" s="113"/>
+      <c r="BA39" s="113"/>
+      <c r="BB39" s="113"/>
+      <c r="BC39" s="113"/>
+      <c r="BD39" s="113"/>
+      <c r="BE39" s="113"/>
+      <c r="BF39" s="113"/>
+      <c r="BG39" s="113"/>
+      <c r="BH39" s="113"/>
+      <c r="BI39" s="113"/>
+      <c r="BJ39" s="113"/>
+      <c r="BK39" s="113"/>
+      <c r="BL39" s="113"/>
+      <c r="BM39" s="113"/>
+      <c r="BN39" s="113"/>
+      <c r="BO39" s="113"/>
+      <c r="BP39" s="113"/>
+      <c r="BQ39" s="113"/>
+      <c r="BR39" s="113"/>
+      <c r="BS39" s="113"/>
+      <c r="BT39" s="113"/>
+      <c r="BU39" s="113"/>
+      <c r="BV39" s="113"/>
+      <c r="BW39" s="113"/>
+      <c r="BX39" s="113"/>
+      <c r="BY39" s="113"/>
+      <c r="BZ39" s="113"/>
+      <c r="CA39" s="113"/>
+      <c r="CB39" s="114"/>
     </row>
     <row r="40" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C40" s="94"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="95"/>
-      <c r="G40" s="95"/>
-      <c r="H40" s="95"/>
-      <c r="I40" s="95"/>
-      <c r="J40" s="95"/>
-      <c r="K40" s="95"/>
-      <c r="L40" s="95"/>
-      <c r="M40" s="95"/>
-      <c r="N40" s="95"/>
-      <c r="O40" s="95"/>
-      <c r="P40" s="95"/>
-      <c r="Q40" s="95"/>
-      <c r="R40" s="95"/>
-      <c r="S40" s="95"/>
-      <c r="T40" s="95"/>
-      <c r="U40" s="95"/>
-      <c r="V40" s="95"/>
-      <c r="W40" s="95"/>
-      <c r="X40" s="95"/>
-      <c r="Y40" s="95"/>
-      <c r="Z40" s="95"/>
-      <c r="AA40" s="95"/>
-      <c r="AB40" s="95"/>
-      <c r="AC40" s="95"/>
-      <c r="AD40" s="95"/>
-      <c r="AE40" s="95"/>
-      <c r="AF40" s="95"/>
-      <c r="AG40" s="95"/>
-      <c r="AH40" s="95"/>
-      <c r="AI40" s="95"/>
-      <c r="AJ40" s="95"/>
-      <c r="AK40" s="95"/>
-      <c r="AL40" s="95"/>
-      <c r="AM40" s="95"/>
-      <c r="AN40" s="96"/>
-      <c r="AQ40" s="94"/>
-      <c r="AR40" s="95"/>
-      <c r="AS40" s="95"/>
-      <c r="AT40" s="95"/>
-      <c r="AU40" s="95"/>
-      <c r="AV40" s="95"/>
-      <c r="AW40" s="95"/>
-      <c r="AX40" s="95"/>
-      <c r="AY40" s="95"/>
-      <c r="AZ40" s="95"/>
-      <c r="BA40" s="95"/>
-      <c r="BB40" s="95"/>
-      <c r="BC40" s="95"/>
-      <c r="BD40" s="95"/>
-      <c r="BE40" s="95"/>
-      <c r="BF40" s="95"/>
-      <c r="BG40" s="95"/>
-      <c r="BH40" s="95"/>
-      <c r="BI40" s="95"/>
-      <c r="BJ40" s="95"/>
-      <c r="BK40" s="95"/>
-      <c r="BL40" s="95"/>
-      <c r="BM40" s="95"/>
-      <c r="BN40" s="95"/>
-      <c r="BO40" s="95"/>
-      <c r="BP40" s="95"/>
-      <c r="BQ40" s="95"/>
-      <c r="BR40" s="95"/>
-      <c r="BS40" s="95"/>
-      <c r="BT40" s="95"/>
-      <c r="BU40" s="95"/>
-      <c r="BV40" s="95"/>
-      <c r="BW40" s="95"/>
-      <c r="BX40" s="95"/>
-      <c r="BY40" s="95"/>
-      <c r="BZ40" s="95"/>
-      <c r="CA40" s="95"/>
-      <c r="CB40" s="96"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="113"/>
+      <c r="L40" s="113"/>
+      <c r="M40" s="113"/>
+      <c r="N40" s="113"/>
+      <c r="O40" s="113"/>
+      <c r="P40" s="113"/>
+      <c r="Q40" s="113"/>
+      <c r="R40" s="113"/>
+      <c r="S40" s="113"/>
+      <c r="T40" s="113"/>
+      <c r="U40" s="113"/>
+      <c r="V40" s="113"/>
+      <c r="W40" s="113"/>
+      <c r="X40" s="113"/>
+      <c r="Y40" s="113"/>
+      <c r="Z40" s="113"/>
+      <c r="AA40" s="113"/>
+      <c r="AB40" s="113"/>
+      <c r="AC40" s="113"/>
+      <c r="AD40" s="113"/>
+      <c r="AE40" s="113"/>
+      <c r="AF40" s="113"/>
+      <c r="AG40" s="113"/>
+      <c r="AH40" s="113"/>
+      <c r="AI40" s="113"/>
+      <c r="AJ40" s="113"/>
+      <c r="AK40" s="113"/>
+      <c r="AL40" s="113"/>
+      <c r="AM40" s="113"/>
+      <c r="AN40" s="114"/>
+      <c r="AQ40" s="112"/>
+      <c r="AR40" s="113"/>
+      <c r="AS40" s="113"/>
+      <c r="AT40" s="113"/>
+      <c r="AU40" s="113"/>
+      <c r="AV40" s="113"/>
+      <c r="AW40" s="113"/>
+      <c r="AX40" s="113"/>
+      <c r="AY40" s="113"/>
+      <c r="AZ40" s="113"/>
+      <c r="BA40" s="113"/>
+      <c r="BB40" s="113"/>
+      <c r="BC40" s="113"/>
+      <c r="BD40" s="113"/>
+      <c r="BE40" s="113"/>
+      <c r="BF40" s="113"/>
+      <c r="BG40" s="113"/>
+      <c r="BH40" s="113"/>
+      <c r="BI40" s="113"/>
+      <c r="BJ40" s="113"/>
+      <c r="BK40" s="113"/>
+      <c r="BL40" s="113"/>
+      <c r="BM40" s="113"/>
+      <c r="BN40" s="113"/>
+      <c r="BO40" s="113"/>
+      <c r="BP40" s="113"/>
+      <c r="BQ40" s="113"/>
+      <c r="BR40" s="113"/>
+      <c r="BS40" s="113"/>
+      <c r="BT40" s="113"/>
+      <c r="BU40" s="113"/>
+      <c r="BV40" s="113"/>
+      <c r="BW40" s="113"/>
+      <c r="BX40" s="113"/>
+      <c r="BY40" s="113"/>
+      <c r="BZ40" s="113"/>
+      <c r="CA40" s="113"/>
+      <c r="CB40" s="114"/>
     </row>
     <row r="41" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C41" s="94"/>
-      <c r="D41" s="95"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="95"/>
-      <c r="G41" s="95"/>
-      <c r="H41" s="95"/>
-      <c r="I41" s="95"/>
-      <c r="J41" s="95"/>
-      <c r="K41" s="95"/>
-      <c r="L41" s="95"/>
-      <c r="M41" s="95"/>
-      <c r="N41" s="95"/>
-      <c r="O41" s="95"/>
-      <c r="P41" s="95"/>
-      <c r="Q41" s="95"/>
-      <c r="R41" s="95"/>
-      <c r="S41" s="95"/>
-      <c r="T41" s="95"/>
-      <c r="U41" s="95"/>
-      <c r="V41" s="95"/>
-      <c r="W41" s="95"/>
-      <c r="X41" s="95"/>
-      <c r="Y41" s="95"/>
-      <c r="Z41" s="95"/>
-      <c r="AA41" s="95"/>
-      <c r="AB41" s="95"/>
-      <c r="AC41" s="95"/>
-      <c r="AD41" s="95"/>
-      <c r="AE41" s="95"/>
-      <c r="AF41" s="95"/>
-      <c r="AG41" s="95"/>
-      <c r="AH41" s="95"/>
-      <c r="AI41" s="95"/>
-      <c r="AJ41" s="95"/>
-      <c r="AK41" s="95"/>
-      <c r="AL41" s="95"/>
-      <c r="AM41" s="95"/>
-      <c r="AN41" s="96"/>
-      <c r="AQ41" s="94"/>
-      <c r="AR41" s="95"/>
-      <c r="AS41" s="95"/>
-      <c r="AT41" s="95"/>
-      <c r="AU41" s="95"/>
-      <c r="AV41" s="95"/>
-      <c r="AW41" s="95"/>
-      <c r="AX41" s="95"/>
-      <c r="AY41" s="95"/>
-      <c r="AZ41" s="95"/>
-      <c r="BA41" s="95"/>
-      <c r="BB41" s="95"/>
-      <c r="BC41" s="95"/>
-      <c r="BD41" s="95"/>
-      <c r="BE41" s="95"/>
-      <c r="BF41" s="95"/>
-      <c r="BG41" s="95"/>
-      <c r="BH41" s="95"/>
-      <c r="BI41" s="95"/>
-      <c r="BJ41" s="95"/>
-      <c r="BK41" s="95"/>
-      <c r="BL41" s="95"/>
-      <c r="BM41" s="95"/>
-      <c r="BN41" s="95"/>
-      <c r="BO41" s="95"/>
-      <c r="BP41" s="95"/>
-      <c r="BQ41" s="95"/>
-      <c r="BR41" s="95"/>
-      <c r="BS41" s="95"/>
-      <c r="BT41" s="95"/>
-      <c r="BU41" s="95"/>
-      <c r="BV41" s="95"/>
-      <c r="BW41" s="95"/>
-      <c r="BX41" s="95"/>
-      <c r="BY41" s="95"/>
-      <c r="BZ41" s="95"/>
-      <c r="CA41" s="95"/>
-      <c r="CB41" s="96"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="113"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="113"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="113"/>
+      <c r="K41" s="113"/>
+      <c r="L41" s="113"/>
+      <c r="M41" s="113"/>
+      <c r="N41" s="113"/>
+      <c r="O41" s="113"/>
+      <c r="P41" s="113"/>
+      <c r="Q41" s="113"/>
+      <c r="R41" s="113"/>
+      <c r="S41" s="113"/>
+      <c r="T41" s="113"/>
+      <c r="U41" s="113"/>
+      <c r="V41" s="113"/>
+      <c r="W41" s="113"/>
+      <c r="X41" s="113"/>
+      <c r="Y41" s="113"/>
+      <c r="Z41" s="113"/>
+      <c r="AA41" s="113"/>
+      <c r="AB41" s="113"/>
+      <c r="AC41" s="113"/>
+      <c r="AD41" s="113"/>
+      <c r="AE41" s="113"/>
+      <c r="AF41" s="113"/>
+      <c r="AG41" s="113"/>
+      <c r="AH41" s="113"/>
+      <c r="AI41" s="113"/>
+      <c r="AJ41" s="113"/>
+      <c r="AK41" s="113"/>
+      <c r="AL41" s="113"/>
+      <c r="AM41" s="113"/>
+      <c r="AN41" s="114"/>
+      <c r="AQ41" s="112"/>
+      <c r="AR41" s="113"/>
+      <c r="AS41" s="113"/>
+      <c r="AT41" s="113"/>
+      <c r="AU41" s="113"/>
+      <c r="AV41" s="113"/>
+      <c r="AW41" s="113"/>
+      <c r="AX41" s="113"/>
+      <c r="AY41" s="113"/>
+      <c r="AZ41" s="113"/>
+      <c r="BA41" s="113"/>
+      <c r="BB41" s="113"/>
+      <c r="BC41" s="113"/>
+      <c r="BD41" s="113"/>
+      <c r="BE41" s="113"/>
+      <c r="BF41" s="113"/>
+      <c r="BG41" s="113"/>
+      <c r="BH41" s="113"/>
+      <c r="BI41" s="113"/>
+      <c r="BJ41" s="113"/>
+      <c r="BK41" s="113"/>
+      <c r="BL41" s="113"/>
+      <c r="BM41" s="113"/>
+      <c r="BN41" s="113"/>
+      <c r="BO41" s="113"/>
+      <c r="BP41" s="113"/>
+      <c r="BQ41" s="113"/>
+      <c r="BR41" s="113"/>
+      <c r="BS41" s="113"/>
+      <c r="BT41" s="113"/>
+      <c r="BU41" s="113"/>
+      <c r="BV41" s="113"/>
+      <c r="BW41" s="113"/>
+      <c r="BX41" s="113"/>
+      <c r="BY41" s="113"/>
+      <c r="BZ41" s="113"/>
+      <c r="CA41" s="113"/>
+      <c r="CB41" s="114"/>
     </row>
     <row r="42" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C42" s="94"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="95"/>
-      <c r="H42" s="95"/>
-      <c r="I42" s="95"/>
-      <c r="J42" s="95"/>
-      <c r="K42" s="95"/>
-      <c r="L42" s="95"/>
-      <c r="M42" s="95"/>
-      <c r="N42" s="95"/>
-      <c r="O42" s="95"/>
-      <c r="P42" s="95"/>
-      <c r="Q42" s="95"/>
-      <c r="R42" s="95"/>
-      <c r="S42" s="95"/>
-      <c r="T42" s="95"/>
-      <c r="U42" s="95"/>
-      <c r="V42" s="95"/>
-      <c r="W42" s="95"/>
-      <c r="X42" s="95"/>
-      <c r="Y42" s="95"/>
-      <c r="Z42" s="95"/>
-      <c r="AA42" s="95"/>
-      <c r="AB42" s="95"/>
-      <c r="AC42" s="95"/>
-      <c r="AD42" s="95"/>
-      <c r="AE42" s="95"/>
-      <c r="AF42" s="95"/>
-      <c r="AG42" s="95"/>
-      <c r="AH42" s="95"/>
-      <c r="AI42" s="95"/>
-      <c r="AJ42" s="95"/>
-      <c r="AK42" s="95"/>
-      <c r="AL42" s="95"/>
-      <c r="AM42" s="95"/>
-      <c r="AN42" s="96"/>
-      <c r="AQ42" s="94"/>
-      <c r="AR42" s="95"/>
-      <c r="AS42" s="95"/>
-      <c r="AT42" s="95"/>
-      <c r="AU42" s="95"/>
-      <c r="AV42" s="95"/>
-      <c r="AW42" s="95"/>
-      <c r="AX42" s="95"/>
-      <c r="AY42" s="95"/>
-      <c r="AZ42" s="95"/>
-      <c r="BA42" s="95"/>
-      <c r="BB42" s="95"/>
-      <c r="BC42" s="95"/>
-      <c r="BD42" s="95"/>
-      <c r="BE42" s="95"/>
-      <c r="BF42" s="95"/>
-      <c r="BG42" s="95"/>
-      <c r="BH42" s="95"/>
-      <c r="BI42" s="95"/>
-      <c r="BJ42" s="95"/>
-      <c r="BK42" s="95"/>
-      <c r="BL42" s="95"/>
-      <c r="BM42" s="95"/>
-      <c r="BN42" s="95"/>
-      <c r="BO42" s="95"/>
-      <c r="BP42" s="95"/>
-      <c r="BQ42" s="95"/>
-      <c r="BR42" s="95"/>
-      <c r="BS42" s="95"/>
-      <c r="BT42" s="95"/>
-      <c r="BU42" s="95"/>
-      <c r="BV42" s="95"/>
-      <c r="BW42" s="95"/>
-      <c r="BX42" s="95"/>
-      <c r="BY42" s="95"/>
-      <c r="BZ42" s="95"/>
-      <c r="CA42" s="95"/>
-      <c r="CB42" s="96"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="113"/>
+      <c r="F42" s="113"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="113"/>
+      <c r="I42" s="113"/>
+      <c r="J42" s="113"/>
+      <c r="K42" s="113"/>
+      <c r="L42" s="113"/>
+      <c r="M42" s="113"/>
+      <c r="N42" s="113"/>
+      <c r="O42" s="113"/>
+      <c r="P42" s="113"/>
+      <c r="Q42" s="113"/>
+      <c r="R42" s="113"/>
+      <c r="S42" s="113"/>
+      <c r="T42" s="113"/>
+      <c r="U42" s="113"/>
+      <c r="V42" s="113"/>
+      <c r="W42" s="113"/>
+      <c r="X42" s="113"/>
+      <c r="Y42" s="113"/>
+      <c r="Z42" s="113"/>
+      <c r="AA42" s="113"/>
+      <c r="AB42" s="113"/>
+      <c r="AC42" s="113"/>
+      <c r="AD42" s="113"/>
+      <c r="AE42" s="113"/>
+      <c r="AF42" s="113"/>
+      <c r="AG42" s="113"/>
+      <c r="AH42" s="113"/>
+      <c r="AI42" s="113"/>
+      <c r="AJ42" s="113"/>
+      <c r="AK42" s="113"/>
+      <c r="AL42" s="113"/>
+      <c r="AM42" s="113"/>
+      <c r="AN42" s="114"/>
+      <c r="AQ42" s="112"/>
+      <c r="AR42" s="113"/>
+      <c r="AS42" s="113"/>
+      <c r="AT42" s="113"/>
+      <c r="AU42" s="113"/>
+      <c r="AV42" s="113"/>
+      <c r="AW42" s="113"/>
+      <c r="AX42" s="113"/>
+      <c r="AY42" s="113"/>
+      <c r="AZ42" s="113"/>
+      <c r="BA42" s="113"/>
+      <c r="BB42" s="113"/>
+      <c r="BC42" s="113"/>
+      <c r="BD42" s="113"/>
+      <c r="BE42" s="113"/>
+      <c r="BF42" s="113"/>
+      <c r="BG42" s="113"/>
+      <c r="BH42" s="113"/>
+      <c r="BI42" s="113"/>
+      <c r="BJ42" s="113"/>
+      <c r="BK42" s="113"/>
+      <c r="BL42" s="113"/>
+      <c r="BM42" s="113"/>
+      <c r="BN42" s="113"/>
+      <c r="BO42" s="113"/>
+      <c r="BP42" s="113"/>
+      <c r="BQ42" s="113"/>
+      <c r="BR42" s="113"/>
+      <c r="BS42" s="113"/>
+      <c r="BT42" s="113"/>
+      <c r="BU42" s="113"/>
+      <c r="BV42" s="113"/>
+      <c r="BW42" s="113"/>
+      <c r="BX42" s="113"/>
+      <c r="BY42" s="113"/>
+      <c r="BZ42" s="113"/>
+      <c r="CA42" s="113"/>
+      <c r="CB42" s="114"/>
     </row>
     <row r="43" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C43" s="94"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="95"/>
-      <c r="G43" s="95"/>
-      <c r="H43" s="95"/>
-      <c r="I43" s="95"/>
-      <c r="J43" s="95"/>
-      <c r="K43" s="95"/>
-      <c r="L43" s="95"/>
-      <c r="M43" s="95"/>
-      <c r="N43" s="95"/>
-      <c r="O43" s="95"/>
-      <c r="P43" s="95"/>
-      <c r="Q43" s="95"/>
-      <c r="R43" s="95"/>
-      <c r="S43" s="95"/>
-      <c r="T43" s="95"/>
-      <c r="U43" s="95"/>
-      <c r="V43" s="95"/>
-      <c r="W43" s="95"/>
-      <c r="X43" s="95"/>
-      <c r="Y43" s="95"/>
-      <c r="Z43" s="95"/>
-      <c r="AA43" s="95"/>
-      <c r="AB43" s="95"/>
-      <c r="AC43" s="95"/>
-      <c r="AD43" s="95"/>
-      <c r="AE43" s="95"/>
-      <c r="AF43" s="95"/>
-      <c r="AG43" s="95"/>
-      <c r="AH43" s="95"/>
-      <c r="AI43" s="95"/>
-      <c r="AJ43" s="95"/>
-      <c r="AK43" s="95"/>
-      <c r="AL43" s="95"/>
-      <c r="AM43" s="95"/>
-      <c r="AN43" s="96"/>
-      <c r="AQ43" s="94"/>
-      <c r="AR43" s="95"/>
-      <c r="AS43" s="95"/>
-      <c r="AT43" s="95"/>
-      <c r="AU43" s="95"/>
-      <c r="AV43" s="95"/>
-      <c r="AW43" s="95"/>
-      <c r="AX43" s="95"/>
-      <c r="AY43" s="95"/>
-      <c r="AZ43" s="95"/>
-      <c r="BA43" s="95"/>
-      <c r="BB43" s="95"/>
-      <c r="BC43" s="95"/>
-      <c r="BD43" s="95"/>
-      <c r="BE43" s="95"/>
-      <c r="BF43" s="95"/>
-      <c r="BG43" s="95"/>
-      <c r="BH43" s="95"/>
-      <c r="BI43" s="95"/>
-      <c r="BJ43" s="95"/>
-      <c r="BK43" s="95"/>
-      <c r="BL43" s="95"/>
-      <c r="BM43" s="95"/>
-      <c r="BN43" s="95"/>
-      <c r="BO43" s="95"/>
-      <c r="BP43" s="95"/>
-      <c r="BQ43" s="95"/>
-      <c r="BR43" s="95"/>
-      <c r="BS43" s="95"/>
-      <c r="BT43" s="95"/>
-      <c r="BU43" s="95"/>
-      <c r="BV43" s="95"/>
-      <c r="BW43" s="95"/>
-      <c r="BX43" s="95"/>
-      <c r="BY43" s="95"/>
-      <c r="BZ43" s="95"/>
-      <c r="CA43" s="95"/>
-      <c r="CB43" s="96"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="113"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="113"/>
+      <c r="I43" s="113"/>
+      <c r="J43" s="113"/>
+      <c r="K43" s="113"/>
+      <c r="L43" s="113"/>
+      <c r="M43" s="113"/>
+      <c r="N43" s="113"/>
+      <c r="O43" s="113"/>
+      <c r="P43" s="113"/>
+      <c r="Q43" s="113"/>
+      <c r="R43" s="113"/>
+      <c r="S43" s="113"/>
+      <c r="T43" s="113"/>
+      <c r="U43" s="113"/>
+      <c r="V43" s="113"/>
+      <c r="W43" s="113"/>
+      <c r="X43" s="113"/>
+      <c r="Y43" s="113"/>
+      <c r="Z43" s="113"/>
+      <c r="AA43" s="113"/>
+      <c r="AB43" s="113"/>
+      <c r="AC43" s="113"/>
+      <c r="AD43" s="113"/>
+      <c r="AE43" s="113"/>
+      <c r="AF43" s="113"/>
+      <c r="AG43" s="113"/>
+      <c r="AH43" s="113"/>
+      <c r="AI43" s="113"/>
+      <c r="AJ43" s="113"/>
+      <c r="AK43" s="113"/>
+      <c r="AL43" s="113"/>
+      <c r="AM43" s="113"/>
+      <c r="AN43" s="114"/>
+      <c r="AQ43" s="112"/>
+      <c r="AR43" s="113"/>
+      <c r="AS43" s="113"/>
+      <c r="AT43" s="113"/>
+      <c r="AU43" s="113"/>
+      <c r="AV43" s="113"/>
+      <c r="AW43" s="113"/>
+      <c r="AX43" s="113"/>
+      <c r="AY43" s="113"/>
+      <c r="AZ43" s="113"/>
+      <c r="BA43" s="113"/>
+      <c r="BB43" s="113"/>
+      <c r="BC43" s="113"/>
+      <c r="BD43" s="113"/>
+      <c r="BE43" s="113"/>
+      <c r="BF43" s="113"/>
+      <c r="BG43" s="113"/>
+      <c r="BH43" s="113"/>
+      <c r="BI43" s="113"/>
+      <c r="BJ43" s="113"/>
+      <c r="BK43" s="113"/>
+      <c r="BL43" s="113"/>
+      <c r="BM43" s="113"/>
+      <c r="BN43" s="113"/>
+      <c r="BO43" s="113"/>
+      <c r="BP43" s="113"/>
+      <c r="BQ43" s="113"/>
+      <c r="BR43" s="113"/>
+      <c r="BS43" s="113"/>
+      <c r="BT43" s="113"/>
+      <c r="BU43" s="113"/>
+      <c r="BV43" s="113"/>
+      <c r="BW43" s="113"/>
+      <c r="BX43" s="113"/>
+      <c r="BY43" s="113"/>
+      <c r="BZ43" s="113"/>
+      <c r="CA43" s="113"/>
+      <c r="CB43" s="114"/>
     </row>
     <row r="44" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C44" s="94"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="95"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="95"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="95"/>
-      <c r="K44" s="95"/>
-      <c r="L44" s="95"/>
-      <c r="M44" s="95"/>
-      <c r="N44" s="95"/>
-      <c r="O44" s="95"/>
-      <c r="P44" s="95"/>
-      <c r="Q44" s="95"/>
-      <c r="R44" s="95"/>
-      <c r="S44" s="95"/>
-      <c r="T44" s="95"/>
-      <c r="U44" s="95"/>
-      <c r="V44" s="95"/>
-      <c r="W44" s="95"/>
-      <c r="X44" s="95"/>
-      <c r="Y44" s="95"/>
-      <c r="Z44" s="95"/>
-      <c r="AA44" s="95"/>
-      <c r="AB44" s="95"/>
-      <c r="AC44" s="95"/>
-      <c r="AD44" s="95"/>
-      <c r="AE44" s="95"/>
-      <c r="AF44" s="95"/>
-      <c r="AG44" s="95"/>
-      <c r="AH44" s="95"/>
-      <c r="AI44" s="95"/>
-      <c r="AJ44" s="95"/>
-      <c r="AK44" s="95"/>
-      <c r="AL44" s="95"/>
-      <c r="AM44" s="95"/>
-      <c r="AN44" s="96"/>
-      <c r="AQ44" s="94"/>
-      <c r="AR44" s="95"/>
-      <c r="AS44" s="95"/>
-      <c r="AT44" s="95"/>
-      <c r="AU44" s="95"/>
-      <c r="AV44" s="95"/>
-      <c r="AW44" s="95"/>
-      <c r="AX44" s="95"/>
-      <c r="AY44" s="95"/>
-      <c r="AZ44" s="95"/>
-      <c r="BA44" s="95"/>
-      <c r="BB44" s="95"/>
-      <c r="BC44" s="95"/>
-      <c r="BD44" s="95"/>
-      <c r="BE44" s="95"/>
-      <c r="BF44" s="95"/>
-      <c r="BG44" s="95"/>
-      <c r="BH44" s="95"/>
-      <c r="BI44" s="95"/>
-      <c r="BJ44" s="95"/>
-      <c r="BK44" s="95"/>
-      <c r="BL44" s="95"/>
-      <c r="BM44" s="95"/>
-      <c r="BN44" s="95"/>
-      <c r="BO44" s="95"/>
-      <c r="BP44" s="95"/>
-      <c r="BQ44" s="95"/>
-      <c r="BR44" s="95"/>
-      <c r="BS44" s="95"/>
-      <c r="BT44" s="95"/>
-      <c r="BU44" s="95"/>
-      <c r="BV44" s="95"/>
-      <c r="BW44" s="95"/>
-      <c r="BX44" s="95"/>
-      <c r="BY44" s="95"/>
-      <c r="BZ44" s="95"/>
-      <c r="CA44" s="95"/>
-      <c r="CB44" s="96"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
+      <c r="G44" s="113"/>
+      <c r="H44" s="113"/>
+      <c r="I44" s="113"/>
+      <c r="J44" s="113"/>
+      <c r="K44" s="113"/>
+      <c r="L44" s="113"/>
+      <c r="M44" s="113"/>
+      <c r="N44" s="113"/>
+      <c r="O44" s="113"/>
+      <c r="P44" s="113"/>
+      <c r="Q44" s="113"/>
+      <c r="R44" s="113"/>
+      <c r="S44" s="113"/>
+      <c r="T44" s="113"/>
+      <c r="U44" s="113"/>
+      <c r="V44" s="113"/>
+      <c r="W44" s="113"/>
+      <c r="X44" s="113"/>
+      <c r="Y44" s="113"/>
+      <c r="Z44" s="113"/>
+      <c r="AA44" s="113"/>
+      <c r="AB44" s="113"/>
+      <c r="AC44" s="113"/>
+      <c r="AD44" s="113"/>
+      <c r="AE44" s="113"/>
+      <c r="AF44" s="113"/>
+      <c r="AG44" s="113"/>
+      <c r="AH44" s="113"/>
+      <c r="AI44" s="113"/>
+      <c r="AJ44" s="113"/>
+      <c r="AK44" s="113"/>
+      <c r="AL44" s="113"/>
+      <c r="AM44" s="113"/>
+      <c r="AN44" s="114"/>
+      <c r="AQ44" s="112"/>
+      <c r="AR44" s="113"/>
+      <c r="AS44" s="113"/>
+      <c r="AT44" s="113"/>
+      <c r="AU44" s="113"/>
+      <c r="AV44" s="113"/>
+      <c r="AW44" s="113"/>
+      <c r="AX44" s="113"/>
+      <c r="AY44" s="113"/>
+      <c r="AZ44" s="113"/>
+      <c r="BA44" s="113"/>
+      <c r="BB44" s="113"/>
+      <c r="BC44" s="113"/>
+      <c r="BD44" s="113"/>
+      <c r="BE44" s="113"/>
+      <c r="BF44" s="113"/>
+      <c r="BG44" s="113"/>
+      <c r="BH44" s="113"/>
+      <c r="BI44" s="113"/>
+      <c r="BJ44" s="113"/>
+      <c r="BK44" s="113"/>
+      <c r="BL44" s="113"/>
+      <c r="BM44" s="113"/>
+      <c r="BN44" s="113"/>
+      <c r="BO44" s="113"/>
+      <c r="BP44" s="113"/>
+      <c r="BQ44" s="113"/>
+      <c r="BR44" s="113"/>
+      <c r="BS44" s="113"/>
+      <c r="BT44" s="113"/>
+      <c r="BU44" s="113"/>
+      <c r="BV44" s="113"/>
+      <c r="BW44" s="113"/>
+      <c r="BX44" s="113"/>
+      <c r="BY44" s="113"/>
+      <c r="BZ44" s="113"/>
+      <c r="CA44" s="113"/>
+      <c r="CB44" s="114"/>
     </row>
     <row r="45" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C45" s="94"/>
-      <c r="D45" s="95"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="95"/>
-      <c r="G45" s="95"/>
-      <c r="H45" s="95"/>
-      <c r="I45" s="95"/>
-      <c r="J45" s="95"/>
-      <c r="K45" s="95"/>
-      <c r="L45" s="95"/>
-      <c r="M45" s="95"/>
-      <c r="N45" s="95"/>
-      <c r="O45" s="95"/>
-      <c r="P45" s="95"/>
-      <c r="Q45" s="95"/>
-      <c r="R45" s="95"/>
-      <c r="S45" s="95"/>
-      <c r="T45" s="95"/>
-      <c r="U45" s="95"/>
-      <c r="V45" s="95"/>
-      <c r="W45" s="95"/>
-      <c r="X45" s="95"/>
-      <c r="Y45" s="95"/>
-      <c r="Z45" s="95"/>
-      <c r="AA45" s="95"/>
-      <c r="AB45" s="95"/>
-      <c r="AC45" s="95"/>
-      <c r="AD45" s="95"/>
-      <c r="AE45" s="95"/>
-      <c r="AF45" s="95"/>
-      <c r="AG45" s="95"/>
-      <c r="AH45" s="95"/>
-      <c r="AI45" s="95"/>
-      <c r="AJ45" s="95"/>
-      <c r="AK45" s="95"/>
-      <c r="AL45" s="95"/>
-      <c r="AM45" s="95"/>
-      <c r="AN45" s="96"/>
-      <c r="AQ45" s="94"/>
-      <c r="AR45" s="95"/>
-      <c r="AS45" s="95"/>
-      <c r="AT45" s="95"/>
-      <c r="AU45" s="95"/>
-      <c r="AV45" s="95"/>
-      <c r="AW45" s="95"/>
-      <c r="AX45" s="95"/>
-      <c r="AY45" s="95"/>
-      <c r="AZ45" s="95"/>
-      <c r="BA45" s="95"/>
-      <c r="BB45" s="95"/>
-      <c r="BC45" s="95"/>
-      <c r="BD45" s="95"/>
-      <c r="BE45" s="95"/>
-      <c r="BF45" s="95"/>
-      <c r="BG45" s="95"/>
-      <c r="BH45" s="95"/>
-      <c r="BI45" s="95"/>
-      <c r="BJ45" s="95"/>
-      <c r="BK45" s="95"/>
-      <c r="BL45" s="95"/>
-      <c r="BM45" s="95"/>
-      <c r="BN45" s="95"/>
-      <c r="BO45" s="95"/>
-      <c r="BP45" s="95"/>
-      <c r="BQ45" s="95"/>
-      <c r="BR45" s="95"/>
-      <c r="BS45" s="95"/>
-      <c r="BT45" s="95"/>
-      <c r="BU45" s="95"/>
-      <c r="BV45" s="95"/>
-      <c r="BW45" s="95"/>
-      <c r="BX45" s="95"/>
-      <c r="BY45" s="95"/>
-      <c r="BZ45" s="95"/>
-      <c r="CA45" s="95"/>
-      <c r="CB45" s="96"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="113"/>
+      <c r="F45" s="113"/>
+      <c r="G45" s="113"/>
+      <c r="H45" s="113"/>
+      <c r="I45" s="113"/>
+      <c r="J45" s="113"/>
+      <c r="K45" s="113"/>
+      <c r="L45" s="113"/>
+      <c r="M45" s="113"/>
+      <c r="N45" s="113"/>
+      <c r="O45" s="113"/>
+      <c r="P45" s="113"/>
+      <c r="Q45" s="113"/>
+      <c r="R45" s="113"/>
+      <c r="S45" s="113"/>
+      <c r="T45" s="113"/>
+      <c r="U45" s="113"/>
+      <c r="V45" s="113"/>
+      <c r="W45" s="113"/>
+      <c r="X45" s="113"/>
+      <c r="Y45" s="113"/>
+      <c r="Z45" s="113"/>
+      <c r="AA45" s="113"/>
+      <c r="AB45" s="113"/>
+      <c r="AC45" s="113"/>
+      <c r="AD45" s="113"/>
+      <c r="AE45" s="113"/>
+      <c r="AF45" s="113"/>
+      <c r="AG45" s="113"/>
+      <c r="AH45" s="113"/>
+      <c r="AI45" s="113"/>
+      <c r="AJ45" s="113"/>
+      <c r="AK45" s="113"/>
+      <c r="AL45" s="113"/>
+      <c r="AM45" s="113"/>
+      <c r="AN45" s="114"/>
+      <c r="AQ45" s="112"/>
+      <c r="AR45" s="113"/>
+      <c r="AS45" s="113"/>
+      <c r="AT45" s="113"/>
+      <c r="AU45" s="113"/>
+      <c r="AV45" s="113"/>
+      <c r="AW45" s="113"/>
+      <c r="AX45" s="113"/>
+      <c r="AY45" s="113"/>
+      <c r="AZ45" s="113"/>
+      <c r="BA45" s="113"/>
+      <c r="BB45" s="113"/>
+      <c r="BC45" s="113"/>
+      <c r="BD45" s="113"/>
+      <c r="BE45" s="113"/>
+      <c r="BF45" s="113"/>
+      <c r="BG45" s="113"/>
+      <c r="BH45" s="113"/>
+      <c r="BI45" s="113"/>
+      <c r="BJ45" s="113"/>
+      <c r="BK45" s="113"/>
+      <c r="BL45" s="113"/>
+      <c r="BM45" s="113"/>
+      <c r="BN45" s="113"/>
+      <c r="BO45" s="113"/>
+      <c r="BP45" s="113"/>
+      <c r="BQ45" s="113"/>
+      <c r="BR45" s="113"/>
+      <c r="BS45" s="113"/>
+      <c r="BT45" s="113"/>
+      <c r="BU45" s="113"/>
+      <c r="BV45" s="113"/>
+      <c r="BW45" s="113"/>
+      <c r="BX45" s="113"/>
+      <c r="BY45" s="113"/>
+      <c r="BZ45" s="113"/>
+      <c r="CA45" s="113"/>
+      <c r="CB45" s="114"/>
     </row>
     <row r="46" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C46" s="97"/>
-      <c r="D46" s="98"/>
-      <c r="E46" s="98"/>
-      <c r="F46" s="98"/>
-      <c r="G46" s="98"/>
-      <c r="H46" s="98"/>
-      <c r="I46" s="98"/>
-      <c r="J46" s="98"/>
-      <c r="K46" s="98"/>
-      <c r="L46" s="98"/>
-      <c r="M46" s="98"/>
-      <c r="N46" s="98"/>
-      <c r="O46" s="98"/>
-      <c r="P46" s="98"/>
-      <c r="Q46" s="98"/>
-      <c r="R46" s="98"/>
-      <c r="S46" s="98"/>
-      <c r="T46" s="98"/>
-      <c r="U46" s="98"/>
-      <c r="V46" s="98"/>
-      <c r="W46" s="98"/>
-      <c r="X46" s="98"/>
-      <c r="Y46" s="98"/>
-      <c r="Z46" s="98"/>
-      <c r="AA46" s="98"/>
-      <c r="AB46" s="98"/>
-      <c r="AC46" s="98"/>
-      <c r="AD46" s="98"/>
-      <c r="AE46" s="98"/>
-      <c r="AF46" s="98"/>
-      <c r="AG46" s="98"/>
-      <c r="AH46" s="98"/>
-      <c r="AI46" s="98"/>
-      <c r="AJ46" s="98"/>
-      <c r="AK46" s="98"/>
-      <c r="AL46" s="98"/>
-      <c r="AM46" s="98"/>
-      <c r="AN46" s="99"/>
-      <c r="AQ46" s="97"/>
-      <c r="AR46" s="98"/>
-      <c r="AS46" s="98"/>
-      <c r="AT46" s="98"/>
-      <c r="AU46" s="98"/>
-      <c r="AV46" s="98"/>
-      <c r="AW46" s="98"/>
-      <c r="AX46" s="98"/>
-      <c r="AY46" s="98"/>
-      <c r="AZ46" s="98"/>
-      <c r="BA46" s="98"/>
-      <c r="BB46" s="98"/>
-      <c r="BC46" s="98"/>
-      <c r="BD46" s="98"/>
-      <c r="BE46" s="98"/>
-      <c r="BF46" s="98"/>
-      <c r="BG46" s="98"/>
-      <c r="BH46" s="98"/>
-      <c r="BI46" s="98"/>
-      <c r="BJ46" s="98"/>
-      <c r="BK46" s="98"/>
-      <c r="BL46" s="98"/>
-      <c r="BM46" s="98"/>
-      <c r="BN46" s="98"/>
-      <c r="BO46" s="98"/>
-      <c r="BP46" s="98"/>
-      <c r="BQ46" s="98"/>
-      <c r="BR46" s="98"/>
-      <c r="BS46" s="98"/>
-      <c r="BT46" s="98"/>
-      <c r="BU46" s="98"/>
-      <c r="BV46" s="98"/>
-      <c r="BW46" s="98"/>
-      <c r="BX46" s="98"/>
-      <c r="BY46" s="98"/>
-      <c r="BZ46" s="98"/>
-      <c r="CA46" s="98"/>
-      <c r="CB46" s="99"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="116"/>
+      <c r="I46" s="116"/>
+      <c r="J46" s="116"/>
+      <c r="K46" s="116"/>
+      <c r="L46" s="116"/>
+      <c r="M46" s="116"/>
+      <c r="N46" s="116"/>
+      <c r="O46" s="116"/>
+      <c r="P46" s="116"/>
+      <c r="Q46" s="116"/>
+      <c r="R46" s="116"/>
+      <c r="S46" s="116"/>
+      <c r="T46" s="116"/>
+      <c r="U46" s="116"/>
+      <c r="V46" s="116"/>
+      <c r="W46" s="116"/>
+      <c r="X46" s="116"/>
+      <c r="Y46" s="116"/>
+      <c r="Z46" s="116"/>
+      <c r="AA46" s="116"/>
+      <c r="AB46" s="116"/>
+      <c r="AC46" s="116"/>
+      <c r="AD46" s="116"/>
+      <c r="AE46" s="116"/>
+      <c r="AF46" s="116"/>
+      <c r="AG46" s="116"/>
+      <c r="AH46" s="116"/>
+      <c r="AI46" s="116"/>
+      <c r="AJ46" s="116"/>
+      <c r="AK46" s="116"/>
+      <c r="AL46" s="116"/>
+      <c r="AM46" s="116"/>
+      <c r="AN46" s="117"/>
+      <c r="AQ46" s="115"/>
+      <c r="AR46" s="116"/>
+      <c r="AS46" s="116"/>
+      <c r="AT46" s="116"/>
+      <c r="AU46" s="116"/>
+      <c r="AV46" s="116"/>
+      <c r="AW46" s="116"/>
+      <c r="AX46" s="116"/>
+      <c r="AY46" s="116"/>
+      <c r="AZ46" s="116"/>
+      <c r="BA46" s="116"/>
+      <c r="BB46" s="116"/>
+      <c r="BC46" s="116"/>
+      <c r="BD46" s="116"/>
+      <c r="BE46" s="116"/>
+      <c r="BF46" s="116"/>
+      <c r="BG46" s="116"/>
+      <c r="BH46" s="116"/>
+      <c r="BI46" s="116"/>
+      <c r="BJ46" s="116"/>
+      <c r="BK46" s="116"/>
+      <c r="BL46" s="116"/>
+      <c r="BM46" s="116"/>
+      <c r="BN46" s="116"/>
+      <c r="BO46" s="116"/>
+      <c r="BP46" s="116"/>
+      <c r="BQ46" s="116"/>
+      <c r="BR46" s="116"/>
+      <c r="BS46" s="116"/>
+      <c r="BT46" s="116"/>
+      <c r="BU46" s="116"/>
+      <c r="BV46" s="116"/>
+      <c r="BW46" s="116"/>
+      <c r="BX46" s="116"/>
+      <c r="BY46" s="116"/>
+      <c r="BZ46" s="116"/>
+      <c r="CA46" s="116"/>
+      <c r="CB46" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C9:CB10"/>
+    <mergeCell ref="C11:CB24"/>
+    <mergeCell ref="C26:AN27"/>
+    <mergeCell ref="C28:AN46"/>
+    <mergeCell ref="AQ26:CB27"/>
+    <mergeCell ref="AQ28:CB46"/>
     <mergeCell ref="W2:AN3"/>
     <mergeCell ref="W4:AN7"/>
     <mergeCell ref="AQ2:BH3"/>
     <mergeCell ref="AQ4:BH7"/>
     <mergeCell ref="BK2:CB3"/>
     <mergeCell ref="BK4:CB7"/>
-    <mergeCell ref="C9:CB10"/>
-    <mergeCell ref="C11:CB24"/>
-    <mergeCell ref="C26:AN27"/>
-    <mergeCell ref="C28:AN46"/>
-    <mergeCell ref="AQ26:CB27"/>
-    <mergeCell ref="AQ28:CB46"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/Meteora_Ecommerce_2.xlsx
+++ b/Meteora_Ecommerce_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Exel\Meteora-Exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97109778-9C3F-44F9-B9C2-98D380C53D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1647044-FB6D-4998-8340-956A80CB5476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="698" activeTab="4" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
   </bookViews>
@@ -1477,6 +1477,33 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1529,33 +1556,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -12606,7 +12606,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" zeroHeight="1"/>
@@ -12742,19 +12742,19 @@
         <f t="array" ref="C11">_xlfn.XLOOKUP(C6,TB_Produtos[[#All],[Código]],TB_Produtos[[#All],[Estoque]],"Você fez merda")</f>
         <v>17</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <f>WEEKDAY(F6)</f>
         <v>1</v>
       </c>
-      <c r="G11" s="49"/>
     </row>
     <row r="12" spans="1:9" ht="23.25" thickTop="1" thickBot="1">
       <c r="B12" s="79" t="s">
         <v>166</v>
       </c>
       <c r="C12" s="51"/>
-      <c r="E12" s="80" t="str">
-        <f>HLOOKUP(E11,'Cadastros Auxiliares'!B4:I5,2,)</f>
+      <c r="E12" s="80"/>
+      <c r="G12" t="str">
+        <f>HLOOKUP(G11,'Cadastros Auxiliares'!B4:I5,2,FALSE)</f>
         <v>Domingo</v>
       </c>
     </row>
@@ -13363,237 +13363,237 @@
       <c r="CB3" s="90"/>
     </row>
     <row r="4" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W4" s="91">
+      <c r="W4" s="100">
         <f>COUNTA(TB_Produtos[Código])</f>
         <v>60</v>
       </c>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="92"/>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="92"/>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="93"/>
-      <c r="AQ4" s="91">
+      <c r="X4" s="101"/>
+      <c r="Y4" s="101"/>
+      <c r="Z4" s="101"/>
+      <c r="AA4" s="101"/>
+      <c r="AB4" s="101"/>
+      <c r="AC4" s="101"/>
+      <c r="AD4" s="101"/>
+      <c r="AE4" s="101"/>
+      <c r="AF4" s="101"/>
+      <c r="AG4" s="101"/>
+      <c r="AH4" s="101"/>
+      <c r="AI4" s="101"/>
+      <c r="AJ4" s="101"/>
+      <c r="AK4" s="101"/>
+      <c r="AL4" s="101"/>
+      <c r="AM4" s="101"/>
+      <c r="AN4" s="102"/>
+      <c r="AQ4" s="100">
         <f>SUM(TB_Vendas[Qtd])</f>
         <v>250</v>
       </c>
-      <c r="AR4" s="92"/>
-      <c r="AS4" s="92"/>
-      <c r="AT4" s="92"/>
-      <c r="AU4" s="92"/>
-      <c r="AV4" s="92"/>
-      <c r="AW4" s="92"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="92"/>
-      <c r="AZ4" s="92"/>
-      <c r="BA4" s="92"/>
-      <c r="BB4" s="92"/>
-      <c r="BC4" s="92"/>
-      <c r="BD4" s="92"/>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="92"/>
-      <c r="BG4" s="92"/>
-      <c r="BH4" s="93"/>
-      <c r="BK4" s="100">
+      <c r="AR4" s="101"/>
+      <c r="AS4" s="101"/>
+      <c r="AT4" s="101"/>
+      <c r="AU4" s="101"/>
+      <c r="AV4" s="101"/>
+      <c r="AW4" s="101"/>
+      <c r="AX4" s="101"/>
+      <c r="AY4" s="101"/>
+      <c r="AZ4" s="101"/>
+      <c r="BA4" s="101"/>
+      <c r="BB4" s="101"/>
+      <c r="BC4" s="101"/>
+      <c r="BD4" s="101"/>
+      <c r="BE4" s="101"/>
+      <c r="BF4" s="101"/>
+      <c r="BG4" s="101"/>
+      <c r="BH4" s="102"/>
+      <c r="BK4" s="109">
         <f>SUM(TB_Vendas[Total])</f>
         <v>0</v>
       </c>
-      <c r="BL4" s="101"/>
-      <c r="BM4" s="101"/>
-      <c r="BN4" s="101"/>
-      <c r="BO4" s="101"/>
-      <c r="BP4" s="101"/>
-      <c r="BQ4" s="101"/>
-      <c r="BR4" s="101"/>
-      <c r="BS4" s="101"/>
-      <c r="BT4" s="101"/>
-      <c r="BU4" s="101"/>
-      <c r="BV4" s="101"/>
-      <c r="BW4" s="101"/>
-      <c r="BX4" s="101"/>
-      <c r="BY4" s="101"/>
-      <c r="BZ4" s="101"/>
-      <c r="CA4" s="101"/>
-      <c r="CB4" s="102"/>
+      <c r="BL4" s="110"/>
+      <c r="BM4" s="110"/>
+      <c r="BN4" s="110"/>
+      <c r="BO4" s="110"/>
+      <c r="BP4" s="110"/>
+      <c r="BQ4" s="110"/>
+      <c r="BR4" s="110"/>
+      <c r="BS4" s="110"/>
+      <c r="BT4" s="110"/>
+      <c r="BU4" s="110"/>
+      <c r="BV4" s="110"/>
+      <c r="BW4" s="110"/>
+      <c r="BX4" s="110"/>
+      <c r="BY4" s="110"/>
+      <c r="BZ4" s="110"/>
+      <c r="CA4" s="110"/>
+      <c r="CB4" s="111"/>
     </row>
     <row r="5" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W5" s="94"/>
-      <c r="X5" s="95"/>
-      <c r="Y5" s="95"/>
-      <c r="Z5" s="95"/>
-      <c r="AA5" s="95"/>
-      <c r="AB5" s="95"/>
-      <c r="AC5" s="95"/>
-      <c r="AD5" s="95"/>
-      <c r="AE5" s="95"/>
-      <c r="AF5" s="95"/>
-      <c r="AG5" s="95"/>
-      <c r="AH5" s="95"/>
-      <c r="AI5" s="95"/>
-      <c r="AJ5" s="95"/>
-      <c r="AK5" s="95"/>
-      <c r="AL5" s="95"/>
-      <c r="AM5" s="95"/>
-      <c r="AN5" s="96"/>
-      <c r="AQ5" s="94"/>
-      <c r="AR5" s="95"/>
-      <c r="AS5" s="95"/>
-      <c r="AT5" s="95"/>
-      <c r="AU5" s="95"/>
-      <c r="AV5" s="95"/>
-      <c r="AW5" s="95"/>
-      <c r="AX5" s="95"/>
-      <c r="AY5" s="95"/>
-      <c r="AZ5" s="95"/>
-      <c r="BA5" s="95"/>
-      <c r="BB5" s="95"/>
-      <c r="BC5" s="95"/>
-      <c r="BD5" s="95"/>
-      <c r="BE5" s="95"/>
-      <c r="BF5" s="95"/>
-      <c r="BG5" s="95"/>
-      <c r="BH5" s="96"/>
-      <c r="BK5" s="103"/>
-      <c r="BL5" s="104"/>
-      <c r="BM5" s="104"/>
-      <c r="BN5" s="104"/>
-      <c r="BO5" s="104"/>
-      <c r="BP5" s="104"/>
-      <c r="BQ5" s="104"/>
-      <c r="BR5" s="104"/>
-      <c r="BS5" s="104"/>
-      <c r="BT5" s="104"/>
-      <c r="BU5" s="104"/>
-      <c r="BV5" s="104"/>
-      <c r="BW5" s="104"/>
-      <c r="BX5" s="104"/>
-      <c r="BY5" s="104"/>
-      <c r="BZ5" s="104"/>
-      <c r="CA5" s="104"/>
-      <c r="CB5" s="105"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="104"/>
+      <c r="Y5" s="104"/>
+      <c r="Z5" s="104"/>
+      <c r="AA5" s="104"/>
+      <c r="AB5" s="104"/>
+      <c r="AC5" s="104"/>
+      <c r="AD5" s="104"/>
+      <c r="AE5" s="104"/>
+      <c r="AF5" s="104"/>
+      <c r="AG5" s="104"/>
+      <c r="AH5" s="104"/>
+      <c r="AI5" s="104"/>
+      <c r="AJ5" s="104"/>
+      <c r="AK5" s="104"/>
+      <c r="AL5" s="104"/>
+      <c r="AM5" s="104"/>
+      <c r="AN5" s="105"/>
+      <c r="AQ5" s="103"/>
+      <c r="AR5" s="104"/>
+      <c r="AS5" s="104"/>
+      <c r="AT5" s="104"/>
+      <c r="AU5" s="104"/>
+      <c r="AV5" s="104"/>
+      <c r="AW5" s="104"/>
+      <c r="AX5" s="104"/>
+      <c r="AY5" s="104"/>
+      <c r="AZ5" s="104"/>
+      <c r="BA5" s="104"/>
+      <c r="BB5" s="104"/>
+      <c r="BC5" s="104"/>
+      <c r="BD5" s="104"/>
+      <c r="BE5" s="104"/>
+      <c r="BF5" s="104"/>
+      <c r="BG5" s="104"/>
+      <c r="BH5" s="105"/>
+      <c r="BK5" s="112"/>
+      <c r="BL5" s="113"/>
+      <c r="BM5" s="113"/>
+      <c r="BN5" s="113"/>
+      <c r="BO5" s="113"/>
+      <c r="BP5" s="113"/>
+      <c r="BQ5" s="113"/>
+      <c r="BR5" s="113"/>
+      <c r="BS5" s="113"/>
+      <c r="BT5" s="113"/>
+      <c r="BU5" s="113"/>
+      <c r="BV5" s="113"/>
+      <c r="BW5" s="113"/>
+      <c r="BX5" s="113"/>
+      <c r="BY5" s="113"/>
+      <c r="BZ5" s="113"/>
+      <c r="CA5" s="113"/>
+      <c r="CB5" s="114"/>
     </row>
     <row r="6" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W6" s="94"/>
-      <c r="X6" s="95"/>
-      <c r="Y6" s="95"/>
-      <c r="Z6" s="95"/>
-      <c r="AA6" s="95"/>
-      <c r="AB6" s="95"/>
-      <c r="AC6" s="95"/>
-      <c r="AD6" s="95"/>
-      <c r="AE6" s="95"/>
-      <c r="AF6" s="95"/>
-      <c r="AG6" s="95"/>
-      <c r="AH6" s="95"/>
-      <c r="AI6" s="95"/>
-      <c r="AJ6" s="95"/>
-      <c r="AK6" s="95"/>
-      <c r="AL6" s="95"/>
-      <c r="AM6" s="95"/>
-      <c r="AN6" s="96"/>
-      <c r="AQ6" s="94"/>
-      <c r="AR6" s="95"/>
-      <c r="AS6" s="95"/>
-      <c r="AT6" s="95"/>
-      <c r="AU6" s="95"/>
-      <c r="AV6" s="95"/>
-      <c r="AW6" s="95"/>
-      <c r="AX6" s="95"/>
-      <c r="AY6" s="95"/>
-      <c r="AZ6" s="95"/>
-      <c r="BA6" s="95"/>
-      <c r="BB6" s="95"/>
-      <c r="BC6" s="95"/>
-      <c r="BD6" s="95"/>
-      <c r="BE6" s="95"/>
-      <c r="BF6" s="95"/>
-      <c r="BG6" s="95"/>
-      <c r="BH6" s="96"/>
-      <c r="BK6" s="103"/>
-      <c r="BL6" s="104"/>
-      <c r="BM6" s="104"/>
-      <c r="BN6" s="104"/>
-      <c r="BO6" s="104"/>
-      <c r="BP6" s="104"/>
-      <c r="BQ6" s="104"/>
-      <c r="BR6" s="104"/>
-      <c r="BS6" s="104"/>
-      <c r="BT6" s="104"/>
-      <c r="BU6" s="104"/>
-      <c r="BV6" s="104"/>
-      <c r="BW6" s="104"/>
-      <c r="BX6" s="104"/>
-      <c r="BY6" s="104"/>
-      <c r="BZ6" s="104"/>
-      <c r="CA6" s="104"/>
-      <c r="CB6" s="105"/>
+      <c r="W6" s="103"/>
+      <c r="X6" s="104"/>
+      <c r="Y6" s="104"/>
+      <c r="Z6" s="104"/>
+      <c r="AA6" s="104"/>
+      <c r="AB6" s="104"/>
+      <c r="AC6" s="104"/>
+      <c r="AD6" s="104"/>
+      <c r="AE6" s="104"/>
+      <c r="AF6" s="104"/>
+      <c r="AG6" s="104"/>
+      <c r="AH6" s="104"/>
+      <c r="AI6" s="104"/>
+      <c r="AJ6" s="104"/>
+      <c r="AK6" s="104"/>
+      <c r="AL6" s="104"/>
+      <c r="AM6" s="104"/>
+      <c r="AN6" s="105"/>
+      <c r="AQ6" s="103"/>
+      <c r="AR6" s="104"/>
+      <c r="AS6" s="104"/>
+      <c r="AT6" s="104"/>
+      <c r="AU6" s="104"/>
+      <c r="AV6" s="104"/>
+      <c r="AW6" s="104"/>
+      <c r="AX6" s="104"/>
+      <c r="AY6" s="104"/>
+      <c r="AZ6" s="104"/>
+      <c r="BA6" s="104"/>
+      <c r="BB6" s="104"/>
+      <c r="BC6" s="104"/>
+      <c r="BD6" s="104"/>
+      <c r="BE6" s="104"/>
+      <c r="BF6" s="104"/>
+      <c r="BG6" s="104"/>
+      <c r="BH6" s="105"/>
+      <c r="BK6" s="112"/>
+      <c r="BL6" s="113"/>
+      <c r="BM6" s="113"/>
+      <c r="BN6" s="113"/>
+      <c r="BO6" s="113"/>
+      <c r="BP6" s="113"/>
+      <c r="BQ6" s="113"/>
+      <c r="BR6" s="113"/>
+      <c r="BS6" s="113"/>
+      <c r="BT6" s="113"/>
+      <c r="BU6" s="113"/>
+      <c r="BV6" s="113"/>
+      <c r="BW6" s="113"/>
+      <c r="BX6" s="113"/>
+      <c r="BY6" s="113"/>
+      <c r="BZ6" s="113"/>
+      <c r="CA6" s="113"/>
+      <c r="CB6" s="114"/>
     </row>
     <row r="7" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="W7" s="97"/>
-      <c r="X7" s="98"/>
-      <c r="Y7" s="98"/>
-      <c r="Z7" s="98"/>
-      <c r="AA7" s="98"/>
-      <c r="AB7" s="98"/>
-      <c r="AC7" s="98"/>
-      <c r="AD7" s="98"/>
-      <c r="AE7" s="98"/>
-      <c r="AF7" s="98"/>
-      <c r="AG7" s="98"/>
-      <c r="AH7" s="98"/>
-      <c r="AI7" s="98"/>
-      <c r="AJ7" s="98"/>
-      <c r="AK7" s="98"/>
-      <c r="AL7" s="98"/>
-      <c r="AM7" s="98"/>
-      <c r="AN7" s="99"/>
-      <c r="AQ7" s="97"/>
-      <c r="AR7" s="98"/>
-      <c r="AS7" s="98"/>
-      <c r="AT7" s="98"/>
-      <c r="AU7" s="98"/>
-      <c r="AV7" s="98"/>
-      <c r="AW7" s="98"/>
-      <c r="AX7" s="98"/>
-      <c r="AY7" s="98"/>
-      <c r="AZ7" s="98"/>
-      <c r="BA7" s="98"/>
-      <c r="BB7" s="98"/>
-      <c r="BC7" s="98"/>
-      <c r="BD7" s="98"/>
-      <c r="BE7" s="98"/>
-      <c r="BF7" s="98"/>
-      <c r="BG7" s="98"/>
-      <c r="BH7" s="99"/>
-      <c r="BK7" s="106"/>
-      <c r="BL7" s="107"/>
-      <c r="BM7" s="107"/>
-      <c r="BN7" s="107"/>
-      <c r="BO7" s="107"/>
-      <c r="BP7" s="107"/>
-      <c r="BQ7" s="107"/>
-      <c r="BR7" s="107"/>
-      <c r="BS7" s="107"/>
-      <c r="BT7" s="107"/>
-      <c r="BU7" s="107"/>
-      <c r="BV7" s="107"/>
-      <c r="BW7" s="107"/>
-      <c r="BX7" s="107"/>
-      <c r="BY7" s="107"/>
-      <c r="BZ7" s="107"/>
-      <c r="CA7" s="107"/>
-      <c r="CB7" s="108"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="107"/>
+      <c r="AB7" s="107"/>
+      <c r="AC7" s="107"/>
+      <c r="AD7" s="107"/>
+      <c r="AE7" s="107"/>
+      <c r="AF7" s="107"/>
+      <c r="AG7" s="107"/>
+      <c r="AH7" s="107"/>
+      <c r="AI7" s="107"/>
+      <c r="AJ7" s="107"/>
+      <c r="AK7" s="107"/>
+      <c r="AL7" s="107"/>
+      <c r="AM7" s="107"/>
+      <c r="AN7" s="108"/>
+      <c r="AQ7" s="106"/>
+      <c r="AR7" s="107"/>
+      <c r="AS7" s="107"/>
+      <c r="AT7" s="107"/>
+      <c r="AU7" s="107"/>
+      <c r="AV7" s="107"/>
+      <c r="AW7" s="107"/>
+      <c r="AX7" s="107"/>
+      <c r="AY7" s="107"/>
+      <c r="AZ7" s="107"/>
+      <c r="BA7" s="107"/>
+      <c r="BB7" s="107"/>
+      <c r="BC7" s="107"/>
+      <c r="BD7" s="107"/>
+      <c r="BE7" s="107"/>
+      <c r="BF7" s="107"/>
+      <c r="BG7" s="107"/>
+      <c r="BH7" s="108"/>
+      <c r="BK7" s="115"/>
+      <c r="BL7" s="116"/>
+      <c r="BM7" s="116"/>
+      <c r="BN7" s="116"/>
+      <c r="BO7" s="116"/>
+      <c r="BP7" s="116"/>
+      <c r="BQ7" s="116"/>
+      <c r="BR7" s="116"/>
+      <c r="BS7" s="116"/>
+      <c r="BT7" s="116"/>
+      <c r="BU7" s="116"/>
+      <c r="BV7" s="116"/>
+      <c r="BW7" s="116"/>
+      <c r="BX7" s="116"/>
+      <c r="BY7" s="116"/>
+      <c r="BZ7" s="116"/>
+      <c r="CA7" s="116"/>
+      <c r="CB7" s="117"/>
     </row>
     <row r="8" spans="3:80" ht="9.75" customHeight="1" thickBot="1"/>
     <row r="9" spans="3:80" ht="9.75" customHeight="1">
@@ -13759,1124 +13759,1124 @@
       <c r="CB10" s="90"/>
     </row>
     <row r="11" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C11" s="109"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="110"/>
-      <c r="N11" s="110"/>
-      <c r="O11" s="110"/>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="110"/>
-      <c r="R11" s="110"/>
-      <c r="S11" s="110"/>
-      <c r="T11" s="110"/>
-      <c r="U11" s="110"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="110"/>
-      <c r="X11" s="110"/>
-      <c r="Y11" s="110"/>
-      <c r="Z11" s="110"/>
-      <c r="AA11" s="110"/>
-      <c r="AB11" s="110"/>
-      <c r="AC11" s="110"/>
-      <c r="AD11" s="110"/>
-      <c r="AE11" s="110"/>
-      <c r="AF11" s="110"/>
-      <c r="AG11" s="110"/>
-      <c r="AH11" s="110"/>
-      <c r="AI11" s="110"/>
-      <c r="AJ11" s="110"/>
-      <c r="AK11" s="110"/>
-      <c r="AL11" s="110"/>
-      <c r="AM11" s="110"/>
-      <c r="AN11" s="110"/>
-      <c r="AO11" s="110"/>
-      <c r="AP11" s="110"/>
-      <c r="AQ11" s="110"/>
-      <c r="AR11" s="110"/>
-      <c r="AS11" s="110"/>
-      <c r="AT11" s="110"/>
-      <c r="AU11" s="110"/>
-      <c r="AV11" s="110"/>
-      <c r="AW11" s="110"/>
-      <c r="AX11" s="110"/>
-      <c r="AY11" s="110"/>
-      <c r="AZ11" s="110"/>
-      <c r="BA11" s="110"/>
-      <c r="BB11" s="110"/>
-      <c r="BC11" s="110"/>
-      <c r="BD11" s="110"/>
-      <c r="BE11" s="110"/>
-      <c r="BF11" s="110"/>
-      <c r="BG11" s="110"/>
-      <c r="BH11" s="110"/>
-      <c r="BI11" s="110"/>
-      <c r="BJ11" s="110"/>
-      <c r="BK11" s="110"/>
-      <c r="BL11" s="110"/>
-      <c r="BM11" s="110"/>
-      <c r="BN11" s="110"/>
-      <c r="BO11" s="110"/>
-      <c r="BP11" s="110"/>
-      <c r="BQ11" s="110"/>
-      <c r="BR11" s="110"/>
-      <c r="BS11" s="110"/>
-      <c r="BT11" s="110"/>
-      <c r="BU11" s="110"/>
-      <c r="BV11" s="110"/>
-      <c r="BW11" s="110"/>
-      <c r="BX11" s="110"/>
-      <c r="BY11" s="110"/>
-      <c r="BZ11" s="110"/>
-      <c r="CA11" s="110"/>
-      <c r="CB11" s="111"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="92"/>
+      <c r="T11" s="92"/>
+      <c r="U11" s="92"/>
+      <c r="V11" s="92"/>
+      <c r="W11" s="92"/>
+      <c r="X11" s="92"/>
+      <c r="Y11" s="92"/>
+      <c r="Z11" s="92"/>
+      <c r="AA11" s="92"/>
+      <c r="AB11" s="92"/>
+      <c r="AC11" s="92"/>
+      <c r="AD11" s="92"/>
+      <c r="AE11" s="92"/>
+      <c r="AF11" s="92"/>
+      <c r="AG11" s="92"/>
+      <c r="AH11" s="92"/>
+      <c r="AI11" s="92"/>
+      <c r="AJ11" s="92"/>
+      <c r="AK11" s="92"/>
+      <c r="AL11" s="92"/>
+      <c r="AM11" s="92"/>
+      <c r="AN11" s="92"/>
+      <c r="AO11" s="92"/>
+      <c r="AP11" s="92"/>
+      <c r="AQ11" s="92"/>
+      <c r="AR11" s="92"/>
+      <c r="AS11" s="92"/>
+      <c r="AT11" s="92"/>
+      <c r="AU11" s="92"/>
+      <c r="AV11" s="92"/>
+      <c r="AW11" s="92"/>
+      <c r="AX11" s="92"/>
+      <c r="AY11" s="92"/>
+      <c r="AZ11" s="92"/>
+      <c r="BA11" s="92"/>
+      <c r="BB11" s="92"/>
+      <c r="BC11" s="92"/>
+      <c r="BD11" s="92"/>
+      <c r="BE11" s="92"/>
+      <c r="BF11" s="92"/>
+      <c r="BG11" s="92"/>
+      <c r="BH11" s="92"/>
+      <c r="BI11" s="92"/>
+      <c r="BJ11" s="92"/>
+      <c r="BK11" s="92"/>
+      <c r="BL11" s="92"/>
+      <c r="BM11" s="92"/>
+      <c r="BN11" s="92"/>
+      <c r="BO11" s="92"/>
+      <c r="BP11" s="92"/>
+      <c r="BQ11" s="92"/>
+      <c r="BR11" s="92"/>
+      <c r="BS11" s="92"/>
+      <c r="BT11" s="92"/>
+      <c r="BU11" s="92"/>
+      <c r="BV11" s="92"/>
+      <c r="BW11" s="92"/>
+      <c r="BX11" s="92"/>
+      <c r="BY11" s="92"/>
+      <c r="BZ11" s="92"/>
+      <c r="CA11" s="92"/>
+      <c r="CB11" s="93"/>
     </row>
     <row r="12" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C12" s="112"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="113"/>
-      <c r="M12" s="113"/>
-      <c r="N12" s="113"/>
-      <c r="O12" s="113"/>
-      <c r="P12" s="113"/>
-      <c r="Q12" s="113"/>
-      <c r="R12" s="113"/>
-      <c r="S12" s="113"/>
-      <c r="T12" s="113"/>
-      <c r="U12" s="113"/>
-      <c r="V12" s="113"/>
-      <c r="W12" s="113"/>
-      <c r="X12" s="113"/>
-      <c r="Y12" s="113"/>
-      <c r="Z12" s="113"/>
-      <c r="AA12" s="113"/>
-      <c r="AB12" s="113"/>
-      <c r="AC12" s="113"/>
-      <c r="AD12" s="113"/>
-      <c r="AE12" s="113"/>
-      <c r="AF12" s="113"/>
-      <c r="AG12" s="113"/>
-      <c r="AH12" s="113"/>
-      <c r="AI12" s="113"/>
-      <c r="AJ12" s="113"/>
-      <c r="AK12" s="113"/>
-      <c r="AL12" s="113"/>
-      <c r="AM12" s="113"/>
-      <c r="AN12" s="113"/>
-      <c r="AO12" s="113"/>
-      <c r="AP12" s="113"/>
-      <c r="AQ12" s="113"/>
-      <c r="AR12" s="113"/>
-      <c r="AS12" s="113"/>
-      <c r="AT12" s="113"/>
-      <c r="AU12" s="113"/>
-      <c r="AV12" s="113"/>
-      <c r="AW12" s="113"/>
-      <c r="AX12" s="113"/>
-      <c r="AY12" s="113"/>
-      <c r="AZ12" s="113"/>
-      <c r="BA12" s="113"/>
-      <c r="BB12" s="113"/>
-      <c r="BC12" s="113"/>
-      <c r="BD12" s="113"/>
-      <c r="BE12" s="113"/>
-      <c r="BF12" s="113"/>
-      <c r="BG12" s="113"/>
-      <c r="BH12" s="113"/>
-      <c r="BI12" s="113"/>
-      <c r="BJ12" s="113"/>
-      <c r="BK12" s="113"/>
-      <c r="BL12" s="113"/>
-      <c r="BM12" s="113"/>
-      <c r="BN12" s="113"/>
-      <c r="BO12" s="113"/>
-      <c r="BP12" s="113"/>
-      <c r="BQ12" s="113"/>
-      <c r="BR12" s="113"/>
-      <c r="BS12" s="113"/>
-      <c r="BT12" s="113"/>
-      <c r="BU12" s="113"/>
-      <c r="BV12" s="113"/>
-      <c r="BW12" s="113"/>
-      <c r="BX12" s="113"/>
-      <c r="BY12" s="113"/>
-      <c r="BZ12" s="113"/>
-      <c r="CA12" s="113"/>
-      <c r="CB12" s="114"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="95"/>
+      <c r="U12" s="95"/>
+      <c r="V12" s="95"/>
+      <c r="W12" s="95"/>
+      <c r="X12" s="95"/>
+      <c r="Y12" s="95"/>
+      <c r="Z12" s="95"/>
+      <c r="AA12" s="95"/>
+      <c r="AB12" s="95"/>
+      <c r="AC12" s="95"/>
+      <c r="AD12" s="95"/>
+      <c r="AE12" s="95"/>
+      <c r="AF12" s="95"/>
+      <c r="AG12" s="95"/>
+      <c r="AH12" s="95"/>
+      <c r="AI12" s="95"/>
+      <c r="AJ12" s="95"/>
+      <c r="AK12" s="95"/>
+      <c r="AL12" s="95"/>
+      <c r="AM12" s="95"/>
+      <c r="AN12" s="95"/>
+      <c r="AO12" s="95"/>
+      <c r="AP12" s="95"/>
+      <c r="AQ12" s="95"/>
+      <c r="AR12" s="95"/>
+      <c r="AS12" s="95"/>
+      <c r="AT12" s="95"/>
+      <c r="AU12" s="95"/>
+      <c r="AV12" s="95"/>
+      <c r="AW12" s="95"/>
+      <c r="AX12" s="95"/>
+      <c r="AY12" s="95"/>
+      <c r="AZ12" s="95"/>
+      <c r="BA12" s="95"/>
+      <c r="BB12" s="95"/>
+      <c r="BC12" s="95"/>
+      <c r="BD12" s="95"/>
+      <c r="BE12" s="95"/>
+      <c r="BF12" s="95"/>
+      <c r="BG12" s="95"/>
+      <c r="BH12" s="95"/>
+      <c r="BI12" s="95"/>
+      <c r="BJ12" s="95"/>
+      <c r="BK12" s="95"/>
+      <c r="BL12" s="95"/>
+      <c r="BM12" s="95"/>
+      <c r="BN12" s="95"/>
+      <c r="BO12" s="95"/>
+      <c r="BP12" s="95"/>
+      <c r="BQ12" s="95"/>
+      <c r="BR12" s="95"/>
+      <c r="BS12" s="95"/>
+      <c r="BT12" s="95"/>
+      <c r="BU12" s="95"/>
+      <c r="BV12" s="95"/>
+      <c r="BW12" s="95"/>
+      <c r="BX12" s="95"/>
+      <c r="BY12" s="95"/>
+      <c r="BZ12" s="95"/>
+      <c r="CA12" s="95"/>
+      <c r="CB12" s="96"/>
     </row>
     <row r="13" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="113"/>
-      <c r="R13" s="113"/>
-      <c r="S13" s="113"/>
-      <c r="T13" s="113"/>
-      <c r="U13" s="113"/>
-      <c r="V13" s="113"/>
-      <c r="W13" s="113"/>
-      <c r="X13" s="113"/>
-      <c r="Y13" s="113"/>
-      <c r="Z13" s="113"/>
-      <c r="AA13" s="113"/>
-      <c r="AB13" s="113"/>
-      <c r="AC13" s="113"/>
-      <c r="AD13" s="113"/>
-      <c r="AE13" s="113"/>
-      <c r="AF13" s="113"/>
-      <c r="AG13" s="113"/>
-      <c r="AH13" s="113"/>
-      <c r="AI13" s="113"/>
-      <c r="AJ13" s="113"/>
-      <c r="AK13" s="113"/>
-      <c r="AL13" s="113"/>
-      <c r="AM13" s="113"/>
-      <c r="AN13" s="113"/>
-      <c r="AO13" s="113"/>
-      <c r="AP13" s="113"/>
-      <c r="AQ13" s="113"/>
-      <c r="AR13" s="113"/>
-      <c r="AS13" s="113"/>
-      <c r="AT13" s="113"/>
-      <c r="AU13" s="113"/>
-      <c r="AV13" s="113"/>
-      <c r="AW13" s="113"/>
-      <c r="AX13" s="113"/>
-      <c r="AY13" s="113"/>
-      <c r="AZ13" s="113"/>
-      <c r="BA13" s="113"/>
-      <c r="BB13" s="113"/>
-      <c r="BC13" s="113"/>
-      <c r="BD13" s="113"/>
-      <c r="BE13" s="113"/>
-      <c r="BF13" s="113"/>
-      <c r="BG13" s="113"/>
-      <c r="BH13" s="113"/>
-      <c r="BI13" s="113"/>
-      <c r="BJ13" s="113"/>
-      <c r="BK13" s="113"/>
-      <c r="BL13" s="113"/>
-      <c r="BM13" s="113"/>
-      <c r="BN13" s="113"/>
-      <c r="BO13" s="113"/>
-      <c r="BP13" s="113"/>
-      <c r="BQ13" s="113"/>
-      <c r="BR13" s="113"/>
-      <c r="BS13" s="113"/>
-      <c r="BT13" s="113"/>
-      <c r="BU13" s="113"/>
-      <c r="BV13" s="113"/>
-      <c r="BW13" s="113"/>
-      <c r="BX13" s="113"/>
-      <c r="BY13" s="113"/>
-      <c r="BZ13" s="113"/>
-      <c r="CA13" s="113"/>
-      <c r="CB13" s="114"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="95"/>
+      <c r="V13" s="95"/>
+      <c r="W13" s="95"/>
+      <c r="X13" s="95"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="95"/>
+      <c r="AA13" s="95"/>
+      <c r="AB13" s="95"/>
+      <c r="AC13" s="95"/>
+      <c r="AD13" s="95"/>
+      <c r="AE13" s="95"/>
+      <c r="AF13" s="95"/>
+      <c r="AG13" s="95"/>
+      <c r="AH13" s="95"/>
+      <c r="AI13" s="95"/>
+      <c r="AJ13" s="95"/>
+      <c r="AK13" s="95"/>
+      <c r="AL13" s="95"/>
+      <c r="AM13" s="95"/>
+      <c r="AN13" s="95"/>
+      <c r="AO13" s="95"/>
+      <c r="AP13" s="95"/>
+      <c r="AQ13" s="95"/>
+      <c r="AR13" s="95"/>
+      <c r="AS13" s="95"/>
+      <c r="AT13" s="95"/>
+      <c r="AU13" s="95"/>
+      <c r="AV13" s="95"/>
+      <c r="AW13" s="95"/>
+      <c r="AX13" s="95"/>
+      <c r="AY13" s="95"/>
+      <c r="AZ13" s="95"/>
+      <c r="BA13" s="95"/>
+      <c r="BB13" s="95"/>
+      <c r="BC13" s="95"/>
+      <c r="BD13" s="95"/>
+      <c r="BE13" s="95"/>
+      <c r="BF13" s="95"/>
+      <c r="BG13" s="95"/>
+      <c r="BH13" s="95"/>
+      <c r="BI13" s="95"/>
+      <c r="BJ13" s="95"/>
+      <c r="BK13" s="95"/>
+      <c r="BL13" s="95"/>
+      <c r="BM13" s="95"/>
+      <c r="BN13" s="95"/>
+      <c r="BO13" s="95"/>
+      <c r="BP13" s="95"/>
+      <c r="BQ13" s="95"/>
+      <c r="BR13" s="95"/>
+      <c r="BS13" s="95"/>
+      <c r="BT13" s="95"/>
+      <c r="BU13" s="95"/>
+      <c r="BV13" s="95"/>
+      <c r="BW13" s="95"/>
+      <c r="BX13" s="95"/>
+      <c r="BY13" s="95"/>
+      <c r="BZ13" s="95"/>
+      <c r="CA13" s="95"/>
+      <c r="CB13" s="96"/>
     </row>
     <row r="14" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C14" s="112"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="113"/>
-      <c r="M14" s="113"/>
-      <c r="N14" s="113"/>
-      <c r="O14" s="113"/>
-      <c r="P14" s="113"/>
-      <c r="Q14" s="113"/>
-      <c r="R14" s="113"/>
-      <c r="S14" s="113"/>
-      <c r="T14" s="113"/>
-      <c r="U14" s="113"/>
-      <c r="V14" s="113"/>
-      <c r="W14" s="113"/>
-      <c r="X14" s="113"/>
-      <c r="Y14" s="113"/>
-      <c r="Z14" s="113"/>
-      <c r="AA14" s="113"/>
-      <c r="AB14" s="113"/>
-      <c r="AC14" s="113"/>
-      <c r="AD14" s="113"/>
-      <c r="AE14" s="113"/>
-      <c r="AF14" s="113"/>
-      <c r="AG14" s="113"/>
-      <c r="AH14" s="113"/>
-      <c r="AI14" s="113"/>
-      <c r="AJ14" s="113"/>
-      <c r="AK14" s="113"/>
-      <c r="AL14" s="113"/>
-      <c r="AM14" s="113"/>
-      <c r="AN14" s="113"/>
-      <c r="AO14" s="113"/>
-      <c r="AP14" s="113"/>
-      <c r="AQ14" s="113"/>
-      <c r="AR14" s="113"/>
-      <c r="AS14" s="113"/>
-      <c r="AT14" s="113"/>
-      <c r="AU14" s="113"/>
-      <c r="AV14" s="113"/>
-      <c r="AW14" s="113"/>
-      <c r="AX14" s="113"/>
-      <c r="AY14" s="113"/>
-      <c r="AZ14" s="113"/>
-      <c r="BA14" s="113"/>
-      <c r="BB14" s="113"/>
-      <c r="BC14" s="113"/>
-      <c r="BD14" s="113"/>
-      <c r="BE14" s="113"/>
-      <c r="BF14" s="113"/>
-      <c r="BG14" s="113"/>
-      <c r="BH14" s="113"/>
-      <c r="BI14" s="113"/>
-      <c r="BJ14" s="113"/>
-      <c r="BK14" s="113"/>
-      <c r="BL14" s="113"/>
-      <c r="BM14" s="113"/>
-      <c r="BN14" s="113"/>
-      <c r="BO14" s="113"/>
-      <c r="BP14" s="113"/>
-      <c r="BQ14" s="113"/>
-      <c r="BR14" s="113"/>
-      <c r="BS14" s="113"/>
-      <c r="BT14" s="113"/>
-      <c r="BU14" s="113"/>
-      <c r="BV14" s="113"/>
-      <c r="BW14" s="113"/>
-      <c r="BX14" s="113"/>
-      <c r="BY14" s="113"/>
-      <c r="BZ14" s="113"/>
-      <c r="CA14" s="113"/>
-      <c r="CB14" s="114"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="95"/>
+      <c r="U14" s="95"/>
+      <c r="V14" s="95"/>
+      <c r="W14" s="95"/>
+      <c r="X14" s="95"/>
+      <c r="Y14" s="95"/>
+      <c r="Z14" s="95"/>
+      <c r="AA14" s="95"/>
+      <c r="AB14" s="95"/>
+      <c r="AC14" s="95"/>
+      <c r="AD14" s="95"/>
+      <c r="AE14" s="95"/>
+      <c r="AF14" s="95"/>
+      <c r="AG14" s="95"/>
+      <c r="AH14" s="95"/>
+      <c r="AI14" s="95"/>
+      <c r="AJ14" s="95"/>
+      <c r="AK14" s="95"/>
+      <c r="AL14" s="95"/>
+      <c r="AM14" s="95"/>
+      <c r="AN14" s="95"/>
+      <c r="AO14" s="95"/>
+      <c r="AP14" s="95"/>
+      <c r="AQ14" s="95"/>
+      <c r="AR14" s="95"/>
+      <c r="AS14" s="95"/>
+      <c r="AT14" s="95"/>
+      <c r="AU14" s="95"/>
+      <c r="AV14" s="95"/>
+      <c r="AW14" s="95"/>
+      <c r="AX14" s="95"/>
+      <c r="AY14" s="95"/>
+      <c r="AZ14" s="95"/>
+      <c r="BA14" s="95"/>
+      <c r="BB14" s="95"/>
+      <c r="BC14" s="95"/>
+      <c r="BD14" s="95"/>
+      <c r="BE14" s="95"/>
+      <c r="BF14" s="95"/>
+      <c r="BG14" s="95"/>
+      <c r="BH14" s="95"/>
+      <c r="BI14" s="95"/>
+      <c r="BJ14" s="95"/>
+      <c r="BK14" s="95"/>
+      <c r="BL14" s="95"/>
+      <c r="BM14" s="95"/>
+      <c r="BN14" s="95"/>
+      <c r="BO14" s="95"/>
+      <c r="BP14" s="95"/>
+      <c r="BQ14" s="95"/>
+      <c r="BR14" s="95"/>
+      <c r="BS14" s="95"/>
+      <c r="BT14" s="95"/>
+      <c r="BU14" s="95"/>
+      <c r="BV14" s="95"/>
+      <c r="BW14" s="95"/>
+      <c r="BX14" s="95"/>
+      <c r="BY14" s="95"/>
+      <c r="BZ14" s="95"/>
+      <c r="CA14" s="95"/>
+      <c r="CB14" s="96"/>
     </row>
     <row r="15" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C15" s="112"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="113"/>
-      <c r="L15" s="113"/>
-      <c r="M15" s="113"/>
-      <c r="N15" s="113"/>
-      <c r="O15" s="113"/>
-      <c r="P15" s="113"/>
-      <c r="Q15" s="113"/>
-      <c r="R15" s="113"/>
-      <c r="S15" s="113"/>
-      <c r="T15" s="113"/>
-      <c r="U15" s="113"/>
-      <c r="V15" s="113"/>
-      <c r="W15" s="113"/>
-      <c r="X15" s="113"/>
-      <c r="Y15" s="113"/>
-      <c r="Z15" s="113"/>
-      <c r="AA15" s="113"/>
-      <c r="AB15" s="113"/>
-      <c r="AC15" s="113"/>
-      <c r="AD15" s="113"/>
-      <c r="AE15" s="113"/>
-      <c r="AF15" s="113"/>
-      <c r="AG15" s="113"/>
-      <c r="AH15" s="113"/>
-      <c r="AI15" s="113"/>
-      <c r="AJ15" s="113"/>
-      <c r="AK15" s="113"/>
-      <c r="AL15" s="113"/>
-      <c r="AM15" s="113"/>
-      <c r="AN15" s="113"/>
-      <c r="AO15" s="113"/>
-      <c r="AP15" s="113"/>
-      <c r="AQ15" s="113"/>
-      <c r="AR15" s="113"/>
-      <c r="AS15" s="113"/>
-      <c r="AT15" s="113"/>
-      <c r="AU15" s="113"/>
-      <c r="AV15" s="113"/>
-      <c r="AW15" s="113"/>
-      <c r="AX15" s="113"/>
-      <c r="AY15" s="113"/>
-      <c r="AZ15" s="113"/>
-      <c r="BA15" s="113"/>
-      <c r="BB15" s="113"/>
-      <c r="BC15" s="113"/>
-      <c r="BD15" s="113"/>
-      <c r="BE15" s="113"/>
-      <c r="BF15" s="113"/>
-      <c r="BG15" s="113"/>
-      <c r="BH15" s="113"/>
-      <c r="BI15" s="113"/>
-      <c r="BJ15" s="113"/>
-      <c r="BK15" s="113"/>
-      <c r="BL15" s="113"/>
-      <c r="BM15" s="113"/>
-      <c r="BN15" s="113"/>
-      <c r="BO15" s="113"/>
-      <c r="BP15" s="113"/>
-      <c r="BQ15" s="113"/>
-      <c r="BR15" s="113"/>
-      <c r="BS15" s="113"/>
-      <c r="BT15" s="113"/>
-      <c r="BU15" s="113"/>
-      <c r="BV15" s="113"/>
-      <c r="BW15" s="113"/>
-      <c r="BX15" s="113"/>
-      <c r="BY15" s="113"/>
-      <c r="BZ15" s="113"/>
-      <c r="CA15" s="113"/>
-      <c r="CB15" s="114"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="95"/>
+      <c r="U15" s="95"/>
+      <c r="V15" s="95"/>
+      <c r="W15" s="95"/>
+      <c r="X15" s="95"/>
+      <c r="Y15" s="95"/>
+      <c r="Z15" s="95"/>
+      <c r="AA15" s="95"/>
+      <c r="AB15" s="95"/>
+      <c r="AC15" s="95"/>
+      <c r="AD15" s="95"/>
+      <c r="AE15" s="95"/>
+      <c r="AF15" s="95"/>
+      <c r="AG15" s="95"/>
+      <c r="AH15" s="95"/>
+      <c r="AI15" s="95"/>
+      <c r="AJ15" s="95"/>
+      <c r="AK15" s="95"/>
+      <c r="AL15" s="95"/>
+      <c r="AM15" s="95"/>
+      <c r="AN15" s="95"/>
+      <c r="AO15" s="95"/>
+      <c r="AP15" s="95"/>
+      <c r="AQ15" s="95"/>
+      <c r="AR15" s="95"/>
+      <c r="AS15" s="95"/>
+      <c r="AT15" s="95"/>
+      <c r="AU15" s="95"/>
+      <c r="AV15" s="95"/>
+      <c r="AW15" s="95"/>
+      <c r="AX15" s="95"/>
+      <c r="AY15" s="95"/>
+      <c r="AZ15" s="95"/>
+      <c r="BA15" s="95"/>
+      <c r="BB15" s="95"/>
+      <c r="BC15" s="95"/>
+      <c r="BD15" s="95"/>
+      <c r="BE15" s="95"/>
+      <c r="BF15" s="95"/>
+      <c r="BG15" s="95"/>
+      <c r="BH15" s="95"/>
+      <c r="BI15" s="95"/>
+      <c r="BJ15" s="95"/>
+      <c r="BK15" s="95"/>
+      <c r="BL15" s="95"/>
+      <c r="BM15" s="95"/>
+      <c r="BN15" s="95"/>
+      <c r="BO15" s="95"/>
+      <c r="BP15" s="95"/>
+      <c r="BQ15" s="95"/>
+      <c r="BR15" s="95"/>
+      <c r="BS15" s="95"/>
+      <c r="BT15" s="95"/>
+      <c r="BU15" s="95"/>
+      <c r="BV15" s="95"/>
+      <c r="BW15" s="95"/>
+      <c r="BX15" s="95"/>
+      <c r="BY15" s="95"/>
+      <c r="BZ15" s="95"/>
+      <c r="CA15" s="95"/>
+      <c r="CB15" s="96"/>
     </row>
     <row r="16" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C16" s="112"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="113"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="113"/>
-      <c r="N16" s="113"/>
-      <c r="O16" s="113"/>
-      <c r="P16" s="113"/>
-      <c r="Q16" s="113"/>
-      <c r="R16" s="113"/>
-      <c r="S16" s="113"/>
-      <c r="T16" s="113"/>
-      <c r="U16" s="113"/>
-      <c r="V16" s="113"/>
-      <c r="W16" s="113"/>
-      <c r="X16" s="113"/>
-      <c r="Y16" s="113"/>
-      <c r="Z16" s="113"/>
-      <c r="AA16" s="113"/>
-      <c r="AB16" s="113"/>
-      <c r="AC16" s="113"/>
-      <c r="AD16" s="113"/>
-      <c r="AE16" s="113"/>
-      <c r="AF16" s="113"/>
-      <c r="AG16" s="113"/>
-      <c r="AH16" s="113"/>
-      <c r="AI16" s="113"/>
-      <c r="AJ16" s="113"/>
-      <c r="AK16" s="113"/>
-      <c r="AL16" s="113"/>
-      <c r="AM16" s="113"/>
-      <c r="AN16" s="113"/>
-      <c r="AO16" s="113"/>
-      <c r="AP16" s="113"/>
-      <c r="AQ16" s="113"/>
-      <c r="AR16" s="113"/>
-      <c r="AS16" s="113"/>
-      <c r="AT16" s="113"/>
-      <c r="AU16" s="113"/>
-      <c r="AV16" s="113"/>
-      <c r="AW16" s="113"/>
-      <c r="AX16" s="113"/>
-      <c r="AY16" s="113"/>
-      <c r="AZ16" s="113"/>
-      <c r="BA16" s="113"/>
-      <c r="BB16" s="113"/>
-      <c r="BC16" s="113"/>
-      <c r="BD16" s="113"/>
-      <c r="BE16" s="113"/>
-      <c r="BF16" s="113"/>
-      <c r="BG16" s="113"/>
-      <c r="BH16" s="113"/>
-      <c r="BI16" s="113"/>
-      <c r="BJ16" s="113"/>
-      <c r="BK16" s="113"/>
-      <c r="BL16" s="113"/>
-      <c r="BM16" s="113"/>
-      <c r="BN16" s="113"/>
-      <c r="BO16" s="113"/>
-      <c r="BP16" s="113"/>
-      <c r="BQ16" s="113"/>
-      <c r="BR16" s="113"/>
-      <c r="BS16" s="113"/>
-      <c r="BT16" s="113"/>
-      <c r="BU16" s="113"/>
-      <c r="BV16" s="113"/>
-      <c r="BW16" s="113"/>
-      <c r="BX16" s="113"/>
-      <c r="BY16" s="113"/>
-      <c r="BZ16" s="113"/>
-      <c r="CA16" s="113"/>
-      <c r="CB16" s="114"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="95"/>
+      <c r="T16" s="95"/>
+      <c r="U16" s="95"/>
+      <c r="V16" s="95"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="95"/>
+      <c r="Y16" s="95"/>
+      <c r="Z16" s="95"/>
+      <c r="AA16" s="95"/>
+      <c r="AB16" s="95"/>
+      <c r="AC16" s="95"/>
+      <c r="AD16" s="95"/>
+      <c r="AE16" s="95"/>
+      <c r="AF16" s="95"/>
+      <c r="AG16" s="95"/>
+      <c r="AH16" s="95"/>
+      <c r="AI16" s="95"/>
+      <c r="AJ16" s="95"/>
+      <c r="AK16" s="95"/>
+      <c r="AL16" s="95"/>
+      <c r="AM16" s="95"/>
+      <c r="AN16" s="95"/>
+      <c r="AO16" s="95"/>
+      <c r="AP16" s="95"/>
+      <c r="AQ16" s="95"/>
+      <c r="AR16" s="95"/>
+      <c r="AS16" s="95"/>
+      <c r="AT16" s="95"/>
+      <c r="AU16" s="95"/>
+      <c r="AV16" s="95"/>
+      <c r="AW16" s="95"/>
+      <c r="AX16" s="95"/>
+      <c r="AY16" s="95"/>
+      <c r="AZ16" s="95"/>
+      <c r="BA16" s="95"/>
+      <c r="BB16" s="95"/>
+      <c r="BC16" s="95"/>
+      <c r="BD16" s="95"/>
+      <c r="BE16" s="95"/>
+      <c r="BF16" s="95"/>
+      <c r="BG16" s="95"/>
+      <c r="BH16" s="95"/>
+      <c r="BI16" s="95"/>
+      <c r="BJ16" s="95"/>
+      <c r="BK16" s="95"/>
+      <c r="BL16" s="95"/>
+      <c r="BM16" s="95"/>
+      <c r="BN16" s="95"/>
+      <c r="BO16" s="95"/>
+      <c r="BP16" s="95"/>
+      <c r="BQ16" s="95"/>
+      <c r="BR16" s="95"/>
+      <c r="BS16" s="95"/>
+      <c r="BT16" s="95"/>
+      <c r="BU16" s="95"/>
+      <c r="BV16" s="95"/>
+      <c r="BW16" s="95"/>
+      <c r="BX16" s="95"/>
+      <c r="BY16" s="95"/>
+      <c r="BZ16" s="95"/>
+      <c r="CA16" s="95"/>
+      <c r="CB16" s="96"/>
     </row>
     <row r="17" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C17" s="112"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="113"/>
-      <c r="L17" s="113"/>
-      <c r="M17" s="113"/>
-      <c r="N17" s="113"/>
-      <c r="O17" s="113"/>
-      <c r="P17" s="113"/>
-      <c r="Q17" s="113"/>
-      <c r="R17" s="113"/>
-      <c r="S17" s="113"/>
-      <c r="T17" s="113"/>
-      <c r="U17" s="113"/>
-      <c r="V17" s="113"/>
-      <c r="W17" s="113"/>
-      <c r="X17" s="113"/>
-      <c r="Y17" s="113"/>
-      <c r="Z17" s="113"/>
-      <c r="AA17" s="113"/>
-      <c r="AB17" s="113"/>
-      <c r="AC17" s="113"/>
-      <c r="AD17" s="113"/>
-      <c r="AE17" s="113"/>
-      <c r="AF17" s="113"/>
-      <c r="AG17" s="113"/>
-      <c r="AH17" s="113"/>
-      <c r="AI17" s="113"/>
-      <c r="AJ17" s="113"/>
-      <c r="AK17" s="113"/>
-      <c r="AL17" s="113"/>
-      <c r="AM17" s="113"/>
-      <c r="AN17" s="113"/>
-      <c r="AO17" s="113"/>
-      <c r="AP17" s="113"/>
-      <c r="AQ17" s="113"/>
-      <c r="AR17" s="113"/>
-      <c r="AS17" s="113"/>
-      <c r="AT17" s="113"/>
-      <c r="AU17" s="113"/>
-      <c r="AV17" s="113"/>
-      <c r="AW17" s="113"/>
-      <c r="AX17" s="113"/>
-      <c r="AY17" s="113"/>
-      <c r="AZ17" s="113"/>
-      <c r="BA17" s="113"/>
-      <c r="BB17" s="113"/>
-      <c r="BC17" s="113"/>
-      <c r="BD17" s="113"/>
-      <c r="BE17" s="113"/>
-      <c r="BF17" s="113"/>
-      <c r="BG17" s="113"/>
-      <c r="BH17" s="113"/>
-      <c r="BI17" s="113"/>
-      <c r="BJ17" s="113"/>
-      <c r="BK17" s="113"/>
-      <c r="BL17" s="113"/>
-      <c r="BM17" s="113"/>
-      <c r="BN17" s="113"/>
-      <c r="BO17" s="113"/>
-      <c r="BP17" s="113"/>
-      <c r="BQ17" s="113"/>
-      <c r="BR17" s="113"/>
-      <c r="BS17" s="113"/>
-      <c r="BT17" s="113"/>
-      <c r="BU17" s="113"/>
-      <c r="BV17" s="113"/>
-      <c r="BW17" s="113"/>
-      <c r="BX17" s="113"/>
-      <c r="BY17" s="113"/>
-      <c r="BZ17" s="113"/>
-      <c r="CA17" s="113"/>
-      <c r="CB17" s="114"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="95"/>
+      <c r="V17" s="95"/>
+      <c r="W17" s="95"/>
+      <c r="X17" s="95"/>
+      <c r="Y17" s="95"/>
+      <c r="Z17" s="95"/>
+      <c r="AA17" s="95"/>
+      <c r="AB17" s="95"/>
+      <c r="AC17" s="95"/>
+      <c r="AD17" s="95"/>
+      <c r="AE17" s="95"/>
+      <c r="AF17" s="95"/>
+      <c r="AG17" s="95"/>
+      <c r="AH17" s="95"/>
+      <c r="AI17" s="95"/>
+      <c r="AJ17" s="95"/>
+      <c r="AK17" s="95"/>
+      <c r="AL17" s="95"/>
+      <c r="AM17" s="95"/>
+      <c r="AN17" s="95"/>
+      <c r="AO17" s="95"/>
+      <c r="AP17" s="95"/>
+      <c r="AQ17" s="95"/>
+      <c r="AR17" s="95"/>
+      <c r="AS17" s="95"/>
+      <c r="AT17" s="95"/>
+      <c r="AU17" s="95"/>
+      <c r="AV17" s="95"/>
+      <c r="AW17" s="95"/>
+      <c r="AX17" s="95"/>
+      <c r="AY17" s="95"/>
+      <c r="AZ17" s="95"/>
+      <c r="BA17" s="95"/>
+      <c r="BB17" s="95"/>
+      <c r="BC17" s="95"/>
+      <c r="BD17" s="95"/>
+      <c r="BE17" s="95"/>
+      <c r="BF17" s="95"/>
+      <c r="BG17" s="95"/>
+      <c r="BH17" s="95"/>
+      <c r="BI17" s="95"/>
+      <c r="BJ17" s="95"/>
+      <c r="BK17" s="95"/>
+      <c r="BL17" s="95"/>
+      <c r="BM17" s="95"/>
+      <c r="BN17" s="95"/>
+      <c r="BO17" s="95"/>
+      <c r="BP17" s="95"/>
+      <c r="BQ17" s="95"/>
+      <c r="BR17" s="95"/>
+      <c r="BS17" s="95"/>
+      <c r="BT17" s="95"/>
+      <c r="BU17" s="95"/>
+      <c r="BV17" s="95"/>
+      <c r="BW17" s="95"/>
+      <c r="BX17" s="95"/>
+      <c r="BY17" s="95"/>
+      <c r="BZ17" s="95"/>
+      <c r="CA17" s="95"/>
+      <c r="CB17" s="96"/>
     </row>
     <row r="18" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C18" s="112"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="113"/>
-      <c r="L18" s="113"/>
-      <c r="M18" s="113"/>
-      <c r="N18" s="113"/>
-      <c r="O18" s="113"/>
-      <c r="P18" s="113"/>
-      <c r="Q18" s="113"/>
-      <c r="R18" s="113"/>
-      <c r="S18" s="113"/>
-      <c r="T18" s="113"/>
-      <c r="U18" s="113"/>
-      <c r="V18" s="113"/>
-      <c r="W18" s="113"/>
-      <c r="X18" s="113"/>
-      <c r="Y18" s="113"/>
-      <c r="Z18" s="113"/>
-      <c r="AA18" s="113"/>
-      <c r="AB18" s="113"/>
-      <c r="AC18" s="113"/>
-      <c r="AD18" s="113"/>
-      <c r="AE18" s="113"/>
-      <c r="AF18" s="113"/>
-      <c r="AG18" s="113"/>
-      <c r="AH18" s="113"/>
-      <c r="AI18" s="113"/>
-      <c r="AJ18" s="113"/>
-      <c r="AK18" s="113"/>
-      <c r="AL18" s="113"/>
-      <c r="AM18" s="113"/>
-      <c r="AN18" s="113"/>
-      <c r="AO18" s="113"/>
-      <c r="AP18" s="113"/>
-      <c r="AQ18" s="113"/>
-      <c r="AR18" s="113"/>
-      <c r="AS18" s="113"/>
-      <c r="AT18" s="113"/>
-      <c r="AU18" s="113"/>
-      <c r="AV18" s="113"/>
-      <c r="AW18" s="113"/>
-      <c r="AX18" s="113"/>
-      <c r="AY18" s="113"/>
-      <c r="AZ18" s="113"/>
-      <c r="BA18" s="113"/>
-      <c r="BB18" s="113"/>
-      <c r="BC18" s="113"/>
-      <c r="BD18" s="113"/>
-      <c r="BE18" s="113"/>
-      <c r="BF18" s="113"/>
-      <c r="BG18" s="113"/>
-      <c r="BH18" s="113"/>
-      <c r="BI18" s="113"/>
-      <c r="BJ18" s="113"/>
-      <c r="BK18" s="113"/>
-      <c r="BL18" s="113"/>
-      <c r="BM18" s="113"/>
-      <c r="BN18" s="113"/>
-      <c r="BO18" s="113"/>
-      <c r="BP18" s="113"/>
-      <c r="BQ18" s="113"/>
-      <c r="BR18" s="113"/>
-      <c r="BS18" s="113"/>
-      <c r="BT18" s="113"/>
-      <c r="BU18" s="113"/>
-      <c r="BV18" s="113"/>
-      <c r="BW18" s="113"/>
-      <c r="BX18" s="113"/>
-      <c r="BY18" s="113"/>
-      <c r="BZ18" s="113"/>
-      <c r="CA18" s="113"/>
-      <c r="CB18" s="114"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="95"/>
+      <c r="T18" s="95"/>
+      <c r="U18" s="95"/>
+      <c r="V18" s="95"/>
+      <c r="W18" s="95"/>
+      <c r="X18" s="95"/>
+      <c r="Y18" s="95"/>
+      <c r="Z18" s="95"/>
+      <c r="AA18" s="95"/>
+      <c r="AB18" s="95"/>
+      <c r="AC18" s="95"/>
+      <c r="AD18" s="95"/>
+      <c r="AE18" s="95"/>
+      <c r="AF18" s="95"/>
+      <c r="AG18" s="95"/>
+      <c r="AH18" s="95"/>
+      <c r="AI18" s="95"/>
+      <c r="AJ18" s="95"/>
+      <c r="AK18" s="95"/>
+      <c r="AL18" s="95"/>
+      <c r="AM18" s="95"/>
+      <c r="AN18" s="95"/>
+      <c r="AO18" s="95"/>
+      <c r="AP18" s="95"/>
+      <c r="AQ18" s="95"/>
+      <c r="AR18" s="95"/>
+      <c r="AS18" s="95"/>
+      <c r="AT18" s="95"/>
+      <c r="AU18" s="95"/>
+      <c r="AV18" s="95"/>
+      <c r="AW18" s="95"/>
+      <c r="AX18" s="95"/>
+      <c r="AY18" s="95"/>
+      <c r="AZ18" s="95"/>
+      <c r="BA18" s="95"/>
+      <c r="BB18" s="95"/>
+      <c r="BC18" s="95"/>
+      <c r="BD18" s="95"/>
+      <c r="BE18" s="95"/>
+      <c r="BF18" s="95"/>
+      <c r="BG18" s="95"/>
+      <c r="BH18" s="95"/>
+      <c r="BI18" s="95"/>
+      <c r="BJ18" s="95"/>
+      <c r="BK18" s="95"/>
+      <c r="BL18" s="95"/>
+      <c r="BM18" s="95"/>
+      <c r="BN18" s="95"/>
+      <c r="BO18" s="95"/>
+      <c r="BP18" s="95"/>
+      <c r="BQ18" s="95"/>
+      <c r="BR18" s="95"/>
+      <c r="BS18" s="95"/>
+      <c r="BT18" s="95"/>
+      <c r="BU18" s="95"/>
+      <c r="BV18" s="95"/>
+      <c r="BW18" s="95"/>
+      <c r="BX18" s="95"/>
+      <c r="BY18" s="95"/>
+      <c r="BZ18" s="95"/>
+      <c r="CA18" s="95"/>
+      <c r="CB18" s="96"/>
     </row>
     <row r="19" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C19" s="112"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="113"/>
-      <c r="L19" s="113"/>
-      <c r="M19" s="113"/>
-      <c r="N19" s="113"/>
-      <c r="O19" s="113"/>
-      <c r="P19" s="113"/>
-      <c r="Q19" s="113"/>
-      <c r="R19" s="113"/>
-      <c r="S19" s="113"/>
-      <c r="T19" s="113"/>
-      <c r="U19" s="113"/>
-      <c r="V19" s="113"/>
-      <c r="W19" s="113"/>
-      <c r="X19" s="113"/>
-      <c r="Y19" s="113"/>
-      <c r="Z19" s="113"/>
-      <c r="AA19" s="113"/>
-      <c r="AB19" s="113"/>
-      <c r="AC19" s="113"/>
-      <c r="AD19" s="113"/>
-      <c r="AE19" s="113"/>
-      <c r="AF19" s="113"/>
-      <c r="AG19" s="113"/>
-      <c r="AH19" s="113"/>
-      <c r="AI19" s="113"/>
-      <c r="AJ19" s="113"/>
-      <c r="AK19" s="113"/>
-      <c r="AL19" s="113"/>
-      <c r="AM19" s="113"/>
-      <c r="AN19" s="113"/>
-      <c r="AO19" s="113"/>
-      <c r="AP19" s="113"/>
-      <c r="AQ19" s="113"/>
-      <c r="AR19" s="113"/>
-      <c r="AS19" s="113"/>
-      <c r="AT19" s="113"/>
-      <c r="AU19" s="113"/>
-      <c r="AV19" s="113"/>
-      <c r="AW19" s="113"/>
-      <c r="AX19" s="113"/>
-      <c r="AY19" s="113"/>
-      <c r="AZ19" s="113"/>
-      <c r="BA19" s="113"/>
-      <c r="BB19" s="113"/>
-      <c r="BC19" s="113"/>
-      <c r="BD19" s="113"/>
-      <c r="BE19" s="113"/>
-      <c r="BF19" s="113"/>
-      <c r="BG19" s="113"/>
-      <c r="BH19" s="113"/>
-      <c r="BI19" s="113"/>
-      <c r="BJ19" s="113"/>
-      <c r="BK19" s="113"/>
-      <c r="BL19" s="113"/>
-      <c r="BM19" s="113"/>
-      <c r="BN19" s="113"/>
-      <c r="BO19" s="113"/>
-      <c r="BP19" s="113"/>
-      <c r="BQ19" s="113"/>
-      <c r="BR19" s="113"/>
-      <c r="BS19" s="113"/>
-      <c r="BT19" s="113"/>
-      <c r="BU19" s="113"/>
-      <c r="BV19" s="113"/>
-      <c r="BW19" s="113"/>
-      <c r="BX19" s="113"/>
-      <c r="BY19" s="113"/>
-      <c r="BZ19" s="113"/>
-      <c r="CA19" s="113"/>
-      <c r="CB19" s="114"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="95"/>
+      <c r="U19" s="95"/>
+      <c r="V19" s="95"/>
+      <c r="W19" s="95"/>
+      <c r="X19" s="95"/>
+      <c r="Y19" s="95"/>
+      <c r="Z19" s="95"/>
+      <c r="AA19" s="95"/>
+      <c r="AB19" s="95"/>
+      <c r="AC19" s="95"/>
+      <c r="AD19" s="95"/>
+      <c r="AE19" s="95"/>
+      <c r="AF19" s="95"/>
+      <c r="AG19" s="95"/>
+      <c r="AH19" s="95"/>
+      <c r="AI19" s="95"/>
+      <c r="AJ19" s="95"/>
+      <c r="AK19" s="95"/>
+      <c r="AL19" s="95"/>
+      <c r="AM19" s="95"/>
+      <c r="AN19" s="95"/>
+      <c r="AO19" s="95"/>
+      <c r="AP19" s="95"/>
+      <c r="AQ19" s="95"/>
+      <c r="AR19" s="95"/>
+      <c r="AS19" s="95"/>
+      <c r="AT19" s="95"/>
+      <c r="AU19" s="95"/>
+      <c r="AV19" s="95"/>
+      <c r="AW19" s="95"/>
+      <c r="AX19" s="95"/>
+      <c r="AY19" s="95"/>
+      <c r="AZ19" s="95"/>
+      <c r="BA19" s="95"/>
+      <c r="BB19" s="95"/>
+      <c r="BC19" s="95"/>
+      <c r="BD19" s="95"/>
+      <c r="BE19" s="95"/>
+      <c r="BF19" s="95"/>
+      <c r="BG19" s="95"/>
+      <c r="BH19" s="95"/>
+      <c r="BI19" s="95"/>
+      <c r="BJ19" s="95"/>
+      <c r="BK19" s="95"/>
+      <c r="BL19" s="95"/>
+      <c r="BM19" s="95"/>
+      <c r="BN19" s="95"/>
+      <c r="BO19" s="95"/>
+      <c r="BP19" s="95"/>
+      <c r="BQ19" s="95"/>
+      <c r="BR19" s="95"/>
+      <c r="BS19" s="95"/>
+      <c r="BT19" s="95"/>
+      <c r="BU19" s="95"/>
+      <c r="BV19" s="95"/>
+      <c r="BW19" s="95"/>
+      <c r="BX19" s="95"/>
+      <c r="BY19" s="95"/>
+      <c r="BZ19" s="95"/>
+      <c r="CA19" s="95"/>
+      <c r="CB19" s="96"/>
     </row>
     <row r="20" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C20" s="112"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="113"/>
-      <c r="L20" s="113"/>
-      <c r="M20" s="113"/>
-      <c r="N20" s="113"/>
-      <c r="O20" s="113"/>
-      <c r="P20" s="113"/>
-      <c r="Q20" s="113"/>
-      <c r="R20" s="113"/>
-      <c r="S20" s="113"/>
-      <c r="T20" s="113"/>
-      <c r="U20" s="113"/>
-      <c r="V20" s="113"/>
-      <c r="W20" s="113"/>
-      <c r="X20" s="113"/>
-      <c r="Y20" s="113"/>
-      <c r="Z20" s="113"/>
-      <c r="AA20" s="113"/>
-      <c r="AB20" s="113"/>
-      <c r="AC20" s="113"/>
-      <c r="AD20" s="113"/>
-      <c r="AE20" s="113"/>
-      <c r="AF20" s="113"/>
-      <c r="AG20" s="113"/>
-      <c r="AH20" s="113"/>
-      <c r="AI20" s="113"/>
-      <c r="AJ20" s="113"/>
-      <c r="AK20" s="113"/>
-      <c r="AL20" s="113"/>
-      <c r="AM20" s="113"/>
-      <c r="AN20" s="113"/>
-      <c r="AO20" s="113"/>
-      <c r="AP20" s="113"/>
-      <c r="AQ20" s="113"/>
-      <c r="AR20" s="113"/>
-      <c r="AS20" s="113"/>
-      <c r="AT20" s="113"/>
-      <c r="AU20" s="113"/>
-      <c r="AV20" s="113"/>
-      <c r="AW20" s="113"/>
-      <c r="AX20" s="113"/>
-      <c r="AY20" s="113"/>
-      <c r="AZ20" s="113"/>
-      <c r="BA20" s="113"/>
-      <c r="BB20" s="113"/>
-      <c r="BC20" s="113"/>
-      <c r="BD20" s="113"/>
-      <c r="BE20" s="113"/>
-      <c r="BF20" s="113"/>
-      <c r="BG20" s="113"/>
-      <c r="BH20" s="113"/>
-      <c r="BI20" s="113"/>
-      <c r="BJ20" s="113"/>
-      <c r="BK20" s="113"/>
-      <c r="BL20" s="113"/>
-      <c r="BM20" s="113"/>
-      <c r="BN20" s="113"/>
-      <c r="BO20" s="113"/>
-      <c r="BP20" s="113"/>
-      <c r="BQ20" s="113"/>
-      <c r="BR20" s="113"/>
-      <c r="BS20" s="113"/>
-      <c r="BT20" s="113"/>
-      <c r="BU20" s="113"/>
-      <c r="BV20" s="113"/>
-      <c r="BW20" s="113"/>
-      <c r="BX20" s="113"/>
-      <c r="BY20" s="113"/>
-      <c r="BZ20" s="113"/>
-      <c r="CA20" s="113"/>
-      <c r="CB20" s="114"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="95"/>
+      <c r="T20" s="95"/>
+      <c r="U20" s="95"/>
+      <c r="V20" s="95"/>
+      <c r="W20" s="95"/>
+      <c r="X20" s="95"/>
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="95"/>
+      <c r="AA20" s="95"/>
+      <c r="AB20" s="95"/>
+      <c r="AC20" s="95"/>
+      <c r="AD20" s="95"/>
+      <c r="AE20" s="95"/>
+      <c r="AF20" s="95"/>
+      <c r="AG20" s="95"/>
+      <c r="AH20" s="95"/>
+      <c r="AI20" s="95"/>
+      <c r="AJ20" s="95"/>
+      <c r="AK20" s="95"/>
+      <c r="AL20" s="95"/>
+      <c r="AM20" s="95"/>
+      <c r="AN20" s="95"/>
+      <c r="AO20" s="95"/>
+      <c r="AP20" s="95"/>
+      <c r="AQ20" s="95"/>
+      <c r="AR20" s="95"/>
+      <c r="AS20" s="95"/>
+      <c r="AT20" s="95"/>
+      <c r="AU20" s="95"/>
+      <c r="AV20" s="95"/>
+      <c r="AW20" s="95"/>
+      <c r="AX20" s="95"/>
+      <c r="AY20" s="95"/>
+      <c r="AZ20" s="95"/>
+      <c r="BA20" s="95"/>
+      <c r="BB20" s="95"/>
+      <c r="BC20" s="95"/>
+      <c r="BD20" s="95"/>
+      <c r="BE20" s="95"/>
+      <c r="BF20" s="95"/>
+      <c r="BG20" s="95"/>
+      <c r="BH20" s="95"/>
+      <c r="BI20" s="95"/>
+      <c r="BJ20" s="95"/>
+      <c r="BK20" s="95"/>
+      <c r="BL20" s="95"/>
+      <c r="BM20" s="95"/>
+      <c r="BN20" s="95"/>
+      <c r="BO20" s="95"/>
+      <c r="BP20" s="95"/>
+      <c r="BQ20" s="95"/>
+      <c r="BR20" s="95"/>
+      <c r="BS20" s="95"/>
+      <c r="BT20" s="95"/>
+      <c r="BU20" s="95"/>
+      <c r="BV20" s="95"/>
+      <c r="BW20" s="95"/>
+      <c r="BX20" s="95"/>
+      <c r="BY20" s="95"/>
+      <c r="BZ20" s="95"/>
+      <c r="CA20" s="95"/>
+      <c r="CB20" s="96"/>
     </row>
     <row r="21" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C21" s="112"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="113"/>
-      <c r="N21" s="113"/>
-      <c r="O21" s="113"/>
-      <c r="P21" s="113"/>
-      <c r="Q21" s="113"/>
-      <c r="R21" s="113"/>
-      <c r="S21" s="113"/>
-      <c r="T21" s="113"/>
-      <c r="U21" s="113"/>
-      <c r="V21" s="113"/>
-      <c r="W21" s="113"/>
-      <c r="X21" s="113"/>
-      <c r="Y21" s="113"/>
-      <c r="Z21" s="113"/>
-      <c r="AA21" s="113"/>
-      <c r="AB21" s="113"/>
-      <c r="AC21" s="113"/>
-      <c r="AD21" s="113"/>
-      <c r="AE21" s="113"/>
-      <c r="AF21" s="113"/>
-      <c r="AG21" s="113"/>
-      <c r="AH21" s="113"/>
-      <c r="AI21" s="113"/>
-      <c r="AJ21" s="113"/>
-      <c r="AK21" s="113"/>
-      <c r="AL21" s="113"/>
-      <c r="AM21" s="113"/>
-      <c r="AN21" s="113"/>
-      <c r="AO21" s="113"/>
-      <c r="AP21" s="113"/>
-      <c r="AQ21" s="113"/>
-      <c r="AR21" s="113"/>
-      <c r="AS21" s="113"/>
-      <c r="AT21" s="113"/>
-      <c r="AU21" s="113"/>
-      <c r="AV21" s="113"/>
-      <c r="AW21" s="113"/>
-      <c r="AX21" s="113"/>
-      <c r="AY21" s="113"/>
-      <c r="AZ21" s="113"/>
-      <c r="BA21" s="113"/>
-      <c r="BB21" s="113"/>
-      <c r="BC21" s="113"/>
-      <c r="BD21" s="113"/>
-      <c r="BE21" s="113"/>
-      <c r="BF21" s="113"/>
-      <c r="BG21" s="113"/>
-      <c r="BH21" s="113"/>
-      <c r="BI21" s="113"/>
-      <c r="BJ21" s="113"/>
-      <c r="BK21" s="113"/>
-      <c r="BL21" s="113"/>
-      <c r="BM21" s="113"/>
-      <c r="BN21" s="113"/>
-      <c r="BO21" s="113"/>
-      <c r="BP21" s="113"/>
-      <c r="BQ21" s="113"/>
-      <c r="BR21" s="113"/>
-      <c r="BS21" s="113"/>
-      <c r="BT21" s="113"/>
-      <c r="BU21" s="113"/>
-      <c r="BV21" s="113"/>
-      <c r="BW21" s="113"/>
-      <c r="BX21" s="113"/>
-      <c r="BY21" s="113"/>
-      <c r="BZ21" s="113"/>
-      <c r="CA21" s="113"/>
-      <c r="CB21" s="114"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="95"/>
+      <c r="S21" s="95"/>
+      <c r="T21" s="95"/>
+      <c r="U21" s="95"/>
+      <c r="V21" s="95"/>
+      <c r="W21" s="95"/>
+      <c r="X21" s="95"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="95"/>
+      <c r="AA21" s="95"/>
+      <c r="AB21" s="95"/>
+      <c r="AC21" s="95"/>
+      <c r="AD21" s="95"/>
+      <c r="AE21" s="95"/>
+      <c r="AF21" s="95"/>
+      <c r="AG21" s="95"/>
+      <c r="AH21" s="95"/>
+      <c r="AI21" s="95"/>
+      <c r="AJ21" s="95"/>
+      <c r="AK21" s="95"/>
+      <c r="AL21" s="95"/>
+      <c r="AM21" s="95"/>
+      <c r="AN21" s="95"/>
+      <c r="AO21" s="95"/>
+      <c r="AP21" s="95"/>
+      <c r="AQ21" s="95"/>
+      <c r="AR21" s="95"/>
+      <c r="AS21" s="95"/>
+      <c r="AT21" s="95"/>
+      <c r="AU21" s="95"/>
+      <c r="AV21" s="95"/>
+      <c r="AW21" s="95"/>
+      <c r="AX21" s="95"/>
+      <c r="AY21" s="95"/>
+      <c r="AZ21" s="95"/>
+      <c r="BA21" s="95"/>
+      <c r="BB21" s="95"/>
+      <c r="BC21" s="95"/>
+      <c r="BD21" s="95"/>
+      <c r="BE21" s="95"/>
+      <c r="BF21" s="95"/>
+      <c r="BG21" s="95"/>
+      <c r="BH21" s="95"/>
+      <c r="BI21" s="95"/>
+      <c r="BJ21" s="95"/>
+      <c r="BK21" s="95"/>
+      <c r="BL21" s="95"/>
+      <c r="BM21" s="95"/>
+      <c r="BN21" s="95"/>
+      <c r="BO21" s="95"/>
+      <c r="BP21" s="95"/>
+      <c r="BQ21" s="95"/>
+      <c r="BR21" s="95"/>
+      <c r="BS21" s="95"/>
+      <c r="BT21" s="95"/>
+      <c r="BU21" s="95"/>
+      <c r="BV21" s="95"/>
+      <c r="BW21" s="95"/>
+      <c r="BX21" s="95"/>
+      <c r="BY21" s="95"/>
+      <c r="BZ21" s="95"/>
+      <c r="CA21" s="95"/>
+      <c r="CB21" s="96"/>
     </row>
     <row r="22" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C22" s="112"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="113"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="113"/>
-      <c r="N22" s="113"/>
-      <c r="O22" s="113"/>
-      <c r="P22" s="113"/>
-      <c r="Q22" s="113"/>
-      <c r="R22" s="113"/>
-      <c r="S22" s="113"/>
-      <c r="T22" s="113"/>
-      <c r="U22" s="113"/>
-      <c r="V22" s="113"/>
-      <c r="W22" s="113"/>
-      <c r="X22" s="113"/>
-      <c r="Y22" s="113"/>
-      <c r="Z22" s="113"/>
-      <c r="AA22" s="113"/>
-      <c r="AB22" s="113"/>
-      <c r="AC22" s="113"/>
-      <c r="AD22" s="113"/>
-      <c r="AE22" s="113"/>
-      <c r="AF22" s="113"/>
-      <c r="AG22" s="113"/>
-      <c r="AH22" s="113"/>
-      <c r="AI22" s="113"/>
-      <c r="AJ22" s="113"/>
-      <c r="AK22" s="113"/>
-      <c r="AL22" s="113"/>
-      <c r="AM22" s="113"/>
-      <c r="AN22" s="113"/>
-      <c r="AO22" s="113"/>
-      <c r="AP22" s="113"/>
-      <c r="AQ22" s="113"/>
-      <c r="AR22" s="113"/>
-      <c r="AS22" s="113"/>
-      <c r="AT22" s="113"/>
-      <c r="AU22" s="113"/>
-      <c r="AV22" s="113"/>
-      <c r="AW22" s="113"/>
-      <c r="AX22" s="113"/>
-      <c r="AY22" s="113"/>
-      <c r="AZ22" s="113"/>
-      <c r="BA22" s="113"/>
-      <c r="BB22" s="113"/>
-      <c r="BC22" s="113"/>
-      <c r="BD22" s="113"/>
-      <c r="BE22" s="113"/>
-      <c r="BF22" s="113"/>
-      <c r="BG22" s="113"/>
-      <c r="BH22" s="113"/>
-      <c r="BI22" s="113"/>
-      <c r="BJ22" s="113"/>
-      <c r="BK22" s="113"/>
-      <c r="BL22" s="113"/>
-      <c r="BM22" s="113"/>
-      <c r="BN22" s="113"/>
-      <c r="BO22" s="113"/>
-      <c r="BP22" s="113"/>
-      <c r="BQ22" s="113"/>
-      <c r="BR22" s="113"/>
-      <c r="BS22" s="113"/>
-      <c r="BT22" s="113"/>
-      <c r="BU22" s="113"/>
-      <c r="BV22" s="113"/>
-      <c r="BW22" s="113"/>
-      <c r="BX22" s="113"/>
-      <c r="BY22" s="113"/>
-      <c r="BZ22" s="113"/>
-      <c r="CA22" s="113"/>
-      <c r="CB22" s="114"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="95"/>
+      <c r="Q22" s="95"/>
+      <c r="R22" s="95"/>
+      <c r="S22" s="95"/>
+      <c r="T22" s="95"/>
+      <c r="U22" s="95"/>
+      <c r="V22" s="95"/>
+      <c r="W22" s="95"/>
+      <c r="X22" s="95"/>
+      <c r="Y22" s="95"/>
+      <c r="Z22" s="95"/>
+      <c r="AA22" s="95"/>
+      <c r="AB22" s="95"/>
+      <c r="AC22" s="95"/>
+      <c r="AD22" s="95"/>
+      <c r="AE22" s="95"/>
+      <c r="AF22" s="95"/>
+      <c r="AG22" s="95"/>
+      <c r="AH22" s="95"/>
+      <c r="AI22" s="95"/>
+      <c r="AJ22" s="95"/>
+      <c r="AK22" s="95"/>
+      <c r="AL22" s="95"/>
+      <c r="AM22" s="95"/>
+      <c r="AN22" s="95"/>
+      <c r="AO22" s="95"/>
+      <c r="AP22" s="95"/>
+      <c r="AQ22" s="95"/>
+      <c r="AR22" s="95"/>
+      <c r="AS22" s="95"/>
+      <c r="AT22" s="95"/>
+      <c r="AU22" s="95"/>
+      <c r="AV22" s="95"/>
+      <c r="AW22" s="95"/>
+      <c r="AX22" s="95"/>
+      <c r="AY22" s="95"/>
+      <c r="AZ22" s="95"/>
+      <c r="BA22" s="95"/>
+      <c r="BB22" s="95"/>
+      <c r="BC22" s="95"/>
+      <c r="BD22" s="95"/>
+      <c r="BE22" s="95"/>
+      <c r="BF22" s="95"/>
+      <c r="BG22" s="95"/>
+      <c r="BH22" s="95"/>
+      <c r="BI22" s="95"/>
+      <c r="BJ22" s="95"/>
+      <c r="BK22" s="95"/>
+      <c r="BL22" s="95"/>
+      <c r="BM22" s="95"/>
+      <c r="BN22" s="95"/>
+      <c r="BO22" s="95"/>
+      <c r="BP22" s="95"/>
+      <c r="BQ22" s="95"/>
+      <c r="BR22" s="95"/>
+      <c r="BS22" s="95"/>
+      <c r="BT22" s="95"/>
+      <c r="BU22" s="95"/>
+      <c r="BV22" s="95"/>
+      <c r="BW22" s="95"/>
+      <c r="BX22" s="95"/>
+      <c r="BY22" s="95"/>
+      <c r="BZ22" s="95"/>
+      <c r="CA22" s="95"/>
+      <c r="CB22" s="96"/>
     </row>
     <row r="23" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C23" s="112"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="113"/>
-      <c r="M23" s="113"/>
-      <c r="N23" s="113"/>
-      <c r="O23" s="113"/>
-      <c r="P23" s="113"/>
-      <c r="Q23" s="113"/>
-      <c r="R23" s="113"/>
-      <c r="S23" s="113"/>
-      <c r="T23" s="113"/>
-      <c r="U23" s="113"/>
-      <c r="V23" s="113"/>
-      <c r="W23" s="113"/>
-      <c r="X23" s="113"/>
-      <c r="Y23" s="113"/>
-      <c r="Z23" s="113"/>
-      <c r="AA23" s="113"/>
-      <c r="AB23" s="113"/>
-      <c r="AC23" s="113"/>
-      <c r="AD23" s="113"/>
-      <c r="AE23" s="113"/>
-      <c r="AF23" s="113"/>
-      <c r="AG23" s="113"/>
-      <c r="AH23" s="113"/>
-      <c r="AI23" s="113"/>
-      <c r="AJ23" s="113"/>
-      <c r="AK23" s="113"/>
-      <c r="AL23" s="113"/>
-      <c r="AM23" s="113"/>
-      <c r="AN23" s="113"/>
-      <c r="AO23" s="113"/>
-      <c r="AP23" s="113"/>
-      <c r="AQ23" s="113"/>
-      <c r="AR23" s="113"/>
-      <c r="AS23" s="113"/>
-      <c r="AT23" s="113"/>
-      <c r="AU23" s="113"/>
-      <c r="AV23" s="113"/>
-      <c r="AW23" s="113"/>
-      <c r="AX23" s="113"/>
-      <c r="AY23" s="113"/>
-      <c r="AZ23" s="113"/>
-      <c r="BA23" s="113"/>
-      <c r="BB23" s="113"/>
-      <c r="BC23" s="113"/>
-      <c r="BD23" s="113"/>
-      <c r="BE23" s="113"/>
-      <c r="BF23" s="113"/>
-      <c r="BG23" s="113"/>
-      <c r="BH23" s="113"/>
-      <c r="BI23" s="113"/>
-      <c r="BJ23" s="113"/>
-      <c r="BK23" s="113"/>
-      <c r="BL23" s="113"/>
-      <c r="BM23" s="113"/>
-      <c r="BN23" s="113"/>
-      <c r="BO23" s="113"/>
-      <c r="BP23" s="113"/>
-      <c r="BQ23" s="113"/>
-      <c r="BR23" s="113"/>
-      <c r="BS23" s="113"/>
-      <c r="BT23" s="113"/>
-      <c r="BU23" s="113"/>
-      <c r="BV23" s="113"/>
-      <c r="BW23" s="113"/>
-      <c r="BX23" s="113"/>
-      <c r="BY23" s="113"/>
-      <c r="BZ23" s="113"/>
-      <c r="CA23" s="113"/>
-      <c r="CB23" s="114"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="95"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="95"/>
+      <c r="T23" s="95"/>
+      <c r="U23" s="95"/>
+      <c r="V23" s="95"/>
+      <c r="W23" s="95"/>
+      <c r="X23" s="95"/>
+      <c r="Y23" s="95"/>
+      <c r="Z23" s="95"/>
+      <c r="AA23" s="95"/>
+      <c r="AB23" s="95"/>
+      <c r="AC23" s="95"/>
+      <c r="AD23" s="95"/>
+      <c r="AE23" s="95"/>
+      <c r="AF23" s="95"/>
+      <c r="AG23" s="95"/>
+      <c r="AH23" s="95"/>
+      <c r="AI23" s="95"/>
+      <c r="AJ23" s="95"/>
+      <c r="AK23" s="95"/>
+      <c r="AL23" s="95"/>
+      <c r="AM23" s="95"/>
+      <c r="AN23" s="95"/>
+      <c r="AO23" s="95"/>
+      <c r="AP23" s="95"/>
+      <c r="AQ23" s="95"/>
+      <c r="AR23" s="95"/>
+      <c r="AS23" s="95"/>
+      <c r="AT23" s="95"/>
+      <c r="AU23" s="95"/>
+      <c r="AV23" s="95"/>
+      <c r="AW23" s="95"/>
+      <c r="AX23" s="95"/>
+      <c r="AY23" s="95"/>
+      <c r="AZ23" s="95"/>
+      <c r="BA23" s="95"/>
+      <c r="BB23" s="95"/>
+      <c r="BC23" s="95"/>
+      <c r="BD23" s="95"/>
+      <c r="BE23" s="95"/>
+      <c r="BF23" s="95"/>
+      <c r="BG23" s="95"/>
+      <c r="BH23" s="95"/>
+      <c r="BI23" s="95"/>
+      <c r="BJ23" s="95"/>
+      <c r="BK23" s="95"/>
+      <c r="BL23" s="95"/>
+      <c r="BM23" s="95"/>
+      <c r="BN23" s="95"/>
+      <c r="BO23" s="95"/>
+      <c r="BP23" s="95"/>
+      <c r="BQ23" s="95"/>
+      <c r="BR23" s="95"/>
+      <c r="BS23" s="95"/>
+      <c r="BT23" s="95"/>
+      <c r="BU23" s="95"/>
+      <c r="BV23" s="95"/>
+      <c r="BW23" s="95"/>
+      <c r="BX23" s="95"/>
+      <c r="BY23" s="95"/>
+      <c r="BZ23" s="95"/>
+      <c r="CA23" s="95"/>
+      <c r="CB23" s="96"/>
     </row>
     <row r="24" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C24" s="115"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="116"/>
-      <c r="M24" s="116"/>
-      <c r="N24" s="116"/>
-      <c r="O24" s="116"/>
-      <c r="P24" s="116"/>
-      <c r="Q24" s="116"/>
-      <c r="R24" s="116"/>
-      <c r="S24" s="116"/>
-      <c r="T24" s="116"/>
-      <c r="U24" s="116"/>
-      <c r="V24" s="116"/>
-      <c r="W24" s="116"/>
-      <c r="X24" s="116"/>
-      <c r="Y24" s="116"/>
-      <c r="Z24" s="116"/>
-      <c r="AA24" s="116"/>
-      <c r="AB24" s="116"/>
-      <c r="AC24" s="116"/>
-      <c r="AD24" s="116"/>
-      <c r="AE24" s="116"/>
-      <c r="AF24" s="116"/>
-      <c r="AG24" s="116"/>
-      <c r="AH24" s="116"/>
-      <c r="AI24" s="116"/>
-      <c r="AJ24" s="116"/>
-      <c r="AK24" s="116"/>
-      <c r="AL24" s="116"/>
-      <c r="AM24" s="116"/>
-      <c r="AN24" s="116"/>
-      <c r="AO24" s="116"/>
-      <c r="AP24" s="116"/>
-      <c r="AQ24" s="116"/>
-      <c r="AR24" s="116"/>
-      <c r="AS24" s="116"/>
-      <c r="AT24" s="116"/>
-      <c r="AU24" s="116"/>
-      <c r="AV24" s="116"/>
-      <c r="AW24" s="116"/>
-      <c r="AX24" s="116"/>
-      <c r="AY24" s="116"/>
-      <c r="AZ24" s="116"/>
-      <c r="BA24" s="116"/>
-      <c r="BB24" s="116"/>
-      <c r="BC24" s="116"/>
-      <c r="BD24" s="116"/>
-      <c r="BE24" s="116"/>
-      <c r="BF24" s="116"/>
-      <c r="BG24" s="116"/>
-      <c r="BH24" s="116"/>
-      <c r="BI24" s="116"/>
-      <c r="BJ24" s="116"/>
-      <c r="BK24" s="116"/>
-      <c r="BL24" s="116"/>
-      <c r="BM24" s="116"/>
-      <c r="BN24" s="116"/>
-      <c r="BO24" s="116"/>
-      <c r="BP24" s="116"/>
-      <c r="BQ24" s="116"/>
-      <c r="BR24" s="116"/>
-      <c r="BS24" s="116"/>
-      <c r="BT24" s="116"/>
-      <c r="BU24" s="116"/>
-      <c r="BV24" s="116"/>
-      <c r="BW24" s="116"/>
-      <c r="BX24" s="116"/>
-      <c r="BY24" s="116"/>
-      <c r="BZ24" s="116"/>
-      <c r="CA24" s="116"/>
-      <c r="CB24" s="117"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="98"/>
+      <c r="P24" s="98"/>
+      <c r="Q24" s="98"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="98"/>
+      <c r="T24" s="98"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="98"/>
+      <c r="W24" s="98"/>
+      <c r="X24" s="98"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="98"/>
+      <c r="AB24" s="98"/>
+      <c r="AC24" s="98"/>
+      <c r="AD24" s="98"/>
+      <c r="AE24" s="98"/>
+      <c r="AF24" s="98"/>
+      <c r="AG24" s="98"/>
+      <c r="AH24" s="98"/>
+      <c r="AI24" s="98"/>
+      <c r="AJ24" s="98"/>
+      <c r="AK24" s="98"/>
+      <c r="AL24" s="98"/>
+      <c r="AM24" s="98"/>
+      <c r="AN24" s="98"/>
+      <c r="AO24" s="98"/>
+      <c r="AP24" s="98"/>
+      <c r="AQ24" s="98"/>
+      <c r="AR24" s="98"/>
+      <c r="AS24" s="98"/>
+      <c r="AT24" s="98"/>
+      <c r="AU24" s="98"/>
+      <c r="AV24" s="98"/>
+      <c r="AW24" s="98"/>
+      <c r="AX24" s="98"/>
+      <c r="AY24" s="98"/>
+      <c r="AZ24" s="98"/>
+      <c r="BA24" s="98"/>
+      <c r="BB24" s="98"/>
+      <c r="BC24" s="98"/>
+      <c r="BD24" s="98"/>
+      <c r="BE24" s="98"/>
+      <c r="BF24" s="98"/>
+      <c r="BG24" s="98"/>
+      <c r="BH24" s="98"/>
+      <c r="BI24" s="98"/>
+      <c r="BJ24" s="98"/>
+      <c r="BK24" s="98"/>
+      <c r="BL24" s="98"/>
+      <c r="BM24" s="98"/>
+      <c r="BN24" s="98"/>
+      <c r="BO24" s="98"/>
+      <c r="BP24" s="98"/>
+      <c r="BQ24" s="98"/>
+      <c r="BR24" s="98"/>
+      <c r="BS24" s="98"/>
+      <c r="BT24" s="98"/>
+      <c r="BU24" s="98"/>
+      <c r="BV24" s="98"/>
+      <c r="BW24" s="98"/>
+      <c r="BX24" s="98"/>
+      <c r="BY24" s="98"/>
+      <c r="BZ24" s="98"/>
+      <c r="CA24" s="98"/>
+      <c r="CB24" s="99"/>
     </row>
     <row r="25" spans="3:80" ht="9.75" customHeight="1" thickBot="1"/>
     <row r="26" spans="3:80" ht="9.75" customHeight="1">
@@ -15044,1501 +15044,1501 @@
       <c r="CB27" s="90"/>
     </row>
     <row r="28" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C28" s="109"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="110"/>
-      <c r="M28" s="110"/>
-      <c r="N28" s="110"/>
-      <c r="O28" s="110"/>
-      <c r="P28" s="110"/>
-      <c r="Q28" s="110"/>
-      <c r="R28" s="110"/>
-      <c r="S28" s="110"/>
-      <c r="T28" s="110"/>
-      <c r="U28" s="110"/>
-      <c r="V28" s="110"/>
-      <c r="W28" s="110"/>
-      <c r="X28" s="110"/>
-      <c r="Y28" s="110"/>
-      <c r="Z28" s="110"/>
-      <c r="AA28" s="110"/>
-      <c r="AB28" s="110"/>
-      <c r="AC28" s="110"/>
-      <c r="AD28" s="110"/>
-      <c r="AE28" s="110"/>
-      <c r="AF28" s="110"/>
-      <c r="AG28" s="110"/>
-      <c r="AH28" s="110"/>
-      <c r="AI28" s="110"/>
-      <c r="AJ28" s="110"/>
-      <c r="AK28" s="110"/>
-      <c r="AL28" s="110"/>
-      <c r="AM28" s="110"/>
-      <c r="AN28" s="111"/>
-      <c r="AQ28" s="109"/>
-      <c r="AR28" s="110"/>
-      <c r="AS28" s="110"/>
-      <c r="AT28" s="110"/>
-      <c r="AU28" s="110"/>
-      <c r="AV28" s="110"/>
-      <c r="AW28" s="110"/>
-      <c r="AX28" s="110"/>
-      <c r="AY28" s="110"/>
-      <c r="AZ28" s="110"/>
-      <c r="BA28" s="110"/>
-      <c r="BB28" s="110"/>
-      <c r="BC28" s="110"/>
-      <c r="BD28" s="110"/>
-      <c r="BE28" s="110"/>
-      <c r="BF28" s="110"/>
-      <c r="BG28" s="110"/>
-      <c r="BH28" s="110"/>
-      <c r="BI28" s="110"/>
-      <c r="BJ28" s="110"/>
-      <c r="BK28" s="110"/>
-      <c r="BL28" s="110"/>
-      <c r="BM28" s="110"/>
-      <c r="BN28" s="110"/>
-      <c r="BO28" s="110"/>
-      <c r="BP28" s="110"/>
-      <c r="BQ28" s="110"/>
-      <c r="BR28" s="110"/>
-      <c r="BS28" s="110"/>
-      <c r="BT28" s="110"/>
-      <c r="BU28" s="110"/>
-      <c r="BV28" s="110"/>
-      <c r="BW28" s="110"/>
-      <c r="BX28" s="110"/>
-      <c r="BY28" s="110"/>
-      <c r="BZ28" s="110"/>
-      <c r="CA28" s="110"/>
-      <c r="CB28" s="111"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="92"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="92"/>
+      <c r="Q28" s="92"/>
+      <c r="R28" s="92"/>
+      <c r="S28" s="92"/>
+      <c r="T28" s="92"/>
+      <c r="U28" s="92"/>
+      <c r="V28" s="92"/>
+      <c r="W28" s="92"/>
+      <c r="X28" s="92"/>
+      <c r="Y28" s="92"/>
+      <c r="Z28" s="92"/>
+      <c r="AA28" s="92"/>
+      <c r="AB28" s="92"/>
+      <c r="AC28" s="92"/>
+      <c r="AD28" s="92"/>
+      <c r="AE28" s="92"/>
+      <c r="AF28" s="92"/>
+      <c r="AG28" s="92"/>
+      <c r="AH28" s="92"/>
+      <c r="AI28" s="92"/>
+      <c r="AJ28" s="92"/>
+      <c r="AK28" s="92"/>
+      <c r="AL28" s="92"/>
+      <c r="AM28" s="92"/>
+      <c r="AN28" s="93"/>
+      <c r="AQ28" s="91"/>
+      <c r="AR28" s="92"/>
+      <c r="AS28" s="92"/>
+      <c r="AT28" s="92"/>
+      <c r="AU28" s="92"/>
+      <c r="AV28" s="92"/>
+      <c r="AW28" s="92"/>
+      <c r="AX28" s="92"/>
+      <c r="AY28" s="92"/>
+      <c r="AZ28" s="92"/>
+      <c r="BA28" s="92"/>
+      <c r="BB28" s="92"/>
+      <c r="BC28" s="92"/>
+      <c r="BD28" s="92"/>
+      <c r="BE28" s="92"/>
+      <c r="BF28" s="92"/>
+      <c r="BG28" s="92"/>
+      <c r="BH28" s="92"/>
+      <c r="BI28" s="92"/>
+      <c r="BJ28" s="92"/>
+      <c r="BK28" s="92"/>
+      <c r="BL28" s="92"/>
+      <c r="BM28" s="92"/>
+      <c r="BN28" s="92"/>
+      <c r="BO28" s="92"/>
+      <c r="BP28" s="92"/>
+      <c r="BQ28" s="92"/>
+      <c r="BR28" s="92"/>
+      <c r="BS28" s="92"/>
+      <c r="BT28" s="92"/>
+      <c r="BU28" s="92"/>
+      <c r="BV28" s="92"/>
+      <c r="BW28" s="92"/>
+      <c r="BX28" s="92"/>
+      <c r="BY28" s="92"/>
+      <c r="BZ28" s="92"/>
+      <c r="CA28" s="92"/>
+      <c r="CB28" s="93"/>
     </row>
     <row r="29" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C29" s="112"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="113"/>
-      <c r="L29" s="113"/>
-      <c r="M29" s="113"/>
-      <c r="N29" s="113"/>
-      <c r="O29" s="113"/>
-      <c r="P29" s="113"/>
-      <c r="Q29" s="113"/>
-      <c r="R29" s="113"/>
-      <c r="S29" s="113"/>
-      <c r="T29" s="113"/>
-      <c r="U29" s="113"/>
-      <c r="V29" s="113"/>
-      <c r="W29" s="113"/>
-      <c r="X29" s="113"/>
-      <c r="Y29" s="113"/>
-      <c r="Z29" s="113"/>
-      <c r="AA29" s="113"/>
-      <c r="AB29" s="113"/>
-      <c r="AC29" s="113"/>
-      <c r="AD29" s="113"/>
-      <c r="AE29" s="113"/>
-      <c r="AF29" s="113"/>
-      <c r="AG29" s="113"/>
-      <c r="AH29" s="113"/>
-      <c r="AI29" s="113"/>
-      <c r="AJ29" s="113"/>
-      <c r="AK29" s="113"/>
-      <c r="AL29" s="113"/>
-      <c r="AM29" s="113"/>
-      <c r="AN29" s="114"/>
-      <c r="AQ29" s="112"/>
-      <c r="AR29" s="113"/>
-      <c r="AS29" s="113"/>
-      <c r="AT29" s="113"/>
-      <c r="AU29" s="113"/>
-      <c r="AV29" s="113"/>
-      <c r="AW29" s="113"/>
-      <c r="AX29" s="113"/>
-      <c r="AY29" s="113"/>
-      <c r="AZ29" s="113"/>
-      <c r="BA29" s="113"/>
-      <c r="BB29" s="113"/>
-      <c r="BC29" s="113"/>
-      <c r="BD29" s="113"/>
-      <c r="BE29" s="113"/>
-      <c r="BF29" s="113"/>
-      <c r="BG29" s="113"/>
-      <c r="BH29" s="113"/>
-      <c r="BI29" s="113"/>
-      <c r="BJ29" s="113"/>
-      <c r="BK29" s="113"/>
-      <c r="BL29" s="113"/>
-      <c r="BM29" s="113"/>
-      <c r="BN29" s="113"/>
-      <c r="BO29" s="113"/>
-      <c r="BP29" s="113"/>
-      <c r="BQ29" s="113"/>
-      <c r="BR29" s="113"/>
-      <c r="BS29" s="113"/>
-      <c r="BT29" s="113"/>
-      <c r="BU29" s="113"/>
-      <c r="BV29" s="113"/>
-      <c r="BW29" s="113"/>
-      <c r="BX29" s="113"/>
-      <c r="BY29" s="113"/>
-      <c r="BZ29" s="113"/>
-      <c r="CA29" s="113"/>
-      <c r="CB29" s="114"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="95"/>
+      <c r="R29" s="95"/>
+      <c r="S29" s="95"/>
+      <c r="T29" s="95"/>
+      <c r="U29" s="95"/>
+      <c r="V29" s="95"/>
+      <c r="W29" s="95"/>
+      <c r="X29" s="95"/>
+      <c r="Y29" s="95"/>
+      <c r="Z29" s="95"/>
+      <c r="AA29" s="95"/>
+      <c r="AB29" s="95"/>
+      <c r="AC29" s="95"/>
+      <c r="AD29" s="95"/>
+      <c r="AE29" s="95"/>
+      <c r="AF29" s="95"/>
+      <c r="AG29" s="95"/>
+      <c r="AH29" s="95"/>
+      <c r="AI29" s="95"/>
+      <c r="AJ29" s="95"/>
+      <c r="AK29" s="95"/>
+      <c r="AL29" s="95"/>
+      <c r="AM29" s="95"/>
+      <c r="AN29" s="96"/>
+      <c r="AQ29" s="94"/>
+      <c r="AR29" s="95"/>
+      <c r="AS29" s="95"/>
+      <c r="AT29" s="95"/>
+      <c r="AU29" s="95"/>
+      <c r="AV29" s="95"/>
+      <c r="AW29" s="95"/>
+      <c r="AX29" s="95"/>
+      <c r="AY29" s="95"/>
+      <c r="AZ29" s="95"/>
+      <c r="BA29" s="95"/>
+      <c r="BB29" s="95"/>
+      <c r="BC29" s="95"/>
+      <c r="BD29" s="95"/>
+      <c r="BE29" s="95"/>
+      <c r="BF29" s="95"/>
+      <c r="BG29" s="95"/>
+      <c r="BH29" s="95"/>
+      <c r="BI29" s="95"/>
+      <c r="BJ29" s="95"/>
+      <c r="BK29" s="95"/>
+      <c r="BL29" s="95"/>
+      <c r="BM29" s="95"/>
+      <c r="BN29" s="95"/>
+      <c r="BO29" s="95"/>
+      <c r="BP29" s="95"/>
+      <c r="BQ29" s="95"/>
+      <c r="BR29" s="95"/>
+      <c r="BS29" s="95"/>
+      <c r="BT29" s="95"/>
+      <c r="BU29" s="95"/>
+      <c r="BV29" s="95"/>
+      <c r="BW29" s="95"/>
+      <c r="BX29" s="95"/>
+      <c r="BY29" s="95"/>
+      <c r="BZ29" s="95"/>
+      <c r="CA29" s="95"/>
+      <c r="CB29" s="96"/>
     </row>
     <row r="30" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C30" s="112"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="113"/>
-      <c r="J30" s="113"/>
-      <c r="K30" s="113"/>
-      <c r="L30" s="113"/>
-      <c r="M30" s="113"/>
-      <c r="N30" s="113"/>
-      <c r="O30" s="113"/>
-      <c r="P30" s="113"/>
-      <c r="Q30" s="113"/>
-      <c r="R30" s="113"/>
-      <c r="S30" s="113"/>
-      <c r="T30" s="113"/>
-      <c r="U30" s="113"/>
-      <c r="V30" s="113"/>
-      <c r="W30" s="113"/>
-      <c r="X30" s="113"/>
-      <c r="Y30" s="113"/>
-      <c r="Z30" s="113"/>
-      <c r="AA30" s="113"/>
-      <c r="AB30" s="113"/>
-      <c r="AC30" s="113"/>
-      <c r="AD30" s="113"/>
-      <c r="AE30" s="113"/>
-      <c r="AF30" s="113"/>
-      <c r="AG30" s="113"/>
-      <c r="AH30" s="113"/>
-      <c r="AI30" s="113"/>
-      <c r="AJ30" s="113"/>
-      <c r="AK30" s="113"/>
-      <c r="AL30" s="113"/>
-      <c r="AM30" s="113"/>
-      <c r="AN30" s="114"/>
-      <c r="AQ30" s="112"/>
-      <c r="AR30" s="113"/>
-      <c r="AS30" s="113"/>
-      <c r="AT30" s="113"/>
-      <c r="AU30" s="113"/>
-      <c r="AV30" s="113"/>
-      <c r="AW30" s="113"/>
-      <c r="AX30" s="113"/>
-      <c r="AY30" s="113"/>
-      <c r="AZ30" s="113"/>
-      <c r="BA30" s="113"/>
-      <c r="BB30" s="113"/>
-      <c r="BC30" s="113"/>
-      <c r="BD30" s="113"/>
-      <c r="BE30" s="113"/>
-      <c r="BF30" s="113"/>
-      <c r="BG30" s="113"/>
-      <c r="BH30" s="113"/>
-      <c r="BI30" s="113"/>
-      <c r="BJ30" s="113"/>
-      <c r="BK30" s="113"/>
-      <c r="BL30" s="113"/>
-      <c r="BM30" s="113"/>
-      <c r="BN30" s="113"/>
-      <c r="BO30" s="113"/>
-      <c r="BP30" s="113"/>
-      <c r="BQ30" s="113"/>
-      <c r="BR30" s="113"/>
-      <c r="BS30" s="113"/>
-      <c r="BT30" s="113"/>
-      <c r="BU30" s="113"/>
-      <c r="BV30" s="113"/>
-      <c r="BW30" s="113"/>
-      <c r="BX30" s="113"/>
-      <c r="BY30" s="113"/>
-      <c r="BZ30" s="113"/>
-      <c r="CA30" s="113"/>
-      <c r="CB30" s="114"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="95"/>
+      <c r="S30" s="95"/>
+      <c r="T30" s="95"/>
+      <c r="U30" s="95"/>
+      <c r="V30" s="95"/>
+      <c r="W30" s="95"/>
+      <c r="X30" s="95"/>
+      <c r="Y30" s="95"/>
+      <c r="Z30" s="95"/>
+      <c r="AA30" s="95"/>
+      <c r="AB30" s="95"/>
+      <c r="AC30" s="95"/>
+      <c r="AD30" s="95"/>
+      <c r="AE30" s="95"/>
+      <c r="AF30" s="95"/>
+      <c r="AG30" s="95"/>
+      <c r="AH30" s="95"/>
+      <c r="AI30" s="95"/>
+      <c r="AJ30" s="95"/>
+      <c r="AK30" s="95"/>
+      <c r="AL30" s="95"/>
+      <c r="AM30" s="95"/>
+      <c r="AN30" s="96"/>
+      <c r="AQ30" s="94"/>
+      <c r="AR30" s="95"/>
+      <c r="AS30" s="95"/>
+      <c r="AT30" s="95"/>
+      <c r="AU30" s="95"/>
+      <c r="AV30" s="95"/>
+      <c r="AW30" s="95"/>
+      <c r="AX30" s="95"/>
+      <c r="AY30" s="95"/>
+      <c r="AZ30" s="95"/>
+      <c r="BA30" s="95"/>
+      <c r="BB30" s="95"/>
+      <c r="BC30" s="95"/>
+      <c r="BD30" s="95"/>
+      <c r="BE30" s="95"/>
+      <c r="BF30" s="95"/>
+      <c r="BG30" s="95"/>
+      <c r="BH30" s="95"/>
+      <c r="BI30" s="95"/>
+      <c r="BJ30" s="95"/>
+      <c r="BK30" s="95"/>
+      <c r="BL30" s="95"/>
+      <c r="BM30" s="95"/>
+      <c r="BN30" s="95"/>
+      <c r="BO30" s="95"/>
+      <c r="BP30" s="95"/>
+      <c r="BQ30" s="95"/>
+      <c r="BR30" s="95"/>
+      <c r="BS30" s="95"/>
+      <c r="BT30" s="95"/>
+      <c r="BU30" s="95"/>
+      <c r="BV30" s="95"/>
+      <c r="BW30" s="95"/>
+      <c r="BX30" s="95"/>
+      <c r="BY30" s="95"/>
+      <c r="BZ30" s="95"/>
+      <c r="CA30" s="95"/>
+      <c r="CB30" s="96"/>
     </row>
     <row r="31" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C31" s="112"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="113"/>
-      <c r="I31" s="113"/>
-      <c r="J31" s="113"/>
-      <c r="K31" s="113"/>
-      <c r="L31" s="113"/>
-      <c r="M31" s="113"/>
-      <c r="N31" s="113"/>
-      <c r="O31" s="113"/>
-      <c r="P31" s="113"/>
-      <c r="Q31" s="113"/>
-      <c r="R31" s="113"/>
-      <c r="S31" s="113"/>
-      <c r="T31" s="113"/>
-      <c r="U31" s="113"/>
-      <c r="V31" s="113"/>
-      <c r="W31" s="113"/>
-      <c r="X31" s="113"/>
-      <c r="Y31" s="113"/>
-      <c r="Z31" s="113"/>
-      <c r="AA31" s="113"/>
-      <c r="AB31" s="113"/>
-      <c r="AC31" s="113"/>
-      <c r="AD31" s="113"/>
-      <c r="AE31" s="113"/>
-      <c r="AF31" s="113"/>
-      <c r="AG31" s="113"/>
-      <c r="AH31" s="113"/>
-      <c r="AI31" s="113"/>
-      <c r="AJ31" s="113"/>
-      <c r="AK31" s="113"/>
-      <c r="AL31" s="113"/>
-      <c r="AM31" s="113"/>
-      <c r="AN31" s="114"/>
-      <c r="AQ31" s="112"/>
-      <c r="AR31" s="113"/>
-      <c r="AS31" s="113"/>
-      <c r="AT31" s="113"/>
-      <c r="AU31" s="113"/>
-      <c r="AV31" s="113"/>
-      <c r="AW31" s="113"/>
-      <c r="AX31" s="113"/>
-      <c r="AY31" s="113"/>
-      <c r="AZ31" s="113"/>
-      <c r="BA31" s="113"/>
-      <c r="BB31" s="113"/>
-      <c r="BC31" s="113"/>
-      <c r="BD31" s="113"/>
-      <c r="BE31" s="113"/>
-      <c r="BF31" s="113"/>
-      <c r="BG31" s="113"/>
-      <c r="BH31" s="113"/>
-      <c r="BI31" s="113"/>
-      <c r="BJ31" s="113"/>
-      <c r="BK31" s="113"/>
-      <c r="BL31" s="113"/>
-      <c r="BM31" s="113"/>
-      <c r="BN31" s="113"/>
-      <c r="BO31" s="113"/>
-      <c r="BP31" s="113"/>
-      <c r="BQ31" s="113"/>
-      <c r="BR31" s="113"/>
-      <c r="BS31" s="113"/>
-      <c r="BT31" s="113"/>
-      <c r="BU31" s="113"/>
-      <c r="BV31" s="113"/>
-      <c r="BW31" s="113"/>
-      <c r="BX31" s="113"/>
-      <c r="BY31" s="113"/>
-      <c r="BZ31" s="113"/>
-      <c r="CA31" s="113"/>
-      <c r="CB31" s="114"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="95"/>
+      <c r="T31" s="95"/>
+      <c r="U31" s="95"/>
+      <c r="V31" s="95"/>
+      <c r="W31" s="95"/>
+      <c r="X31" s="95"/>
+      <c r="Y31" s="95"/>
+      <c r="Z31" s="95"/>
+      <c r="AA31" s="95"/>
+      <c r="AB31" s="95"/>
+      <c r="AC31" s="95"/>
+      <c r="AD31" s="95"/>
+      <c r="AE31" s="95"/>
+      <c r="AF31" s="95"/>
+      <c r="AG31" s="95"/>
+      <c r="AH31" s="95"/>
+      <c r="AI31" s="95"/>
+      <c r="AJ31" s="95"/>
+      <c r="AK31" s="95"/>
+      <c r="AL31" s="95"/>
+      <c r="AM31" s="95"/>
+      <c r="AN31" s="96"/>
+      <c r="AQ31" s="94"/>
+      <c r="AR31" s="95"/>
+      <c r="AS31" s="95"/>
+      <c r="AT31" s="95"/>
+      <c r="AU31" s="95"/>
+      <c r="AV31" s="95"/>
+      <c r="AW31" s="95"/>
+      <c r="AX31" s="95"/>
+      <c r="AY31" s="95"/>
+      <c r="AZ31" s="95"/>
+      <c r="BA31" s="95"/>
+      <c r="BB31" s="95"/>
+      <c r="BC31" s="95"/>
+      <c r="BD31" s="95"/>
+      <c r="BE31" s="95"/>
+      <c r="BF31" s="95"/>
+      <c r="BG31" s="95"/>
+      <c r="BH31" s="95"/>
+      <c r="BI31" s="95"/>
+      <c r="BJ31" s="95"/>
+      <c r="BK31" s="95"/>
+      <c r="BL31" s="95"/>
+      <c r="BM31" s="95"/>
+      <c r="BN31" s="95"/>
+      <c r="BO31" s="95"/>
+      <c r="BP31" s="95"/>
+      <c r="BQ31" s="95"/>
+      <c r="BR31" s="95"/>
+      <c r="BS31" s="95"/>
+      <c r="BT31" s="95"/>
+      <c r="BU31" s="95"/>
+      <c r="BV31" s="95"/>
+      <c r="BW31" s="95"/>
+      <c r="BX31" s="95"/>
+      <c r="BY31" s="95"/>
+      <c r="BZ31" s="95"/>
+      <c r="CA31" s="95"/>
+      <c r="CB31" s="96"/>
     </row>
     <row r="32" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C32" s="112"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="113"/>
-      <c r="K32" s="113"/>
-      <c r="L32" s="113"/>
-      <c r="M32" s="113"/>
-      <c r="N32" s="113"/>
-      <c r="O32" s="113"/>
-      <c r="P32" s="113"/>
-      <c r="Q32" s="113"/>
-      <c r="R32" s="113"/>
-      <c r="S32" s="113"/>
-      <c r="T32" s="113"/>
-      <c r="U32" s="113"/>
-      <c r="V32" s="113"/>
-      <c r="W32" s="113"/>
-      <c r="X32" s="113"/>
-      <c r="Y32" s="113"/>
-      <c r="Z32" s="113"/>
-      <c r="AA32" s="113"/>
-      <c r="AB32" s="113"/>
-      <c r="AC32" s="113"/>
-      <c r="AD32" s="113"/>
-      <c r="AE32" s="113"/>
-      <c r="AF32" s="113"/>
-      <c r="AG32" s="113"/>
-      <c r="AH32" s="113"/>
-      <c r="AI32" s="113"/>
-      <c r="AJ32" s="113"/>
-      <c r="AK32" s="113"/>
-      <c r="AL32" s="113"/>
-      <c r="AM32" s="113"/>
-      <c r="AN32" s="114"/>
-      <c r="AQ32" s="112"/>
-      <c r="AR32" s="113"/>
-      <c r="AS32" s="113"/>
-      <c r="AT32" s="113"/>
-      <c r="AU32" s="113"/>
-      <c r="AV32" s="113"/>
-      <c r="AW32" s="113"/>
-      <c r="AX32" s="113"/>
-      <c r="AY32" s="113"/>
-      <c r="AZ32" s="113"/>
-      <c r="BA32" s="113"/>
-      <c r="BB32" s="113"/>
-      <c r="BC32" s="113"/>
-      <c r="BD32" s="113"/>
-      <c r="BE32" s="113"/>
-      <c r="BF32" s="113"/>
-      <c r="BG32" s="113"/>
-      <c r="BH32" s="113"/>
-      <c r="BI32" s="113"/>
-      <c r="BJ32" s="113"/>
-      <c r="BK32" s="113"/>
-      <c r="BL32" s="113"/>
-      <c r="BM32" s="113"/>
-      <c r="BN32" s="113"/>
-      <c r="BO32" s="113"/>
-      <c r="BP32" s="113"/>
-      <c r="BQ32" s="113"/>
-      <c r="BR32" s="113"/>
-      <c r="BS32" s="113"/>
-      <c r="BT32" s="113"/>
-      <c r="BU32" s="113"/>
-      <c r="BV32" s="113"/>
-      <c r="BW32" s="113"/>
-      <c r="BX32" s="113"/>
-      <c r="BY32" s="113"/>
-      <c r="BZ32" s="113"/>
-      <c r="CA32" s="113"/>
-      <c r="CB32" s="114"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="95"/>
+      <c r="Q32" s="95"/>
+      <c r="R32" s="95"/>
+      <c r="S32" s="95"/>
+      <c r="T32" s="95"/>
+      <c r="U32" s="95"/>
+      <c r="V32" s="95"/>
+      <c r="W32" s="95"/>
+      <c r="X32" s="95"/>
+      <c r="Y32" s="95"/>
+      <c r="Z32" s="95"/>
+      <c r="AA32" s="95"/>
+      <c r="AB32" s="95"/>
+      <c r="AC32" s="95"/>
+      <c r="AD32" s="95"/>
+      <c r="AE32" s="95"/>
+      <c r="AF32" s="95"/>
+      <c r="AG32" s="95"/>
+      <c r="AH32" s="95"/>
+      <c r="AI32" s="95"/>
+      <c r="AJ32" s="95"/>
+      <c r="AK32" s="95"/>
+      <c r="AL32" s="95"/>
+      <c r="AM32" s="95"/>
+      <c r="AN32" s="96"/>
+      <c r="AQ32" s="94"/>
+      <c r="AR32" s="95"/>
+      <c r="AS32" s="95"/>
+      <c r="AT32" s="95"/>
+      <c r="AU32" s="95"/>
+      <c r="AV32" s="95"/>
+      <c r="AW32" s="95"/>
+      <c r="AX32" s="95"/>
+      <c r="AY32" s="95"/>
+      <c r="AZ32" s="95"/>
+      <c r="BA32" s="95"/>
+      <c r="BB32" s="95"/>
+      <c r="BC32" s="95"/>
+      <c r="BD32" s="95"/>
+      <c r="BE32" s="95"/>
+      <c r="BF32" s="95"/>
+      <c r="BG32" s="95"/>
+      <c r="BH32" s="95"/>
+      <c r="BI32" s="95"/>
+      <c r="BJ32" s="95"/>
+      <c r="BK32" s="95"/>
+      <c r="BL32" s="95"/>
+      <c r="BM32" s="95"/>
+      <c r="BN32" s="95"/>
+      <c r="BO32" s="95"/>
+      <c r="BP32" s="95"/>
+      <c r="BQ32" s="95"/>
+      <c r="BR32" s="95"/>
+      <c r="BS32" s="95"/>
+      <c r="BT32" s="95"/>
+      <c r="BU32" s="95"/>
+      <c r="BV32" s="95"/>
+      <c r="BW32" s="95"/>
+      <c r="BX32" s="95"/>
+      <c r="BY32" s="95"/>
+      <c r="BZ32" s="95"/>
+      <c r="CA32" s="95"/>
+      <c r="CB32" s="96"/>
     </row>
     <row r="33" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C33" s="112"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="113"/>
-      <c r="K33" s="113"/>
-      <c r="L33" s="113"/>
-      <c r="M33" s="113"/>
-      <c r="N33" s="113"/>
-      <c r="O33" s="113"/>
-      <c r="P33" s="113"/>
-      <c r="Q33" s="113"/>
-      <c r="R33" s="113"/>
-      <c r="S33" s="113"/>
-      <c r="T33" s="113"/>
-      <c r="U33" s="113"/>
-      <c r="V33" s="113"/>
-      <c r="W33" s="113"/>
-      <c r="X33" s="113"/>
-      <c r="Y33" s="113"/>
-      <c r="Z33" s="113"/>
-      <c r="AA33" s="113"/>
-      <c r="AB33" s="113"/>
-      <c r="AC33" s="113"/>
-      <c r="AD33" s="113"/>
-      <c r="AE33" s="113"/>
-      <c r="AF33" s="113"/>
-      <c r="AG33" s="113"/>
-      <c r="AH33" s="113"/>
-      <c r="AI33" s="113"/>
-      <c r="AJ33" s="113"/>
-      <c r="AK33" s="113"/>
-      <c r="AL33" s="113"/>
-      <c r="AM33" s="113"/>
-      <c r="AN33" s="114"/>
-      <c r="AQ33" s="112"/>
-      <c r="AR33" s="113"/>
-      <c r="AS33" s="113"/>
-      <c r="AT33" s="113"/>
-      <c r="AU33" s="113"/>
-      <c r="AV33" s="113"/>
-      <c r="AW33" s="113"/>
-      <c r="AX33" s="113"/>
-      <c r="AY33" s="113"/>
-      <c r="AZ33" s="113"/>
-      <c r="BA33" s="113"/>
-      <c r="BB33" s="113"/>
-      <c r="BC33" s="113"/>
-      <c r="BD33" s="113"/>
-      <c r="BE33" s="113"/>
-      <c r="BF33" s="113"/>
-      <c r="BG33" s="113"/>
-      <c r="BH33" s="113"/>
-      <c r="BI33" s="113"/>
-      <c r="BJ33" s="113"/>
-      <c r="BK33" s="113"/>
-      <c r="BL33" s="113"/>
-      <c r="BM33" s="113"/>
-      <c r="BN33" s="113"/>
-      <c r="BO33" s="113"/>
-      <c r="BP33" s="113"/>
-      <c r="BQ33" s="113"/>
-      <c r="BR33" s="113"/>
-      <c r="BS33" s="113"/>
-      <c r="BT33" s="113"/>
-      <c r="BU33" s="113"/>
-      <c r="BV33" s="113"/>
-      <c r="BW33" s="113"/>
-      <c r="BX33" s="113"/>
-      <c r="BY33" s="113"/>
-      <c r="BZ33" s="113"/>
-      <c r="CA33" s="113"/>
-      <c r="CB33" s="114"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="95"/>
+      <c r="U33" s="95"/>
+      <c r="V33" s="95"/>
+      <c r="W33" s="95"/>
+      <c r="X33" s="95"/>
+      <c r="Y33" s="95"/>
+      <c r="Z33" s="95"/>
+      <c r="AA33" s="95"/>
+      <c r="AB33" s="95"/>
+      <c r="AC33" s="95"/>
+      <c r="AD33" s="95"/>
+      <c r="AE33" s="95"/>
+      <c r="AF33" s="95"/>
+      <c r="AG33" s="95"/>
+      <c r="AH33" s="95"/>
+      <c r="AI33" s="95"/>
+      <c r="AJ33" s="95"/>
+      <c r="AK33" s="95"/>
+      <c r="AL33" s="95"/>
+      <c r="AM33" s="95"/>
+      <c r="AN33" s="96"/>
+      <c r="AQ33" s="94"/>
+      <c r="AR33" s="95"/>
+      <c r="AS33" s="95"/>
+      <c r="AT33" s="95"/>
+      <c r="AU33" s="95"/>
+      <c r="AV33" s="95"/>
+      <c r="AW33" s="95"/>
+      <c r="AX33" s="95"/>
+      <c r="AY33" s="95"/>
+      <c r="AZ33" s="95"/>
+      <c r="BA33" s="95"/>
+      <c r="BB33" s="95"/>
+      <c r="BC33" s="95"/>
+      <c r="BD33" s="95"/>
+      <c r="BE33" s="95"/>
+      <c r="BF33" s="95"/>
+      <c r="BG33" s="95"/>
+      <c r="BH33" s="95"/>
+      <c r="BI33" s="95"/>
+      <c r="BJ33" s="95"/>
+      <c r="BK33" s="95"/>
+      <c r="BL33" s="95"/>
+      <c r="BM33" s="95"/>
+      <c r="BN33" s="95"/>
+      <c r="BO33" s="95"/>
+      <c r="BP33" s="95"/>
+      <c r="BQ33" s="95"/>
+      <c r="BR33" s="95"/>
+      <c r="BS33" s="95"/>
+      <c r="BT33" s="95"/>
+      <c r="BU33" s="95"/>
+      <c r="BV33" s="95"/>
+      <c r="BW33" s="95"/>
+      <c r="BX33" s="95"/>
+      <c r="BY33" s="95"/>
+      <c r="BZ33" s="95"/>
+      <c r="CA33" s="95"/>
+      <c r="CB33" s="96"/>
     </row>
     <row r="34" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C34" s="112"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="113"/>
-      <c r="K34" s="113"/>
-      <c r="L34" s="113"/>
-      <c r="M34" s="113"/>
-      <c r="N34" s="113"/>
-      <c r="O34" s="113"/>
-      <c r="P34" s="113"/>
-      <c r="Q34" s="113"/>
-      <c r="R34" s="113"/>
-      <c r="S34" s="113"/>
-      <c r="T34" s="113"/>
-      <c r="U34" s="113"/>
-      <c r="V34" s="113"/>
-      <c r="W34" s="113"/>
-      <c r="X34" s="113"/>
-      <c r="Y34" s="113"/>
-      <c r="Z34" s="113"/>
-      <c r="AA34" s="113"/>
-      <c r="AB34" s="113"/>
-      <c r="AC34" s="113"/>
-      <c r="AD34" s="113"/>
-      <c r="AE34" s="113"/>
-      <c r="AF34" s="113"/>
-      <c r="AG34" s="113"/>
-      <c r="AH34" s="113"/>
-      <c r="AI34" s="113"/>
-      <c r="AJ34" s="113"/>
-      <c r="AK34" s="113"/>
-      <c r="AL34" s="113"/>
-      <c r="AM34" s="113"/>
-      <c r="AN34" s="114"/>
-      <c r="AQ34" s="112"/>
-      <c r="AR34" s="113"/>
-      <c r="AS34" s="113"/>
-      <c r="AT34" s="113"/>
-      <c r="AU34" s="113"/>
-      <c r="AV34" s="113"/>
-      <c r="AW34" s="113"/>
-      <c r="AX34" s="113"/>
-      <c r="AY34" s="113"/>
-      <c r="AZ34" s="113"/>
-      <c r="BA34" s="113"/>
-      <c r="BB34" s="113"/>
-      <c r="BC34" s="113"/>
-      <c r="BD34" s="113"/>
-      <c r="BE34" s="113"/>
-      <c r="BF34" s="113"/>
-      <c r="BG34" s="113"/>
-      <c r="BH34" s="113"/>
-      <c r="BI34" s="113"/>
-      <c r="BJ34" s="113"/>
-      <c r="BK34" s="113"/>
-      <c r="BL34" s="113"/>
-      <c r="BM34" s="113"/>
-      <c r="BN34" s="113"/>
-      <c r="BO34" s="113"/>
-      <c r="BP34" s="113"/>
-      <c r="BQ34" s="113"/>
-      <c r="BR34" s="113"/>
-      <c r="BS34" s="113"/>
-      <c r="BT34" s="113"/>
-      <c r="BU34" s="113"/>
-      <c r="BV34" s="113"/>
-      <c r="BW34" s="113"/>
-      <c r="BX34" s="113"/>
-      <c r="BY34" s="113"/>
-      <c r="BZ34" s="113"/>
-      <c r="CA34" s="113"/>
-      <c r="CB34" s="114"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="95"/>
+      <c r="Q34" s="95"/>
+      <c r="R34" s="95"/>
+      <c r="S34" s="95"/>
+      <c r="T34" s="95"/>
+      <c r="U34" s="95"/>
+      <c r="V34" s="95"/>
+      <c r="W34" s="95"/>
+      <c r="X34" s="95"/>
+      <c r="Y34" s="95"/>
+      <c r="Z34" s="95"/>
+      <c r="AA34" s="95"/>
+      <c r="AB34" s="95"/>
+      <c r="AC34" s="95"/>
+      <c r="AD34" s="95"/>
+      <c r="AE34" s="95"/>
+      <c r="AF34" s="95"/>
+      <c r="AG34" s="95"/>
+      <c r="AH34" s="95"/>
+      <c r="AI34" s="95"/>
+      <c r="AJ34" s="95"/>
+      <c r="AK34" s="95"/>
+      <c r="AL34" s="95"/>
+      <c r="AM34" s="95"/>
+      <c r="AN34" s="96"/>
+      <c r="AQ34" s="94"/>
+      <c r="AR34" s="95"/>
+      <c r="AS34" s="95"/>
+      <c r="AT34" s="95"/>
+      <c r="AU34" s="95"/>
+      <c r="AV34" s="95"/>
+      <c r="AW34" s="95"/>
+      <c r="AX34" s="95"/>
+      <c r="AY34" s="95"/>
+      <c r="AZ34" s="95"/>
+      <c r="BA34" s="95"/>
+      <c r="BB34" s="95"/>
+      <c r="BC34" s="95"/>
+      <c r="BD34" s="95"/>
+      <c r="BE34" s="95"/>
+      <c r="BF34" s="95"/>
+      <c r="BG34" s="95"/>
+      <c r="BH34" s="95"/>
+      <c r="BI34" s="95"/>
+      <c r="BJ34" s="95"/>
+      <c r="BK34" s="95"/>
+      <c r="BL34" s="95"/>
+      <c r="BM34" s="95"/>
+      <c r="BN34" s="95"/>
+      <c r="BO34" s="95"/>
+      <c r="BP34" s="95"/>
+      <c r="BQ34" s="95"/>
+      <c r="BR34" s="95"/>
+      <c r="BS34" s="95"/>
+      <c r="BT34" s="95"/>
+      <c r="BU34" s="95"/>
+      <c r="BV34" s="95"/>
+      <c r="BW34" s="95"/>
+      <c r="BX34" s="95"/>
+      <c r="BY34" s="95"/>
+      <c r="BZ34" s="95"/>
+      <c r="CA34" s="95"/>
+      <c r="CB34" s="96"/>
     </row>
     <row r="35" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C35" s="112"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="113"/>
-      <c r="H35" s="113"/>
-      <c r="I35" s="113"/>
-      <c r="J35" s="113"/>
-      <c r="K35" s="113"/>
-      <c r="L35" s="113"/>
-      <c r="M35" s="113"/>
-      <c r="N35" s="113"/>
-      <c r="O35" s="113"/>
-      <c r="P35" s="113"/>
-      <c r="Q35" s="113"/>
-      <c r="R35" s="113"/>
-      <c r="S35" s="113"/>
-      <c r="T35" s="113"/>
-      <c r="U35" s="113"/>
-      <c r="V35" s="113"/>
-      <c r="W35" s="113"/>
-      <c r="X35" s="113"/>
-      <c r="Y35" s="113"/>
-      <c r="Z35" s="113"/>
-      <c r="AA35" s="113"/>
-      <c r="AB35" s="113"/>
-      <c r="AC35" s="113"/>
-      <c r="AD35" s="113"/>
-      <c r="AE35" s="113"/>
-      <c r="AF35" s="113"/>
-      <c r="AG35" s="113"/>
-      <c r="AH35" s="113"/>
-      <c r="AI35" s="113"/>
-      <c r="AJ35" s="113"/>
-      <c r="AK35" s="113"/>
-      <c r="AL35" s="113"/>
-      <c r="AM35" s="113"/>
-      <c r="AN35" s="114"/>
-      <c r="AQ35" s="112"/>
-      <c r="AR35" s="113"/>
-      <c r="AS35" s="113"/>
-      <c r="AT35" s="113"/>
-      <c r="AU35" s="113"/>
-      <c r="AV35" s="113"/>
-      <c r="AW35" s="113"/>
-      <c r="AX35" s="113"/>
-      <c r="AY35" s="113"/>
-      <c r="AZ35" s="113"/>
-      <c r="BA35" s="113"/>
-      <c r="BB35" s="113"/>
-      <c r="BC35" s="113"/>
-      <c r="BD35" s="113"/>
-      <c r="BE35" s="113"/>
-      <c r="BF35" s="113"/>
-      <c r="BG35" s="113"/>
-      <c r="BH35" s="113"/>
-      <c r="BI35" s="113"/>
-      <c r="BJ35" s="113"/>
-      <c r="BK35" s="113"/>
-      <c r="BL35" s="113"/>
-      <c r="BM35" s="113"/>
-      <c r="BN35" s="113"/>
-      <c r="BO35" s="113"/>
-      <c r="BP35" s="113"/>
-      <c r="BQ35" s="113"/>
-      <c r="BR35" s="113"/>
-      <c r="BS35" s="113"/>
-      <c r="BT35" s="113"/>
-      <c r="BU35" s="113"/>
-      <c r="BV35" s="113"/>
-      <c r="BW35" s="113"/>
-      <c r="BX35" s="113"/>
-      <c r="BY35" s="113"/>
-      <c r="BZ35" s="113"/>
-      <c r="CA35" s="113"/>
-      <c r="CB35" s="114"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="95"/>
+      <c r="N35" s="95"/>
+      <c r="O35" s="95"/>
+      <c r="P35" s="95"/>
+      <c r="Q35" s="95"/>
+      <c r="R35" s="95"/>
+      <c r="S35" s="95"/>
+      <c r="T35" s="95"/>
+      <c r="U35" s="95"/>
+      <c r="V35" s="95"/>
+      <c r="W35" s="95"/>
+      <c r="X35" s="95"/>
+      <c r="Y35" s="95"/>
+      <c r="Z35" s="95"/>
+      <c r="AA35" s="95"/>
+      <c r="AB35" s="95"/>
+      <c r="AC35" s="95"/>
+      <c r="AD35" s="95"/>
+      <c r="AE35" s="95"/>
+      <c r="AF35" s="95"/>
+      <c r="AG35" s="95"/>
+      <c r="AH35" s="95"/>
+      <c r="AI35" s="95"/>
+      <c r="AJ35" s="95"/>
+      <c r="AK35" s="95"/>
+      <c r="AL35" s="95"/>
+      <c r="AM35" s="95"/>
+      <c r="AN35" s="96"/>
+      <c r="AQ35" s="94"/>
+      <c r="AR35" s="95"/>
+      <c r="AS35" s="95"/>
+      <c r="AT35" s="95"/>
+      <c r="AU35" s="95"/>
+      <c r="AV35" s="95"/>
+      <c r="AW35" s="95"/>
+      <c r="AX35" s="95"/>
+      <c r="AY35" s="95"/>
+      <c r="AZ35" s="95"/>
+      <c r="BA35" s="95"/>
+      <c r="BB35" s="95"/>
+      <c r="BC35" s="95"/>
+      <c r="BD35" s="95"/>
+      <c r="BE35" s="95"/>
+      <c r="BF35" s="95"/>
+      <c r="BG35" s="95"/>
+      <c r="BH35" s="95"/>
+      <c r="BI35" s="95"/>
+      <c r="BJ35" s="95"/>
+      <c r="BK35" s="95"/>
+      <c r="BL35" s="95"/>
+      <c r="BM35" s="95"/>
+      <c r="BN35" s="95"/>
+      <c r="BO35" s="95"/>
+      <c r="BP35" s="95"/>
+      <c r="BQ35" s="95"/>
+      <c r="BR35" s="95"/>
+      <c r="BS35" s="95"/>
+      <c r="BT35" s="95"/>
+      <c r="BU35" s="95"/>
+      <c r="BV35" s="95"/>
+      <c r="BW35" s="95"/>
+      <c r="BX35" s="95"/>
+      <c r="BY35" s="95"/>
+      <c r="BZ35" s="95"/>
+      <c r="CA35" s="95"/>
+      <c r="CB35" s="96"/>
     </row>
     <row r="36" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C36" s="112"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="113"/>
-      <c r="F36" s="113"/>
-      <c r="G36" s="113"/>
-      <c r="H36" s="113"/>
-      <c r="I36" s="113"/>
-      <c r="J36" s="113"/>
-      <c r="K36" s="113"/>
-      <c r="L36" s="113"/>
-      <c r="M36" s="113"/>
-      <c r="N36" s="113"/>
-      <c r="O36" s="113"/>
-      <c r="P36" s="113"/>
-      <c r="Q36" s="113"/>
-      <c r="R36" s="113"/>
-      <c r="S36" s="113"/>
-      <c r="T36" s="113"/>
-      <c r="U36" s="113"/>
-      <c r="V36" s="113"/>
-      <c r="W36" s="113"/>
-      <c r="X36" s="113"/>
-      <c r="Y36" s="113"/>
-      <c r="Z36" s="113"/>
-      <c r="AA36" s="113"/>
-      <c r="AB36" s="113"/>
-      <c r="AC36" s="113"/>
-      <c r="AD36" s="113"/>
-      <c r="AE36" s="113"/>
-      <c r="AF36" s="113"/>
-      <c r="AG36" s="113"/>
-      <c r="AH36" s="113"/>
-      <c r="AI36" s="113"/>
-      <c r="AJ36" s="113"/>
-      <c r="AK36" s="113"/>
-      <c r="AL36" s="113"/>
-      <c r="AM36" s="113"/>
-      <c r="AN36" s="114"/>
-      <c r="AQ36" s="112"/>
-      <c r="AR36" s="113"/>
-      <c r="AS36" s="113"/>
-      <c r="AT36" s="113"/>
-      <c r="AU36" s="113"/>
-      <c r="AV36" s="113"/>
-      <c r="AW36" s="113"/>
-      <c r="AX36" s="113"/>
-      <c r="AY36" s="113"/>
-      <c r="AZ36" s="113"/>
-      <c r="BA36" s="113"/>
-      <c r="BB36" s="113"/>
-      <c r="BC36" s="113"/>
-      <c r="BD36" s="113"/>
-      <c r="BE36" s="113"/>
-      <c r="BF36" s="113"/>
-      <c r="BG36" s="113"/>
-      <c r="BH36" s="113"/>
-      <c r="BI36" s="113"/>
-      <c r="BJ36" s="113"/>
-      <c r="BK36" s="113"/>
-      <c r="BL36" s="113"/>
-      <c r="BM36" s="113"/>
-      <c r="BN36" s="113"/>
-      <c r="BO36" s="113"/>
-      <c r="BP36" s="113"/>
-      <c r="BQ36" s="113"/>
-      <c r="BR36" s="113"/>
-      <c r="BS36" s="113"/>
-      <c r="BT36" s="113"/>
-      <c r="BU36" s="113"/>
-      <c r="BV36" s="113"/>
-      <c r="BW36" s="113"/>
-      <c r="BX36" s="113"/>
-      <c r="BY36" s="113"/>
-      <c r="BZ36" s="113"/>
-      <c r="CA36" s="113"/>
-      <c r="CB36" s="114"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="95"/>
+      <c r="N36" s="95"/>
+      <c r="O36" s="95"/>
+      <c r="P36" s="95"/>
+      <c r="Q36" s="95"/>
+      <c r="R36" s="95"/>
+      <c r="S36" s="95"/>
+      <c r="T36" s="95"/>
+      <c r="U36" s="95"/>
+      <c r="V36" s="95"/>
+      <c r="W36" s="95"/>
+      <c r="X36" s="95"/>
+      <c r="Y36" s="95"/>
+      <c r="Z36" s="95"/>
+      <c r="AA36" s="95"/>
+      <c r="AB36" s="95"/>
+      <c r="AC36" s="95"/>
+      <c r="AD36" s="95"/>
+      <c r="AE36" s="95"/>
+      <c r="AF36" s="95"/>
+      <c r="AG36" s="95"/>
+      <c r="AH36" s="95"/>
+      <c r="AI36" s="95"/>
+      <c r="AJ36" s="95"/>
+      <c r="AK36" s="95"/>
+      <c r="AL36" s="95"/>
+      <c r="AM36" s="95"/>
+      <c r="AN36" s="96"/>
+      <c r="AQ36" s="94"/>
+      <c r="AR36" s="95"/>
+      <c r="AS36" s="95"/>
+      <c r="AT36" s="95"/>
+      <c r="AU36" s="95"/>
+      <c r="AV36" s="95"/>
+      <c r="AW36" s="95"/>
+      <c r="AX36" s="95"/>
+      <c r="AY36" s="95"/>
+      <c r="AZ36" s="95"/>
+      <c r="BA36" s="95"/>
+      <c r="BB36" s="95"/>
+      <c r="BC36" s="95"/>
+      <c r="BD36" s="95"/>
+      <c r="BE36" s="95"/>
+      <c r="BF36" s="95"/>
+      <c r="BG36" s="95"/>
+      <c r="BH36" s="95"/>
+      <c r="BI36" s="95"/>
+      <c r="BJ36" s="95"/>
+      <c r="BK36" s="95"/>
+      <c r="BL36" s="95"/>
+      <c r="BM36" s="95"/>
+      <c r="BN36" s="95"/>
+      <c r="BO36" s="95"/>
+      <c r="BP36" s="95"/>
+      <c r="BQ36" s="95"/>
+      <c r="BR36" s="95"/>
+      <c r="BS36" s="95"/>
+      <c r="BT36" s="95"/>
+      <c r="BU36" s="95"/>
+      <c r="BV36" s="95"/>
+      <c r="BW36" s="95"/>
+      <c r="BX36" s="95"/>
+      <c r="BY36" s="95"/>
+      <c r="BZ36" s="95"/>
+      <c r="CA36" s="95"/>
+      <c r="CB36" s="96"/>
     </row>
     <row r="37" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C37" s="112"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="113"/>
-      <c r="F37" s="113"/>
-      <c r="G37" s="113"/>
-      <c r="H37" s="113"/>
-      <c r="I37" s="113"/>
-      <c r="J37" s="113"/>
-      <c r="K37" s="113"/>
-      <c r="L37" s="113"/>
-      <c r="M37" s="113"/>
-      <c r="N37" s="113"/>
-      <c r="O37" s="113"/>
-      <c r="P37" s="113"/>
-      <c r="Q37" s="113"/>
-      <c r="R37" s="113"/>
-      <c r="S37" s="113"/>
-      <c r="T37" s="113"/>
-      <c r="U37" s="113"/>
-      <c r="V37" s="113"/>
-      <c r="W37" s="113"/>
-      <c r="X37" s="113"/>
-      <c r="Y37" s="113"/>
-      <c r="Z37" s="113"/>
-      <c r="AA37" s="113"/>
-      <c r="AB37" s="113"/>
-      <c r="AC37" s="113"/>
-      <c r="AD37" s="113"/>
-      <c r="AE37" s="113"/>
-      <c r="AF37" s="113"/>
-      <c r="AG37" s="113"/>
-      <c r="AH37" s="113"/>
-      <c r="AI37" s="113"/>
-      <c r="AJ37" s="113"/>
-      <c r="AK37" s="113"/>
-      <c r="AL37" s="113"/>
-      <c r="AM37" s="113"/>
-      <c r="AN37" s="114"/>
-      <c r="AQ37" s="112"/>
-      <c r="AR37" s="113"/>
-      <c r="AS37" s="113"/>
-      <c r="AT37" s="113"/>
-      <c r="AU37" s="113"/>
-      <c r="AV37" s="113"/>
-      <c r="AW37" s="113"/>
-      <c r="AX37" s="113"/>
-      <c r="AY37" s="113"/>
-      <c r="AZ37" s="113"/>
-      <c r="BA37" s="113"/>
-      <c r="BB37" s="113"/>
-      <c r="BC37" s="113"/>
-      <c r="BD37" s="113"/>
-      <c r="BE37" s="113"/>
-      <c r="BF37" s="113"/>
-      <c r="BG37" s="113"/>
-      <c r="BH37" s="113"/>
-      <c r="BI37" s="113"/>
-      <c r="BJ37" s="113"/>
-      <c r="BK37" s="113"/>
-      <c r="BL37" s="113"/>
-      <c r="BM37" s="113"/>
-      <c r="BN37" s="113"/>
-      <c r="BO37" s="113"/>
-      <c r="BP37" s="113"/>
-      <c r="BQ37" s="113"/>
-      <c r="BR37" s="113"/>
-      <c r="BS37" s="113"/>
-      <c r="BT37" s="113"/>
-      <c r="BU37" s="113"/>
-      <c r="BV37" s="113"/>
-      <c r="BW37" s="113"/>
-      <c r="BX37" s="113"/>
-      <c r="BY37" s="113"/>
-      <c r="BZ37" s="113"/>
-      <c r="CA37" s="113"/>
-      <c r="CB37" s="114"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="95"/>
+      <c r="L37" s="95"/>
+      <c r="M37" s="95"/>
+      <c r="N37" s="95"/>
+      <c r="O37" s="95"/>
+      <c r="P37" s="95"/>
+      <c r="Q37" s="95"/>
+      <c r="R37" s="95"/>
+      <c r="S37" s="95"/>
+      <c r="T37" s="95"/>
+      <c r="U37" s="95"/>
+      <c r="V37" s="95"/>
+      <c r="W37" s="95"/>
+      <c r="X37" s="95"/>
+      <c r="Y37" s="95"/>
+      <c r="Z37" s="95"/>
+      <c r="AA37" s="95"/>
+      <c r="AB37" s="95"/>
+      <c r="AC37" s="95"/>
+      <c r="AD37" s="95"/>
+      <c r="AE37" s="95"/>
+      <c r="AF37" s="95"/>
+      <c r="AG37" s="95"/>
+      <c r="AH37" s="95"/>
+      <c r="AI37" s="95"/>
+      <c r="AJ37" s="95"/>
+      <c r="AK37" s="95"/>
+      <c r="AL37" s="95"/>
+      <c r="AM37" s="95"/>
+      <c r="AN37" s="96"/>
+      <c r="AQ37" s="94"/>
+      <c r="AR37" s="95"/>
+      <c r="AS37" s="95"/>
+      <c r="AT37" s="95"/>
+      <c r="AU37" s="95"/>
+      <c r="AV37" s="95"/>
+      <c r="AW37" s="95"/>
+      <c r="AX37" s="95"/>
+      <c r="AY37" s="95"/>
+      <c r="AZ37" s="95"/>
+      <c r="BA37" s="95"/>
+      <c r="BB37" s="95"/>
+      <c r="BC37" s="95"/>
+      <c r="BD37" s="95"/>
+      <c r="BE37" s="95"/>
+      <c r="BF37" s="95"/>
+      <c r="BG37" s="95"/>
+      <c r="BH37" s="95"/>
+      <c r="BI37" s="95"/>
+      <c r="BJ37" s="95"/>
+      <c r="BK37" s="95"/>
+      <c r="BL37" s="95"/>
+      <c r="BM37" s="95"/>
+      <c r="BN37" s="95"/>
+      <c r="BO37" s="95"/>
+      <c r="BP37" s="95"/>
+      <c r="BQ37" s="95"/>
+      <c r="BR37" s="95"/>
+      <c r="BS37" s="95"/>
+      <c r="BT37" s="95"/>
+      <c r="BU37" s="95"/>
+      <c r="BV37" s="95"/>
+      <c r="BW37" s="95"/>
+      <c r="BX37" s="95"/>
+      <c r="BY37" s="95"/>
+      <c r="BZ37" s="95"/>
+      <c r="CA37" s="95"/>
+      <c r="CB37" s="96"/>
     </row>
     <row r="38" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C38" s="112"/>
-      <c r="D38" s="113"/>
-      <c r="E38" s="113"/>
-      <c r="F38" s="113"/>
-      <c r="G38" s="113"/>
-      <c r="H38" s="113"/>
-      <c r="I38" s="113"/>
-      <c r="J38" s="113"/>
-      <c r="K38" s="113"/>
-      <c r="L38" s="113"/>
-      <c r="M38" s="113"/>
-      <c r="N38" s="113"/>
-      <c r="O38" s="113"/>
-      <c r="P38" s="113"/>
-      <c r="Q38" s="113"/>
-      <c r="R38" s="113"/>
-      <c r="S38" s="113"/>
-      <c r="T38" s="113"/>
-      <c r="U38" s="113"/>
-      <c r="V38" s="113"/>
-      <c r="W38" s="113"/>
-      <c r="X38" s="113"/>
-      <c r="Y38" s="113"/>
-      <c r="Z38" s="113"/>
-      <c r="AA38" s="113"/>
-      <c r="AB38" s="113"/>
-      <c r="AC38" s="113"/>
-      <c r="AD38" s="113"/>
-      <c r="AE38" s="113"/>
-      <c r="AF38" s="113"/>
-      <c r="AG38" s="113"/>
-      <c r="AH38" s="113"/>
-      <c r="AI38" s="113"/>
-      <c r="AJ38" s="113"/>
-      <c r="AK38" s="113"/>
-      <c r="AL38" s="113"/>
-      <c r="AM38" s="113"/>
-      <c r="AN38" s="114"/>
-      <c r="AQ38" s="112"/>
-      <c r="AR38" s="113"/>
-      <c r="AS38" s="113"/>
-      <c r="AT38" s="113"/>
-      <c r="AU38" s="113"/>
-      <c r="AV38" s="113"/>
-      <c r="AW38" s="113"/>
-      <c r="AX38" s="113"/>
-      <c r="AY38" s="113"/>
-      <c r="AZ38" s="113"/>
-      <c r="BA38" s="113"/>
-      <c r="BB38" s="113"/>
-      <c r="BC38" s="113"/>
-      <c r="BD38" s="113"/>
-      <c r="BE38" s="113"/>
-      <c r="BF38" s="113"/>
-      <c r="BG38" s="113"/>
-      <c r="BH38" s="113"/>
-      <c r="BI38" s="113"/>
-      <c r="BJ38" s="113"/>
-      <c r="BK38" s="113"/>
-      <c r="BL38" s="113"/>
-      <c r="BM38" s="113"/>
-      <c r="BN38" s="113"/>
-      <c r="BO38" s="113"/>
-      <c r="BP38" s="113"/>
-      <c r="BQ38" s="113"/>
-      <c r="BR38" s="113"/>
-      <c r="BS38" s="113"/>
-      <c r="BT38" s="113"/>
-      <c r="BU38" s="113"/>
-      <c r="BV38" s="113"/>
-      <c r="BW38" s="113"/>
-      <c r="BX38" s="113"/>
-      <c r="BY38" s="113"/>
-      <c r="BZ38" s="113"/>
-      <c r="CA38" s="113"/>
-      <c r="CB38" s="114"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="95"/>
+      <c r="I38" s="95"/>
+      <c r="J38" s="95"/>
+      <c r="K38" s="95"/>
+      <c r="L38" s="95"/>
+      <c r="M38" s="95"/>
+      <c r="N38" s="95"/>
+      <c r="O38" s="95"/>
+      <c r="P38" s="95"/>
+      <c r="Q38" s="95"/>
+      <c r="R38" s="95"/>
+      <c r="S38" s="95"/>
+      <c r="T38" s="95"/>
+      <c r="U38" s="95"/>
+      <c r="V38" s="95"/>
+      <c r="W38" s="95"/>
+      <c r="X38" s="95"/>
+      <c r="Y38" s="95"/>
+      <c r="Z38" s="95"/>
+      <c r="AA38" s="95"/>
+      <c r="AB38" s="95"/>
+      <c r="AC38" s="95"/>
+      <c r="AD38" s="95"/>
+      <c r="AE38" s="95"/>
+      <c r="AF38" s="95"/>
+      <c r="AG38" s="95"/>
+      <c r="AH38" s="95"/>
+      <c r="AI38" s="95"/>
+      <c r="AJ38" s="95"/>
+      <c r="AK38" s="95"/>
+      <c r="AL38" s="95"/>
+      <c r="AM38" s="95"/>
+      <c r="AN38" s="96"/>
+      <c r="AQ38" s="94"/>
+      <c r="AR38" s="95"/>
+      <c r="AS38" s="95"/>
+      <c r="AT38" s="95"/>
+      <c r="AU38" s="95"/>
+      <c r="AV38" s="95"/>
+      <c r="AW38" s="95"/>
+      <c r="AX38" s="95"/>
+      <c r="AY38" s="95"/>
+      <c r="AZ38" s="95"/>
+      <c r="BA38" s="95"/>
+      <c r="BB38" s="95"/>
+      <c r="BC38" s="95"/>
+      <c r="BD38" s="95"/>
+      <c r="BE38" s="95"/>
+      <c r="BF38" s="95"/>
+      <c r="BG38" s="95"/>
+      <c r="BH38" s="95"/>
+      <c r="BI38" s="95"/>
+      <c r="BJ38" s="95"/>
+      <c r="BK38" s="95"/>
+      <c r="BL38" s="95"/>
+      <c r="BM38" s="95"/>
+      <c r="BN38" s="95"/>
+      <c r="BO38" s="95"/>
+      <c r="BP38" s="95"/>
+      <c r="BQ38" s="95"/>
+      <c r="BR38" s="95"/>
+      <c r="BS38" s="95"/>
+      <c r="BT38" s="95"/>
+      <c r="BU38" s="95"/>
+      <c r="BV38" s="95"/>
+      <c r="BW38" s="95"/>
+      <c r="BX38" s="95"/>
+      <c r="BY38" s="95"/>
+      <c r="BZ38" s="95"/>
+      <c r="CA38" s="95"/>
+      <c r="CB38" s="96"/>
     </row>
     <row r="39" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C39" s="112"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="113"/>
-      <c r="G39" s="113"/>
-      <c r="H39" s="113"/>
-      <c r="I39" s="113"/>
-      <c r="J39" s="113"/>
-      <c r="K39" s="113"/>
-      <c r="L39" s="113"/>
-      <c r="M39" s="113"/>
-      <c r="N39" s="113"/>
-      <c r="O39" s="113"/>
-      <c r="P39" s="113"/>
-      <c r="Q39" s="113"/>
-      <c r="R39" s="113"/>
-      <c r="S39" s="113"/>
-      <c r="T39" s="113"/>
-      <c r="U39" s="113"/>
-      <c r="V39" s="113"/>
-      <c r="W39" s="113"/>
-      <c r="X39" s="113"/>
-      <c r="Y39" s="113"/>
-      <c r="Z39" s="113"/>
-      <c r="AA39" s="113"/>
-      <c r="AB39" s="113"/>
-      <c r="AC39" s="113"/>
-      <c r="AD39" s="113"/>
-      <c r="AE39" s="113"/>
-      <c r="AF39" s="113"/>
-      <c r="AG39" s="113"/>
-      <c r="AH39" s="113"/>
-      <c r="AI39" s="113"/>
-      <c r="AJ39" s="113"/>
-      <c r="AK39" s="113"/>
-      <c r="AL39" s="113"/>
-      <c r="AM39" s="113"/>
-      <c r="AN39" s="114"/>
-      <c r="AQ39" s="112"/>
-      <c r="AR39" s="113"/>
-      <c r="AS39" s="113"/>
-      <c r="AT39" s="113"/>
-      <c r="AU39" s="113"/>
-      <c r="AV39" s="113"/>
-      <c r="AW39" s="113"/>
-      <c r="AX39" s="113"/>
-      <c r="AY39" s="113"/>
-      <c r="AZ39" s="113"/>
-      <c r="BA39" s="113"/>
-      <c r="BB39" s="113"/>
-      <c r="BC39" s="113"/>
-      <c r="BD39" s="113"/>
-      <c r="BE39" s="113"/>
-      <c r="BF39" s="113"/>
-      <c r="BG39" s="113"/>
-      <c r="BH39" s="113"/>
-      <c r="BI39" s="113"/>
-      <c r="BJ39" s="113"/>
-      <c r="BK39" s="113"/>
-      <c r="BL39" s="113"/>
-      <c r="BM39" s="113"/>
-      <c r="BN39" s="113"/>
-      <c r="BO39" s="113"/>
-      <c r="BP39" s="113"/>
-      <c r="BQ39" s="113"/>
-      <c r="BR39" s="113"/>
-      <c r="BS39" s="113"/>
-      <c r="BT39" s="113"/>
-      <c r="BU39" s="113"/>
-      <c r="BV39" s="113"/>
-      <c r="BW39" s="113"/>
-      <c r="BX39" s="113"/>
-      <c r="BY39" s="113"/>
-      <c r="BZ39" s="113"/>
-      <c r="CA39" s="113"/>
-      <c r="CB39" s="114"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="95"/>
+      <c r="J39" s="95"/>
+      <c r="K39" s="95"/>
+      <c r="L39" s="95"/>
+      <c r="M39" s="95"/>
+      <c r="N39" s="95"/>
+      <c r="O39" s="95"/>
+      <c r="P39" s="95"/>
+      <c r="Q39" s="95"/>
+      <c r="R39" s="95"/>
+      <c r="S39" s="95"/>
+      <c r="T39" s="95"/>
+      <c r="U39" s="95"/>
+      <c r="V39" s="95"/>
+      <c r="W39" s="95"/>
+      <c r="X39" s="95"/>
+      <c r="Y39" s="95"/>
+      <c r="Z39" s="95"/>
+      <c r="AA39" s="95"/>
+      <c r="AB39" s="95"/>
+      <c r="AC39" s="95"/>
+      <c r="AD39" s="95"/>
+      <c r="AE39" s="95"/>
+      <c r="AF39" s="95"/>
+      <c r="AG39" s="95"/>
+      <c r="AH39" s="95"/>
+      <c r="AI39" s="95"/>
+      <c r="AJ39" s="95"/>
+      <c r="AK39" s="95"/>
+      <c r="AL39" s="95"/>
+      <c r="AM39" s="95"/>
+      <c r="AN39" s="96"/>
+      <c r="AQ39" s="94"/>
+      <c r="AR39" s="95"/>
+      <c r="AS39" s="95"/>
+      <c r="AT39" s="95"/>
+      <c r="AU39" s="95"/>
+      <c r="AV39" s="95"/>
+      <c r="AW39" s="95"/>
+      <c r="AX39" s="95"/>
+      <c r="AY39" s="95"/>
+      <c r="AZ39" s="95"/>
+      <c r="BA39" s="95"/>
+      <c r="BB39" s="95"/>
+      <c r="BC39" s="95"/>
+      <c r="BD39" s="95"/>
+      <c r="BE39" s="95"/>
+      <c r="BF39" s="95"/>
+      <c r="BG39" s="95"/>
+      <c r="BH39" s="95"/>
+      <c r="BI39" s="95"/>
+      <c r="BJ39" s="95"/>
+      <c r="BK39" s="95"/>
+      <c r="BL39" s="95"/>
+      <c r="BM39" s="95"/>
+      <c r="BN39" s="95"/>
+      <c r="BO39" s="95"/>
+      <c r="BP39" s="95"/>
+      <c r="BQ39" s="95"/>
+      <c r="BR39" s="95"/>
+      <c r="BS39" s="95"/>
+      <c r="BT39" s="95"/>
+      <c r="BU39" s="95"/>
+      <c r="BV39" s="95"/>
+      <c r="BW39" s="95"/>
+      <c r="BX39" s="95"/>
+      <c r="BY39" s="95"/>
+      <c r="BZ39" s="95"/>
+      <c r="CA39" s="95"/>
+      <c r="CB39" s="96"/>
     </row>
     <row r="40" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C40" s="112"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="113"/>
-      <c r="G40" s="113"/>
-      <c r="H40" s="113"/>
-      <c r="I40" s="113"/>
-      <c r="J40" s="113"/>
-      <c r="K40" s="113"/>
-      <c r="L40" s="113"/>
-      <c r="M40" s="113"/>
-      <c r="N40" s="113"/>
-      <c r="O40" s="113"/>
-      <c r="P40" s="113"/>
-      <c r="Q40" s="113"/>
-      <c r="R40" s="113"/>
-      <c r="S40" s="113"/>
-      <c r="T40" s="113"/>
-      <c r="U40" s="113"/>
-      <c r="V40" s="113"/>
-      <c r="W40" s="113"/>
-      <c r="X40" s="113"/>
-      <c r="Y40" s="113"/>
-      <c r="Z40" s="113"/>
-      <c r="AA40" s="113"/>
-      <c r="AB40" s="113"/>
-      <c r="AC40" s="113"/>
-      <c r="AD40" s="113"/>
-      <c r="AE40" s="113"/>
-      <c r="AF40" s="113"/>
-      <c r="AG40" s="113"/>
-      <c r="AH40" s="113"/>
-      <c r="AI40" s="113"/>
-      <c r="AJ40" s="113"/>
-      <c r="AK40" s="113"/>
-      <c r="AL40" s="113"/>
-      <c r="AM40" s="113"/>
-      <c r="AN40" s="114"/>
-      <c r="AQ40" s="112"/>
-      <c r="AR40" s="113"/>
-      <c r="AS40" s="113"/>
-      <c r="AT40" s="113"/>
-      <c r="AU40" s="113"/>
-      <c r="AV40" s="113"/>
-      <c r="AW40" s="113"/>
-      <c r="AX40" s="113"/>
-      <c r="AY40" s="113"/>
-      <c r="AZ40" s="113"/>
-      <c r="BA40" s="113"/>
-      <c r="BB40" s="113"/>
-      <c r="BC40" s="113"/>
-      <c r="BD40" s="113"/>
-      <c r="BE40" s="113"/>
-      <c r="BF40" s="113"/>
-      <c r="BG40" s="113"/>
-      <c r="BH40" s="113"/>
-      <c r="BI40" s="113"/>
-      <c r="BJ40" s="113"/>
-      <c r="BK40" s="113"/>
-      <c r="BL40" s="113"/>
-      <c r="BM40" s="113"/>
-      <c r="BN40" s="113"/>
-      <c r="BO40" s="113"/>
-      <c r="BP40" s="113"/>
-      <c r="BQ40" s="113"/>
-      <c r="BR40" s="113"/>
-      <c r="BS40" s="113"/>
-      <c r="BT40" s="113"/>
-      <c r="BU40" s="113"/>
-      <c r="BV40" s="113"/>
-      <c r="BW40" s="113"/>
-      <c r="BX40" s="113"/>
-      <c r="BY40" s="113"/>
-      <c r="BZ40" s="113"/>
-      <c r="CA40" s="113"/>
-      <c r="CB40" s="114"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="95"/>
+      <c r="H40" s="95"/>
+      <c r="I40" s="95"/>
+      <c r="J40" s="95"/>
+      <c r="K40" s="95"/>
+      <c r="L40" s="95"/>
+      <c r="M40" s="95"/>
+      <c r="N40" s="95"/>
+      <c r="O40" s="95"/>
+      <c r="P40" s="95"/>
+      <c r="Q40" s="95"/>
+      <c r="R40" s="95"/>
+      <c r="S40" s="95"/>
+      <c r="T40" s="95"/>
+      <c r="U40" s="95"/>
+      <c r="V40" s="95"/>
+      <c r="W40" s="95"/>
+      <c r="X40" s="95"/>
+      <c r="Y40" s="95"/>
+      <c r="Z40" s="95"/>
+      <c r="AA40" s="95"/>
+      <c r="AB40" s="95"/>
+      <c r="AC40" s="95"/>
+      <c r="AD40" s="95"/>
+      <c r="AE40" s="95"/>
+      <c r="AF40" s="95"/>
+      <c r="AG40" s="95"/>
+      <c r="AH40" s="95"/>
+      <c r="AI40" s="95"/>
+      <c r="AJ40" s="95"/>
+      <c r="AK40" s="95"/>
+      <c r="AL40" s="95"/>
+      <c r="AM40" s="95"/>
+      <c r="AN40" s="96"/>
+      <c r="AQ40" s="94"/>
+      <c r="AR40" s="95"/>
+      <c r="AS40" s="95"/>
+      <c r="AT40" s="95"/>
+      <c r="AU40" s="95"/>
+      <c r="AV40" s="95"/>
+      <c r="AW40" s="95"/>
+      <c r="AX40" s="95"/>
+      <c r="AY40" s="95"/>
+      <c r="AZ40" s="95"/>
+      <c r="BA40" s="95"/>
+      <c r="BB40" s="95"/>
+      <c r="BC40" s="95"/>
+      <c r="BD40" s="95"/>
+      <c r="BE40" s="95"/>
+      <c r="BF40" s="95"/>
+      <c r="BG40" s="95"/>
+      <c r="BH40" s="95"/>
+      <c r="BI40" s="95"/>
+      <c r="BJ40" s="95"/>
+      <c r="BK40" s="95"/>
+      <c r="BL40" s="95"/>
+      <c r="BM40" s="95"/>
+      <c r="BN40" s="95"/>
+      <c r="BO40" s="95"/>
+      <c r="BP40" s="95"/>
+      <c r="BQ40" s="95"/>
+      <c r="BR40" s="95"/>
+      <c r="BS40" s="95"/>
+      <c r="BT40" s="95"/>
+      <c r="BU40" s="95"/>
+      <c r="BV40" s="95"/>
+      <c r="BW40" s="95"/>
+      <c r="BX40" s="95"/>
+      <c r="BY40" s="95"/>
+      <c r="BZ40" s="95"/>
+      <c r="CA40" s="95"/>
+      <c r="CB40" s="96"/>
     </row>
     <row r="41" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C41" s="112"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="113"/>
-      <c r="F41" s="113"/>
-      <c r="G41" s="113"/>
-      <c r="H41" s="113"/>
-      <c r="I41" s="113"/>
-      <c r="J41" s="113"/>
-      <c r="K41" s="113"/>
-      <c r="L41" s="113"/>
-      <c r="M41" s="113"/>
-      <c r="N41" s="113"/>
-      <c r="O41" s="113"/>
-      <c r="P41" s="113"/>
-      <c r="Q41" s="113"/>
-      <c r="R41" s="113"/>
-      <c r="S41" s="113"/>
-      <c r="T41" s="113"/>
-      <c r="U41" s="113"/>
-      <c r="V41" s="113"/>
-      <c r="W41" s="113"/>
-      <c r="X41" s="113"/>
-      <c r="Y41" s="113"/>
-      <c r="Z41" s="113"/>
-      <c r="AA41" s="113"/>
-      <c r="AB41" s="113"/>
-      <c r="AC41" s="113"/>
-      <c r="AD41" s="113"/>
-      <c r="AE41" s="113"/>
-      <c r="AF41" s="113"/>
-      <c r="AG41" s="113"/>
-      <c r="AH41" s="113"/>
-      <c r="AI41" s="113"/>
-      <c r="AJ41" s="113"/>
-      <c r="AK41" s="113"/>
-      <c r="AL41" s="113"/>
-      <c r="AM41" s="113"/>
-      <c r="AN41" s="114"/>
-      <c r="AQ41" s="112"/>
-      <c r="AR41" s="113"/>
-      <c r="AS41" s="113"/>
-      <c r="AT41" s="113"/>
-      <c r="AU41" s="113"/>
-      <c r="AV41" s="113"/>
-      <c r="AW41" s="113"/>
-      <c r="AX41" s="113"/>
-      <c r="AY41" s="113"/>
-      <c r="AZ41" s="113"/>
-      <c r="BA41" s="113"/>
-      <c r="BB41" s="113"/>
-      <c r="BC41" s="113"/>
-      <c r="BD41" s="113"/>
-      <c r="BE41" s="113"/>
-      <c r="BF41" s="113"/>
-      <c r="BG41" s="113"/>
-      <c r="BH41" s="113"/>
-      <c r="BI41" s="113"/>
-      <c r="BJ41" s="113"/>
-      <c r="BK41" s="113"/>
-      <c r="BL41" s="113"/>
-      <c r="BM41" s="113"/>
-      <c r="BN41" s="113"/>
-      <c r="BO41" s="113"/>
-      <c r="BP41" s="113"/>
-      <c r="BQ41" s="113"/>
-      <c r="BR41" s="113"/>
-      <c r="BS41" s="113"/>
-      <c r="BT41" s="113"/>
-      <c r="BU41" s="113"/>
-      <c r="BV41" s="113"/>
-      <c r="BW41" s="113"/>
-      <c r="BX41" s="113"/>
-      <c r="BY41" s="113"/>
-      <c r="BZ41" s="113"/>
-      <c r="CA41" s="113"/>
-      <c r="CB41" s="114"/>
+      <c r="C41" s="94"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="95"/>
+      <c r="H41" s="95"/>
+      <c r="I41" s="95"/>
+      <c r="J41" s="95"/>
+      <c r="K41" s="95"/>
+      <c r="L41" s="95"/>
+      <c r="M41" s="95"/>
+      <c r="N41" s="95"/>
+      <c r="O41" s="95"/>
+      <c r="P41" s="95"/>
+      <c r="Q41" s="95"/>
+      <c r="R41" s="95"/>
+      <c r="S41" s="95"/>
+      <c r="T41" s="95"/>
+      <c r="U41" s="95"/>
+      <c r="V41" s="95"/>
+      <c r="W41" s="95"/>
+      <c r="X41" s="95"/>
+      <c r="Y41" s="95"/>
+      <c r="Z41" s="95"/>
+      <c r="AA41" s="95"/>
+      <c r="AB41" s="95"/>
+      <c r="AC41" s="95"/>
+      <c r="AD41" s="95"/>
+      <c r="AE41" s="95"/>
+      <c r="AF41" s="95"/>
+      <c r="AG41" s="95"/>
+      <c r="AH41" s="95"/>
+      <c r="AI41" s="95"/>
+      <c r="AJ41" s="95"/>
+      <c r="AK41" s="95"/>
+      <c r="AL41" s="95"/>
+      <c r="AM41" s="95"/>
+      <c r="AN41" s="96"/>
+      <c r="AQ41" s="94"/>
+      <c r="AR41" s="95"/>
+      <c r="AS41" s="95"/>
+      <c r="AT41" s="95"/>
+      <c r="AU41" s="95"/>
+      <c r="AV41" s="95"/>
+      <c r="AW41" s="95"/>
+      <c r="AX41" s="95"/>
+      <c r="AY41" s="95"/>
+      <c r="AZ41" s="95"/>
+      <c r="BA41" s="95"/>
+      <c r="BB41" s="95"/>
+      <c r="BC41" s="95"/>
+      <c r="BD41" s="95"/>
+      <c r="BE41" s="95"/>
+      <c r="BF41" s="95"/>
+      <c r="BG41" s="95"/>
+      <c r="BH41" s="95"/>
+      <c r="BI41" s="95"/>
+      <c r="BJ41" s="95"/>
+      <c r="BK41" s="95"/>
+      <c r="BL41" s="95"/>
+      <c r="BM41" s="95"/>
+      <c r="BN41" s="95"/>
+      <c r="BO41" s="95"/>
+      <c r="BP41" s="95"/>
+      <c r="BQ41" s="95"/>
+      <c r="BR41" s="95"/>
+      <c r="BS41" s="95"/>
+      <c r="BT41" s="95"/>
+      <c r="BU41" s="95"/>
+      <c r="BV41" s="95"/>
+      <c r="BW41" s="95"/>
+      <c r="BX41" s="95"/>
+      <c r="BY41" s="95"/>
+      <c r="BZ41" s="95"/>
+      <c r="CA41" s="95"/>
+      <c r="CB41" s="96"/>
     </row>
     <row r="42" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C42" s="112"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="113"/>
-      <c r="G42" s="113"/>
-      <c r="H42" s="113"/>
-      <c r="I42" s="113"/>
-      <c r="J42" s="113"/>
-      <c r="K42" s="113"/>
-      <c r="L42" s="113"/>
-      <c r="M42" s="113"/>
-      <c r="N42" s="113"/>
-      <c r="O42" s="113"/>
-      <c r="P42" s="113"/>
-      <c r="Q42" s="113"/>
-      <c r="R42" s="113"/>
-      <c r="S42" s="113"/>
-      <c r="T42" s="113"/>
-      <c r="U42" s="113"/>
-      <c r="V42" s="113"/>
-      <c r="W42" s="113"/>
-      <c r="X42" s="113"/>
-      <c r="Y42" s="113"/>
-      <c r="Z42" s="113"/>
-      <c r="AA42" s="113"/>
-      <c r="AB42" s="113"/>
-      <c r="AC42" s="113"/>
-      <c r="AD42" s="113"/>
-      <c r="AE42" s="113"/>
-      <c r="AF42" s="113"/>
-      <c r="AG42" s="113"/>
-      <c r="AH42" s="113"/>
-      <c r="AI42" s="113"/>
-      <c r="AJ42" s="113"/>
-      <c r="AK42" s="113"/>
-      <c r="AL42" s="113"/>
-      <c r="AM42" s="113"/>
-      <c r="AN42" s="114"/>
-      <c r="AQ42" s="112"/>
-      <c r="AR42" s="113"/>
-      <c r="AS42" s="113"/>
-      <c r="AT42" s="113"/>
-      <c r="AU42" s="113"/>
-      <c r="AV42" s="113"/>
-      <c r="AW42" s="113"/>
-      <c r="AX42" s="113"/>
-      <c r="AY42" s="113"/>
-      <c r="AZ42" s="113"/>
-      <c r="BA42" s="113"/>
-      <c r="BB42" s="113"/>
-      <c r="BC42" s="113"/>
-      <c r="BD42" s="113"/>
-      <c r="BE42" s="113"/>
-      <c r="BF42" s="113"/>
-      <c r="BG42" s="113"/>
-      <c r="BH42" s="113"/>
-      <c r="BI42" s="113"/>
-      <c r="BJ42" s="113"/>
-      <c r="BK42" s="113"/>
-      <c r="BL42" s="113"/>
-      <c r="BM42" s="113"/>
-      <c r="BN42" s="113"/>
-      <c r="BO42" s="113"/>
-      <c r="BP42" s="113"/>
-      <c r="BQ42" s="113"/>
-      <c r="BR42" s="113"/>
-      <c r="BS42" s="113"/>
-      <c r="BT42" s="113"/>
-      <c r="BU42" s="113"/>
-      <c r="BV42" s="113"/>
-      <c r="BW42" s="113"/>
-      <c r="BX42" s="113"/>
-      <c r="BY42" s="113"/>
-      <c r="BZ42" s="113"/>
-      <c r="CA42" s="113"/>
-      <c r="CB42" s="114"/>
+      <c r="C42" s="94"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="95"/>
+      <c r="L42" s="95"/>
+      <c r="M42" s="95"/>
+      <c r="N42" s="95"/>
+      <c r="O42" s="95"/>
+      <c r="P42" s="95"/>
+      <c r="Q42" s="95"/>
+      <c r="R42" s="95"/>
+      <c r="S42" s="95"/>
+      <c r="T42" s="95"/>
+      <c r="U42" s="95"/>
+      <c r="V42" s="95"/>
+      <c r="W42" s="95"/>
+      <c r="X42" s="95"/>
+      <c r="Y42" s="95"/>
+      <c r="Z42" s="95"/>
+      <c r="AA42" s="95"/>
+      <c r="AB42" s="95"/>
+      <c r="AC42" s="95"/>
+      <c r="AD42" s="95"/>
+      <c r="AE42" s="95"/>
+      <c r="AF42" s="95"/>
+      <c r="AG42" s="95"/>
+      <c r="AH42" s="95"/>
+      <c r="AI42" s="95"/>
+      <c r="AJ42" s="95"/>
+      <c r="AK42" s="95"/>
+      <c r="AL42" s="95"/>
+      <c r="AM42" s="95"/>
+      <c r="AN42" s="96"/>
+      <c r="AQ42" s="94"/>
+      <c r="AR42" s="95"/>
+      <c r="AS42" s="95"/>
+      <c r="AT42" s="95"/>
+      <c r="AU42" s="95"/>
+      <c r="AV42" s="95"/>
+      <c r="AW42" s="95"/>
+      <c r="AX42" s="95"/>
+      <c r="AY42" s="95"/>
+      <c r="AZ42" s="95"/>
+      <c r="BA42" s="95"/>
+      <c r="BB42" s="95"/>
+      <c r="BC42" s="95"/>
+      <c r="BD42" s="95"/>
+      <c r="BE42" s="95"/>
+      <c r="BF42" s="95"/>
+      <c r="BG42" s="95"/>
+      <c r="BH42" s="95"/>
+      <c r="BI42" s="95"/>
+      <c r="BJ42" s="95"/>
+      <c r="BK42" s="95"/>
+      <c r="BL42" s="95"/>
+      <c r="BM42" s="95"/>
+      <c r="BN42" s="95"/>
+      <c r="BO42" s="95"/>
+      <c r="BP42" s="95"/>
+      <c r="BQ42" s="95"/>
+      <c r="BR42" s="95"/>
+      <c r="BS42" s="95"/>
+      <c r="BT42" s="95"/>
+      <c r="BU42" s="95"/>
+      <c r="BV42" s="95"/>
+      <c r="BW42" s="95"/>
+      <c r="BX42" s="95"/>
+      <c r="BY42" s="95"/>
+      <c r="BZ42" s="95"/>
+      <c r="CA42" s="95"/>
+      <c r="CB42" s="96"/>
     </row>
     <row r="43" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C43" s="112"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="113"/>
-      <c r="F43" s="113"/>
-      <c r="G43" s="113"/>
-      <c r="H43" s="113"/>
-      <c r="I43" s="113"/>
-      <c r="J43" s="113"/>
-      <c r="K43" s="113"/>
-      <c r="L43" s="113"/>
-      <c r="M43" s="113"/>
-      <c r="N43" s="113"/>
-      <c r="O43" s="113"/>
-      <c r="P43" s="113"/>
-      <c r="Q43" s="113"/>
-      <c r="R43" s="113"/>
-      <c r="S43" s="113"/>
-      <c r="T43" s="113"/>
-      <c r="U43" s="113"/>
-      <c r="V43" s="113"/>
-      <c r="W43" s="113"/>
-      <c r="X43" s="113"/>
-      <c r="Y43" s="113"/>
-      <c r="Z43" s="113"/>
-      <c r="AA43" s="113"/>
-      <c r="AB43" s="113"/>
-      <c r="AC43" s="113"/>
-      <c r="AD43" s="113"/>
-      <c r="AE43" s="113"/>
-      <c r="AF43" s="113"/>
-      <c r="AG43" s="113"/>
-      <c r="AH43" s="113"/>
-      <c r="AI43" s="113"/>
-      <c r="AJ43" s="113"/>
-      <c r="AK43" s="113"/>
-      <c r="AL43" s="113"/>
-      <c r="AM43" s="113"/>
-      <c r="AN43" s="114"/>
-      <c r="AQ43" s="112"/>
-      <c r="AR43" s="113"/>
-      <c r="AS43" s="113"/>
-      <c r="AT43" s="113"/>
-      <c r="AU43" s="113"/>
-      <c r="AV43" s="113"/>
-      <c r="AW43" s="113"/>
-      <c r="AX43" s="113"/>
-      <c r="AY43" s="113"/>
-      <c r="AZ43" s="113"/>
-      <c r="BA43" s="113"/>
-      <c r="BB43" s="113"/>
-      <c r="BC43" s="113"/>
-      <c r="BD43" s="113"/>
-      <c r="BE43" s="113"/>
-      <c r="BF43" s="113"/>
-      <c r="BG43" s="113"/>
-      <c r="BH43" s="113"/>
-      <c r="BI43" s="113"/>
-      <c r="BJ43" s="113"/>
-      <c r="BK43" s="113"/>
-      <c r="BL43" s="113"/>
-      <c r="BM43" s="113"/>
-      <c r="BN43" s="113"/>
-      <c r="BO43" s="113"/>
-      <c r="BP43" s="113"/>
-      <c r="BQ43" s="113"/>
-      <c r="BR43" s="113"/>
-      <c r="BS43" s="113"/>
-      <c r="BT43" s="113"/>
-      <c r="BU43" s="113"/>
-      <c r="BV43" s="113"/>
-      <c r="BW43" s="113"/>
-      <c r="BX43" s="113"/>
-      <c r="BY43" s="113"/>
-      <c r="BZ43" s="113"/>
-      <c r="CA43" s="113"/>
-      <c r="CB43" s="114"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="95"/>
+      <c r="M43" s="95"/>
+      <c r="N43" s="95"/>
+      <c r="O43" s="95"/>
+      <c r="P43" s="95"/>
+      <c r="Q43" s="95"/>
+      <c r="R43" s="95"/>
+      <c r="S43" s="95"/>
+      <c r="T43" s="95"/>
+      <c r="U43" s="95"/>
+      <c r="V43" s="95"/>
+      <c r="W43" s="95"/>
+      <c r="X43" s="95"/>
+      <c r="Y43" s="95"/>
+      <c r="Z43" s="95"/>
+      <c r="AA43" s="95"/>
+      <c r="AB43" s="95"/>
+      <c r="AC43" s="95"/>
+      <c r="AD43" s="95"/>
+      <c r="AE43" s="95"/>
+      <c r="AF43" s="95"/>
+      <c r="AG43" s="95"/>
+      <c r="AH43" s="95"/>
+      <c r="AI43" s="95"/>
+      <c r="AJ43" s="95"/>
+      <c r="AK43" s="95"/>
+      <c r="AL43" s="95"/>
+      <c r="AM43" s="95"/>
+      <c r="AN43" s="96"/>
+      <c r="AQ43" s="94"/>
+      <c r="AR43" s="95"/>
+      <c r="AS43" s="95"/>
+      <c r="AT43" s="95"/>
+      <c r="AU43" s="95"/>
+      <c r="AV43" s="95"/>
+      <c r="AW43" s="95"/>
+      <c r="AX43" s="95"/>
+      <c r="AY43" s="95"/>
+      <c r="AZ43" s="95"/>
+      <c r="BA43" s="95"/>
+      <c r="BB43" s="95"/>
+      <c r="BC43" s="95"/>
+      <c r="BD43" s="95"/>
+      <c r="BE43" s="95"/>
+      <c r="BF43" s="95"/>
+      <c r="BG43" s="95"/>
+      <c r="BH43" s="95"/>
+      <c r="BI43" s="95"/>
+      <c r="BJ43" s="95"/>
+      <c r="BK43" s="95"/>
+      <c r="BL43" s="95"/>
+      <c r="BM43" s="95"/>
+      <c r="BN43" s="95"/>
+      <c r="BO43" s="95"/>
+      <c r="BP43" s="95"/>
+      <c r="BQ43" s="95"/>
+      <c r="BR43" s="95"/>
+      <c r="BS43" s="95"/>
+      <c r="BT43" s="95"/>
+      <c r="BU43" s="95"/>
+      <c r="BV43" s="95"/>
+      <c r="BW43" s="95"/>
+      <c r="BX43" s="95"/>
+      <c r="BY43" s="95"/>
+      <c r="BZ43" s="95"/>
+      <c r="CA43" s="95"/>
+      <c r="CB43" s="96"/>
     </row>
     <row r="44" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C44" s="112"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
-      <c r="G44" s="113"/>
-      <c r="H44" s="113"/>
-      <c r="I44" s="113"/>
-      <c r="J44" s="113"/>
-      <c r="K44" s="113"/>
-      <c r="L44" s="113"/>
-      <c r="M44" s="113"/>
-      <c r="N44" s="113"/>
-      <c r="O44" s="113"/>
-      <c r="P44" s="113"/>
-      <c r="Q44" s="113"/>
-      <c r="R44" s="113"/>
-      <c r="S44" s="113"/>
-      <c r="T44" s="113"/>
-      <c r="U44" s="113"/>
-      <c r="V44" s="113"/>
-      <c r="W44" s="113"/>
-      <c r="X44" s="113"/>
-      <c r="Y44" s="113"/>
-      <c r="Z44" s="113"/>
-      <c r="AA44" s="113"/>
-      <c r="AB44" s="113"/>
-      <c r="AC44" s="113"/>
-      <c r="AD44" s="113"/>
-      <c r="AE44" s="113"/>
-      <c r="AF44" s="113"/>
-      <c r="AG44" s="113"/>
-      <c r="AH44" s="113"/>
-      <c r="AI44" s="113"/>
-      <c r="AJ44" s="113"/>
-      <c r="AK44" s="113"/>
-      <c r="AL44" s="113"/>
-      <c r="AM44" s="113"/>
-      <c r="AN44" s="114"/>
-      <c r="AQ44" s="112"/>
-      <c r="AR44" s="113"/>
-      <c r="AS44" s="113"/>
-      <c r="AT44" s="113"/>
-      <c r="AU44" s="113"/>
-      <c r="AV44" s="113"/>
-      <c r="AW44" s="113"/>
-      <c r="AX44" s="113"/>
-      <c r="AY44" s="113"/>
-      <c r="AZ44" s="113"/>
-      <c r="BA44" s="113"/>
-      <c r="BB44" s="113"/>
-      <c r="BC44" s="113"/>
-      <c r="BD44" s="113"/>
-      <c r="BE44" s="113"/>
-      <c r="BF44" s="113"/>
-      <c r="BG44" s="113"/>
-      <c r="BH44" s="113"/>
-      <c r="BI44" s="113"/>
-      <c r="BJ44" s="113"/>
-      <c r="BK44" s="113"/>
-      <c r="BL44" s="113"/>
-      <c r="BM44" s="113"/>
-      <c r="BN44" s="113"/>
-      <c r="BO44" s="113"/>
-      <c r="BP44" s="113"/>
-      <c r="BQ44" s="113"/>
-      <c r="BR44" s="113"/>
-      <c r="BS44" s="113"/>
-      <c r="BT44" s="113"/>
-      <c r="BU44" s="113"/>
-      <c r="BV44" s="113"/>
-      <c r="BW44" s="113"/>
-      <c r="BX44" s="113"/>
-      <c r="BY44" s="113"/>
-      <c r="BZ44" s="113"/>
-      <c r="CA44" s="113"/>
-      <c r="CB44" s="114"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="95"/>
+      <c r="K44" s="95"/>
+      <c r="L44" s="95"/>
+      <c r="M44" s="95"/>
+      <c r="N44" s="95"/>
+      <c r="O44" s="95"/>
+      <c r="P44" s="95"/>
+      <c r="Q44" s="95"/>
+      <c r="R44" s="95"/>
+      <c r="S44" s="95"/>
+      <c r="T44" s="95"/>
+      <c r="U44" s="95"/>
+      <c r="V44" s="95"/>
+      <c r="W44" s="95"/>
+      <c r="X44" s="95"/>
+      <c r="Y44" s="95"/>
+      <c r="Z44" s="95"/>
+      <c r="AA44" s="95"/>
+      <c r="AB44" s="95"/>
+      <c r="AC44" s="95"/>
+      <c r="AD44" s="95"/>
+      <c r="AE44" s="95"/>
+      <c r="AF44" s="95"/>
+      <c r="AG44" s="95"/>
+      <c r="AH44" s="95"/>
+      <c r="AI44" s="95"/>
+      <c r="AJ44" s="95"/>
+      <c r="AK44" s="95"/>
+      <c r="AL44" s="95"/>
+      <c r="AM44" s="95"/>
+      <c r="AN44" s="96"/>
+      <c r="AQ44" s="94"/>
+      <c r="AR44" s="95"/>
+      <c r="AS44" s="95"/>
+      <c r="AT44" s="95"/>
+      <c r="AU44" s="95"/>
+      <c r="AV44" s="95"/>
+      <c r="AW44" s="95"/>
+      <c r="AX44" s="95"/>
+      <c r="AY44" s="95"/>
+      <c r="AZ44" s="95"/>
+      <c r="BA44" s="95"/>
+      <c r="BB44" s="95"/>
+      <c r="BC44" s="95"/>
+      <c r="BD44" s="95"/>
+      <c r="BE44" s="95"/>
+      <c r="BF44" s="95"/>
+      <c r="BG44" s="95"/>
+      <c r="BH44" s="95"/>
+      <c r="BI44" s="95"/>
+      <c r="BJ44" s="95"/>
+      <c r="BK44" s="95"/>
+      <c r="BL44" s="95"/>
+      <c r="BM44" s="95"/>
+      <c r="BN44" s="95"/>
+      <c r="BO44" s="95"/>
+      <c r="BP44" s="95"/>
+      <c r="BQ44" s="95"/>
+      <c r="BR44" s="95"/>
+      <c r="BS44" s="95"/>
+      <c r="BT44" s="95"/>
+      <c r="BU44" s="95"/>
+      <c r="BV44" s="95"/>
+      <c r="BW44" s="95"/>
+      <c r="BX44" s="95"/>
+      <c r="BY44" s="95"/>
+      <c r="BZ44" s="95"/>
+      <c r="CA44" s="95"/>
+      <c r="CB44" s="96"/>
     </row>
     <row r="45" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C45" s="112"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="113"/>
-      <c r="F45" s="113"/>
-      <c r="G45" s="113"/>
-      <c r="H45" s="113"/>
-      <c r="I45" s="113"/>
-      <c r="J45" s="113"/>
-      <c r="K45" s="113"/>
-      <c r="L45" s="113"/>
-      <c r="M45" s="113"/>
-      <c r="N45" s="113"/>
-      <c r="O45" s="113"/>
-      <c r="P45" s="113"/>
-      <c r="Q45" s="113"/>
-      <c r="R45" s="113"/>
-      <c r="S45" s="113"/>
-      <c r="T45" s="113"/>
-      <c r="U45" s="113"/>
-      <c r="V45" s="113"/>
-      <c r="W45" s="113"/>
-      <c r="X45" s="113"/>
-      <c r="Y45" s="113"/>
-      <c r="Z45" s="113"/>
-      <c r="AA45" s="113"/>
-      <c r="AB45" s="113"/>
-      <c r="AC45" s="113"/>
-      <c r="AD45" s="113"/>
-      <c r="AE45" s="113"/>
-      <c r="AF45" s="113"/>
-      <c r="AG45" s="113"/>
-      <c r="AH45" s="113"/>
-      <c r="AI45" s="113"/>
-      <c r="AJ45" s="113"/>
-      <c r="AK45" s="113"/>
-      <c r="AL45" s="113"/>
-      <c r="AM45" s="113"/>
-      <c r="AN45" s="114"/>
-      <c r="AQ45" s="112"/>
-      <c r="AR45" s="113"/>
-      <c r="AS45" s="113"/>
-      <c r="AT45" s="113"/>
-      <c r="AU45" s="113"/>
-      <c r="AV45" s="113"/>
-      <c r="AW45" s="113"/>
-      <c r="AX45" s="113"/>
-      <c r="AY45" s="113"/>
-      <c r="AZ45" s="113"/>
-      <c r="BA45" s="113"/>
-      <c r="BB45" s="113"/>
-      <c r="BC45" s="113"/>
-      <c r="BD45" s="113"/>
-      <c r="BE45" s="113"/>
-      <c r="BF45" s="113"/>
-      <c r="BG45" s="113"/>
-      <c r="BH45" s="113"/>
-      <c r="BI45" s="113"/>
-      <c r="BJ45" s="113"/>
-      <c r="BK45" s="113"/>
-      <c r="BL45" s="113"/>
-      <c r="BM45" s="113"/>
-      <c r="BN45" s="113"/>
-      <c r="BO45" s="113"/>
-      <c r="BP45" s="113"/>
-      <c r="BQ45" s="113"/>
-      <c r="BR45" s="113"/>
-      <c r="BS45" s="113"/>
-      <c r="BT45" s="113"/>
-      <c r="BU45" s="113"/>
-      <c r="BV45" s="113"/>
-      <c r="BW45" s="113"/>
-      <c r="BX45" s="113"/>
-      <c r="BY45" s="113"/>
-      <c r="BZ45" s="113"/>
-      <c r="CA45" s="113"/>
-      <c r="CB45" s="114"/>
+      <c r="C45" s="94"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="95"/>
+      <c r="K45" s="95"/>
+      <c r="L45" s="95"/>
+      <c r="M45" s="95"/>
+      <c r="N45" s="95"/>
+      <c r="O45" s="95"/>
+      <c r="P45" s="95"/>
+      <c r="Q45" s="95"/>
+      <c r="R45" s="95"/>
+      <c r="S45" s="95"/>
+      <c r="T45" s="95"/>
+      <c r="U45" s="95"/>
+      <c r="V45" s="95"/>
+      <c r="W45" s="95"/>
+      <c r="X45" s="95"/>
+      <c r="Y45" s="95"/>
+      <c r="Z45" s="95"/>
+      <c r="AA45" s="95"/>
+      <c r="AB45" s="95"/>
+      <c r="AC45" s="95"/>
+      <c r="AD45" s="95"/>
+      <c r="AE45" s="95"/>
+      <c r="AF45" s="95"/>
+      <c r="AG45" s="95"/>
+      <c r="AH45" s="95"/>
+      <c r="AI45" s="95"/>
+      <c r="AJ45" s="95"/>
+      <c r="AK45" s="95"/>
+      <c r="AL45" s="95"/>
+      <c r="AM45" s="95"/>
+      <c r="AN45" s="96"/>
+      <c r="AQ45" s="94"/>
+      <c r="AR45" s="95"/>
+      <c r="AS45" s="95"/>
+      <c r="AT45" s="95"/>
+      <c r="AU45" s="95"/>
+      <c r="AV45" s="95"/>
+      <c r="AW45" s="95"/>
+      <c r="AX45" s="95"/>
+      <c r="AY45" s="95"/>
+      <c r="AZ45" s="95"/>
+      <c r="BA45" s="95"/>
+      <c r="BB45" s="95"/>
+      <c r="BC45" s="95"/>
+      <c r="BD45" s="95"/>
+      <c r="BE45" s="95"/>
+      <c r="BF45" s="95"/>
+      <c r="BG45" s="95"/>
+      <c r="BH45" s="95"/>
+      <c r="BI45" s="95"/>
+      <c r="BJ45" s="95"/>
+      <c r="BK45" s="95"/>
+      <c r="BL45" s="95"/>
+      <c r="BM45" s="95"/>
+      <c r="BN45" s="95"/>
+      <c r="BO45" s="95"/>
+      <c r="BP45" s="95"/>
+      <c r="BQ45" s="95"/>
+      <c r="BR45" s="95"/>
+      <c r="BS45" s="95"/>
+      <c r="BT45" s="95"/>
+      <c r="BU45" s="95"/>
+      <c r="BV45" s="95"/>
+      <c r="BW45" s="95"/>
+      <c r="BX45" s="95"/>
+      <c r="BY45" s="95"/>
+      <c r="BZ45" s="95"/>
+      <c r="CA45" s="95"/>
+      <c r="CB45" s="96"/>
     </row>
     <row r="46" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C46" s="115"/>
-      <c r="D46" s="116"/>
-      <c r="E46" s="116"/>
-      <c r="F46" s="116"/>
-      <c r="G46" s="116"/>
-      <c r="H46" s="116"/>
-      <c r="I46" s="116"/>
-      <c r="J46" s="116"/>
-      <c r="K46" s="116"/>
-      <c r="L46" s="116"/>
-      <c r="M46" s="116"/>
-      <c r="N46" s="116"/>
-      <c r="O46" s="116"/>
-      <c r="P46" s="116"/>
-      <c r="Q46" s="116"/>
-      <c r="R46" s="116"/>
-      <c r="S46" s="116"/>
-      <c r="T46" s="116"/>
-      <c r="U46" s="116"/>
-      <c r="V46" s="116"/>
-      <c r="W46" s="116"/>
-      <c r="X46" s="116"/>
-      <c r="Y46" s="116"/>
-      <c r="Z46" s="116"/>
-      <c r="AA46" s="116"/>
-      <c r="AB46" s="116"/>
-      <c r="AC46" s="116"/>
-      <c r="AD46" s="116"/>
-      <c r="AE46" s="116"/>
-      <c r="AF46" s="116"/>
-      <c r="AG46" s="116"/>
-      <c r="AH46" s="116"/>
-      <c r="AI46" s="116"/>
-      <c r="AJ46" s="116"/>
-      <c r="AK46" s="116"/>
-      <c r="AL46" s="116"/>
-      <c r="AM46" s="116"/>
-      <c r="AN46" s="117"/>
-      <c r="AQ46" s="115"/>
-      <c r="AR46" s="116"/>
-      <c r="AS46" s="116"/>
-      <c r="AT46" s="116"/>
-      <c r="AU46" s="116"/>
-      <c r="AV46" s="116"/>
-      <c r="AW46" s="116"/>
-      <c r="AX46" s="116"/>
-      <c r="AY46" s="116"/>
-      <c r="AZ46" s="116"/>
-      <c r="BA46" s="116"/>
-      <c r="BB46" s="116"/>
-      <c r="BC46" s="116"/>
-      <c r="BD46" s="116"/>
-      <c r="BE46" s="116"/>
-      <c r="BF46" s="116"/>
-      <c r="BG46" s="116"/>
-      <c r="BH46" s="116"/>
-      <c r="BI46" s="116"/>
-      <c r="BJ46" s="116"/>
-      <c r="BK46" s="116"/>
-      <c r="BL46" s="116"/>
-      <c r="BM46" s="116"/>
-      <c r="BN46" s="116"/>
-      <c r="BO46" s="116"/>
-      <c r="BP46" s="116"/>
-      <c r="BQ46" s="116"/>
-      <c r="BR46" s="116"/>
-      <c r="BS46" s="116"/>
-      <c r="BT46" s="116"/>
-      <c r="BU46" s="116"/>
-      <c r="BV46" s="116"/>
-      <c r="BW46" s="116"/>
-      <c r="BX46" s="116"/>
-      <c r="BY46" s="116"/>
-      <c r="BZ46" s="116"/>
-      <c r="CA46" s="116"/>
-      <c r="CB46" s="117"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="98"/>
+      <c r="G46" s="98"/>
+      <c r="H46" s="98"/>
+      <c r="I46" s="98"/>
+      <c r="J46" s="98"/>
+      <c r="K46" s="98"/>
+      <c r="L46" s="98"/>
+      <c r="M46" s="98"/>
+      <c r="N46" s="98"/>
+      <c r="O46" s="98"/>
+      <c r="P46" s="98"/>
+      <c r="Q46" s="98"/>
+      <c r="R46" s="98"/>
+      <c r="S46" s="98"/>
+      <c r="T46" s="98"/>
+      <c r="U46" s="98"/>
+      <c r="V46" s="98"/>
+      <c r="W46" s="98"/>
+      <c r="X46" s="98"/>
+      <c r="Y46" s="98"/>
+      <c r="Z46" s="98"/>
+      <c r="AA46" s="98"/>
+      <c r="AB46" s="98"/>
+      <c r="AC46" s="98"/>
+      <c r="AD46" s="98"/>
+      <c r="AE46" s="98"/>
+      <c r="AF46" s="98"/>
+      <c r="AG46" s="98"/>
+      <c r="AH46" s="98"/>
+      <c r="AI46" s="98"/>
+      <c r="AJ46" s="98"/>
+      <c r="AK46" s="98"/>
+      <c r="AL46" s="98"/>
+      <c r="AM46" s="98"/>
+      <c r="AN46" s="99"/>
+      <c r="AQ46" s="97"/>
+      <c r="AR46" s="98"/>
+      <c r="AS46" s="98"/>
+      <c r="AT46" s="98"/>
+      <c r="AU46" s="98"/>
+      <c r="AV46" s="98"/>
+      <c r="AW46" s="98"/>
+      <c r="AX46" s="98"/>
+      <c r="AY46" s="98"/>
+      <c r="AZ46" s="98"/>
+      <c r="BA46" s="98"/>
+      <c r="BB46" s="98"/>
+      <c r="BC46" s="98"/>
+      <c r="BD46" s="98"/>
+      <c r="BE46" s="98"/>
+      <c r="BF46" s="98"/>
+      <c r="BG46" s="98"/>
+      <c r="BH46" s="98"/>
+      <c r="BI46" s="98"/>
+      <c r="BJ46" s="98"/>
+      <c r="BK46" s="98"/>
+      <c r="BL46" s="98"/>
+      <c r="BM46" s="98"/>
+      <c r="BN46" s="98"/>
+      <c r="BO46" s="98"/>
+      <c r="BP46" s="98"/>
+      <c r="BQ46" s="98"/>
+      <c r="BR46" s="98"/>
+      <c r="BS46" s="98"/>
+      <c r="BT46" s="98"/>
+      <c r="BU46" s="98"/>
+      <c r="BV46" s="98"/>
+      <c r="BW46" s="98"/>
+      <c r="BX46" s="98"/>
+      <c r="BY46" s="98"/>
+      <c r="BZ46" s="98"/>
+      <c r="CA46" s="98"/>
+      <c r="CB46" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="W2:AN3"/>
+    <mergeCell ref="W4:AN7"/>
+    <mergeCell ref="AQ2:BH3"/>
+    <mergeCell ref="AQ4:BH7"/>
+    <mergeCell ref="BK2:CB3"/>
+    <mergeCell ref="BK4:CB7"/>
     <mergeCell ref="C9:CB10"/>
     <mergeCell ref="C11:CB24"/>
     <mergeCell ref="C26:AN27"/>
     <mergeCell ref="C28:AN46"/>
     <mergeCell ref="AQ26:CB27"/>
     <mergeCell ref="AQ28:CB46"/>
-    <mergeCell ref="W2:AN3"/>
-    <mergeCell ref="W4:AN7"/>
-    <mergeCell ref="AQ2:BH3"/>
-    <mergeCell ref="AQ4:BH7"/>
-    <mergeCell ref="BK2:CB3"/>
-    <mergeCell ref="BK4:CB7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/Meteora_Ecommerce_2.xlsx
+++ b/Meteora_Ecommerce_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Exel\Meteora-Exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1647044-FB6D-4998-8340-956A80CB5476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093D68E6-4FBE-4146-9030-45472A2D54C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="698" activeTab="4" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="169">
   <si>
     <t>Produtos</t>
   </si>
@@ -571,6 +571,12 @@
   </si>
   <si>
     <t xml:space="preserve">Situação: </t>
+  </si>
+  <si>
+    <t>Estoque Mínimo</t>
+  </si>
+  <si>
+    <t>Estoque minino:</t>
   </si>
 </sst>
 </file>
@@ -582,7 +588,7 @@
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -765,8 +771,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF222222"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF222222"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -808,8 +827,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1241,6 +1266,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1255,7 +1368,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1477,33 +1590,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1557,6 +1643,57 @@
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -7444,13 +7581,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1019174</xdr:colOff>
+      <xdr:colOff>457199</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>245744</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1141094</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>400050</xdr:rowOff>
     </xdr:to>
@@ -7521,8 +7658,8 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1131570</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>400050</xdr:rowOff>
     </xdr:to>
@@ -8800,8 +8937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8ADA2D8-DE9E-4ACF-B5A7-8907124C5CF1}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -9256,7 +9393,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25" s="8">
         <v>49.9</v>
@@ -9276,7 +9413,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="1">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G26" s="8">
         <v>299.89999999999998</v>
@@ -9296,7 +9433,7 @@
         <v>12</v>
       </c>
       <c r="F27" s="1">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="G27" s="8">
         <v>302.89999999999998</v>
@@ -12606,7 +12743,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" zeroHeight="1"/>
@@ -12614,7 +12751,7 @@
     <col min="1" max="1" width="8.85546875" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
     <col min="7" max="9" width="8.85546875" customWidth="1"/>
@@ -12667,7 +12804,7 @@
         <v>155</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="E6" s="73" t="s">
         <v>160</v>
@@ -12682,7 +12819,7 @@
       </c>
       <c r="C7" s="50" t="str">
         <f>IFERROR(VLOOKUP(C6,TB_Produtos[#All],2,FALSE),"Não encontrado")</f>
-        <v>Bermuda</v>
+        <v>Jaqueta couro</v>
       </c>
       <c r="E7" s="73" t="s">
         <v>163</v>
@@ -12699,7 +12836,7 @@
       </c>
       <c r="C8" s="48" t="str" cm="1">
         <f t="array" ref="C8">_xlfn.XLOOKUP(C6,TB_Produtos[[#All],[Código]],TB_Produtos[[#All],[Tamanho]],"Não encontrado")</f>
-        <v>M</v>
+        <v>P</v>
       </c>
       <c r="E8" s="74" t="s">
         <v>164</v>
@@ -12730,7 +12867,7 @@
       </c>
       <c r="C10" s="78">
         <f>VLOOKUP(C6,TB_Produtos[#All],6,FALSE)</f>
-        <v>69.900000000000006</v>
+        <v>299.89999999999998</v>
       </c>
       <c r="G10" s="49"/>
     </row>
@@ -12740,7 +12877,7 @@
       </c>
       <c r="C11" s="50" cm="1">
         <f t="array" ref="C11">_xlfn.XLOOKUP(C6,TB_Produtos[[#All],[Código]],TB_Produtos[[#All],[Estoque]],"Você fez merda")</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G11">
         <f>WEEKDAY(F6)</f>
@@ -12751,23 +12888,47 @@
       <c r="B12" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="51"/>
+      <c r="C12" s="51" t="str" cm="1">
+        <f t="array" ref="C12">_xlfn.IFS(C11=0,"Estou zerado",C11&gt;=VLOOKUP(C9,'Cadastros Auxiliares'!H8:I10,2),"Ainda tem muita coisa",1,"Está acabando")</f>
+        <v>Está acabando</v>
+      </c>
       <c r="E12" s="80"/>
       <c r="G12" t="str">
         <f>HLOOKUP(G11,'Cadastros Auxiliares'!B4:I5,2,FALSE)</f>
         <v>Domingo</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="23.25">
+    <row r="13" spans="1:9" ht="24" thickBot="1">
+      <c r="B13" s="79" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="51">
+        <f>_xlfn.XLOOKUP(Consultas!C9,'Cadastros Auxiliares'!H9:H11,'Cadastros Auxiliares'!I9:I11)</f>
+        <v>10</v>
+      </c>
       <c r="E13" s="81"/>
     </row>
     <row r="14" spans="1:9"/>
     <row r="15" spans="1:9"/>
     <row r="16" spans="1:9"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
+    <row r="17" spans="4:5" ht="22.5" thickBot="1">
+      <c r="D17" s="51" t="str" cm="1">
+        <f t="array" ref="D17">_xlfn.IFS(C13=0,"Estou zerado",C13&gt;=20,"Ainda tem muita coisa",1,"Está acabando")</f>
+        <v>Está acabando</v>
+      </c>
+      <c r="E17" s="51" t="str" cm="1">
+        <f t="array" ref="E17">_xlfn.IFS(D13=0,"Estou zerado",D13&lt;20,"Tá acabando",D13&gt;=20,"Ainda tem muita coisa")</f>
+        <v>Estou zerado</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" ht="22.5" thickBot="1">
+      <c r="D18" s="51" t="str">
+        <f>IF(D17&gt;=20,"Estoque OK",IF(D17=0,"Acabou Tudo","Ainda tem coisa"))</f>
+        <v>Estoque OK</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5"/>
+    <row r="20" spans="4:5"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B4:C4"/>
@@ -12804,14 +12965,16 @@
   <dimension ref="B1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="9" width="17.42578125" customWidth="1"/>
+    <col min="3" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" s="40" customFormat="1" ht="40.15" customHeight="1">
@@ -12909,8 +13072,14 @@
       <c r="E8" s="61" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" ht="18.75" thickBot="1">
+      <c r="H8" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="119" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="19.5" thickBot="1">
       <c r="B9" s="55">
         <v>1</v>
       </c>
@@ -12924,8 +13093,14 @@
         <v>0</v>
       </c>
       <c r="G9" s="69"/>
-    </row>
-    <row r="10" spans="2:10" ht="18.75" thickBot="1">
+      <c r="H9" s="120" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="121">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="19.5" thickBot="1">
       <c r="B10" s="55">
         <v>2</v>
       </c>
@@ -12939,8 +13114,14 @@
         <v>0.1</v>
       </c>
       <c r="G10" s="69"/>
-    </row>
-    <row r="11" spans="2:10" ht="18.75" thickBot="1">
+      <c r="H10" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="123">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="19.5" thickBot="1">
       <c r="B11" s="55">
         <v>3</v>
       </c>
@@ -12952,6 +13133,12 @@
       </c>
       <c r="E11" s="62">
         <v>0.15</v>
+      </c>
+      <c r="H11" s="124" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="125">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="18.75" thickBot="1">
@@ -13363,237 +13550,237 @@
       <c r="CB3" s="90"/>
     </row>
     <row r="4" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W4" s="100">
+      <c r="W4" s="91">
         <f>COUNTA(TB_Produtos[Código])</f>
         <v>60</v>
       </c>
-      <c r="X4" s="101"/>
-      <c r="Y4" s="101"/>
-      <c r="Z4" s="101"/>
-      <c r="AA4" s="101"/>
-      <c r="AB4" s="101"/>
-      <c r="AC4" s="101"/>
-      <c r="AD4" s="101"/>
-      <c r="AE4" s="101"/>
-      <c r="AF4" s="101"/>
-      <c r="AG4" s="101"/>
-      <c r="AH4" s="101"/>
-      <c r="AI4" s="101"/>
-      <c r="AJ4" s="101"/>
-      <c r="AK4" s="101"/>
-      <c r="AL4" s="101"/>
-      <c r="AM4" s="101"/>
-      <c r="AN4" s="102"/>
-      <c r="AQ4" s="100">
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="92"/>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="92"/>
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="93"/>
+      <c r="AQ4" s="91">
         <f>SUM(TB_Vendas[Qtd])</f>
         <v>250</v>
       </c>
-      <c r="AR4" s="101"/>
-      <c r="AS4" s="101"/>
-      <c r="AT4" s="101"/>
-      <c r="AU4" s="101"/>
-      <c r="AV4" s="101"/>
-      <c r="AW4" s="101"/>
-      <c r="AX4" s="101"/>
-      <c r="AY4" s="101"/>
-      <c r="AZ4" s="101"/>
-      <c r="BA4" s="101"/>
-      <c r="BB4" s="101"/>
-      <c r="BC4" s="101"/>
-      <c r="BD4" s="101"/>
-      <c r="BE4" s="101"/>
-      <c r="BF4" s="101"/>
-      <c r="BG4" s="101"/>
-      <c r="BH4" s="102"/>
-      <c r="BK4" s="109">
+      <c r="AR4" s="92"/>
+      <c r="AS4" s="92"/>
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="92"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="92"/>
+      <c r="AZ4" s="92"/>
+      <c r="BA4" s="92"/>
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="92"/>
+      <c r="BD4" s="92"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="92"/>
+      <c r="BG4" s="92"/>
+      <c r="BH4" s="93"/>
+      <c r="BK4" s="100">
         <f>SUM(TB_Vendas[Total])</f>
         <v>0</v>
       </c>
-      <c r="BL4" s="110"/>
-      <c r="BM4" s="110"/>
-      <c r="BN4" s="110"/>
-      <c r="BO4" s="110"/>
-      <c r="BP4" s="110"/>
-      <c r="BQ4" s="110"/>
-      <c r="BR4" s="110"/>
-      <c r="BS4" s="110"/>
-      <c r="BT4" s="110"/>
-      <c r="BU4" s="110"/>
-      <c r="BV4" s="110"/>
-      <c r="BW4" s="110"/>
-      <c r="BX4" s="110"/>
-      <c r="BY4" s="110"/>
-      <c r="BZ4" s="110"/>
-      <c r="CA4" s="110"/>
-      <c r="CB4" s="111"/>
+      <c r="BL4" s="101"/>
+      <c r="BM4" s="101"/>
+      <c r="BN4" s="101"/>
+      <c r="BO4" s="101"/>
+      <c r="BP4" s="101"/>
+      <c r="BQ4" s="101"/>
+      <c r="BR4" s="101"/>
+      <c r="BS4" s="101"/>
+      <c r="BT4" s="101"/>
+      <c r="BU4" s="101"/>
+      <c r="BV4" s="101"/>
+      <c r="BW4" s="101"/>
+      <c r="BX4" s="101"/>
+      <c r="BY4" s="101"/>
+      <c r="BZ4" s="101"/>
+      <c r="CA4" s="101"/>
+      <c r="CB4" s="102"/>
     </row>
     <row r="5" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W5" s="103"/>
-      <c r="X5" s="104"/>
-      <c r="Y5" s="104"/>
-      <c r="Z5" s="104"/>
-      <c r="AA5" s="104"/>
-      <c r="AB5" s="104"/>
-      <c r="AC5" s="104"/>
-      <c r="AD5" s="104"/>
-      <c r="AE5" s="104"/>
-      <c r="AF5" s="104"/>
-      <c r="AG5" s="104"/>
-      <c r="AH5" s="104"/>
-      <c r="AI5" s="104"/>
-      <c r="AJ5" s="104"/>
-      <c r="AK5" s="104"/>
-      <c r="AL5" s="104"/>
-      <c r="AM5" s="104"/>
-      <c r="AN5" s="105"/>
-      <c r="AQ5" s="103"/>
-      <c r="AR5" s="104"/>
-      <c r="AS5" s="104"/>
-      <c r="AT5" s="104"/>
-      <c r="AU5" s="104"/>
-      <c r="AV5" s="104"/>
-      <c r="AW5" s="104"/>
-      <c r="AX5" s="104"/>
-      <c r="AY5" s="104"/>
-      <c r="AZ5" s="104"/>
-      <c r="BA5" s="104"/>
-      <c r="BB5" s="104"/>
-      <c r="BC5" s="104"/>
-      <c r="BD5" s="104"/>
-      <c r="BE5" s="104"/>
-      <c r="BF5" s="104"/>
-      <c r="BG5" s="104"/>
-      <c r="BH5" s="105"/>
-      <c r="BK5" s="112"/>
-      <c r="BL5" s="113"/>
-      <c r="BM5" s="113"/>
-      <c r="BN5" s="113"/>
-      <c r="BO5" s="113"/>
-      <c r="BP5" s="113"/>
-      <c r="BQ5" s="113"/>
-      <c r="BR5" s="113"/>
-      <c r="BS5" s="113"/>
-      <c r="BT5" s="113"/>
-      <c r="BU5" s="113"/>
-      <c r="BV5" s="113"/>
-      <c r="BW5" s="113"/>
-      <c r="BX5" s="113"/>
-      <c r="BY5" s="113"/>
-      <c r="BZ5" s="113"/>
-      <c r="CA5" s="113"/>
-      <c r="CB5" s="114"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="95"/>
+      <c r="Y5" s="95"/>
+      <c r="Z5" s="95"/>
+      <c r="AA5" s="95"/>
+      <c r="AB5" s="95"/>
+      <c r="AC5" s="95"/>
+      <c r="AD5" s="95"/>
+      <c r="AE5" s="95"/>
+      <c r="AF5" s="95"/>
+      <c r="AG5" s="95"/>
+      <c r="AH5" s="95"/>
+      <c r="AI5" s="95"/>
+      <c r="AJ5" s="95"/>
+      <c r="AK5" s="95"/>
+      <c r="AL5" s="95"/>
+      <c r="AM5" s="95"/>
+      <c r="AN5" s="96"/>
+      <c r="AQ5" s="94"/>
+      <c r="AR5" s="95"/>
+      <c r="AS5" s="95"/>
+      <c r="AT5" s="95"/>
+      <c r="AU5" s="95"/>
+      <c r="AV5" s="95"/>
+      <c r="AW5" s="95"/>
+      <c r="AX5" s="95"/>
+      <c r="AY5" s="95"/>
+      <c r="AZ5" s="95"/>
+      <c r="BA5" s="95"/>
+      <c r="BB5" s="95"/>
+      <c r="BC5" s="95"/>
+      <c r="BD5" s="95"/>
+      <c r="BE5" s="95"/>
+      <c r="BF5" s="95"/>
+      <c r="BG5" s="95"/>
+      <c r="BH5" s="96"/>
+      <c r="BK5" s="103"/>
+      <c r="BL5" s="104"/>
+      <c r="BM5" s="104"/>
+      <c r="BN5" s="104"/>
+      <c r="BO5" s="104"/>
+      <c r="BP5" s="104"/>
+      <c r="BQ5" s="104"/>
+      <c r="BR5" s="104"/>
+      <c r="BS5" s="104"/>
+      <c r="BT5" s="104"/>
+      <c r="BU5" s="104"/>
+      <c r="BV5" s="104"/>
+      <c r="BW5" s="104"/>
+      <c r="BX5" s="104"/>
+      <c r="BY5" s="104"/>
+      <c r="BZ5" s="104"/>
+      <c r="CA5" s="104"/>
+      <c r="CB5" s="105"/>
     </row>
     <row r="6" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W6" s="103"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
-      <c r="Z6" s="104"/>
-      <c r="AA6" s="104"/>
-      <c r="AB6" s="104"/>
-      <c r="AC6" s="104"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="104"/>
-      <c r="AF6" s="104"/>
-      <c r="AG6" s="104"/>
-      <c r="AH6" s="104"/>
-      <c r="AI6" s="104"/>
-      <c r="AJ6" s="104"/>
-      <c r="AK6" s="104"/>
-      <c r="AL6" s="104"/>
-      <c r="AM6" s="104"/>
-      <c r="AN6" s="105"/>
-      <c r="AQ6" s="103"/>
-      <c r="AR6" s="104"/>
-      <c r="AS6" s="104"/>
-      <c r="AT6" s="104"/>
-      <c r="AU6" s="104"/>
-      <c r="AV6" s="104"/>
-      <c r="AW6" s="104"/>
-      <c r="AX6" s="104"/>
-      <c r="AY6" s="104"/>
-      <c r="AZ6" s="104"/>
-      <c r="BA6" s="104"/>
-      <c r="BB6" s="104"/>
-      <c r="BC6" s="104"/>
-      <c r="BD6" s="104"/>
-      <c r="BE6" s="104"/>
-      <c r="BF6" s="104"/>
-      <c r="BG6" s="104"/>
-      <c r="BH6" s="105"/>
-      <c r="BK6" s="112"/>
-      <c r="BL6" s="113"/>
-      <c r="BM6" s="113"/>
-      <c r="BN6" s="113"/>
-      <c r="BO6" s="113"/>
-      <c r="BP6" s="113"/>
-      <c r="BQ6" s="113"/>
-      <c r="BR6" s="113"/>
-      <c r="BS6" s="113"/>
-      <c r="BT6" s="113"/>
-      <c r="BU6" s="113"/>
-      <c r="BV6" s="113"/>
-      <c r="BW6" s="113"/>
-      <c r="BX6" s="113"/>
-      <c r="BY6" s="113"/>
-      <c r="BZ6" s="113"/>
-      <c r="CA6" s="113"/>
-      <c r="CB6" s="114"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="95"/>
+      <c r="Y6" s="95"/>
+      <c r="Z6" s="95"/>
+      <c r="AA6" s="95"/>
+      <c r="AB6" s="95"/>
+      <c r="AC6" s="95"/>
+      <c r="AD6" s="95"/>
+      <c r="AE6" s="95"/>
+      <c r="AF6" s="95"/>
+      <c r="AG6" s="95"/>
+      <c r="AH6" s="95"/>
+      <c r="AI6" s="95"/>
+      <c r="AJ6" s="95"/>
+      <c r="AK6" s="95"/>
+      <c r="AL6" s="95"/>
+      <c r="AM6" s="95"/>
+      <c r="AN6" s="96"/>
+      <c r="AQ6" s="94"/>
+      <c r="AR6" s="95"/>
+      <c r="AS6" s="95"/>
+      <c r="AT6" s="95"/>
+      <c r="AU6" s="95"/>
+      <c r="AV6" s="95"/>
+      <c r="AW6" s="95"/>
+      <c r="AX6" s="95"/>
+      <c r="AY6" s="95"/>
+      <c r="AZ6" s="95"/>
+      <c r="BA6" s="95"/>
+      <c r="BB6" s="95"/>
+      <c r="BC6" s="95"/>
+      <c r="BD6" s="95"/>
+      <c r="BE6" s="95"/>
+      <c r="BF6" s="95"/>
+      <c r="BG6" s="95"/>
+      <c r="BH6" s="96"/>
+      <c r="BK6" s="103"/>
+      <c r="BL6" s="104"/>
+      <c r="BM6" s="104"/>
+      <c r="BN6" s="104"/>
+      <c r="BO6" s="104"/>
+      <c r="BP6" s="104"/>
+      <c r="BQ6" s="104"/>
+      <c r="BR6" s="104"/>
+      <c r="BS6" s="104"/>
+      <c r="BT6" s="104"/>
+      <c r="BU6" s="104"/>
+      <c r="BV6" s="104"/>
+      <c r="BW6" s="104"/>
+      <c r="BX6" s="104"/>
+      <c r="BY6" s="104"/>
+      <c r="BZ6" s="104"/>
+      <c r="CA6" s="104"/>
+      <c r="CB6" s="105"/>
     </row>
     <row r="7" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="W7" s="106"/>
-      <c r="X7" s="107"/>
-      <c r="Y7" s="107"/>
-      <c r="Z7" s="107"/>
-      <c r="AA7" s="107"/>
-      <c r="AB7" s="107"/>
-      <c r="AC7" s="107"/>
-      <c r="AD7" s="107"/>
-      <c r="AE7" s="107"/>
-      <c r="AF7" s="107"/>
-      <c r="AG7" s="107"/>
-      <c r="AH7" s="107"/>
-      <c r="AI7" s="107"/>
-      <c r="AJ7" s="107"/>
-      <c r="AK7" s="107"/>
-      <c r="AL7" s="107"/>
-      <c r="AM7" s="107"/>
-      <c r="AN7" s="108"/>
-      <c r="AQ7" s="106"/>
-      <c r="AR7" s="107"/>
-      <c r="AS7" s="107"/>
-      <c r="AT7" s="107"/>
-      <c r="AU7" s="107"/>
-      <c r="AV7" s="107"/>
-      <c r="AW7" s="107"/>
-      <c r="AX7" s="107"/>
-      <c r="AY7" s="107"/>
-      <c r="AZ7" s="107"/>
-      <c r="BA7" s="107"/>
-      <c r="BB7" s="107"/>
-      <c r="BC7" s="107"/>
-      <c r="BD7" s="107"/>
-      <c r="BE7" s="107"/>
-      <c r="BF7" s="107"/>
-      <c r="BG7" s="107"/>
-      <c r="BH7" s="108"/>
-      <c r="BK7" s="115"/>
-      <c r="BL7" s="116"/>
-      <c r="BM7" s="116"/>
-      <c r="BN7" s="116"/>
-      <c r="BO7" s="116"/>
-      <c r="BP7" s="116"/>
-      <c r="BQ7" s="116"/>
-      <c r="BR7" s="116"/>
-      <c r="BS7" s="116"/>
-      <c r="BT7" s="116"/>
-      <c r="BU7" s="116"/>
-      <c r="BV7" s="116"/>
-      <c r="BW7" s="116"/>
-      <c r="BX7" s="116"/>
-      <c r="BY7" s="116"/>
-      <c r="BZ7" s="116"/>
-      <c r="CA7" s="116"/>
-      <c r="CB7" s="117"/>
+      <c r="W7" s="97"/>
+      <c r="X7" s="98"/>
+      <c r="Y7" s="98"/>
+      <c r="Z7" s="98"/>
+      <c r="AA7" s="98"/>
+      <c r="AB7" s="98"/>
+      <c r="AC7" s="98"/>
+      <c r="AD7" s="98"/>
+      <c r="AE7" s="98"/>
+      <c r="AF7" s="98"/>
+      <c r="AG7" s="98"/>
+      <c r="AH7" s="98"/>
+      <c r="AI7" s="98"/>
+      <c r="AJ7" s="98"/>
+      <c r="AK7" s="98"/>
+      <c r="AL7" s="98"/>
+      <c r="AM7" s="98"/>
+      <c r="AN7" s="99"/>
+      <c r="AQ7" s="97"/>
+      <c r="AR7" s="98"/>
+      <c r="AS7" s="98"/>
+      <c r="AT7" s="98"/>
+      <c r="AU7" s="98"/>
+      <c r="AV7" s="98"/>
+      <c r="AW7" s="98"/>
+      <c r="AX7" s="98"/>
+      <c r="AY7" s="98"/>
+      <c r="AZ7" s="98"/>
+      <c r="BA7" s="98"/>
+      <c r="BB7" s="98"/>
+      <c r="BC7" s="98"/>
+      <c r="BD7" s="98"/>
+      <c r="BE7" s="98"/>
+      <c r="BF7" s="98"/>
+      <c r="BG7" s="98"/>
+      <c r="BH7" s="99"/>
+      <c r="BK7" s="106"/>
+      <c r="BL7" s="107"/>
+      <c r="BM7" s="107"/>
+      <c r="BN7" s="107"/>
+      <c r="BO7" s="107"/>
+      <c r="BP7" s="107"/>
+      <c r="BQ7" s="107"/>
+      <c r="BR7" s="107"/>
+      <c r="BS7" s="107"/>
+      <c r="BT7" s="107"/>
+      <c r="BU7" s="107"/>
+      <c r="BV7" s="107"/>
+      <c r="BW7" s="107"/>
+      <c r="BX7" s="107"/>
+      <c r="BY7" s="107"/>
+      <c r="BZ7" s="107"/>
+      <c r="CA7" s="107"/>
+      <c r="CB7" s="108"/>
     </row>
     <row r="8" spans="3:80" ht="9.75" customHeight="1" thickBot="1"/>
     <row r="9" spans="3:80" ht="9.75" customHeight="1">
@@ -13759,1124 +13946,1124 @@
       <c r="CB10" s="90"/>
     </row>
     <row r="11" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C11" s="91"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="92"/>
-      <c r="Y11" s="92"/>
-      <c r="Z11" s="92"/>
-      <c r="AA11" s="92"/>
-      <c r="AB11" s="92"/>
-      <c r="AC11" s="92"/>
-      <c r="AD11" s="92"/>
-      <c r="AE11" s="92"/>
-      <c r="AF11" s="92"/>
-      <c r="AG11" s="92"/>
-      <c r="AH11" s="92"/>
-      <c r="AI11" s="92"/>
-      <c r="AJ11" s="92"/>
-      <c r="AK11" s="92"/>
-      <c r="AL11" s="92"/>
-      <c r="AM11" s="92"/>
-      <c r="AN11" s="92"/>
-      <c r="AO11" s="92"/>
-      <c r="AP11" s="92"/>
-      <c r="AQ11" s="92"/>
-      <c r="AR11" s="92"/>
-      <c r="AS11" s="92"/>
-      <c r="AT11" s="92"/>
-      <c r="AU11" s="92"/>
-      <c r="AV11" s="92"/>
-      <c r="AW11" s="92"/>
-      <c r="AX11" s="92"/>
-      <c r="AY11" s="92"/>
-      <c r="AZ11" s="92"/>
-      <c r="BA11" s="92"/>
-      <c r="BB11" s="92"/>
-      <c r="BC11" s="92"/>
-      <c r="BD11" s="92"/>
-      <c r="BE11" s="92"/>
-      <c r="BF11" s="92"/>
-      <c r="BG11" s="92"/>
-      <c r="BH11" s="92"/>
-      <c r="BI11" s="92"/>
-      <c r="BJ11" s="92"/>
-      <c r="BK11" s="92"/>
-      <c r="BL11" s="92"/>
-      <c r="BM11" s="92"/>
-      <c r="BN11" s="92"/>
-      <c r="BO11" s="92"/>
-      <c r="BP11" s="92"/>
-      <c r="BQ11" s="92"/>
-      <c r="BR11" s="92"/>
-      <c r="BS11" s="92"/>
-      <c r="BT11" s="92"/>
-      <c r="BU11" s="92"/>
-      <c r="BV11" s="92"/>
-      <c r="BW11" s="92"/>
-      <c r="BX11" s="92"/>
-      <c r="BY11" s="92"/>
-      <c r="BZ11" s="92"/>
-      <c r="CA11" s="92"/>
-      <c r="CB11" s="93"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="110"/>
+      <c r="S11" s="110"/>
+      <c r="T11" s="110"/>
+      <c r="U11" s="110"/>
+      <c r="V11" s="110"/>
+      <c r="W11" s="110"/>
+      <c r="X11" s="110"/>
+      <c r="Y11" s="110"/>
+      <c r="Z11" s="110"/>
+      <c r="AA11" s="110"/>
+      <c r="AB11" s="110"/>
+      <c r="AC11" s="110"/>
+      <c r="AD11" s="110"/>
+      <c r="AE11" s="110"/>
+      <c r="AF11" s="110"/>
+      <c r="AG11" s="110"/>
+      <c r="AH11" s="110"/>
+      <c r="AI11" s="110"/>
+      <c r="AJ11" s="110"/>
+      <c r="AK11" s="110"/>
+      <c r="AL11" s="110"/>
+      <c r="AM11" s="110"/>
+      <c r="AN11" s="110"/>
+      <c r="AO11" s="110"/>
+      <c r="AP11" s="110"/>
+      <c r="AQ11" s="110"/>
+      <c r="AR11" s="110"/>
+      <c r="AS11" s="110"/>
+      <c r="AT11" s="110"/>
+      <c r="AU11" s="110"/>
+      <c r="AV11" s="110"/>
+      <c r="AW11" s="110"/>
+      <c r="AX11" s="110"/>
+      <c r="AY11" s="110"/>
+      <c r="AZ11" s="110"/>
+      <c r="BA11" s="110"/>
+      <c r="BB11" s="110"/>
+      <c r="BC11" s="110"/>
+      <c r="BD11" s="110"/>
+      <c r="BE11" s="110"/>
+      <c r="BF11" s="110"/>
+      <c r="BG11" s="110"/>
+      <c r="BH11" s="110"/>
+      <c r="BI11" s="110"/>
+      <c r="BJ11" s="110"/>
+      <c r="BK11" s="110"/>
+      <c r="BL11" s="110"/>
+      <c r="BM11" s="110"/>
+      <c r="BN11" s="110"/>
+      <c r="BO11" s="110"/>
+      <c r="BP11" s="110"/>
+      <c r="BQ11" s="110"/>
+      <c r="BR11" s="110"/>
+      <c r="BS11" s="110"/>
+      <c r="BT11" s="110"/>
+      <c r="BU11" s="110"/>
+      <c r="BV11" s="110"/>
+      <c r="BW11" s="110"/>
+      <c r="BX11" s="110"/>
+      <c r="BY11" s="110"/>
+      <c r="BZ11" s="110"/>
+      <c r="CA11" s="110"/>
+      <c r="CB11" s="111"/>
     </row>
     <row r="12" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C12" s="94"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="95"/>
-      <c r="U12" s="95"/>
-      <c r="V12" s="95"/>
-      <c r="W12" s="95"/>
-      <c r="X12" s="95"/>
-      <c r="Y12" s="95"/>
-      <c r="Z12" s="95"/>
-      <c r="AA12" s="95"/>
-      <c r="AB12" s="95"/>
-      <c r="AC12" s="95"/>
-      <c r="AD12" s="95"/>
-      <c r="AE12" s="95"/>
-      <c r="AF12" s="95"/>
-      <c r="AG12" s="95"/>
-      <c r="AH12" s="95"/>
-      <c r="AI12" s="95"/>
-      <c r="AJ12" s="95"/>
-      <c r="AK12" s="95"/>
-      <c r="AL12" s="95"/>
-      <c r="AM12" s="95"/>
-      <c r="AN12" s="95"/>
-      <c r="AO12" s="95"/>
-      <c r="AP12" s="95"/>
-      <c r="AQ12" s="95"/>
-      <c r="AR12" s="95"/>
-      <c r="AS12" s="95"/>
-      <c r="AT12" s="95"/>
-      <c r="AU12" s="95"/>
-      <c r="AV12" s="95"/>
-      <c r="AW12" s="95"/>
-      <c r="AX12" s="95"/>
-      <c r="AY12" s="95"/>
-      <c r="AZ12" s="95"/>
-      <c r="BA12" s="95"/>
-      <c r="BB12" s="95"/>
-      <c r="BC12" s="95"/>
-      <c r="BD12" s="95"/>
-      <c r="BE12" s="95"/>
-      <c r="BF12" s="95"/>
-      <c r="BG12" s="95"/>
-      <c r="BH12" s="95"/>
-      <c r="BI12" s="95"/>
-      <c r="BJ12" s="95"/>
-      <c r="BK12" s="95"/>
-      <c r="BL12" s="95"/>
-      <c r="BM12" s="95"/>
-      <c r="BN12" s="95"/>
-      <c r="BO12" s="95"/>
-      <c r="BP12" s="95"/>
-      <c r="BQ12" s="95"/>
-      <c r="BR12" s="95"/>
-      <c r="BS12" s="95"/>
-      <c r="BT12" s="95"/>
-      <c r="BU12" s="95"/>
-      <c r="BV12" s="95"/>
-      <c r="BW12" s="95"/>
-      <c r="BX12" s="95"/>
-      <c r="BY12" s="95"/>
-      <c r="BZ12" s="95"/>
-      <c r="CA12" s="95"/>
-      <c r="CB12" s="96"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="113"/>
+      <c r="R12" s="113"/>
+      <c r="S12" s="113"/>
+      <c r="T12" s="113"/>
+      <c r="U12" s="113"/>
+      <c r="V12" s="113"/>
+      <c r="W12" s="113"/>
+      <c r="X12" s="113"/>
+      <c r="Y12" s="113"/>
+      <c r="Z12" s="113"/>
+      <c r="AA12" s="113"/>
+      <c r="AB12" s="113"/>
+      <c r="AC12" s="113"/>
+      <c r="AD12" s="113"/>
+      <c r="AE12" s="113"/>
+      <c r="AF12" s="113"/>
+      <c r="AG12" s="113"/>
+      <c r="AH12" s="113"/>
+      <c r="AI12" s="113"/>
+      <c r="AJ12" s="113"/>
+      <c r="AK12" s="113"/>
+      <c r="AL12" s="113"/>
+      <c r="AM12" s="113"/>
+      <c r="AN12" s="113"/>
+      <c r="AO12" s="113"/>
+      <c r="AP12" s="113"/>
+      <c r="AQ12" s="113"/>
+      <c r="AR12" s="113"/>
+      <c r="AS12" s="113"/>
+      <c r="AT12" s="113"/>
+      <c r="AU12" s="113"/>
+      <c r="AV12" s="113"/>
+      <c r="AW12" s="113"/>
+      <c r="AX12" s="113"/>
+      <c r="AY12" s="113"/>
+      <c r="AZ12" s="113"/>
+      <c r="BA12" s="113"/>
+      <c r="BB12" s="113"/>
+      <c r="BC12" s="113"/>
+      <c r="BD12" s="113"/>
+      <c r="BE12" s="113"/>
+      <c r="BF12" s="113"/>
+      <c r="BG12" s="113"/>
+      <c r="BH12" s="113"/>
+      <c r="BI12" s="113"/>
+      <c r="BJ12" s="113"/>
+      <c r="BK12" s="113"/>
+      <c r="BL12" s="113"/>
+      <c r="BM12" s="113"/>
+      <c r="BN12" s="113"/>
+      <c r="BO12" s="113"/>
+      <c r="BP12" s="113"/>
+      <c r="BQ12" s="113"/>
+      <c r="BR12" s="113"/>
+      <c r="BS12" s="113"/>
+      <c r="BT12" s="113"/>
+      <c r="BU12" s="113"/>
+      <c r="BV12" s="113"/>
+      <c r="BW12" s="113"/>
+      <c r="BX12" s="113"/>
+      <c r="BY12" s="113"/>
+      <c r="BZ12" s="113"/>
+      <c r="CA12" s="113"/>
+      <c r="CB12" s="114"/>
     </row>
     <row r="13" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C13" s="94"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="95"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="95"/>
-      <c r="W13" s="95"/>
-      <c r="X13" s="95"/>
-      <c r="Y13" s="95"/>
-      <c r="Z13" s="95"/>
-      <c r="AA13" s="95"/>
-      <c r="AB13" s="95"/>
-      <c r="AC13" s="95"/>
-      <c r="AD13" s="95"/>
-      <c r="AE13" s="95"/>
-      <c r="AF13" s="95"/>
-      <c r="AG13" s="95"/>
-      <c r="AH13" s="95"/>
-      <c r="AI13" s="95"/>
-      <c r="AJ13" s="95"/>
-      <c r="AK13" s="95"/>
-      <c r="AL13" s="95"/>
-      <c r="AM13" s="95"/>
-      <c r="AN13" s="95"/>
-      <c r="AO13" s="95"/>
-      <c r="AP13" s="95"/>
-      <c r="AQ13" s="95"/>
-      <c r="AR13" s="95"/>
-      <c r="AS13" s="95"/>
-      <c r="AT13" s="95"/>
-      <c r="AU13" s="95"/>
-      <c r="AV13" s="95"/>
-      <c r="AW13" s="95"/>
-      <c r="AX13" s="95"/>
-      <c r="AY13" s="95"/>
-      <c r="AZ13" s="95"/>
-      <c r="BA13" s="95"/>
-      <c r="BB13" s="95"/>
-      <c r="BC13" s="95"/>
-      <c r="BD13" s="95"/>
-      <c r="BE13" s="95"/>
-      <c r="BF13" s="95"/>
-      <c r="BG13" s="95"/>
-      <c r="BH13" s="95"/>
-      <c r="BI13" s="95"/>
-      <c r="BJ13" s="95"/>
-      <c r="BK13" s="95"/>
-      <c r="BL13" s="95"/>
-      <c r="BM13" s="95"/>
-      <c r="BN13" s="95"/>
-      <c r="BO13" s="95"/>
-      <c r="BP13" s="95"/>
-      <c r="BQ13" s="95"/>
-      <c r="BR13" s="95"/>
-      <c r="BS13" s="95"/>
-      <c r="BT13" s="95"/>
-      <c r="BU13" s="95"/>
-      <c r="BV13" s="95"/>
-      <c r="BW13" s="95"/>
-      <c r="BX13" s="95"/>
-      <c r="BY13" s="95"/>
-      <c r="BZ13" s="95"/>
-      <c r="CA13" s="95"/>
-      <c r="CB13" s="96"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="113"/>
+      <c r="O13" s="113"/>
+      <c r="P13" s="113"/>
+      <c r="Q13" s="113"/>
+      <c r="R13" s="113"/>
+      <c r="S13" s="113"/>
+      <c r="T13" s="113"/>
+      <c r="U13" s="113"/>
+      <c r="V13" s="113"/>
+      <c r="W13" s="113"/>
+      <c r="X13" s="113"/>
+      <c r="Y13" s="113"/>
+      <c r="Z13" s="113"/>
+      <c r="AA13" s="113"/>
+      <c r="AB13" s="113"/>
+      <c r="AC13" s="113"/>
+      <c r="AD13" s="113"/>
+      <c r="AE13" s="113"/>
+      <c r="AF13" s="113"/>
+      <c r="AG13" s="113"/>
+      <c r="AH13" s="113"/>
+      <c r="AI13" s="113"/>
+      <c r="AJ13" s="113"/>
+      <c r="AK13" s="113"/>
+      <c r="AL13" s="113"/>
+      <c r="AM13" s="113"/>
+      <c r="AN13" s="113"/>
+      <c r="AO13" s="113"/>
+      <c r="AP13" s="113"/>
+      <c r="AQ13" s="113"/>
+      <c r="AR13" s="113"/>
+      <c r="AS13" s="113"/>
+      <c r="AT13" s="113"/>
+      <c r="AU13" s="113"/>
+      <c r="AV13" s="113"/>
+      <c r="AW13" s="113"/>
+      <c r="AX13" s="113"/>
+      <c r="AY13" s="113"/>
+      <c r="AZ13" s="113"/>
+      <c r="BA13" s="113"/>
+      <c r="BB13" s="113"/>
+      <c r="BC13" s="113"/>
+      <c r="BD13" s="113"/>
+      <c r="BE13" s="113"/>
+      <c r="BF13" s="113"/>
+      <c r="BG13" s="113"/>
+      <c r="BH13" s="113"/>
+      <c r="BI13" s="113"/>
+      <c r="BJ13" s="113"/>
+      <c r="BK13" s="113"/>
+      <c r="BL13" s="113"/>
+      <c r="BM13" s="113"/>
+      <c r="BN13" s="113"/>
+      <c r="BO13" s="113"/>
+      <c r="BP13" s="113"/>
+      <c r="BQ13" s="113"/>
+      <c r="BR13" s="113"/>
+      <c r="BS13" s="113"/>
+      <c r="BT13" s="113"/>
+      <c r="BU13" s="113"/>
+      <c r="BV13" s="113"/>
+      <c r="BW13" s="113"/>
+      <c r="BX13" s="113"/>
+      <c r="BY13" s="113"/>
+      <c r="BZ13" s="113"/>
+      <c r="CA13" s="113"/>
+      <c r="CB13" s="114"/>
     </row>
     <row r="14" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C14" s="94"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="95"/>
-      <c r="U14" s="95"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="95"/>
-      <c r="X14" s="95"/>
-      <c r="Y14" s="95"/>
-      <c r="Z14" s="95"/>
-      <c r="AA14" s="95"/>
-      <c r="AB14" s="95"/>
-      <c r="AC14" s="95"/>
-      <c r="AD14" s="95"/>
-      <c r="AE14" s="95"/>
-      <c r="AF14" s="95"/>
-      <c r="AG14" s="95"/>
-      <c r="AH14" s="95"/>
-      <c r="AI14" s="95"/>
-      <c r="AJ14" s="95"/>
-      <c r="AK14" s="95"/>
-      <c r="AL14" s="95"/>
-      <c r="AM14" s="95"/>
-      <c r="AN14" s="95"/>
-      <c r="AO14" s="95"/>
-      <c r="AP14" s="95"/>
-      <c r="AQ14" s="95"/>
-      <c r="AR14" s="95"/>
-      <c r="AS14" s="95"/>
-      <c r="AT14" s="95"/>
-      <c r="AU14" s="95"/>
-      <c r="AV14" s="95"/>
-      <c r="AW14" s="95"/>
-      <c r="AX14" s="95"/>
-      <c r="AY14" s="95"/>
-      <c r="AZ14" s="95"/>
-      <c r="BA14" s="95"/>
-      <c r="BB14" s="95"/>
-      <c r="BC14" s="95"/>
-      <c r="BD14" s="95"/>
-      <c r="BE14" s="95"/>
-      <c r="BF14" s="95"/>
-      <c r="BG14" s="95"/>
-      <c r="BH14" s="95"/>
-      <c r="BI14" s="95"/>
-      <c r="BJ14" s="95"/>
-      <c r="BK14" s="95"/>
-      <c r="BL14" s="95"/>
-      <c r="BM14" s="95"/>
-      <c r="BN14" s="95"/>
-      <c r="BO14" s="95"/>
-      <c r="BP14" s="95"/>
-      <c r="BQ14" s="95"/>
-      <c r="BR14" s="95"/>
-      <c r="BS14" s="95"/>
-      <c r="BT14" s="95"/>
-      <c r="BU14" s="95"/>
-      <c r="BV14" s="95"/>
-      <c r="BW14" s="95"/>
-      <c r="BX14" s="95"/>
-      <c r="BY14" s="95"/>
-      <c r="BZ14" s="95"/>
-      <c r="CA14" s="95"/>
-      <c r="CB14" s="96"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="113"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="113"/>
+      <c r="P14" s="113"/>
+      <c r="Q14" s="113"/>
+      <c r="R14" s="113"/>
+      <c r="S14" s="113"/>
+      <c r="T14" s="113"/>
+      <c r="U14" s="113"/>
+      <c r="V14" s="113"/>
+      <c r="W14" s="113"/>
+      <c r="X14" s="113"/>
+      <c r="Y14" s="113"/>
+      <c r="Z14" s="113"/>
+      <c r="AA14" s="113"/>
+      <c r="AB14" s="113"/>
+      <c r="AC14" s="113"/>
+      <c r="AD14" s="113"/>
+      <c r="AE14" s="113"/>
+      <c r="AF14" s="113"/>
+      <c r="AG14" s="113"/>
+      <c r="AH14" s="113"/>
+      <c r="AI14" s="113"/>
+      <c r="AJ14" s="113"/>
+      <c r="AK14" s="113"/>
+      <c r="AL14" s="113"/>
+      <c r="AM14" s="113"/>
+      <c r="AN14" s="113"/>
+      <c r="AO14" s="113"/>
+      <c r="AP14" s="113"/>
+      <c r="AQ14" s="113"/>
+      <c r="AR14" s="113"/>
+      <c r="AS14" s="113"/>
+      <c r="AT14" s="113"/>
+      <c r="AU14" s="113"/>
+      <c r="AV14" s="113"/>
+      <c r="AW14" s="113"/>
+      <c r="AX14" s="113"/>
+      <c r="AY14" s="113"/>
+      <c r="AZ14" s="113"/>
+      <c r="BA14" s="113"/>
+      <c r="BB14" s="113"/>
+      <c r="BC14" s="113"/>
+      <c r="BD14" s="113"/>
+      <c r="BE14" s="113"/>
+      <c r="BF14" s="113"/>
+      <c r="BG14" s="113"/>
+      <c r="BH14" s="113"/>
+      <c r="BI14" s="113"/>
+      <c r="BJ14" s="113"/>
+      <c r="BK14" s="113"/>
+      <c r="BL14" s="113"/>
+      <c r="BM14" s="113"/>
+      <c r="BN14" s="113"/>
+      <c r="BO14" s="113"/>
+      <c r="BP14" s="113"/>
+      <c r="BQ14" s="113"/>
+      <c r="BR14" s="113"/>
+      <c r="BS14" s="113"/>
+      <c r="BT14" s="113"/>
+      <c r="BU14" s="113"/>
+      <c r="BV14" s="113"/>
+      <c r="BW14" s="113"/>
+      <c r="BX14" s="113"/>
+      <c r="BY14" s="113"/>
+      <c r="BZ14" s="113"/>
+      <c r="CA14" s="113"/>
+      <c r="CB14" s="114"/>
     </row>
     <row r="15" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95"/>
-      <c r="N15" s="95"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="95"/>
-      <c r="U15" s="95"/>
-      <c r="V15" s="95"/>
-      <c r="W15" s="95"/>
-      <c r="X15" s="95"/>
-      <c r="Y15" s="95"/>
-      <c r="Z15" s="95"/>
-      <c r="AA15" s="95"/>
-      <c r="AB15" s="95"/>
-      <c r="AC15" s="95"/>
-      <c r="AD15" s="95"/>
-      <c r="AE15" s="95"/>
-      <c r="AF15" s="95"/>
-      <c r="AG15" s="95"/>
-      <c r="AH15" s="95"/>
-      <c r="AI15" s="95"/>
-      <c r="AJ15" s="95"/>
-      <c r="AK15" s="95"/>
-      <c r="AL15" s="95"/>
-      <c r="AM15" s="95"/>
-      <c r="AN15" s="95"/>
-      <c r="AO15" s="95"/>
-      <c r="AP15" s="95"/>
-      <c r="AQ15" s="95"/>
-      <c r="AR15" s="95"/>
-      <c r="AS15" s="95"/>
-      <c r="AT15" s="95"/>
-      <c r="AU15" s="95"/>
-      <c r="AV15" s="95"/>
-      <c r="AW15" s="95"/>
-      <c r="AX15" s="95"/>
-      <c r="AY15" s="95"/>
-      <c r="AZ15" s="95"/>
-      <c r="BA15" s="95"/>
-      <c r="BB15" s="95"/>
-      <c r="BC15" s="95"/>
-      <c r="BD15" s="95"/>
-      <c r="BE15" s="95"/>
-      <c r="BF15" s="95"/>
-      <c r="BG15" s="95"/>
-      <c r="BH15" s="95"/>
-      <c r="BI15" s="95"/>
-      <c r="BJ15" s="95"/>
-      <c r="BK15" s="95"/>
-      <c r="BL15" s="95"/>
-      <c r="BM15" s="95"/>
-      <c r="BN15" s="95"/>
-      <c r="BO15" s="95"/>
-      <c r="BP15" s="95"/>
-      <c r="BQ15" s="95"/>
-      <c r="BR15" s="95"/>
-      <c r="BS15" s="95"/>
-      <c r="BT15" s="95"/>
-      <c r="BU15" s="95"/>
-      <c r="BV15" s="95"/>
-      <c r="BW15" s="95"/>
-      <c r="BX15" s="95"/>
-      <c r="BY15" s="95"/>
-      <c r="BZ15" s="95"/>
-      <c r="CA15" s="95"/>
-      <c r="CB15" s="96"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="113"/>
+      <c r="M15" s="113"/>
+      <c r="N15" s="113"/>
+      <c r="O15" s="113"/>
+      <c r="P15" s="113"/>
+      <c r="Q15" s="113"/>
+      <c r="R15" s="113"/>
+      <c r="S15" s="113"/>
+      <c r="T15" s="113"/>
+      <c r="U15" s="113"/>
+      <c r="V15" s="113"/>
+      <c r="W15" s="113"/>
+      <c r="X15" s="113"/>
+      <c r="Y15" s="113"/>
+      <c r="Z15" s="113"/>
+      <c r="AA15" s="113"/>
+      <c r="AB15" s="113"/>
+      <c r="AC15" s="113"/>
+      <c r="AD15" s="113"/>
+      <c r="AE15" s="113"/>
+      <c r="AF15" s="113"/>
+      <c r="AG15" s="113"/>
+      <c r="AH15" s="113"/>
+      <c r="AI15" s="113"/>
+      <c r="AJ15" s="113"/>
+      <c r="AK15" s="113"/>
+      <c r="AL15" s="113"/>
+      <c r="AM15" s="113"/>
+      <c r="AN15" s="113"/>
+      <c r="AO15" s="113"/>
+      <c r="AP15" s="113"/>
+      <c r="AQ15" s="113"/>
+      <c r="AR15" s="113"/>
+      <c r="AS15" s="113"/>
+      <c r="AT15" s="113"/>
+      <c r="AU15" s="113"/>
+      <c r="AV15" s="113"/>
+      <c r="AW15" s="113"/>
+      <c r="AX15" s="113"/>
+      <c r="AY15" s="113"/>
+      <c r="AZ15" s="113"/>
+      <c r="BA15" s="113"/>
+      <c r="BB15" s="113"/>
+      <c r="BC15" s="113"/>
+      <c r="BD15" s="113"/>
+      <c r="BE15" s="113"/>
+      <c r="BF15" s="113"/>
+      <c r="BG15" s="113"/>
+      <c r="BH15" s="113"/>
+      <c r="BI15" s="113"/>
+      <c r="BJ15" s="113"/>
+      <c r="BK15" s="113"/>
+      <c r="BL15" s="113"/>
+      <c r="BM15" s="113"/>
+      <c r="BN15" s="113"/>
+      <c r="BO15" s="113"/>
+      <c r="BP15" s="113"/>
+      <c r="BQ15" s="113"/>
+      <c r="BR15" s="113"/>
+      <c r="BS15" s="113"/>
+      <c r="BT15" s="113"/>
+      <c r="BU15" s="113"/>
+      <c r="BV15" s="113"/>
+      <c r="BW15" s="113"/>
+      <c r="BX15" s="113"/>
+      <c r="BY15" s="113"/>
+      <c r="BZ15" s="113"/>
+      <c r="CA15" s="113"/>
+      <c r="CB15" s="114"/>
     </row>
     <row r="16" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C16" s="94"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="95"/>
-      <c r="S16" s="95"/>
-      <c r="T16" s="95"/>
-      <c r="U16" s="95"/>
-      <c r="V16" s="95"/>
-      <c r="W16" s="95"/>
-      <c r="X16" s="95"/>
-      <c r="Y16" s="95"/>
-      <c r="Z16" s="95"/>
-      <c r="AA16" s="95"/>
-      <c r="AB16" s="95"/>
-      <c r="AC16" s="95"/>
-      <c r="AD16" s="95"/>
-      <c r="AE16" s="95"/>
-      <c r="AF16" s="95"/>
-      <c r="AG16" s="95"/>
-      <c r="AH16" s="95"/>
-      <c r="AI16" s="95"/>
-      <c r="AJ16" s="95"/>
-      <c r="AK16" s="95"/>
-      <c r="AL16" s="95"/>
-      <c r="AM16" s="95"/>
-      <c r="AN16" s="95"/>
-      <c r="AO16" s="95"/>
-      <c r="AP16" s="95"/>
-      <c r="AQ16" s="95"/>
-      <c r="AR16" s="95"/>
-      <c r="AS16" s="95"/>
-      <c r="AT16" s="95"/>
-      <c r="AU16" s="95"/>
-      <c r="AV16" s="95"/>
-      <c r="AW16" s="95"/>
-      <c r="AX16" s="95"/>
-      <c r="AY16" s="95"/>
-      <c r="AZ16" s="95"/>
-      <c r="BA16" s="95"/>
-      <c r="BB16" s="95"/>
-      <c r="BC16" s="95"/>
-      <c r="BD16" s="95"/>
-      <c r="BE16" s="95"/>
-      <c r="BF16" s="95"/>
-      <c r="BG16" s="95"/>
-      <c r="BH16" s="95"/>
-      <c r="BI16" s="95"/>
-      <c r="BJ16" s="95"/>
-      <c r="BK16" s="95"/>
-      <c r="BL16" s="95"/>
-      <c r="BM16" s="95"/>
-      <c r="BN16" s="95"/>
-      <c r="BO16" s="95"/>
-      <c r="BP16" s="95"/>
-      <c r="BQ16" s="95"/>
-      <c r="BR16" s="95"/>
-      <c r="BS16" s="95"/>
-      <c r="BT16" s="95"/>
-      <c r="BU16" s="95"/>
-      <c r="BV16" s="95"/>
-      <c r="BW16" s="95"/>
-      <c r="BX16" s="95"/>
-      <c r="BY16" s="95"/>
-      <c r="BZ16" s="95"/>
-      <c r="CA16" s="95"/>
-      <c r="CB16" s="96"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="113"/>
+      <c r="Q16" s="113"/>
+      <c r="R16" s="113"/>
+      <c r="S16" s="113"/>
+      <c r="T16" s="113"/>
+      <c r="U16" s="113"/>
+      <c r="V16" s="113"/>
+      <c r="W16" s="113"/>
+      <c r="X16" s="113"/>
+      <c r="Y16" s="113"/>
+      <c r="Z16" s="113"/>
+      <c r="AA16" s="113"/>
+      <c r="AB16" s="113"/>
+      <c r="AC16" s="113"/>
+      <c r="AD16" s="113"/>
+      <c r="AE16" s="113"/>
+      <c r="AF16" s="113"/>
+      <c r="AG16" s="113"/>
+      <c r="AH16" s="113"/>
+      <c r="AI16" s="113"/>
+      <c r="AJ16" s="113"/>
+      <c r="AK16" s="113"/>
+      <c r="AL16" s="113"/>
+      <c r="AM16" s="113"/>
+      <c r="AN16" s="113"/>
+      <c r="AO16" s="113"/>
+      <c r="AP16" s="113"/>
+      <c r="AQ16" s="113"/>
+      <c r="AR16" s="113"/>
+      <c r="AS16" s="113"/>
+      <c r="AT16" s="113"/>
+      <c r="AU16" s="113"/>
+      <c r="AV16" s="113"/>
+      <c r="AW16" s="113"/>
+      <c r="AX16" s="113"/>
+      <c r="AY16" s="113"/>
+      <c r="AZ16" s="113"/>
+      <c r="BA16" s="113"/>
+      <c r="BB16" s="113"/>
+      <c r="BC16" s="113"/>
+      <c r="BD16" s="113"/>
+      <c r="BE16" s="113"/>
+      <c r="BF16" s="113"/>
+      <c r="BG16" s="113"/>
+      <c r="BH16" s="113"/>
+      <c r="BI16" s="113"/>
+      <c r="BJ16" s="113"/>
+      <c r="BK16" s="113"/>
+      <c r="BL16" s="113"/>
+      <c r="BM16" s="113"/>
+      <c r="BN16" s="113"/>
+      <c r="BO16" s="113"/>
+      <c r="BP16" s="113"/>
+      <c r="BQ16" s="113"/>
+      <c r="BR16" s="113"/>
+      <c r="BS16" s="113"/>
+      <c r="BT16" s="113"/>
+      <c r="BU16" s="113"/>
+      <c r="BV16" s="113"/>
+      <c r="BW16" s="113"/>
+      <c r="BX16" s="113"/>
+      <c r="BY16" s="113"/>
+      <c r="BZ16" s="113"/>
+      <c r="CA16" s="113"/>
+      <c r="CB16" s="114"/>
     </row>
     <row r="17" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C17" s="94"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="95"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="95"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="95"/>
-      <c r="U17" s="95"/>
-      <c r="V17" s="95"/>
-      <c r="W17" s="95"/>
-      <c r="X17" s="95"/>
-      <c r="Y17" s="95"/>
-      <c r="Z17" s="95"/>
-      <c r="AA17" s="95"/>
-      <c r="AB17" s="95"/>
-      <c r="AC17" s="95"/>
-      <c r="AD17" s="95"/>
-      <c r="AE17" s="95"/>
-      <c r="AF17" s="95"/>
-      <c r="AG17" s="95"/>
-      <c r="AH17" s="95"/>
-      <c r="AI17" s="95"/>
-      <c r="AJ17" s="95"/>
-      <c r="AK17" s="95"/>
-      <c r="AL17" s="95"/>
-      <c r="AM17" s="95"/>
-      <c r="AN17" s="95"/>
-      <c r="AO17" s="95"/>
-      <c r="AP17" s="95"/>
-      <c r="AQ17" s="95"/>
-      <c r="AR17" s="95"/>
-      <c r="AS17" s="95"/>
-      <c r="AT17" s="95"/>
-      <c r="AU17" s="95"/>
-      <c r="AV17" s="95"/>
-      <c r="AW17" s="95"/>
-      <c r="AX17" s="95"/>
-      <c r="AY17" s="95"/>
-      <c r="AZ17" s="95"/>
-      <c r="BA17" s="95"/>
-      <c r="BB17" s="95"/>
-      <c r="BC17" s="95"/>
-      <c r="BD17" s="95"/>
-      <c r="BE17" s="95"/>
-      <c r="BF17" s="95"/>
-      <c r="BG17" s="95"/>
-      <c r="BH17" s="95"/>
-      <c r="BI17" s="95"/>
-      <c r="BJ17" s="95"/>
-      <c r="BK17" s="95"/>
-      <c r="BL17" s="95"/>
-      <c r="BM17" s="95"/>
-      <c r="BN17" s="95"/>
-      <c r="BO17" s="95"/>
-      <c r="BP17" s="95"/>
-      <c r="BQ17" s="95"/>
-      <c r="BR17" s="95"/>
-      <c r="BS17" s="95"/>
-      <c r="BT17" s="95"/>
-      <c r="BU17" s="95"/>
-      <c r="BV17" s="95"/>
-      <c r="BW17" s="95"/>
-      <c r="BX17" s="95"/>
-      <c r="BY17" s="95"/>
-      <c r="BZ17" s="95"/>
-      <c r="CA17" s="95"/>
-      <c r="CB17" s="96"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="113"/>
+      <c r="P17" s="113"/>
+      <c r="Q17" s="113"/>
+      <c r="R17" s="113"/>
+      <c r="S17" s="113"/>
+      <c r="T17" s="113"/>
+      <c r="U17" s="113"/>
+      <c r="V17" s="113"/>
+      <c r="W17" s="113"/>
+      <c r="X17" s="113"/>
+      <c r="Y17" s="113"/>
+      <c r="Z17" s="113"/>
+      <c r="AA17" s="113"/>
+      <c r="AB17" s="113"/>
+      <c r="AC17" s="113"/>
+      <c r="AD17" s="113"/>
+      <c r="AE17" s="113"/>
+      <c r="AF17" s="113"/>
+      <c r="AG17" s="113"/>
+      <c r="AH17" s="113"/>
+      <c r="AI17" s="113"/>
+      <c r="AJ17" s="113"/>
+      <c r="AK17" s="113"/>
+      <c r="AL17" s="113"/>
+      <c r="AM17" s="113"/>
+      <c r="AN17" s="113"/>
+      <c r="AO17" s="113"/>
+      <c r="AP17" s="113"/>
+      <c r="AQ17" s="113"/>
+      <c r="AR17" s="113"/>
+      <c r="AS17" s="113"/>
+      <c r="AT17" s="113"/>
+      <c r="AU17" s="113"/>
+      <c r="AV17" s="113"/>
+      <c r="AW17" s="113"/>
+      <c r="AX17" s="113"/>
+      <c r="AY17" s="113"/>
+      <c r="AZ17" s="113"/>
+      <c r="BA17" s="113"/>
+      <c r="BB17" s="113"/>
+      <c r="BC17" s="113"/>
+      <c r="BD17" s="113"/>
+      <c r="BE17" s="113"/>
+      <c r="BF17" s="113"/>
+      <c r="BG17" s="113"/>
+      <c r="BH17" s="113"/>
+      <c r="BI17" s="113"/>
+      <c r="BJ17" s="113"/>
+      <c r="BK17" s="113"/>
+      <c r="BL17" s="113"/>
+      <c r="BM17" s="113"/>
+      <c r="BN17" s="113"/>
+      <c r="BO17" s="113"/>
+      <c r="BP17" s="113"/>
+      <c r="BQ17" s="113"/>
+      <c r="BR17" s="113"/>
+      <c r="BS17" s="113"/>
+      <c r="BT17" s="113"/>
+      <c r="BU17" s="113"/>
+      <c r="BV17" s="113"/>
+      <c r="BW17" s="113"/>
+      <c r="BX17" s="113"/>
+      <c r="BY17" s="113"/>
+      <c r="BZ17" s="113"/>
+      <c r="CA17" s="113"/>
+      <c r="CB17" s="114"/>
     </row>
     <row r="18" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C18" s="94"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="95"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="95"/>
-      <c r="S18" s="95"/>
-      <c r="T18" s="95"/>
-      <c r="U18" s="95"/>
-      <c r="V18" s="95"/>
-      <c r="W18" s="95"/>
-      <c r="X18" s="95"/>
-      <c r="Y18" s="95"/>
-      <c r="Z18" s="95"/>
-      <c r="AA18" s="95"/>
-      <c r="AB18" s="95"/>
-      <c r="AC18" s="95"/>
-      <c r="AD18" s="95"/>
-      <c r="AE18" s="95"/>
-      <c r="AF18" s="95"/>
-      <c r="AG18" s="95"/>
-      <c r="AH18" s="95"/>
-      <c r="AI18" s="95"/>
-      <c r="AJ18" s="95"/>
-      <c r="AK18" s="95"/>
-      <c r="AL18" s="95"/>
-      <c r="AM18" s="95"/>
-      <c r="AN18" s="95"/>
-      <c r="AO18" s="95"/>
-      <c r="AP18" s="95"/>
-      <c r="AQ18" s="95"/>
-      <c r="AR18" s="95"/>
-      <c r="AS18" s="95"/>
-      <c r="AT18" s="95"/>
-      <c r="AU18" s="95"/>
-      <c r="AV18" s="95"/>
-      <c r="AW18" s="95"/>
-      <c r="AX18" s="95"/>
-      <c r="AY18" s="95"/>
-      <c r="AZ18" s="95"/>
-      <c r="BA18" s="95"/>
-      <c r="BB18" s="95"/>
-      <c r="BC18" s="95"/>
-      <c r="BD18" s="95"/>
-      <c r="BE18" s="95"/>
-      <c r="BF18" s="95"/>
-      <c r="BG18" s="95"/>
-      <c r="BH18" s="95"/>
-      <c r="BI18" s="95"/>
-      <c r="BJ18" s="95"/>
-      <c r="BK18" s="95"/>
-      <c r="BL18" s="95"/>
-      <c r="BM18" s="95"/>
-      <c r="BN18" s="95"/>
-      <c r="BO18" s="95"/>
-      <c r="BP18" s="95"/>
-      <c r="BQ18" s="95"/>
-      <c r="BR18" s="95"/>
-      <c r="BS18" s="95"/>
-      <c r="BT18" s="95"/>
-      <c r="BU18" s="95"/>
-      <c r="BV18" s="95"/>
-      <c r="BW18" s="95"/>
-      <c r="BX18" s="95"/>
-      <c r="BY18" s="95"/>
-      <c r="BZ18" s="95"/>
-      <c r="CA18" s="95"/>
-      <c r="CB18" s="96"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="113"/>
+      <c r="L18" s="113"/>
+      <c r="M18" s="113"/>
+      <c r="N18" s="113"/>
+      <c r="O18" s="113"/>
+      <c r="P18" s="113"/>
+      <c r="Q18" s="113"/>
+      <c r="R18" s="113"/>
+      <c r="S18" s="113"/>
+      <c r="T18" s="113"/>
+      <c r="U18" s="113"/>
+      <c r="V18" s="113"/>
+      <c r="W18" s="113"/>
+      <c r="X18" s="113"/>
+      <c r="Y18" s="113"/>
+      <c r="Z18" s="113"/>
+      <c r="AA18" s="113"/>
+      <c r="AB18" s="113"/>
+      <c r="AC18" s="113"/>
+      <c r="AD18" s="113"/>
+      <c r="AE18" s="113"/>
+      <c r="AF18" s="113"/>
+      <c r="AG18" s="113"/>
+      <c r="AH18" s="113"/>
+      <c r="AI18" s="113"/>
+      <c r="AJ18" s="113"/>
+      <c r="AK18" s="113"/>
+      <c r="AL18" s="113"/>
+      <c r="AM18" s="113"/>
+      <c r="AN18" s="113"/>
+      <c r="AO18" s="113"/>
+      <c r="AP18" s="113"/>
+      <c r="AQ18" s="113"/>
+      <c r="AR18" s="113"/>
+      <c r="AS18" s="113"/>
+      <c r="AT18" s="113"/>
+      <c r="AU18" s="113"/>
+      <c r="AV18" s="113"/>
+      <c r="AW18" s="113"/>
+      <c r="AX18" s="113"/>
+      <c r="AY18" s="113"/>
+      <c r="AZ18" s="113"/>
+      <c r="BA18" s="113"/>
+      <c r="BB18" s="113"/>
+      <c r="BC18" s="113"/>
+      <c r="BD18" s="113"/>
+      <c r="BE18" s="113"/>
+      <c r="BF18" s="113"/>
+      <c r="BG18" s="113"/>
+      <c r="BH18" s="113"/>
+      <c r="BI18" s="113"/>
+      <c r="BJ18" s="113"/>
+      <c r="BK18" s="113"/>
+      <c r="BL18" s="113"/>
+      <c r="BM18" s="113"/>
+      <c r="BN18" s="113"/>
+      <c r="BO18" s="113"/>
+      <c r="BP18" s="113"/>
+      <c r="BQ18" s="113"/>
+      <c r="BR18" s="113"/>
+      <c r="BS18" s="113"/>
+      <c r="BT18" s="113"/>
+      <c r="BU18" s="113"/>
+      <c r="BV18" s="113"/>
+      <c r="BW18" s="113"/>
+      <c r="BX18" s="113"/>
+      <c r="BY18" s="113"/>
+      <c r="BZ18" s="113"/>
+      <c r="CA18" s="113"/>
+      <c r="CB18" s="114"/>
     </row>
     <row r="19" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C19" s="94"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="95"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="95"/>
-      <c r="U19" s="95"/>
-      <c r="V19" s="95"/>
-      <c r="W19" s="95"/>
-      <c r="X19" s="95"/>
-      <c r="Y19" s="95"/>
-      <c r="Z19" s="95"/>
-      <c r="AA19" s="95"/>
-      <c r="AB19" s="95"/>
-      <c r="AC19" s="95"/>
-      <c r="AD19" s="95"/>
-      <c r="AE19" s="95"/>
-      <c r="AF19" s="95"/>
-      <c r="AG19" s="95"/>
-      <c r="AH19" s="95"/>
-      <c r="AI19" s="95"/>
-      <c r="AJ19" s="95"/>
-      <c r="AK19" s="95"/>
-      <c r="AL19" s="95"/>
-      <c r="AM19" s="95"/>
-      <c r="AN19" s="95"/>
-      <c r="AO19" s="95"/>
-      <c r="AP19" s="95"/>
-      <c r="AQ19" s="95"/>
-      <c r="AR19" s="95"/>
-      <c r="AS19" s="95"/>
-      <c r="AT19" s="95"/>
-      <c r="AU19" s="95"/>
-      <c r="AV19" s="95"/>
-      <c r="AW19" s="95"/>
-      <c r="AX19" s="95"/>
-      <c r="AY19" s="95"/>
-      <c r="AZ19" s="95"/>
-      <c r="BA19" s="95"/>
-      <c r="BB19" s="95"/>
-      <c r="BC19" s="95"/>
-      <c r="BD19" s="95"/>
-      <c r="BE19" s="95"/>
-      <c r="BF19" s="95"/>
-      <c r="BG19" s="95"/>
-      <c r="BH19" s="95"/>
-      <c r="BI19" s="95"/>
-      <c r="BJ19" s="95"/>
-      <c r="BK19" s="95"/>
-      <c r="BL19" s="95"/>
-      <c r="BM19" s="95"/>
-      <c r="BN19" s="95"/>
-      <c r="BO19" s="95"/>
-      <c r="BP19" s="95"/>
-      <c r="BQ19" s="95"/>
-      <c r="BR19" s="95"/>
-      <c r="BS19" s="95"/>
-      <c r="BT19" s="95"/>
-      <c r="BU19" s="95"/>
-      <c r="BV19" s="95"/>
-      <c r="BW19" s="95"/>
-      <c r="BX19" s="95"/>
-      <c r="BY19" s="95"/>
-      <c r="BZ19" s="95"/>
-      <c r="CA19" s="95"/>
-      <c r="CB19" s="96"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="113"/>
+      <c r="M19" s="113"/>
+      <c r="N19" s="113"/>
+      <c r="O19" s="113"/>
+      <c r="P19" s="113"/>
+      <c r="Q19" s="113"/>
+      <c r="R19" s="113"/>
+      <c r="S19" s="113"/>
+      <c r="T19" s="113"/>
+      <c r="U19" s="113"/>
+      <c r="V19" s="113"/>
+      <c r="W19" s="113"/>
+      <c r="X19" s="113"/>
+      <c r="Y19" s="113"/>
+      <c r="Z19" s="113"/>
+      <c r="AA19" s="113"/>
+      <c r="AB19" s="113"/>
+      <c r="AC19" s="113"/>
+      <c r="AD19" s="113"/>
+      <c r="AE19" s="113"/>
+      <c r="AF19" s="113"/>
+      <c r="AG19" s="113"/>
+      <c r="AH19" s="113"/>
+      <c r="AI19" s="113"/>
+      <c r="AJ19" s="113"/>
+      <c r="AK19" s="113"/>
+      <c r="AL19" s="113"/>
+      <c r="AM19" s="113"/>
+      <c r="AN19" s="113"/>
+      <c r="AO19" s="113"/>
+      <c r="AP19" s="113"/>
+      <c r="AQ19" s="113"/>
+      <c r="AR19" s="113"/>
+      <c r="AS19" s="113"/>
+      <c r="AT19" s="113"/>
+      <c r="AU19" s="113"/>
+      <c r="AV19" s="113"/>
+      <c r="AW19" s="113"/>
+      <c r="AX19" s="113"/>
+      <c r="AY19" s="113"/>
+      <c r="AZ19" s="113"/>
+      <c r="BA19" s="113"/>
+      <c r="BB19" s="113"/>
+      <c r="BC19" s="113"/>
+      <c r="BD19" s="113"/>
+      <c r="BE19" s="113"/>
+      <c r="BF19" s="113"/>
+      <c r="BG19" s="113"/>
+      <c r="BH19" s="113"/>
+      <c r="BI19" s="113"/>
+      <c r="BJ19" s="113"/>
+      <c r="BK19" s="113"/>
+      <c r="BL19" s="113"/>
+      <c r="BM19" s="113"/>
+      <c r="BN19" s="113"/>
+      <c r="BO19" s="113"/>
+      <c r="BP19" s="113"/>
+      <c r="BQ19" s="113"/>
+      <c r="BR19" s="113"/>
+      <c r="BS19" s="113"/>
+      <c r="BT19" s="113"/>
+      <c r="BU19" s="113"/>
+      <c r="BV19" s="113"/>
+      <c r="BW19" s="113"/>
+      <c r="BX19" s="113"/>
+      <c r="BY19" s="113"/>
+      <c r="BZ19" s="113"/>
+      <c r="CA19" s="113"/>
+      <c r="CB19" s="114"/>
     </row>
     <row r="20" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C20" s="94"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="95"/>
-      <c r="U20" s="95"/>
-      <c r="V20" s="95"/>
-      <c r="W20" s="95"/>
-      <c r="X20" s="95"/>
-      <c r="Y20" s="95"/>
-      <c r="Z20" s="95"/>
-      <c r="AA20" s="95"/>
-      <c r="AB20" s="95"/>
-      <c r="AC20" s="95"/>
-      <c r="AD20" s="95"/>
-      <c r="AE20" s="95"/>
-      <c r="AF20" s="95"/>
-      <c r="AG20" s="95"/>
-      <c r="AH20" s="95"/>
-      <c r="AI20" s="95"/>
-      <c r="AJ20" s="95"/>
-      <c r="AK20" s="95"/>
-      <c r="AL20" s="95"/>
-      <c r="AM20" s="95"/>
-      <c r="AN20" s="95"/>
-      <c r="AO20" s="95"/>
-      <c r="AP20" s="95"/>
-      <c r="AQ20" s="95"/>
-      <c r="AR20" s="95"/>
-      <c r="AS20" s="95"/>
-      <c r="AT20" s="95"/>
-      <c r="AU20" s="95"/>
-      <c r="AV20" s="95"/>
-      <c r="AW20" s="95"/>
-      <c r="AX20" s="95"/>
-      <c r="AY20" s="95"/>
-      <c r="AZ20" s="95"/>
-      <c r="BA20" s="95"/>
-      <c r="BB20" s="95"/>
-      <c r="BC20" s="95"/>
-      <c r="BD20" s="95"/>
-      <c r="BE20" s="95"/>
-      <c r="BF20" s="95"/>
-      <c r="BG20" s="95"/>
-      <c r="BH20" s="95"/>
-      <c r="BI20" s="95"/>
-      <c r="BJ20" s="95"/>
-      <c r="BK20" s="95"/>
-      <c r="BL20" s="95"/>
-      <c r="BM20" s="95"/>
-      <c r="BN20" s="95"/>
-      <c r="BO20" s="95"/>
-      <c r="BP20" s="95"/>
-      <c r="BQ20" s="95"/>
-      <c r="BR20" s="95"/>
-      <c r="BS20" s="95"/>
-      <c r="BT20" s="95"/>
-      <c r="BU20" s="95"/>
-      <c r="BV20" s="95"/>
-      <c r="BW20" s="95"/>
-      <c r="BX20" s="95"/>
-      <c r="BY20" s="95"/>
-      <c r="BZ20" s="95"/>
-      <c r="CA20" s="95"/>
-      <c r="CB20" s="96"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="113"/>
+      <c r="Q20" s="113"/>
+      <c r="R20" s="113"/>
+      <c r="S20" s="113"/>
+      <c r="T20" s="113"/>
+      <c r="U20" s="113"/>
+      <c r="V20" s="113"/>
+      <c r="W20" s="113"/>
+      <c r="X20" s="113"/>
+      <c r="Y20" s="113"/>
+      <c r="Z20" s="113"/>
+      <c r="AA20" s="113"/>
+      <c r="AB20" s="113"/>
+      <c r="AC20" s="113"/>
+      <c r="AD20" s="113"/>
+      <c r="AE20" s="113"/>
+      <c r="AF20" s="113"/>
+      <c r="AG20" s="113"/>
+      <c r="AH20" s="113"/>
+      <c r="AI20" s="113"/>
+      <c r="AJ20" s="113"/>
+      <c r="AK20" s="113"/>
+      <c r="AL20" s="113"/>
+      <c r="AM20" s="113"/>
+      <c r="AN20" s="113"/>
+      <c r="AO20" s="113"/>
+      <c r="AP20" s="113"/>
+      <c r="AQ20" s="113"/>
+      <c r="AR20" s="113"/>
+      <c r="AS20" s="113"/>
+      <c r="AT20" s="113"/>
+      <c r="AU20" s="113"/>
+      <c r="AV20" s="113"/>
+      <c r="AW20" s="113"/>
+      <c r="AX20" s="113"/>
+      <c r="AY20" s="113"/>
+      <c r="AZ20" s="113"/>
+      <c r="BA20" s="113"/>
+      <c r="BB20" s="113"/>
+      <c r="BC20" s="113"/>
+      <c r="BD20" s="113"/>
+      <c r="BE20" s="113"/>
+      <c r="BF20" s="113"/>
+      <c r="BG20" s="113"/>
+      <c r="BH20" s="113"/>
+      <c r="BI20" s="113"/>
+      <c r="BJ20" s="113"/>
+      <c r="BK20" s="113"/>
+      <c r="BL20" s="113"/>
+      <c r="BM20" s="113"/>
+      <c r="BN20" s="113"/>
+      <c r="BO20" s="113"/>
+      <c r="BP20" s="113"/>
+      <c r="BQ20" s="113"/>
+      <c r="BR20" s="113"/>
+      <c r="BS20" s="113"/>
+      <c r="BT20" s="113"/>
+      <c r="BU20" s="113"/>
+      <c r="BV20" s="113"/>
+      <c r="BW20" s="113"/>
+      <c r="BX20" s="113"/>
+      <c r="BY20" s="113"/>
+      <c r="BZ20" s="113"/>
+      <c r="CA20" s="113"/>
+      <c r="CB20" s="114"/>
     </row>
     <row r="21" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C21" s="94"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="95"/>
-      <c r="T21" s="95"/>
-      <c r="U21" s="95"/>
-      <c r="V21" s="95"/>
-      <c r="W21" s="95"/>
-      <c r="X21" s="95"/>
-      <c r="Y21" s="95"/>
-      <c r="Z21" s="95"/>
-      <c r="AA21" s="95"/>
-      <c r="AB21" s="95"/>
-      <c r="AC21" s="95"/>
-      <c r="AD21" s="95"/>
-      <c r="AE21" s="95"/>
-      <c r="AF21" s="95"/>
-      <c r="AG21" s="95"/>
-      <c r="AH21" s="95"/>
-      <c r="AI21" s="95"/>
-      <c r="AJ21" s="95"/>
-      <c r="AK21" s="95"/>
-      <c r="AL21" s="95"/>
-      <c r="AM21" s="95"/>
-      <c r="AN21" s="95"/>
-      <c r="AO21" s="95"/>
-      <c r="AP21" s="95"/>
-      <c r="AQ21" s="95"/>
-      <c r="AR21" s="95"/>
-      <c r="AS21" s="95"/>
-      <c r="AT21" s="95"/>
-      <c r="AU21" s="95"/>
-      <c r="AV21" s="95"/>
-      <c r="AW21" s="95"/>
-      <c r="AX21" s="95"/>
-      <c r="AY21" s="95"/>
-      <c r="AZ21" s="95"/>
-      <c r="BA21" s="95"/>
-      <c r="BB21" s="95"/>
-      <c r="BC21" s="95"/>
-      <c r="BD21" s="95"/>
-      <c r="BE21" s="95"/>
-      <c r="BF21" s="95"/>
-      <c r="BG21" s="95"/>
-      <c r="BH21" s="95"/>
-      <c r="BI21" s="95"/>
-      <c r="BJ21" s="95"/>
-      <c r="BK21" s="95"/>
-      <c r="BL21" s="95"/>
-      <c r="BM21" s="95"/>
-      <c r="BN21" s="95"/>
-      <c r="BO21" s="95"/>
-      <c r="BP21" s="95"/>
-      <c r="BQ21" s="95"/>
-      <c r="BR21" s="95"/>
-      <c r="BS21" s="95"/>
-      <c r="BT21" s="95"/>
-      <c r="BU21" s="95"/>
-      <c r="BV21" s="95"/>
-      <c r="BW21" s="95"/>
-      <c r="BX21" s="95"/>
-      <c r="BY21" s="95"/>
-      <c r="BZ21" s="95"/>
-      <c r="CA21" s="95"/>
-      <c r="CB21" s="96"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="113"/>
+      <c r="O21" s="113"/>
+      <c r="P21" s="113"/>
+      <c r="Q21" s="113"/>
+      <c r="R21" s="113"/>
+      <c r="S21" s="113"/>
+      <c r="T21" s="113"/>
+      <c r="U21" s="113"/>
+      <c r="V21" s="113"/>
+      <c r="W21" s="113"/>
+      <c r="X21" s="113"/>
+      <c r="Y21" s="113"/>
+      <c r="Z21" s="113"/>
+      <c r="AA21" s="113"/>
+      <c r="AB21" s="113"/>
+      <c r="AC21" s="113"/>
+      <c r="AD21" s="113"/>
+      <c r="AE21" s="113"/>
+      <c r="AF21" s="113"/>
+      <c r="AG21" s="113"/>
+      <c r="AH21" s="113"/>
+      <c r="AI21" s="113"/>
+      <c r="AJ21" s="113"/>
+      <c r="AK21" s="113"/>
+      <c r="AL21" s="113"/>
+      <c r="AM21" s="113"/>
+      <c r="AN21" s="113"/>
+      <c r="AO21" s="113"/>
+      <c r="AP21" s="113"/>
+      <c r="AQ21" s="113"/>
+      <c r="AR21" s="113"/>
+      <c r="AS21" s="113"/>
+      <c r="AT21" s="113"/>
+      <c r="AU21" s="113"/>
+      <c r="AV21" s="113"/>
+      <c r="AW21" s="113"/>
+      <c r="AX21" s="113"/>
+      <c r="AY21" s="113"/>
+      <c r="AZ21" s="113"/>
+      <c r="BA21" s="113"/>
+      <c r="BB21" s="113"/>
+      <c r="BC21" s="113"/>
+      <c r="BD21" s="113"/>
+      <c r="BE21" s="113"/>
+      <c r="BF21" s="113"/>
+      <c r="BG21" s="113"/>
+      <c r="BH21" s="113"/>
+      <c r="BI21" s="113"/>
+      <c r="BJ21" s="113"/>
+      <c r="BK21" s="113"/>
+      <c r="BL21" s="113"/>
+      <c r="BM21" s="113"/>
+      <c r="BN21" s="113"/>
+      <c r="BO21" s="113"/>
+      <c r="BP21" s="113"/>
+      <c r="BQ21" s="113"/>
+      <c r="BR21" s="113"/>
+      <c r="BS21" s="113"/>
+      <c r="BT21" s="113"/>
+      <c r="BU21" s="113"/>
+      <c r="BV21" s="113"/>
+      <c r="BW21" s="113"/>
+      <c r="BX21" s="113"/>
+      <c r="BY21" s="113"/>
+      <c r="BZ21" s="113"/>
+      <c r="CA21" s="113"/>
+      <c r="CB21" s="114"/>
     </row>
     <row r="22" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C22" s="94"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="95"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="95"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="95"/>
-      <c r="U22" s="95"/>
-      <c r="V22" s="95"/>
-      <c r="W22" s="95"/>
-      <c r="X22" s="95"/>
-      <c r="Y22" s="95"/>
-      <c r="Z22" s="95"/>
-      <c r="AA22" s="95"/>
-      <c r="AB22" s="95"/>
-      <c r="AC22" s="95"/>
-      <c r="AD22" s="95"/>
-      <c r="AE22" s="95"/>
-      <c r="AF22" s="95"/>
-      <c r="AG22" s="95"/>
-      <c r="AH22" s="95"/>
-      <c r="AI22" s="95"/>
-      <c r="AJ22" s="95"/>
-      <c r="AK22" s="95"/>
-      <c r="AL22" s="95"/>
-      <c r="AM22" s="95"/>
-      <c r="AN22" s="95"/>
-      <c r="AO22" s="95"/>
-      <c r="AP22" s="95"/>
-      <c r="AQ22" s="95"/>
-      <c r="AR22" s="95"/>
-      <c r="AS22" s="95"/>
-      <c r="AT22" s="95"/>
-      <c r="AU22" s="95"/>
-      <c r="AV22" s="95"/>
-      <c r="AW22" s="95"/>
-      <c r="AX22" s="95"/>
-      <c r="AY22" s="95"/>
-      <c r="AZ22" s="95"/>
-      <c r="BA22" s="95"/>
-      <c r="BB22" s="95"/>
-      <c r="BC22" s="95"/>
-      <c r="BD22" s="95"/>
-      <c r="BE22" s="95"/>
-      <c r="BF22" s="95"/>
-      <c r="BG22" s="95"/>
-      <c r="BH22" s="95"/>
-      <c r="BI22" s="95"/>
-      <c r="BJ22" s="95"/>
-      <c r="BK22" s="95"/>
-      <c r="BL22" s="95"/>
-      <c r="BM22" s="95"/>
-      <c r="BN22" s="95"/>
-      <c r="BO22" s="95"/>
-      <c r="BP22" s="95"/>
-      <c r="BQ22" s="95"/>
-      <c r="BR22" s="95"/>
-      <c r="BS22" s="95"/>
-      <c r="BT22" s="95"/>
-      <c r="BU22" s="95"/>
-      <c r="BV22" s="95"/>
-      <c r="BW22" s="95"/>
-      <c r="BX22" s="95"/>
-      <c r="BY22" s="95"/>
-      <c r="BZ22" s="95"/>
-      <c r="CA22" s="95"/>
-      <c r="CB22" s="96"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="113"/>
+      <c r="Q22" s="113"/>
+      <c r="R22" s="113"/>
+      <c r="S22" s="113"/>
+      <c r="T22" s="113"/>
+      <c r="U22" s="113"/>
+      <c r="V22" s="113"/>
+      <c r="W22" s="113"/>
+      <c r="X22" s="113"/>
+      <c r="Y22" s="113"/>
+      <c r="Z22" s="113"/>
+      <c r="AA22" s="113"/>
+      <c r="AB22" s="113"/>
+      <c r="AC22" s="113"/>
+      <c r="AD22" s="113"/>
+      <c r="AE22" s="113"/>
+      <c r="AF22" s="113"/>
+      <c r="AG22" s="113"/>
+      <c r="AH22" s="113"/>
+      <c r="AI22" s="113"/>
+      <c r="AJ22" s="113"/>
+      <c r="AK22" s="113"/>
+      <c r="AL22" s="113"/>
+      <c r="AM22" s="113"/>
+      <c r="AN22" s="113"/>
+      <c r="AO22" s="113"/>
+      <c r="AP22" s="113"/>
+      <c r="AQ22" s="113"/>
+      <c r="AR22" s="113"/>
+      <c r="AS22" s="113"/>
+      <c r="AT22" s="113"/>
+      <c r="AU22" s="113"/>
+      <c r="AV22" s="113"/>
+      <c r="AW22" s="113"/>
+      <c r="AX22" s="113"/>
+      <c r="AY22" s="113"/>
+      <c r="AZ22" s="113"/>
+      <c r="BA22" s="113"/>
+      <c r="BB22" s="113"/>
+      <c r="BC22" s="113"/>
+      <c r="BD22" s="113"/>
+      <c r="BE22" s="113"/>
+      <c r="BF22" s="113"/>
+      <c r="BG22" s="113"/>
+      <c r="BH22" s="113"/>
+      <c r="BI22" s="113"/>
+      <c r="BJ22" s="113"/>
+      <c r="BK22" s="113"/>
+      <c r="BL22" s="113"/>
+      <c r="BM22" s="113"/>
+      <c r="BN22" s="113"/>
+      <c r="BO22" s="113"/>
+      <c r="BP22" s="113"/>
+      <c r="BQ22" s="113"/>
+      <c r="BR22" s="113"/>
+      <c r="BS22" s="113"/>
+      <c r="BT22" s="113"/>
+      <c r="BU22" s="113"/>
+      <c r="BV22" s="113"/>
+      <c r="BW22" s="113"/>
+      <c r="BX22" s="113"/>
+      <c r="BY22" s="113"/>
+      <c r="BZ22" s="113"/>
+      <c r="CA22" s="113"/>
+      <c r="CB22" s="114"/>
     </row>
     <row r="23" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C23" s="94"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="95"/>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="95"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="95"/>
-      <c r="U23" s="95"/>
-      <c r="V23" s="95"/>
-      <c r="W23" s="95"/>
-      <c r="X23" s="95"/>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="95"/>
-      <c r="AA23" s="95"/>
-      <c r="AB23" s="95"/>
-      <c r="AC23" s="95"/>
-      <c r="AD23" s="95"/>
-      <c r="AE23" s="95"/>
-      <c r="AF23" s="95"/>
-      <c r="AG23" s="95"/>
-      <c r="AH23" s="95"/>
-      <c r="AI23" s="95"/>
-      <c r="AJ23" s="95"/>
-      <c r="AK23" s="95"/>
-      <c r="AL23" s="95"/>
-      <c r="AM23" s="95"/>
-      <c r="AN23" s="95"/>
-      <c r="AO23" s="95"/>
-      <c r="AP23" s="95"/>
-      <c r="AQ23" s="95"/>
-      <c r="AR23" s="95"/>
-      <c r="AS23" s="95"/>
-      <c r="AT23" s="95"/>
-      <c r="AU23" s="95"/>
-      <c r="AV23" s="95"/>
-      <c r="AW23" s="95"/>
-      <c r="AX23" s="95"/>
-      <c r="AY23" s="95"/>
-      <c r="AZ23" s="95"/>
-      <c r="BA23" s="95"/>
-      <c r="BB23" s="95"/>
-      <c r="BC23" s="95"/>
-      <c r="BD23" s="95"/>
-      <c r="BE23" s="95"/>
-      <c r="BF23" s="95"/>
-      <c r="BG23" s="95"/>
-      <c r="BH23" s="95"/>
-      <c r="BI23" s="95"/>
-      <c r="BJ23" s="95"/>
-      <c r="BK23" s="95"/>
-      <c r="BL23" s="95"/>
-      <c r="BM23" s="95"/>
-      <c r="BN23" s="95"/>
-      <c r="BO23" s="95"/>
-      <c r="BP23" s="95"/>
-      <c r="BQ23" s="95"/>
-      <c r="BR23" s="95"/>
-      <c r="BS23" s="95"/>
-      <c r="BT23" s="95"/>
-      <c r="BU23" s="95"/>
-      <c r="BV23" s="95"/>
-      <c r="BW23" s="95"/>
-      <c r="BX23" s="95"/>
-      <c r="BY23" s="95"/>
-      <c r="BZ23" s="95"/>
-      <c r="CA23" s="95"/>
-      <c r="CB23" s="96"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="113"/>
+      <c r="O23" s="113"/>
+      <c r="P23" s="113"/>
+      <c r="Q23" s="113"/>
+      <c r="R23" s="113"/>
+      <c r="S23" s="113"/>
+      <c r="T23" s="113"/>
+      <c r="U23" s="113"/>
+      <c r="V23" s="113"/>
+      <c r="W23" s="113"/>
+      <c r="X23" s="113"/>
+      <c r="Y23" s="113"/>
+      <c r="Z23" s="113"/>
+      <c r="AA23" s="113"/>
+      <c r="AB23" s="113"/>
+      <c r="AC23" s="113"/>
+      <c r="AD23" s="113"/>
+      <c r="AE23" s="113"/>
+      <c r="AF23" s="113"/>
+      <c r="AG23" s="113"/>
+      <c r="AH23" s="113"/>
+      <c r="AI23" s="113"/>
+      <c r="AJ23" s="113"/>
+      <c r="AK23" s="113"/>
+      <c r="AL23" s="113"/>
+      <c r="AM23" s="113"/>
+      <c r="AN23" s="113"/>
+      <c r="AO23" s="113"/>
+      <c r="AP23" s="113"/>
+      <c r="AQ23" s="113"/>
+      <c r="AR23" s="113"/>
+      <c r="AS23" s="113"/>
+      <c r="AT23" s="113"/>
+      <c r="AU23" s="113"/>
+      <c r="AV23" s="113"/>
+      <c r="AW23" s="113"/>
+      <c r="AX23" s="113"/>
+      <c r="AY23" s="113"/>
+      <c r="AZ23" s="113"/>
+      <c r="BA23" s="113"/>
+      <c r="BB23" s="113"/>
+      <c r="BC23" s="113"/>
+      <c r="BD23" s="113"/>
+      <c r="BE23" s="113"/>
+      <c r="BF23" s="113"/>
+      <c r="BG23" s="113"/>
+      <c r="BH23" s="113"/>
+      <c r="BI23" s="113"/>
+      <c r="BJ23" s="113"/>
+      <c r="BK23" s="113"/>
+      <c r="BL23" s="113"/>
+      <c r="BM23" s="113"/>
+      <c r="BN23" s="113"/>
+      <c r="BO23" s="113"/>
+      <c r="BP23" s="113"/>
+      <c r="BQ23" s="113"/>
+      <c r="BR23" s="113"/>
+      <c r="BS23" s="113"/>
+      <c r="BT23" s="113"/>
+      <c r="BU23" s="113"/>
+      <c r="BV23" s="113"/>
+      <c r="BW23" s="113"/>
+      <c r="BX23" s="113"/>
+      <c r="BY23" s="113"/>
+      <c r="BZ23" s="113"/>
+      <c r="CA23" s="113"/>
+      <c r="CB23" s="114"/>
     </row>
     <row r="24" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C24" s="97"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="98"/>
-      <c r="P24" s="98"/>
-      <c r="Q24" s="98"/>
-      <c r="R24" s="98"/>
-      <c r="S24" s="98"/>
-      <c r="T24" s="98"/>
-      <c r="U24" s="98"/>
-      <c r="V24" s="98"/>
-      <c r="W24" s="98"/>
-      <c r="X24" s="98"/>
-      <c r="Y24" s="98"/>
-      <c r="Z24" s="98"/>
-      <c r="AA24" s="98"/>
-      <c r="AB24" s="98"/>
-      <c r="AC24" s="98"/>
-      <c r="AD24" s="98"/>
-      <c r="AE24" s="98"/>
-      <c r="AF24" s="98"/>
-      <c r="AG24" s="98"/>
-      <c r="AH24" s="98"/>
-      <c r="AI24" s="98"/>
-      <c r="AJ24" s="98"/>
-      <c r="AK24" s="98"/>
-      <c r="AL24" s="98"/>
-      <c r="AM24" s="98"/>
-      <c r="AN24" s="98"/>
-      <c r="AO24" s="98"/>
-      <c r="AP24" s="98"/>
-      <c r="AQ24" s="98"/>
-      <c r="AR24" s="98"/>
-      <c r="AS24" s="98"/>
-      <c r="AT24" s="98"/>
-      <c r="AU24" s="98"/>
-      <c r="AV24" s="98"/>
-      <c r="AW24" s="98"/>
-      <c r="AX24" s="98"/>
-      <c r="AY24" s="98"/>
-      <c r="AZ24" s="98"/>
-      <c r="BA24" s="98"/>
-      <c r="BB24" s="98"/>
-      <c r="BC24" s="98"/>
-      <c r="BD24" s="98"/>
-      <c r="BE24" s="98"/>
-      <c r="BF24" s="98"/>
-      <c r="BG24" s="98"/>
-      <c r="BH24" s="98"/>
-      <c r="BI24" s="98"/>
-      <c r="BJ24" s="98"/>
-      <c r="BK24" s="98"/>
-      <c r="BL24" s="98"/>
-      <c r="BM24" s="98"/>
-      <c r="BN24" s="98"/>
-      <c r="BO24" s="98"/>
-      <c r="BP24" s="98"/>
-      <c r="BQ24" s="98"/>
-      <c r="BR24" s="98"/>
-      <c r="BS24" s="98"/>
-      <c r="BT24" s="98"/>
-      <c r="BU24" s="98"/>
-      <c r="BV24" s="98"/>
-      <c r="BW24" s="98"/>
-      <c r="BX24" s="98"/>
-      <c r="BY24" s="98"/>
-      <c r="BZ24" s="98"/>
-      <c r="CA24" s="98"/>
-      <c r="CB24" s="99"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="116"/>
+      <c r="K24" s="116"/>
+      <c r="L24" s="116"/>
+      <c r="M24" s="116"/>
+      <c r="N24" s="116"/>
+      <c r="O24" s="116"/>
+      <c r="P24" s="116"/>
+      <c r="Q24" s="116"/>
+      <c r="R24" s="116"/>
+      <c r="S24" s="116"/>
+      <c r="T24" s="116"/>
+      <c r="U24" s="116"/>
+      <c r="V24" s="116"/>
+      <c r="W24" s="116"/>
+      <c r="X24" s="116"/>
+      <c r="Y24" s="116"/>
+      <c r="Z24" s="116"/>
+      <c r="AA24" s="116"/>
+      <c r="AB24" s="116"/>
+      <c r="AC24" s="116"/>
+      <c r="AD24" s="116"/>
+      <c r="AE24" s="116"/>
+      <c r="AF24" s="116"/>
+      <c r="AG24" s="116"/>
+      <c r="AH24" s="116"/>
+      <c r="AI24" s="116"/>
+      <c r="AJ24" s="116"/>
+      <c r="AK24" s="116"/>
+      <c r="AL24" s="116"/>
+      <c r="AM24" s="116"/>
+      <c r="AN24" s="116"/>
+      <c r="AO24" s="116"/>
+      <c r="AP24" s="116"/>
+      <c r="AQ24" s="116"/>
+      <c r="AR24" s="116"/>
+      <c r="AS24" s="116"/>
+      <c r="AT24" s="116"/>
+      <c r="AU24" s="116"/>
+      <c r="AV24" s="116"/>
+      <c r="AW24" s="116"/>
+      <c r="AX24" s="116"/>
+      <c r="AY24" s="116"/>
+      <c r="AZ24" s="116"/>
+      <c r="BA24" s="116"/>
+      <c r="BB24" s="116"/>
+      <c r="BC24" s="116"/>
+      <c r="BD24" s="116"/>
+      <c r="BE24" s="116"/>
+      <c r="BF24" s="116"/>
+      <c r="BG24" s="116"/>
+      <c r="BH24" s="116"/>
+      <c r="BI24" s="116"/>
+      <c r="BJ24" s="116"/>
+      <c r="BK24" s="116"/>
+      <c r="BL24" s="116"/>
+      <c r="BM24" s="116"/>
+      <c r="BN24" s="116"/>
+      <c r="BO24" s="116"/>
+      <c r="BP24" s="116"/>
+      <c r="BQ24" s="116"/>
+      <c r="BR24" s="116"/>
+      <c r="BS24" s="116"/>
+      <c r="BT24" s="116"/>
+      <c r="BU24" s="116"/>
+      <c r="BV24" s="116"/>
+      <c r="BW24" s="116"/>
+      <c r="BX24" s="116"/>
+      <c r="BY24" s="116"/>
+      <c r="BZ24" s="116"/>
+      <c r="CA24" s="116"/>
+      <c r="CB24" s="117"/>
     </row>
     <row r="25" spans="3:80" ht="9.75" customHeight="1" thickBot="1"/>
     <row r="26" spans="3:80" ht="9.75" customHeight="1">
@@ -15044,1501 +15231,1501 @@
       <c r="CB27" s="90"/>
     </row>
     <row r="28" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C28" s="91"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="92"/>
-      <c r="Q28" s="92"/>
-      <c r="R28" s="92"/>
-      <c r="S28" s="92"/>
-      <c r="T28" s="92"/>
-      <c r="U28" s="92"/>
-      <c r="V28" s="92"/>
-      <c r="W28" s="92"/>
-      <c r="X28" s="92"/>
-      <c r="Y28" s="92"/>
-      <c r="Z28" s="92"/>
-      <c r="AA28" s="92"/>
-      <c r="AB28" s="92"/>
-      <c r="AC28" s="92"/>
-      <c r="AD28" s="92"/>
-      <c r="AE28" s="92"/>
-      <c r="AF28" s="92"/>
-      <c r="AG28" s="92"/>
-      <c r="AH28" s="92"/>
-      <c r="AI28" s="92"/>
-      <c r="AJ28" s="92"/>
-      <c r="AK28" s="92"/>
-      <c r="AL28" s="92"/>
-      <c r="AM28" s="92"/>
-      <c r="AN28" s="93"/>
-      <c r="AQ28" s="91"/>
-      <c r="AR28" s="92"/>
-      <c r="AS28" s="92"/>
-      <c r="AT28" s="92"/>
-      <c r="AU28" s="92"/>
-      <c r="AV28" s="92"/>
-      <c r="AW28" s="92"/>
-      <c r="AX28" s="92"/>
-      <c r="AY28" s="92"/>
-      <c r="AZ28" s="92"/>
-      <c r="BA28" s="92"/>
-      <c r="BB28" s="92"/>
-      <c r="BC28" s="92"/>
-      <c r="BD28" s="92"/>
-      <c r="BE28" s="92"/>
-      <c r="BF28" s="92"/>
-      <c r="BG28" s="92"/>
-      <c r="BH28" s="92"/>
-      <c r="BI28" s="92"/>
-      <c r="BJ28" s="92"/>
-      <c r="BK28" s="92"/>
-      <c r="BL28" s="92"/>
-      <c r="BM28" s="92"/>
-      <c r="BN28" s="92"/>
-      <c r="BO28" s="92"/>
-      <c r="BP28" s="92"/>
-      <c r="BQ28" s="92"/>
-      <c r="BR28" s="92"/>
-      <c r="BS28" s="92"/>
-      <c r="BT28" s="92"/>
-      <c r="BU28" s="92"/>
-      <c r="BV28" s="92"/>
-      <c r="BW28" s="92"/>
-      <c r="BX28" s="92"/>
-      <c r="BY28" s="92"/>
-      <c r="BZ28" s="92"/>
-      <c r="CA28" s="92"/>
-      <c r="CB28" s="93"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="110"/>
+      <c r="N28" s="110"/>
+      <c r="O28" s="110"/>
+      <c r="P28" s="110"/>
+      <c r="Q28" s="110"/>
+      <c r="R28" s="110"/>
+      <c r="S28" s="110"/>
+      <c r="T28" s="110"/>
+      <c r="U28" s="110"/>
+      <c r="V28" s="110"/>
+      <c r="W28" s="110"/>
+      <c r="X28" s="110"/>
+      <c r="Y28" s="110"/>
+      <c r="Z28" s="110"/>
+      <c r="AA28" s="110"/>
+      <c r="AB28" s="110"/>
+      <c r="AC28" s="110"/>
+      <c r="AD28" s="110"/>
+      <c r="AE28" s="110"/>
+      <c r="AF28" s="110"/>
+      <c r="AG28" s="110"/>
+      <c r="AH28" s="110"/>
+      <c r="AI28" s="110"/>
+      <c r="AJ28" s="110"/>
+      <c r="AK28" s="110"/>
+      <c r="AL28" s="110"/>
+      <c r="AM28" s="110"/>
+      <c r="AN28" s="111"/>
+      <c r="AQ28" s="109"/>
+      <c r="AR28" s="110"/>
+      <c r="AS28" s="110"/>
+      <c r="AT28" s="110"/>
+      <c r="AU28" s="110"/>
+      <c r="AV28" s="110"/>
+      <c r="AW28" s="110"/>
+      <c r="AX28" s="110"/>
+      <c r="AY28" s="110"/>
+      <c r="AZ28" s="110"/>
+      <c r="BA28" s="110"/>
+      <c r="BB28" s="110"/>
+      <c r="BC28" s="110"/>
+      <c r="BD28" s="110"/>
+      <c r="BE28" s="110"/>
+      <c r="BF28" s="110"/>
+      <c r="BG28" s="110"/>
+      <c r="BH28" s="110"/>
+      <c r="BI28" s="110"/>
+      <c r="BJ28" s="110"/>
+      <c r="BK28" s="110"/>
+      <c r="BL28" s="110"/>
+      <c r="BM28" s="110"/>
+      <c r="BN28" s="110"/>
+      <c r="BO28" s="110"/>
+      <c r="BP28" s="110"/>
+      <c r="BQ28" s="110"/>
+      <c r="BR28" s="110"/>
+      <c r="BS28" s="110"/>
+      <c r="BT28" s="110"/>
+      <c r="BU28" s="110"/>
+      <c r="BV28" s="110"/>
+      <c r="BW28" s="110"/>
+      <c r="BX28" s="110"/>
+      <c r="BY28" s="110"/>
+      <c r="BZ28" s="110"/>
+      <c r="CA28" s="110"/>
+      <c r="CB28" s="111"/>
     </row>
     <row r="29" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C29" s="94"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="95"/>
-      <c r="U29" s="95"/>
-      <c r="V29" s="95"/>
-      <c r="W29" s="95"/>
-      <c r="X29" s="95"/>
-      <c r="Y29" s="95"/>
-      <c r="Z29" s="95"/>
-      <c r="AA29" s="95"/>
-      <c r="AB29" s="95"/>
-      <c r="AC29" s="95"/>
-      <c r="AD29" s="95"/>
-      <c r="AE29" s="95"/>
-      <c r="AF29" s="95"/>
-      <c r="AG29" s="95"/>
-      <c r="AH29" s="95"/>
-      <c r="AI29" s="95"/>
-      <c r="AJ29" s="95"/>
-      <c r="AK29" s="95"/>
-      <c r="AL29" s="95"/>
-      <c r="AM29" s="95"/>
-      <c r="AN29" s="96"/>
-      <c r="AQ29" s="94"/>
-      <c r="AR29" s="95"/>
-      <c r="AS29" s="95"/>
-      <c r="AT29" s="95"/>
-      <c r="AU29" s="95"/>
-      <c r="AV29" s="95"/>
-      <c r="AW29" s="95"/>
-      <c r="AX29" s="95"/>
-      <c r="AY29" s="95"/>
-      <c r="AZ29" s="95"/>
-      <c r="BA29" s="95"/>
-      <c r="BB29" s="95"/>
-      <c r="BC29" s="95"/>
-      <c r="BD29" s="95"/>
-      <c r="BE29" s="95"/>
-      <c r="BF29" s="95"/>
-      <c r="BG29" s="95"/>
-      <c r="BH29" s="95"/>
-      <c r="BI29" s="95"/>
-      <c r="BJ29" s="95"/>
-      <c r="BK29" s="95"/>
-      <c r="BL29" s="95"/>
-      <c r="BM29" s="95"/>
-      <c r="BN29" s="95"/>
-      <c r="BO29" s="95"/>
-      <c r="BP29" s="95"/>
-      <c r="BQ29" s="95"/>
-      <c r="BR29" s="95"/>
-      <c r="BS29" s="95"/>
-      <c r="BT29" s="95"/>
-      <c r="BU29" s="95"/>
-      <c r="BV29" s="95"/>
-      <c r="BW29" s="95"/>
-      <c r="BX29" s="95"/>
-      <c r="BY29" s="95"/>
-      <c r="BZ29" s="95"/>
-      <c r="CA29" s="95"/>
-      <c r="CB29" s="96"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="113"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="113"/>
+      <c r="L29" s="113"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="113"/>
+      <c r="P29" s="113"/>
+      <c r="Q29" s="113"/>
+      <c r="R29" s="113"/>
+      <c r="S29" s="113"/>
+      <c r="T29" s="113"/>
+      <c r="U29" s="113"/>
+      <c r="V29" s="113"/>
+      <c r="W29" s="113"/>
+      <c r="X29" s="113"/>
+      <c r="Y29" s="113"/>
+      <c r="Z29" s="113"/>
+      <c r="AA29" s="113"/>
+      <c r="AB29" s="113"/>
+      <c r="AC29" s="113"/>
+      <c r="AD29" s="113"/>
+      <c r="AE29" s="113"/>
+      <c r="AF29" s="113"/>
+      <c r="AG29" s="113"/>
+      <c r="AH29" s="113"/>
+      <c r="AI29" s="113"/>
+      <c r="AJ29" s="113"/>
+      <c r="AK29" s="113"/>
+      <c r="AL29" s="113"/>
+      <c r="AM29" s="113"/>
+      <c r="AN29" s="114"/>
+      <c r="AQ29" s="112"/>
+      <c r="AR29" s="113"/>
+      <c r="AS29" s="113"/>
+      <c r="AT29" s="113"/>
+      <c r="AU29" s="113"/>
+      <c r="AV29" s="113"/>
+      <c r="AW29" s="113"/>
+      <c r="AX29" s="113"/>
+      <c r="AY29" s="113"/>
+      <c r="AZ29" s="113"/>
+      <c r="BA29" s="113"/>
+      <c r="BB29" s="113"/>
+      <c r="BC29" s="113"/>
+      <c r="BD29" s="113"/>
+      <c r="BE29" s="113"/>
+      <c r="BF29" s="113"/>
+      <c r="BG29" s="113"/>
+      <c r="BH29" s="113"/>
+      <c r="BI29" s="113"/>
+      <c r="BJ29" s="113"/>
+      <c r="BK29" s="113"/>
+      <c r="BL29" s="113"/>
+      <c r="BM29" s="113"/>
+      <c r="BN29" s="113"/>
+      <c r="BO29" s="113"/>
+      <c r="BP29" s="113"/>
+      <c r="BQ29" s="113"/>
+      <c r="BR29" s="113"/>
+      <c r="BS29" s="113"/>
+      <c r="BT29" s="113"/>
+      <c r="BU29" s="113"/>
+      <c r="BV29" s="113"/>
+      <c r="BW29" s="113"/>
+      <c r="BX29" s="113"/>
+      <c r="BY29" s="113"/>
+      <c r="BZ29" s="113"/>
+      <c r="CA29" s="113"/>
+      <c r="CB29" s="114"/>
     </row>
     <row r="30" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C30" s="94"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="95"/>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="95"/>
-      <c r="S30" s="95"/>
-      <c r="T30" s="95"/>
-      <c r="U30" s="95"/>
-      <c r="V30" s="95"/>
-      <c r="W30" s="95"/>
-      <c r="X30" s="95"/>
-      <c r="Y30" s="95"/>
-      <c r="Z30" s="95"/>
-      <c r="AA30" s="95"/>
-      <c r="AB30" s="95"/>
-      <c r="AC30" s="95"/>
-      <c r="AD30" s="95"/>
-      <c r="AE30" s="95"/>
-      <c r="AF30" s="95"/>
-      <c r="AG30" s="95"/>
-      <c r="AH30" s="95"/>
-      <c r="AI30" s="95"/>
-      <c r="AJ30" s="95"/>
-      <c r="AK30" s="95"/>
-      <c r="AL30" s="95"/>
-      <c r="AM30" s="95"/>
-      <c r="AN30" s="96"/>
-      <c r="AQ30" s="94"/>
-      <c r="AR30" s="95"/>
-      <c r="AS30" s="95"/>
-      <c r="AT30" s="95"/>
-      <c r="AU30" s="95"/>
-      <c r="AV30" s="95"/>
-      <c r="AW30" s="95"/>
-      <c r="AX30" s="95"/>
-      <c r="AY30" s="95"/>
-      <c r="AZ30" s="95"/>
-      <c r="BA30" s="95"/>
-      <c r="BB30" s="95"/>
-      <c r="BC30" s="95"/>
-      <c r="BD30" s="95"/>
-      <c r="BE30" s="95"/>
-      <c r="BF30" s="95"/>
-      <c r="BG30" s="95"/>
-      <c r="BH30" s="95"/>
-      <c r="BI30" s="95"/>
-      <c r="BJ30" s="95"/>
-      <c r="BK30" s="95"/>
-      <c r="BL30" s="95"/>
-      <c r="BM30" s="95"/>
-      <c r="BN30" s="95"/>
-      <c r="BO30" s="95"/>
-      <c r="BP30" s="95"/>
-      <c r="BQ30" s="95"/>
-      <c r="BR30" s="95"/>
-      <c r="BS30" s="95"/>
-      <c r="BT30" s="95"/>
-      <c r="BU30" s="95"/>
-      <c r="BV30" s="95"/>
-      <c r="BW30" s="95"/>
-      <c r="BX30" s="95"/>
-      <c r="BY30" s="95"/>
-      <c r="BZ30" s="95"/>
-      <c r="CA30" s="95"/>
-      <c r="CB30" s="96"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="113"/>
+      <c r="L30" s="113"/>
+      <c r="M30" s="113"/>
+      <c r="N30" s="113"/>
+      <c r="O30" s="113"/>
+      <c r="P30" s="113"/>
+      <c r="Q30" s="113"/>
+      <c r="R30" s="113"/>
+      <c r="S30" s="113"/>
+      <c r="T30" s="113"/>
+      <c r="U30" s="113"/>
+      <c r="V30" s="113"/>
+      <c r="W30" s="113"/>
+      <c r="X30" s="113"/>
+      <c r="Y30" s="113"/>
+      <c r="Z30" s="113"/>
+      <c r="AA30" s="113"/>
+      <c r="AB30" s="113"/>
+      <c r="AC30" s="113"/>
+      <c r="AD30" s="113"/>
+      <c r="AE30" s="113"/>
+      <c r="AF30" s="113"/>
+      <c r="AG30" s="113"/>
+      <c r="AH30" s="113"/>
+      <c r="AI30" s="113"/>
+      <c r="AJ30" s="113"/>
+      <c r="AK30" s="113"/>
+      <c r="AL30" s="113"/>
+      <c r="AM30" s="113"/>
+      <c r="AN30" s="114"/>
+      <c r="AQ30" s="112"/>
+      <c r="AR30" s="113"/>
+      <c r="AS30" s="113"/>
+      <c r="AT30" s="113"/>
+      <c r="AU30" s="113"/>
+      <c r="AV30" s="113"/>
+      <c r="AW30" s="113"/>
+      <c r="AX30" s="113"/>
+      <c r="AY30" s="113"/>
+      <c r="AZ30" s="113"/>
+      <c r="BA30" s="113"/>
+      <c r="BB30" s="113"/>
+      <c r="BC30" s="113"/>
+      <c r="BD30" s="113"/>
+      <c r="BE30" s="113"/>
+      <c r="BF30" s="113"/>
+      <c r="BG30" s="113"/>
+      <c r="BH30" s="113"/>
+      <c r="BI30" s="113"/>
+      <c r="BJ30" s="113"/>
+      <c r="BK30" s="113"/>
+      <c r="BL30" s="113"/>
+      <c r="BM30" s="113"/>
+      <c r="BN30" s="113"/>
+      <c r="BO30" s="113"/>
+      <c r="BP30" s="113"/>
+      <c r="BQ30" s="113"/>
+      <c r="BR30" s="113"/>
+      <c r="BS30" s="113"/>
+      <c r="BT30" s="113"/>
+      <c r="BU30" s="113"/>
+      <c r="BV30" s="113"/>
+      <c r="BW30" s="113"/>
+      <c r="BX30" s="113"/>
+      <c r="BY30" s="113"/>
+      <c r="BZ30" s="113"/>
+      <c r="CA30" s="113"/>
+      <c r="CB30" s="114"/>
     </row>
     <row r="31" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C31" s="94"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="95"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="95"/>
-      <c r="U31" s="95"/>
-      <c r="V31" s="95"/>
-      <c r="W31" s="95"/>
-      <c r="X31" s="95"/>
-      <c r="Y31" s="95"/>
-      <c r="Z31" s="95"/>
-      <c r="AA31" s="95"/>
-      <c r="AB31" s="95"/>
-      <c r="AC31" s="95"/>
-      <c r="AD31" s="95"/>
-      <c r="AE31" s="95"/>
-      <c r="AF31" s="95"/>
-      <c r="AG31" s="95"/>
-      <c r="AH31" s="95"/>
-      <c r="AI31" s="95"/>
-      <c r="AJ31" s="95"/>
-      <c r="AK31" s="95"/>
-      <c r="AL31" s="95"/>
-      <c r="AM31" s="95"/>
-      <c r="AN31" s="96"/>
-      <c r="AQ31" s="94"/>
-      <c r="AR31" s="95"/>
-      <c r="AS31" s="95"/>
-      <c r="AT31" s="95"/>
-      <c r="AU31" s="95"/>
-      <c r="AV31" s="95"/>
-      <c r="AW31" s="95"/>
-      <c r="AX31" s="95"/>
-      <c r="AY31" s="95"/>
-      <c r="AZ31" s="95"/>
-      <c r="BA31" s="95"/>
-      <c r="BB31" s="95"/>
-      <c r="BC31" s="95"/>
-      <c r="BD31" s="95"/>
-      <c r="BE31" s="95"/>
-      <c r="BF31" s="95"/>
-      <c r="BG31" s="95"/>
-      <c r="BH31" s="95"/>
-      <c r="BI31" s="95"/>
-      <c r="BJ31" s="95"/>
-      <c r="BK31" s="95"/>
-      <c r="BL31" s="95"/>
-      <c r="BM31" s="95"/>
-      <c r="BN31" s="95"/>
-      <c r="BO31" s="95"/>
-      <c r="BP31" s="95"/>
-      <c r="BQ31" s="95"/>
-      <c r="BR31" s="95"/>
-      <c r="BS31" s="95"/>
-      <c r="BT31" s="95"/>
-      <c r="BU31" s="95"/>
-      <c r="BV31" s="95"/>
-      <c r="BW31" s="95"/>
-      <c r="BX31" s="95"/>
-      <c r="BY31" s="95"/>
-      <c r="BZ31" s="95"/>
-      <c r="CA31" s="95"/>
-      <c r="CB31" s="96"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="113"/>
+      <c r="L31" s="113"/>
+      <c r="M31" s="113"/>
+      <c r="N31" s="113"/>
+      <c r="O31" s="113"/>
+      <c r="P31" s="113"/>
+      <c r="Q31" s="113"/>
+      <c r="R31" s="113"/>
+      <c r="S31" s="113"/>
+      <c r="T31" s="113"/>
+      <c r="U31" s="113"/>
+      <c r="V31" s="113"/>
+      <c r="W31" s="113"/>
+      <c r="X31" s="113"/>
+      <c r="Y31" s="113"/>
+      <c r="Z31" s="113"/>
+      <c r="AA31" s="113"/>
+      <c r="AB31" s="113"/>
+      <c r="AC31" s="113"/>
+      <c r="AD31" s="113"/>
+      <c r="AE31" s="113"/>
+      <c r="AF31" s="113"/>
+      <c r="AG31" s="113"/>
+      <c r="AH31" s="113"/>
+      <c r="AI31" s="113"/>
+      <c r="AJ31" s="113"/>
+      <c r="AK31" s="113"/>
+      <c r="AL31" s="113"/>
+      <c r="AM31" s="113"/>
+      <c r="AN31" s="114"/>
+      <c r="AQ31" s="112"/>
+      <c r="AR31" s="113"/>
+      <c r="AS31" s="113"/>
+      <c r="AT31" s="113"/>
+      <c r="AU31" s="113"/>
+      <c r="AV31" s="113"/>
+      <c r="AW31" s="113"/>
+      <c r="AX31" s="113"/>
+      <c r="AY31" s="113"/>
+      <c r="AZ31" s="113"/>
+      <c r="BA31" s="113"/>
+      <c r="BB31" s="113"/>
+      <c r="BC31" s="113"/>
+      <c r="BD31" s="113"/>
+      <c r="BE31" s="113"/>
+      <c r="BF31" s="113"/>
+      <c r="BG31" s="113"/>
+      <c r="BH31" s="113"/>
+      <c r="BI31" s="113"/>
+      <c r="BJ31" s="113"/>
+      <c r="BK31" s="113"/>
+      <c r="BL31" s="113"/>
+      <c r="BM31" s="113"/>
+      <c r="BN31" s="113"/>
+      <c r="BO31" s="113"/>
+      <c r="BP31" s="113"/>
+      <c r="BQ31" s="113"/>
+      <c r="BR31" s="113"/>
+      <c r="BS31" s="113"/>
+      <c r="BT31" s="113"/>
+      <c r="BU31" s="113"/>
+      <c r="BV31" s="113"/>
+      <c r="BW31" s="113"/>
+      <c r="BX31" s="113"/>
+      <c r="BY31" s="113"/>
+      <c r="BZ31" s="113"/>
+      <c r="CA31" s="113"/>
+      <c r="CB31" s="114"/>
     </row>
     <row r="32" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C32" s="94"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="95"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="95"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="95"/>
-      <c r="S32" s="95"/>
-      <c r="T32" s="95"/>
-      <c r="U32" s="95"/>
-      <c r="V32" s="95"/>
-      <c r="W32" s="95"/>
-      <c r="X32" s="95"/>
-      <c r="Y32" s="95"/>
-      <c r="Z32" s="95"/>
-      <c r="AA32" s="95"/>
-      <c r="AB32" s="95"/>
-      <c r="AC32" s="95"/>
-      <c r="AD32" s="95"/>
-      <c r="AE32" s="95"/>
-      <c r="AF32" s="95"/>
-      <c r="AG32" s="95"/>
-      <c r="AH32" s="95"/>
-      <c r="AI32" s="95"/>
-      <c r="AJ32" s="95"/>
-      <c r="AK32" s="95"/>
-      <c r="AL32" s="95"/>
-      <c r="AM32" s="95"/>
-      <c r="AN32" s="96"/>
-      <c r="AQ32" s="94"/>
-      <c r="AR32" s="95"/>
-      <c r="AS32" s="95"/>
-      <c r="AT32" s="95"/>
-      <c r="AU32" s="95"/>
-      <c r="AV32" s="95"/>
-      <c r="AW32" s="95"/>
-      <c r="AX32" s="95"/>
-      <c r="AY32" s="95"/>
-      <c r="AZ32" s="95"/>
-      <c r="BA32" s="95"/>
-      <c r="BB32" s="95"/>
-      <c r="BC32" s="95"/>
-      <c r="BD32" s="95"/>
-      <c r="BE32" s="95"/>
-      <c r="BF32" s="95"/>
-      <c r="BG32" s="95"/>
-      <c r="BH32" s="95"/>
-      <c r="BI32" s="95"/>
-      <c r="BJ32" s="95"/>
-      <c r="BK32" s="95"/>
-      <c r="BL32" s="95"/>
-      <c r="BM32" s="95"/>
-      <c r="BN32" s="95"/>
-      <c r="BO32" s="95"/>
-      <c r="BP32" s="95"/>
-      <c r="BQ32" s="95"/>
-      <c r="BR32" s="95"/>
-      <c r="BS32" s="95"/>
-      <c r="BT32" s="95"/>
-      <c r="BU32" s="95"/>
-      <c r="BV32" s="95"/>
-      <c r="BW32" s="95"/>
-      <c r="BX32" s="95"/>
-      <c r="BY32" s="95"/>
-      <c r="BZ32" s="95"/>
-      <c r="CA32" s="95"/>
-      <c r="CB32" s="96"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="113"/>
+      <c r="M32" s="113"/>
+      <c r="N32" s="113"/>
+      <c r="O32" s="113"/>
+      <c r="P32" s="113"/>
+      <c r="Q32" s="113"/>
+      <c r="R32" s="113"/>
+      <c r="S32" s="113"/>
+      <c r="T32" s="113"/>
+      <c r="U32" s="113"/>
+      <c r="V32" s="113"/>
+      <c r="W32" s="113"/>
+      <c r="X32" s="113"/>
+      <c r="Y32" s="113"/>
+      <c r="Z32" s="113"/>
+      <c r="AA32" s="113"/>
+      <c r="AB32" s="113"/>
+      <c r="AC32" s="113"/>
+      <c r="AD32" s="113"/>
+      <c r="AE32" s="113"/>
+      <c r="AF32" s="113"/>
+      <c r="AG32" s="113"/>
+      <c r="AH32" s="113"/>
+      <c r="AI32" s="113"/>
+      <c r="AJ32" s="113"/>
+      <c r="AK32" s="113"/>
+      <c r="AL32" s="113"/>
+      <c r="AM32" s="113"/>
+      <c r="AN32" s="114"/>
+      <c r="AQ32" s="112"/>
+      <c r="AR32" s="113"/>
+      <c r="AS32" s="113"/>
+      <c r="AT32" s="113"/>
+      <c r="AU32" s="113"/>
+      <c r="AV32" s="113"/>
+      <c r="AW32" s="113"/>
+      <c r="AX32" s="113"/>
+      <c r="AY32" s="113"/>
+      <c r="AZ32" s="113"/>
+      <c r="BA32" s="113"/>
+      <c r="BB32" s="113"/>
+      <c r="BC32" s="113"/>
+      <c r="BD32" s="113"/>
+      <c r="BE32" s="113"/>
+      <c r="BF32" s="113"/>
+      <c r="BG32" s="113"/>
+      <c r="BH32" s="113"/>
+      <c r="BI32" s="113"/>
+      <c r="BJ32" s="113"/>
+      <c r="BK32" s="113"/>
+      <c r="BL32" s="113"/>
+      <c r="BM32" s="113"/>
+      <c r="BN32" s="113"/>
+      <c r="BO32" s="113"/>
+      <c r="BP32" s="113"/>
+      <c r="BQ32" s="113"/>
+      <c r="BR32" s="113"/>
+      <c r="BS32" s="113"/>
+      <c r="BT32" s="113"/>
+      <c r="BU32" s="113"/>
+      <c r="BV32" s="113"/>
+      <c r="BW32" s="113"/>
+      <c r="BX32" s="113"/>
+      <c r="BY32" s="113"/>
+      <c r="BZ32" s="113"/>
+      <c r="CA32" s="113"/>
+      <c r="CB32" s="114"/>
     </row>
     <row r="33" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C33" s="94"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="95"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="95"/>
-      <c r="K33" s="95"/>
-      <c r="L33" s="95"/>
-      <c r="M33" s="95"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="95"/>
-      <c r="Q33" s="95"/>
-      <c r="R33" s="95"/>
-      <c r="S33" s="95"/>
-      <c r="T33" s="95"/>
-      <c r="U33" s="95"/>
-      <c r="V33" s="95"/>
-      <c r="W33" s="95"/>
-      <c r="X33" s="95"/>
-      <c r="Y33" s="95"/>
-      <c r="Z33" s="95"/>
-      <c r="AA33" s="95"/>
-      <c r="AB33" s="95"/>
-      <c r="AC33" s="95"/>
-      <c r="AD33" s="95"/>
-      <c r="AE33" s="95"/>
-      <c r="AF33" s="95"/>
-      <c r="AG33" s="95"/>
-      <c r="AH33" s="95"/>
-      <c r="AI33" s="95"/>
-      <c r="AJ33" s="95"/>
-      <c r="AK33" s="95"/>
-      <c r="AL33" s="95"/>
-      <c r="AM33" s="95"/>
-      <c r="AN33" s="96"/>
-      <c r="AQ33" s="94"/>
-      <c r="AR33" s="95"/>
-      <c r="AS33" s="95"/>
-      <c r="AT33" s="95"/>
-      <c r="AU33" s="95"/>
-      <c r="AV33" s="95"/>
-      <c r="AW33" s="95"/>
-      <c r="AX33" s="95"/>
-      <c r="AY33" s="95"/>
-      <c r="AZ33" s="95"/>
-      <c r="BA33" s="95"/>
-      <c r="BB33" s="95"/>
-      <c r="BC33" s="95"/>
-      <c r="BD33" s="95"/>
-      <c r="BE33" s="95"/>
-      <c r="BF33" s="95"/>
-      <c r="BG33" s="95"/>
-      <c r="BH33" s="95"/>
-      <c r="BI33" s="95"/>
-      <c r="BJ33" s="95"/>
-      <c r="BK33" s="95"/>
-      <c r="BL33" s="95"/>
-      <c r="BM33" s="95"/>
-      <c r="BN33" s="95"/>
-      <c r="BO33" s="95"/>
-      <c r="BP33" s="95"/>
-      <c r="BQ33" s="95"/>
-      <c r="BR33" s="95"/>
-      <c r="BS33" s="95"/>
-      <c r="BT33" s="95"/>
-      <c r="BU33" s="95"/>
-      <c r="BV33" s="95"/>
-      <c r="BW33" s="95"/>
-      <c r="BX33" s="95"/>
-      <c r="BY33" s="95"/>
-      <c r="BZ33" s="95"/>
-      <c r="CA33" s="95"/>
-      <c r="CB33" s="96"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="113"/>
+      <c r="L33" s="113"/>
+      <c r="M33" s="113"/>
+      <c r="N33" s="113"/>
+      <c r="O33" s="113"/>
+      <c r="P33" s="113"/>
+      <c r="Q33" s="113"/>
+      <c r="R33" s="113"/>
+      <c r="S33" s="113"/>
+      <c r="T33" s="113"/>
+      <c r="U33" s="113"/>
+      <c r="V33" s="113"/>
+      <c r="W33" s="113"/>
+      <c r="X33" s="113"/>
+      <c r="Y33" s="113"/>
+      <c r="Z33" s="113"/>
+      <c r="AA33" s="113"/>
+      <c r="AB33" s="113"/>
+      <c r="AC33" s="113"/>
+      <c r="AD33" s="113"/>
+      <c r="AE33" s="113"/>
+      <c r="AF33" s="113"/>
+      <c r="AG33" s="113"/>
+      <c r="AH33" s="113"/>
+      <c r="AI33" s="113"/>
+      <c r="AJ33" s="113"/>
+      <c r="AK33" s="113"/>
+      <c r="AL33" s="113"/>
+      <c r="AM33" s="113"/>
+      <c r="AN33" s="114"/>
+      <c r="AQ33" s="112"/>
+      <c r="AR33" s="113"/>
+      <c r="AS33" s="113"/>
+      <c r="AT33" s="113"/>
+      <c r="AU33" s="113"/>
+      <c r="AV33" s="113"/>
+      <c r="AW33" s="113"/>
+      <c r="AX33" s="113"/>
+      <c r="AY33" s="113"/>
+      <c r="AZ33" s="113"/>
+      <c r="BA33" s="113"/>
+      <c r="BB33" s="113"/>
+      <c r="BC33" s="113"/>
+      <c r="BD33" s="113"/>
+      <c r="BE33" s="113"/>
+      <c r="BF33" s="113"/>
+      <c r="BG33" s="113"/>
+      <c r="BH33" s="113"/>
+      <c r="BI33" s="113"/>
+      <c r="BJ33" s="113"/>
+      <c r="BK33" s="113"/>
+      <c r="BL33" s="113"/>
+      <c r="BM33" s="113"/>
+      <c r="BN33" s="113"/>
+      <c r="BO33" s="113"/>
+      <c r="BP33" s="113"/>
+      <c r="BQ33" s="113"/>
+      <c r="BR33" s="113"/>
+      <c r="BS33" s="113"/>
+      <c r="BT33" s="113"/>
+      <c r="BU33" s="113"/>
+      <c r="BV33" s="113"/>
+      <c r="BW33" s="113"/>
+      <c r="BX33" s="113"/>
+      <c r="BY33" s="113"/>
+      <c r="BZ33" s="113"/>
+      <c r="CA33" s="113"/>
+      <c r="CB33" s="114"/>
     </row>
     <row r="34" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C34" s="94"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="95"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="95"/>
-      <c r="O34" s="95"/>
-      <c r="P34" s="95"/>
-      <c r="Q34" s="95"/>
-      <c r="R34" s="95"/>
-      <c r="S34" s="95"/>
-      <c r="T34" s="95"/>
-      <c r="U34" s="95"/>
-      <c r="V34" s="95"/>
-      <c r="W34" s="95"/>
-      <c r="X34" s="95"/>
-      <c r="Y34" s="95"/>
-      <c r="Z34" s="95"/>
-      <c r="AA34" s="95"/>
-      <c r="AB34" s="95"/>
-      <c r="AC34" s="95"/>
-      <c r="AD34" s="95"/>
-      <c r="AE34" s="95"/>
-      <c r="AF34" s="95"/>
-      <c r="AG34" s="95"/>
-      <c r="AH34" s="95"/>
-      <c r="AI34" s="95"/>
-      <c r="AJ34" s="95"/>
-      <c r="AK34" s="95"/>
-      <c r="AL34" s="95"/>
-      <c r="AM34" s="95"/>
-      <c r="AN34" s="96"/>
-      <c r="AQ34" s="94"/>
-      <c r="AR34" s="95"/>
-      <c r="AS34" s="95"/>
-      <c r="AT34" s="95"/>
-      <c r="AU34" s="95"/>
-      <c r="AV34" s="95"/>
-      <c r="AW34" s="95"/>
-      <c r="AX34" s="95"/>
-      <c r="AY34" s="95"/>
-      <c r="AZ34" s="95"/>
-      <c r="BA34" s="95"/>
-      <c r="BB34" s="95"/>
-      <c r="BC34" s="95"/>
-      <c r="BD34" s="95"/>
-      <c r="BE34" s="95"/>
-      <c r="BF34" s="95"/>
-      <c r="BG34" s="95"/>
-      <c r="BH34" s="95"/>
-      <c r="BI34" s="95"/>
-      <c r="BJ34" s="95"/>
-      <c r="BK34" s="95"/>
-      <c r="BL34" s="95"/>
-      <c r="BM34" s="95"/>
-      <c r="BN34" s="95"/>
-      <c r="BO34" s="95"/>
-      <c r="BP34" s="95"/>
-      <c r="BQ34" s="95"/>
-      <c r="BR34" s="95"/>
-      <c r="BS34" s="95"/>
-      <c r="BT34" s="95"/>
-      <c r="BU34" s="95"/>
-      <c r="BV34" s="95"/>
-      <c r="BW34" s="95"/>
-      <c r="BX34" s="95"/>
-      <c r="BY34" s="95"/>
-      <c r="BZ34" s="95"/>
-      <c r="CA34" s="95"/>
-      <c r="CB34" s="96"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="113"/>
+      <c r="L34" s="113"/>
+      <c r="M34" s="113"/>
+      <c r="N34" s="113"/>
+      <c r="O34" s="113"/>
+      <c r="P34" s="113"/>
+      <c r="Q34" s="113"/>
+      <c r="R34" s="113"/>
+      <c r="S34" s="113"/>
+      <c r="T34" s="113"/>
+      <c r="U34" s="113"/>
+      <c r="V34" s="113"/>
+      <c r="W34" s="113"/>
+      <c r="X34" s="113"/>
+      <c r="Y34" s="113"/>
+      <c r="Z34" s="113"/>
+      <c r="AA34" s="113"/>
+      <c r="AB34" s="113"/>
+      <c r="AC34" s="113"/>
+      <c r="AD34" s="113"/>
+      <c r="AE34" s="113"/>
+      <c r="AF34" s="113"/>
+      <c r="AG34" s="113"/>
+      <c r="AH34" s="113"/>
+      <c r="AI34" s="113"/>
+      <c r="AJ34" s="113"/>
+      <c r="AK34" s="113"/>
+      <c r="AL34" s="113"/>
+      <c r="AM34" s="113"/>
+      <c r="AN34" s="114"/>
+      <c r="AQ34" s="112"/>
+      <c r="AR34" s="113"/>
+      <c r="AS34" s="113"/>
+      <c r="AT34" s="113"/>
+      <c r="AU34" s="113"/>
+      <c r="AV34" s="113"/>
+      <c r="AW34" s="113"/>
+      <c r="AX34" s="113"/>
+      <c r="AY34" s="113"/>
+      <c r="AZ34" s="113"/>
+      <c r="BA34" s="113"/>
+      <c r="BB34" s="113"/>
+      <c r="BC34" s="113"/>
+      <c r="BD34" s="113"/>
+      <c r="BE34" s="113"/>
+      <c r="BF34" s="113"/>
+      <c r="BG34" s="113"/>
+      <c r="BH34" s="113"/>
+      <c r="BI34" s="113"/>
+      <c r="BJ34" s="113"/>
+      <c r="BK34" s="113"/>
+      <c r="BL34" s="113"/>
+      <c r="BM34" s="113"/>
+      <c r="BN34" s="113"/>
+      <c r="BO34" s="113"/>
+      <c r="BP34" s="113"/>
+      <c r="BQ34" s="113"/>
+      <c r="BR34" s="113"/>
+      <c r="BS34" s="113"/>
+      <c r="BT34" s="113"/>
+      <c r="BU34" s="113"/>
+      <c r="BV34" s="113"/>
+      <c r="BW34" s="113"/>
+      <c r="BX34" s="113"/>
+      <c r="BY34" s="113"/>
+      <c r="BZ34" s="113"/>
+      <c r="CA34" s="113"/>
+      <c r="CB34" s="114"/>
     </row>
     <row r="35" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C35" s="94"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="95"/>
-      <c r="N35" s="95"/>
-      <c r="O35" s="95"/>
-      <c r="P35" s="95"/>
-      <c r="Q35" s="95"/>
-      <c r="R35" s="95"/>
-      <c r="S35" s="95"/>
-      <c r="T35" s="95"/>
-      <c r="U35" s="95"/>
-      <c r="V35" s="95"/>
-      <c r="W35" s="95"/>
-      <c r="X35" s="95"/>
-      <c r="Y35" s="95"/>
-      <c r="Z35" s="95"/>
-      <c r="AA35" s="95"/>
-      <c r="AB35" s="95"/>
-      <c r="AC35" s="95"/>
-      <c r="AD35" s="95"/>
-      <c r="AE35" s="95"/>
-      <c r="AF35" s="95"/>
-      <c r="AG35" s="95"/>
-      <c r="AH35" s="95"/>
-      <c r="AI35" s="95"/>
-      <c r="AJ35" s="95"/>
-      <c r="AK35" s="95"/>
-      <c r="AL35" s="95"/>
-      <c r="AM35" s="95"/>
-      <c r="AN35" s="96"/>
-      <c r="AQ35" s="94"/>
-      <c r="AR35" s="95"/>
-      <c r="AS35" s="95"/>
-      <c r="AT35" s="95"/>
-      <c r="AU35" s="95"/>
-      <c r="AV35" s="95"/>
-      <c r="AW35" s="95"/>
-      <c r="AX35" s="95"/>
-      <c r="AY35" s="95"/>
-      <c r="AZ35" s="95"/>
-      <c r="BA35" s="95"/>
-      <c r="BB35" s="95"/>
-      <c r="BC35" s="95"/>
-      <c r="BD35" s="95"/>
-      <c r="BE35" s="95"/>
-      <c r="BF35" s="95"/>
-      <c r="BG35" s="95"/>
-      <c r="BH35" s="95"/>
-      <c r="BI35" s="95"/>
-      <c r="BJ35" s="95"/>
-      <c r="BK35" s="95"/>
-      <c r="BL35" s="95"/>
-      <c r="BM35" s="95"/>
-      <c r="BN35" s="95"/>
-      <c r="BO35" s="95"/>
-      <c r="BP35" s="95"/>
-      <c r="BQ35" s="95"/>
-      <c r="BR35" s="95"/>
-      <c r="BS35" s="95"/>
-      <c r="BT35" s="95"/>
-      <c r="BU35" s="95"/>
-      <c r="BV35" s="95"/>
-      <c r="BW35" s="95"/>
-      <c r="BX35" s="95"/>
-      <c r="BY35" s="95"/>
-      <c r="BZ35" s="95"/>
-      <c r="CA35" s="95"/>
-      <c r="CB35" s="96"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="113"/>
+      <c r="L35" s="113"/>
+      <c r="M35" s="113"/>
+      <c r="N35" s="113"/>
+      <c r="O35" s="113"/>
+      <c r="P35" s="113"/>
+      <c r="Q35" s="113"/>
+      <c r="R35" s="113"/>
+      <c r="S35" s="113"/>
+      <c r="T35" s="113"/>
+      <c r="U35" s="113"/>
+      <c r="V35" s="113"/>
+      <c r="W35" s="113"/>
+      <c r="X35" s="113"/>
+      <c r="Y35" s="113"/>
+      <c r="Z35" s="113"/>
+      <c r="AA35" s="113"/>
+      <c r="AB35" s="113"/>
+      <c r="AC35" s="113"/>
+      <c r="AD35" s="113"/>
+      <c r="AE35" s="113"/>
+      <c r="AF35" s="113"/>
+      <c r="AG35" s="113"/>
+      <c r="AH35" s="113"/>
+      <c r="AI35" s="113"/>
+      <c r="AJ35" s="113"/>
+      <c r="AK35" s="113"/>
+      <c r="AL35" s="113"/>
+      <c r="AM35" s="113"/>
+      <c r="AN35" s="114"/>
+      <c r="AQ35" s="112"/>
+      <c r="AR35" s="113"/>
+      <c r="AS35" s="113"/>
+      <c r="AT35" s="113"/>
+      <c r="AU35" s="113"/>
+      <c r="AV35" s="113"/>
+      <c r="AW35" s="113"/>
+      <c r="AX35" s="113"/>
+      <c r="AY35" s="113"/>
+      <c r="AZ35" s="113"/>
+      <c r="BA35" s="113"/>
+      <c r="BB35" s="113"/>
+      <c r="BC35" s="113"/>
+      <c r="BD35" s="113"/>
+      <c r="BE35" s="113"/>
+      <c r="BF35" s="113"/>
+      <c r="BG35" s="113"/>
+      <c r="BH35" s="113"/>
+      <c r="BI35" s="113"/>
+      <c r="BJ35" s="113"/>
+      <c r="BK35" s="113"/>
+      <c r="BL35" s="113"/>
+      <c r="BM35" s="113"/>
+      <c r="BN35" s="113"/>
+      <c r="BO35" s="113"/>
+      <c r="BP35" s="113"/>
+      <c r="BQ35" s="113"/>
+      <c r="BR35" s="113"/>
+      <c r="BS35" s="113"/>
+      <c r="BT35" s="113"/>
+      <c r="BU35" s="113"/>
+      <c r="BV35" s="113"/>
+      <c r="BW35" s="113"/>
+      <c r="BX35" s="113"/>
+      <c r="BY35" s="113"/>
+      <c r="BZ35" s="113"/>
+      <c r="CA35" s="113"/>
+      <c r="CB35" s="114"/>
     </row>
     <row r="36" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C36" s="94"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="95"/>
-      <c r="H36" s="95"/>
-      <c r="I36" s="95"/>
-      <c r="J36" s="95"/>
-      <c r="K36" s="95"/>
-      <c r="L36" s="95"/>
-      <c r="M36" s="95"/>
-      <c r="N36" s="95"/>
-      <c r="O36" s="95"/>
-      <c r="P36" s="95"/>
-      <c r="Q36" s="95"/>
-      <c r="R36" s="95"/>
-      <c r="S36" s="95"/>
-      <c r="T36" s="95"/>
-      <c r="U36" s="95"/>
-      <c r="V36" s="95"/>
-      <c r="W36" s="95"/>
-      <c r="X36" s="95"/>
-      <c r="Y36" s="95"/>
-      <c r="Z36" s="95"/>
-      <c r="AA36" s="95"/>
-      <c r="AB36" s="95"/>
-      <c r="AC36" s="95"/>
-      <c r="AD36" s="95"/>
-      <c r="AE36" s="95"/>
-      <c r="AF36" s="95"/>
-      <c r="AG36" s="95"/>
-      <c r="AH36" s="95"/>
-      <c r="AI36" s="95"/>
-      <c r="AJ36" s="95"/>
-      <c r="AK36" s="95"/>
-      <c r="AL36" s="95"/>
-      <c r="AM36" s="95"/>
-      <c r="AN36" s="96"/>
-      <c r="AQ36" s="94"/>
-      <c r="AR36" s="95"/>
-      <c r="AS36" s="95"/>
-      <c r="AT36" s="95"/>
-      <c r="AU36" s="95"/>
-      <c r="AV36" s="95"/>
-      <c r="AW36" s="95"/>
-      <c r="AX36" s="95"/>
-      <c r="AY36" s="95"/>
-      <c r="AZ36" s="95"/>
-      <c r="BA36" s="95"/>
-      <c r="BB36" s="95"/>
-      <c r="BC36" s="95"/>
-      <c r="BD36" s="95"/>
-      <c r="BE36" s="95"/>
-      <c r="BF36" s="95"/>
-      <c r="BG36" s="95"/>
-      <c r="BH36" s="95"/>
-      <c r="BI36" s="95"/>
-      <c r="BJ36" s="95"/>
-      <c r="BK36" s="95"/>
-      <c r="BL36" s="95"/>
-      <c r="BM36" s="95"/>
-      <c r="BN36" s="95"/>
-      <c r="BO36" s="95"/>
-      <c r="BP36" s="95"/>
-      <c r="BQ36" s="95"/>
-      <c r="BR36" s="95"/>
-      <c r="BS36" s="95"/>
-      <c r="BT36" s="95"/>
-      <c r="BU36" s="95"/>
-      <c r="BV36" s="95"/>
-      <c r="BW36" s="95"/>
-      <c r="BX36" s="95"/>
-      <c r="BY36" s="95"/>
-      <c r="BZ36" s="95"/>
-      <c r="CA36" s="95"/>
-      <c r="CB36" s="96"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="113"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="113"/>
+      <c r="L36" s="113"/>
+      <c r="M36" s="113"/>
+      <c r="N36" s="113"/>
+      <c r="O36" s="113"/>
+      <c r="P36" s="113"/>
+      <c r="Q36" s="113"/>
+      <c r="R36" s="113"/>
+      <c r="S36" s="113"/>
+      <c r="T36" s="113"/>
+      <c r="U36" s="113"/>
+      <c r="V36" s="113"/>
+      <c r="W36" s="113"/>
+      <c r="X36" s="113"/>
+      <c r="Y36" s="113"/>
+      <c r="Z36" s="113"/>
+      <c r="AA36" s="113"/>
+      <c r="AB36" s="113"/>
+      <c r="AC36" s="113"/>
+      <c r="AD36" s="113"/>
+      <c r="AE36" s="113"/>
+      <c r="AF36" s="113"/>
+      <c r="AG36" s="113"/>
+      <c r="AH36" s="113"/>
+      <c r="AI36" s="113"/>
+      <c r="AJ36" s="113"/>
+      <c r="AK36" s="113"/>
+      <c r="AL36" s="113"/>
+      <c r="AM36" s="113"/>
+      <c r="AN36" s="114"/>
+      <c r="AQ36" s="112"/>
+      <c r="AR36" s="113"/>
+      <c r="AS36" s="113"/>
+      <c r="AT36" s="113"/>
+      <c r="AU36" s="113"/>
+      <c r="AV36" s="113"/>
+      <c r="AW36" s="113"/>
+      <c r="AX36" s="113"/>
+      <c r="AY36" s="113"/>
+      <c r="AZ36" s="113"/>
+      <c r="BA36" s="113"/>
+      <c r="BB36" s="113"/>
+      <c r="BC36" s="113"/>
+      <c r="BD36" s="113"/>
+      <c r="BE36" s="113"/>
+      <c r="BF36" s="113"/>
+      <c r="BG36" s="113"/>
+      <c r="BH36" s="113"/>
+      <c r="BI36" s="113"/>
+      <c r="BJ36" s="113"/>
+      <c r="BK36" s="113"/>
+      <c r="BL36" s="113"/>
+      <c r="BM36" s="113"/>
+      <c r="BN36" s="113"/>
+      <c r="BO36" s="113"/>
+      <c r="BP36" s="113"/>
+      <c r="BQ36" s="113"/>
+      <c r="BR36" s="113"/>
+      <c r="BS36" s="113"/>
+      <c r="BT36" s="113"/>
+      <c r="BU36" s="113"/>
+      <c r="BV36" s="113"/>
+      <c r="BW36" s="113"/>
+      <c r="BX36" s="113"/>
+      <c r="BY36" s="113"/>
+      <c r="BZ36" s="113"/>
+      <c r="CA36" s="113"/>
+      <c r="CB36" s="114"/>
     </row>
     <row r="37" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C37" s="94"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="95"/>
-      <c r="L37" s="95"/>
-      <c r="M37" s="95"/>
-      <c r="N37" s="95"/>
-      <c r="O37" s="95"/>
-      <c r="P37" s="95"/>
-      <c r="Q37" s="95"/>
-      <c r="R37" s="95"/>
-      <c r="S37" s="95"/>
-      <c r="T37" s="95"/>
-      <c r="U37" s="95"/>
-      <c r="V37" s="95"/>
-      <c r="W37" s="95"/>
-      <c r="X37" s="95"/>
-      <c r="Y37" s="95"/>
-      <c r="Z37" s="95"/>
-      <c r="AA37" s="95"/>
-      <c r="AB37" s="95"/>
-      <c r="AC37" s="95"/>
-      <c r="AD37" s="95"/>
-      <c r="AE37" s="95"/>
-      <c r="AF37" s="95"/>
-      <c r="AG37" s="95"/>
-      <c r="AH37" s="95"/>
-      <c r="AI37" s="95"/>
-      <c r="AJ37" s="95"/>
-      <c r="AK37" s="95"/>
-      <c r="AL37" s="95"/>
-      <c r="AM37" s="95"/>
-      <c r="AN37" s="96"/>
-      <c r="AQ37" s="94"/>
-      <c r="AR37" s="95"/>
-      <c r="AS37" s="95"/>
-      <c r="AT37" s="95"/>
-      <c r="AU37" s="95"/>
-      <c r="AV37" s="95"/>
-      <c r="AW37" s="95"/>
-      <c r="AX37" s="95"/>
-      <c r="AY37" s="95"/>
-      <c r="AZ37" s="95"/>
-      <c r="BA37" s="95"/>
-      <c r="BB37" s="95"/>
-      <c r="BC37" s="95"/>
-      <c r="BD37" s="95"/>
-      <c r="BE37" s="95"/>
-      <c r="BF37" s="95"/>
-      <c r="BG37" s="95"/>
-      <c r="BH37" s="95"/>
-      <c r="BI37" s="95"/>
-      <c r="BJ37" s="95"/>
-      <c r="BK37" s="95"/>
-      <c r="BL37" s="95"/>
-      <c r="BM37" s="95"/>
-      <c r="BN37" s="95"/>
-      <c r="BO37" s="95"/>
-      <c r="BP37" s="95"/>
-      <c r="BQ37" s="95"/>
-      <c r="BR37" s="95"/>
-      <c r="BS37" s="95"/>
-      <c r="BT37" s="95"/>
-      <c r="BU37" s="95"/>
-      <c r="BV37" s="95"/>
-      <c r="BW37" s="95"/>
-      <c r="BX37" s="95"/>
-      <c r="BY37" s="95"/>
-      <c r="BZ37" s="95"/>
-      <c r="CA37" s="95"/>
-      <c r="CB37" s="96"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="113"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="113"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="113"/>
+      <c r="K37" s="113"/>
+      <c r="L37" s="113"/>
+      <c r="M37" s="113"/>
+      <c r="N37" s="113"/>
+      <c r="O37" s="113"/>
+      <c r="P37" s="113"/>
+      <c r="Q37" s="113"/>
+      <c r="R37" s="113"/>
+      <c r="S37" s="113"/>
+      <c r="T37" s="113"/>
+      <c r="U37" s="113"/>
+      <c r="V37" s="113"/>
+      <c r="W37" s="113"/>
+      <c r="X37" s="113"/>
+      <c r="Y37" s="113"/>
+      <c r="Z37" s="113"/>
+      <c r="AA37" s="113"/>
+      <c r="AB37" s="113"/>
+      <c r="AC37" s="113"/>
+      <c r="AD37" s="113"/>
+      <c r="AE37" s="113"/>
+      <c r="AF37" s="113"/>
+      <c r="AG37" s="113"/>
+      <c r="AH37" s="113"/>
+      <c r="AI37" s="113"/>
+      <c r="AJ37" s="113"/>
+      <c r="AK37" s="113"/>
+      <c r="AL37" s="113"/>
+      <c r="AM37" s="113"/>
+      <c r="AN37" s="114"/>
+      <c r="AQ37" s="112"/>
+      <c r="AR37" s="113"/>
+      <c r="AS37" s="113"/>
+      <c r="AT37" s="113"/>
+      <c r="AU37" s="113"/>
+      <c r="AV37" s="113"/>
+      <c r="AW37" s="113"/>
+      <c r="AX37" s="113"/>
+      <c r="AY37" s="113"/>
+      <c r="AZ37" s="113"/>
+      <c r="BA37" s="113"/>
+      <c r="BB37" s="113"/>
+      <c r="BC37" s="113"/>
+      <c r="BD37" s="113"/>
+      <c r="BE37" s="113"/>
+      <c r="BF37" s="113"/>
+      <c r="BG37" s="113"/>
+      <c r="BH37" s="113"/>
+      <c r="BI37" s="113"/>
+      <c r="BJ37" s="113"/>
+      <c r="BK37" s="113"/>
+      <c r="BL37" s="113"/>
+      <c r="BM37" s="113"/>
+      <c r="BN37" s="113"/>
+      <c r="BO37" s="113"/>
+      <c r="BP37" s="113"/>
+      <c r="BQ37" s="113"/>
+      <c r="BR37" s="113"/>
+      <c r="BS37" s="113"/>
+      <c r="BT37" s="113"/>
+      <c r="BU37" s="113"/>
+      <c r="BV37" s="113"/>
+      <c r="BW37" s="113"/>
+      <c r="BX37" s="113"/>
+      <c r="BY37" s="113"/>
+      <c r="BZ37" s="113"/>
+      <c r="CA37" s="113"/>
+      <c r="CB37" s="114"/>
     </row>
     <row r="38" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C38" s="94"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="95"/>
-      <c r="G38" s="95"/>
-      <c r="H38" s="95"/>
-      <c r="I38" s="95"/>
-      <c r="J38" s="95"/>
-      <c r="K38" s="95"/>
-      <c r="L38" s="95"/>
-      <c r="M38" s="95"/>
-      <c r="N38" s="95"/>
-      <c r="O38" s="95"/>
-      <c r="P38" s="95"/>
-      <c r="Q38" s="95"/>
-      <c r="R38" s="95"/>
-      <c r="S38" s="95"/>
-      <c r="T38" s="95"/>
-      <c r="U38" s="95"/>
-      <c r="V38" s="95"/>
-      <c r="W38" s="95"/>
-      <c r="X38" s="95"/>
-      <c r="Y38" s="95"/>
-      <c r="Z38" s="95"/>
-      <c r="AA38" s="95"/>
-      <c r="AB38" s="95"/>
-      <c r="AC38" s="95"/>
-      <c r="AD38" s="95"/>
-      <c r="AE38" s="95"/>
-      <c r="AF38" s="95"/>
-      <c r="AG38" s="95"/>
-      <c r="AH38" s="95"/>
-      <c r="AI38" s="95"/>
-      <c r="AJ38" s="95"/>
-      <c r="AK38" s="95"/>
-      <c r="AL38" s="95"/>
-      <c r="AM38" s="95"/>
-      <c r="AN38" s="96"/>
-      <c r="AQ38" s="94"/>
-      <c r="AR38" s="95"/>
-      <c r="AS38" s="95"/>
-      <c r="AT38" s="95"/>
-      <c r="AU38" s="95"/>
-      <c r="AV38" s="95"/>
-      <c r="AW38" s="95"/>
-      <c r="AX38" s="95"/>
-      <c r="AY38" s="95"/>
-      <c r="AZ38" s="95"/>
-      <c r="BA38" s="95"/>
-      <c r="BB38" s="95"/>
-      <c r="BC38" s="95"/>
-      <c r="BD38" s="95"/>
-      <c r="BE38" s="95"/>
-      <c r="BF38" s="95"/>
-      <c r="BG38" s="95"/>
-      <c r="BH38" s="95"/>
-      <c r="BI38" s="95"/>
-      <c r="BJ38" s="95"/>
-      <c r="BK38" s="95"/>
-      <c r="BL38" s="95"/>
-      <c r="BM38" s="95"/>
-      <c r="BN38" s="95"/>
-      <c r="BO38" s="95"/>
-      <c r="BP38" s="95"/>
-      <c r="BQ38" s="95"/>
-      <c r="BR38" s="95"/>
-      <c r="BS38" s="95"/>
-      <c r="BT38" s="95"/>
-      <c r="BU38" s="95"/>
-      <c r="BV38" s="95"/>
-      <c r="BW38" s="95"/>
-      <c r="BX38" s="95"/>
-      <c r="BY38" s="95"/>
-      <c r="BZ38" s="95"/>
-      <c r="CA38" s="95"/>
-      <c r="CB38" s="96"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="113"/>
+      <c r="K38" s="113"/>
+      <c r="L38" s="113"/>
+      <c r="M38" s="113"/>
+      <c r="N38" s="113"/>
+      <c r="O38" s="113"/>
+      <c r="P38" s="113"/>
+      <c r="Q38" s="113"/>
+      <c r="R38" s="113"/>
+      <c r="S38" s="113"/>
+      <c r="T38" s="113"/>
+      <c r="U38" s="113"/>
+      <c r="V38" s="113"/>
+      <c r="W38" s="113"/>
+      <c r="X38" s="113"/>
+      <c r="Y38" s="113"/>
+      <c r="Z38" s="113"/>
+      <c r="AA38" s="113"/>
+      <c r="AB38" s="113"/>
+      <c r="AC38" s="113"/>
+      <c r="AD38" s="113"/>
+      <c r="AE38" s="113"/>
+      <c r="AF38" s="113"/>
+      <c r="AG38" s="113"/>
+      <c r="AH38" s="113"/>
+      <c r="AI38" s="113"/>
+      <c r="AJ38" s="113"/>
+      <c r="AK38" s="113"/>
+      <c r="AL38" s="113"/>
+      <c r="AM38" s="113"/>
+      <c r="AN38" s="114"/>
+      <c r="AQ38" s="112"/>
+      <c r="AR38" s="113"/>
+      <c r="AS38" s="113"/>
+      <c r="AT38" s="113"/>
+      <c r="AU38" s="113"/>
+      <c r="AV38" s="113"/>
+      <c r="AW38" s="113"/>
+      <c r="AX38" s="113"/>
+      <c r="AY38" s="113"/>
+      <c r="AZ38" s="113"/>
+      <c r="BA38" s="113"/>
+      <c r="BB38" s="113"/>
+      <c r="BC38" s="113"/>
+      <c r="BD38" s="113"/>
+      <c r="BE38" s="113"/>
+      <c r="BF38" s="113"/>
+      <c r="BG38" s="113"/>
+      <c r="BH38" s="113"/>
+      <c r="BI38" s="113"/>
+      <c r="BJ38" s="113"/>
+      <c r="BK38" s="113"/>
+      <c r="BL38" s="113"/>
+      <c r="BM38" s="113"/>
+      <c r="BN38" s="113"/>
+      <c r="BO38" s="113"/>
+      <c r="BP38" s="113"/>
+      <c r="BQ38" s="113"/>
+      <c r="BR38" s="113"/>
+      <c r="BS38" s="113"/>
+      <c r="BT38" s="113"/>
+      <c r="BU38" s="113"/>
+      <c r="BV38" s="113"/>
+      <c r="BW38" s="113"/>
+      <c r="BX38" s="113"/>
+      <c r="BY38" s="113"/>
+      <c r="BZ38" s="113"/>
+      <c r="CA38" s="113"/>
+      <c r="CB38" s="114"/>
     </row>
     <row r="39" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C39" s="94"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="95"/>
-      <c r="I39" s="95"/>
-      <c r="J39" s="95"/>
-      <c r="K39" s="95"/>
-      <c r="L39" s="95"/>
-      <c r="M39" s="95"/>
-      <c r="N39" s="95"/>
-      <c r="O39" s="95"/>
-      <c r="P39" s="95"/>
-      <c r="Q39" s="95"/>
-      <c r="R39" s="95"/>
-      <c r="S39" s="95"/>
-      <c r="T39" s="95"/>
-      <c r="U39" s="95"/>
-      <c r="V39" s="95"/>
-      <c r="W39" s="95"/>
-      <c r="X39" s="95"/>
-      <c r="Y39" s="95"/>
-      <c r="Z39" s="95"/>
-      <c r="AA39" s="95"/>
-      <c r="AB39" s="95"/>
-      <c r="AC39" s="95"/>
-      <c r="AD39" s="95"/>
-      <c r="AE39" s="95"/>
-      <c r="AF39" s="95"/>
-      <c r="AG39" s="95"/>
-      <c r="AH39" s="95"/>
-      <c r="AI39" s="95"/>
-      <c r="AJ39" s="95"/>
-      <c r="AK39" s="95"/>
-      <c r="AL39" s="95"/>
-      <c r="AM39" s="95"/>
-      <c r="AN39" s="96"/>
-      <c r="AQ39" s="94"/>
-      <c r="AR39" s="95"/>
-      <c r="AS39" s="95"/>
-      <c r="AT39" s="95"/>
-      <c r="AU39" s="95"/>
-      <c r="AV39" s="95"/>
-      <c r="AW39" s="95"/>
-      <c r="AX39" s="95"/>
-      <c r="AY39" s="95"/>
-      <c r="AZ39" s="95"/>
-      <c r="BA39" s="95"/>
-      <c r="BB39" s="95"/>
-      <c r="BC39" s="95"/>
-      <c r="BD39" s="95"/>
-      <c r="BE39" s="95"/>
-      <c r="BF39" s="95"/>
-      <c r="BG39" s="95"/>
-      <c r="BH39" s="95"/>
-      <c r="BI39" s="95"/>
-      <c r="BJ39" s="95"/>
-      <c r="BK39" s="95"/>
-      <c r="BL39" s="95"/>
-      <c r="BM39" s="95"/>
-      <c r="BN39" s="95"/>
-      <c r="BO39" s="95"/>
-      <c r="BP39" s="95"/>
-      <c r="BQ39" s="95"/>
-      <c r="BR39" s="95"/>
-      <c r="BS39" s="95"/>
-      <c r="BT39" s="95"/>
-      <c r="BU39" s="95"/>
-      <c r="BV39" s="95"/>
-      <c r="BW39" s="95"/>
-      <c r="BX39" s="95"/>
-      <c r="BY39" s="95"/>
-      <c r="BZ39" s="95"/>
-      <c r="CA39" s="95"/>
-      <c r="CB39" s="96"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="113"/>
+      <c r="I39" s="113"/>
+      <c r="J39" s="113"/>
+      <c r="K39" s="113"/>
+      <c r="L39" s="113"/>
+      <c r="M39" s="113"/>
+      <c r="N39" s="113"/>
+      <c r="O39" s="113"/>
+      <c r="P39" s="113"/>
+      <c r="Q39" s="113"/>
+      <c r="R39" s="113"/>
+      <c r="S39" s="113"/>
+      <c r="T39" s="113"/>
+      <c r="U39" s="113"/>
+      <c r="V39" s="113"/>
+      <c r="W39" s="113"/>
+      <c r="X39" s="113"/>
+      <c r="Y39" s="113"/>
+      <c r="Z39" s="113"/>
+      <c r="AA39" s="113"/>
+      <c r="AB39" s="113"/>
+      <c r="AC39" s="113"/>
+      <c r="AD39" s="113"/>
+      <c r="AE39" s="113"/>
+      <c r="AF39" s="113"/>
+      <c r="AG39" s="113"/>
+      <c r="AH39" s="113"/>
+      <c r="AI39" s="113"/>
+      <c r="AJ39" s="113"/>
+      <c r="AK39" s="113"/>
+      <c r="AL39" s="113"/>
+      <c r="AM39" s="113"/>
+      <c r="AN39" s="114"/>
+      <c r="AQ39" s="112"/>
+      <c r="AR39" s="113"/>
+      <c r="AS39" s="113"/>
+      <c r="AT39" s="113"/>
+      <c r="AU39" s="113"/>
+      <c r="AV39" s="113"/>
+      <c r="AW39" s="113"/>
+      <c r="AX39" s="113"/>
+      <c r="AY39" s="113"/>
+      <c r="AZ39" s="113"/>
+      <c r="BA39" s="113"/>
+      <c r="BB39" s="113"/>
+      <c r="BC39" s="113"/>
+      <c r="BD39" s="113"/>
+      <c r="BE39" s="113"/>
+      <c r="BF39" s="113"/>
+      <c r="BG39" s="113"/>
+      <c r="BH39" s="113"/>
+      <c r="BI39" s="113"/>
+      <c r="BJ39" s="113"/>
+      <c r="BK39" s="113"/>
+      <c r="BL39" s="113"/>
+      <c r="BM39" s="113"/>
+      <c r="BN39" s="113"/>
+      <c r="BO39" s="113"/>
+      <c r="BP39" s="113"/>
+      <c r="BQ39" s="113"/>
+      <c r="BR39" s="113"/>
+      <c r="BS39" s="113"/>
+      <c r="BT39" s="113"/>
+      <c r="BU39" s="113"/>
+      <c r="BV39" s="113"/>
+      <c r="BW39" s="113"/>
+      <c r="BX39" s="113"/>
+      <c r="BY39" s="113"/>
+      <c r="BZ39" s="113"/>
+      <c r="CA39" s="113"/>
+      <c r="CB39" s="114"/>
     </row>
     <row r="40" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C40" s="94"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="95"/>
-      <c r="G40" s="95"/>
-      <c r="H40" s="95"/>
-      <c r="I40" s="95"/>
-      <c r="J40" s="95"/>
-      <c r="K40" s="95"/>
-      <c r="L40" s="95"/>
-      <c r="M40" s="95"/>
-      <c r="N40" s="95"/>
-      <c r="O40" s="95"/>
-      <c r="P40" s="95"/>
-      <c r="Q40" s="95"/>
-      <c r="R40" s="95"/>
-      <c r="S40" s="95"/>
-      <c r="T40" s="95"/>
-      <c r="U40" s="95"/>
-      <c r="V40" s="95"/>
-      <c r="W40" s="95"/>
-      <c r="X40" s="95"/>
-      <c r="Y40" s="95"/>
-      <c r="Z40" s="95"/>
-      <c r="AA40" s="95"/>
-      <c r="AB40" s="95"/>
-      <c r="AC40" s="95"/>
-      <c r="AD40" s="95"/>
-      <c r="AE40" s="95"/>
-      <c r="AF40" s="95"/>
-      <c r="AG40" s="95"/>
-      <c r="AH40" s="95"/>
-      <c r="AI40" s="95"/>
-      <c r="AJ40" s="95"/>
-      <c r="AK40" s="95"/>
-      <c r="AL40" s="95"/>
-      <c r="AM40" s="95"/>
-      <c r="AN40" s="96"/>
-      <c r="AQ40" s="94"/>
-      <c r="AR40" s="95"/>
-      <c r="AS40" s="95"/>
-      <c r="AT40" s="95"/>
-      <c r="AU40" s="95"/>
-      <c r="AV40" s="95"/>
-      <c r="AW40" s="95"/>
-      <c r="AX40" s="95"/>
-      <c r="AY40" s="95"/>
-      <c r="AZ40" s="95"/>
-      <c r="BA40" s="95"/>
-      <c r="BB40" s="95"/>
-      <c r="BC40" s="95"/>
-      <c r="BD40" s="95"/>
-      <c r="BE40" s="95"/>
-      <c r="BF40" s="95"/>
-      <c r="BG40" s="95"/>
-      <c r="BH40" s="95"/>
-      <c r="BI40" s="95"/>
-      <c r="BJ40" s="95"/>
-      <c r="BK40" s="95"/>
-      <c r="BL40" s="95"/>
-      <c r="BM40" s="95"/>
-      <c r="BN40" s="95"/>
-      <c r="BO40" s="95"/>
-      <c r="BP40" s="95"/>
-      <c r="BQ40" s="95"/>
-      <c r="BR40" s="95"/>
-      <c r="BS40" s="95"/>
-      <c r="BT40" s="95"/>
-      <c r="BU40" s="95"/>
-      <c r="BV40" s="95"/>
-      <c r="BW40" s="95"/>
-      <c r="BX40" s="95"/>
-      <c r="BY40" s="95"/>
-      <c r="BZ40" s="95"/>
-      <c r="CA40" s="95"/>
-      <c r="CB40" s="96"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="113"/>
+      <c r="L40" s="113"/>
+      <c r="M40" s="113"/>
+      <c r="N40" s="113"/>
+      <c r="O40" s="113"/>
+      <c r="P40" s="113"/>
+      <c r="Q40" s="113"/>
+      <c r="R40" s="113"/>
+      <c r="S40" s="113"/>
+      <c r="T40" s="113"/>
+      <c r="U40" s="113"/>
+      <c r="V40" s="113"/>
+      <c r="W40" s="113"/>
+      <c r="X40" s="113"/>
+      <c r="Y40" s="113"/>
+      <c r="Z40" s="113"/>
+      <c r="AA40" s="113"/>
+      <c r="AB40" s="113"/>
+      <c r="AC40" s="113"/>
+      <c r="AD40" s="113"/>
+      <c r="AE40" s="113"/>
+      <c r="AF40" s="113"/>
+      <c r="AG40" s="113"/>
+      <c r="AH40" s="113"/>
+      <c r="AI40" s="113"/>
+      <c r="AJ40" s="113"/>
+      <c r="AK40" s="113"/>
+      <c r="AL40" s="113"/>
+      <c r="AM40" s="113"/>
+      <c r="AN40" s="114"/>
+      <c r="AQ40" s="112"/>
+      <c r="AR40" s="113"/>
+      <c r="AS40" s="113"/>
+      <c r="AT40" s="113"/>
+      <c r="AU40" s="113"/>
+      <c r="AV40" s="113"/>
+      <c r="AW40" s="113"/>
+      <c r="AX40" s="113"/>
+      <c r="AY40" s="113"/>
+      <c r="AZ40" s="113"/>
+      <c r="BA40" s="113"/>
+      <c r="BB40" s="113"/>
+      <c r="BC40" s="113"/>
+      <c r="BD40" s="113"/>
+      <c r="BE40" s="113"/>
+      <c r="BF40" s="113"/>
+      <c r="BG40" s="113"/>
+      <c r="BH40" s="113"/>
+      <c r="BI40" s="113"/>
+      <c r="BJ40" s="113"/>
+      <c r="BK40" s="113"/>
+      <c r="BL40" s="113"/>
+      <c r="BM40" s="113"/>
+      <c r="BN40" s="113"/>
+      <c r="BO40" s="113"/>
+      <c r="BP40" s="113"/>
+      <c r="BQ40" s="113"/>
+      <c r="BR40" s="113"/>
+      <c r="BS40" s="113"/>
+      <c r="BT40" s="113"/>
+      <c r="BU40" s="113"/>
+      <c r="BV40" s="113"/>
+      <c r="BW40" s="113"/>
+      <c r="BX40" s="113"/>
+      <c r="BY40" s="113"/>
+      <c r="BZ40" s="113"/>
+      <c r="CA40" s="113"/>
+      <c r="CB40" s="114"/>
     </row>
     <row r="41" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C41" s="94"/>
-      <c r="D41" s="95"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="95"/>
-      <c r="G41" s="95"/>
-      <c r="H41" s="95"/>
-      <c r="I41" s="95"/>
-      <c r="J41" s="95"/>
-      <c r="K41" s="95"/>
-      <c r="L41" s="95"/>
-      <c r="M41" s="95"/>
-      <c r="N41" s="95"/>
-      <c r="O41" s="95"/>
-      <c r="P41" s="95"/>
-      <c r="Q41" s="95"/>
-      <c r="R41" s="95"/>
-      <c r="S41" s="95"/>
-      <c r="T41" s="95"/>
-      <c r="U41" s="95"/>
-      <c r="V41" s="95"/>
-      <c r="W41" s="95"/>
-      <c r="X41" s="95"/>
-      <c r="Y41" s="95"/>
-      <c r="Z41" s="95"/>
-      <c r="AA41" s="95"/>
-      <c r="AB41" s="95"/>
-      <c r="AC41" s="95"/>
-      <c r="AD41" s="95"/>
-      <c r="AE41" s="95"/>
-      <c r="AF41" s="95"/>
-      <c r="AG41" s="95"/>
-      <c r="AH41" s="95"/>
-      <c r="AI41" s="95"/>
-      <c r="AJ41" s="95"/>
-      <c r="AK41" s="95"/>
-      <c r="AL41" s="95"/>
-      <c r="AM41" s="95"/>
-      <c r="AN41" s="96"/>
-      <c r="AQ41" s="94"/>
-      <c r="AR41" s="95"/>
-      <c r="AS41" s="95"/>
-      <c r="AT41" s="95"/>
-      <c r="AU41" s="95"/>
-      <c r="AV41" s="95"/>
-      <c r="AW41" s="95"/>
-      <c r="AX41" s="95"/>
-      <c r="AY41" s="95"/>
-      <c r="AZ41" s="95"/>
-      <c r="BA41" s="95"/>
-      <c r="BB41" s="95"/>
-      <c r="BC41" s="95"/>
-      <c r="BD41" s="95"/>
-      <c r="BE41" s="95"/>
-      <c r="BF41" s="95"/>
-      <c r="BG41" s="95"/>
-      <c r="BH41" s="95"/>
-      <c r="BI41" s="95"/>
-      <c r="BJ41" s="95"/>
-      <c r="BK41" s="95"/>
-      <c r="BL41" s="95"/>
-      <c r="BM41" s="95"/>
-      <c r="BN41" s="95"/>
-      <c r="BO41" s="95"/>
-      <c r="BP41" s="95"/>
-      <c r="BQ41" s="95"/>
-      <c r="BR41" s="95"/>
-      <c r="BS41" s="95"/>
-      <c r="BT41" s="95"/>
-      <c r="BU41" s="95"/>
-      <c r="BV41" s="95"/>
-      <c r="BW41" s="95"/>
-      <c r="BX41" s="95"/>
-      <c r="BY41" s="95"/>
-      <c r="BZ41" s="95"/>
-      <c r="CA41" s="95"/>
-      <c r="CB41" s="96"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="113"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="113"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="113"/>
+      <c r="K41" s="113"/>
+      <c r="L41" s="113"/>
+      <c r="M41" s="113"/>
+      <c r="N41" s="113"/>
+      <c r="O41" s="113"/>
+      <c r="P41" s="113"/>
+      <c r="Q41" s="113"/>
+      <c r="R41" s="113"/>
+      <c r="S41" s="113"/>
+      <c r="T41" s="113"/>
+      <c r="U41" s="113"/>
+      <c r="V41" s="113"/>
+      <c r="W41" s="113"/>
+      <c r="X41" s="113"/>
+      <c r="Y41" s="113"/>
+      <c r="Z41" s="113"/>
+      <c r="AA41" s="113"/>
+      <c r="AB41" s="113"/>
+      <c r="AC41" s="113"/>
+      <c r="AD41" s="113"/>
+      <c r="AE41" s="113"/>
+      <c r="AF41" s="113"/>
+      <c r="AG41" s="113"/>
+      <c r="AH41" s="113"/>
+      <c r="AI41" s="113"/>
+      <c r="AJ41" s="113"/>
+      <c r="AK41" s="113"/>
+      <c r="AL41" s="113"/>
+      <c r="AM41" s="113"/>
+      <c r="AN41" s="114"/>
+      <c r="AQ41" s="112"/>
+      <c r="AR41" s="113"/>
+      <c r="AS41" s="113"/>
+      <c r="AT41" s="113"/>
+      <c r="AU41" s="113"/>
+      <c r="AV41" s="113"/>
+      <c r="AW41" s="113"/>
+      <c r="AX41" s="113"/>
+      <c r="AY41" s="113"/>
+      <c r="AZ41" s="113"/>
+      <c r="BA41" s="113"/>
+      <c r="BB41" s="113"/>
+      <c r="BC41" s="113"/>
+      <c r="BD41" s="113"/>
+      <c r="BE41" s="113"/>
+      <c r="BF41" s="113"/>
+      <c r="BG41" s="113"/>
+      <c r="BH41" s="113"/>
+      <c r="BI41" s="113"/>
+      <c r="BJ41" s="113"/>
+      <c r="BK41" s="113"/>
+      <c r="BL41" s="113"/>
+      <c r="BM41" s="113"/>
+      <c r="BN41" s="113"/>
+      <c r="BO41" s="113"/>
+      <c r="BP41" s="113"/>
+      <c r="BQ41" s="113"/>
+      <c r="BR41" s="113"/>
+      <c r="BS41" s="113"/>
+      <c r="BT41" s="113"/>
+      <c r="BU41" s="113"/>
+      <c r="BV41" s="113"/>
+      <c r="BW41" s="113"/>
+      <c r="BX41" s="113"/>
+      <c r="BY41" s="113"/>
+      <c r="BZ41" s="113"/>
+      <c r="CA41" s="113"/>
+      <c r="CB41" s="114"/>
     </row>
     <row r="42" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C42" s="94"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="95"/>
-      <c r="H42" s="95"/>
-      <c r="I42" s="95"/>
-      <c r="J42" s="95"/>
-      <c r="K42" s="95"/>
-      <c r="L42" s="95"/>
-      <c r="M42" s="95"/>
-      <c r="N42" s="95"/>
-      <c r="O42" s="95"/>
-      <c r="P42" s="95"/>
-      <c r="Q42" s="95"/>
-      <c r="R42" s="95"/>
-      <c r="S42" s="95"/>
-      <c r="T42" s="95"/>
-      <c r="U42" s="95"/>
-      <c r="V42" s="95"/>
-      <c r="W42" s="95"/>
-      <c r="X42" s="95"/>
-      <c r="Y42" s="95"/>
-      <c r="Z42" s="95"/>
-      <c r="AA42" s="95"/>
-      <c r="AB42" s="95"/>
-      <c r="AC42" s="95"/>
-      <c r="AD42" s="95"/>
-      <c r="AE42" s="95"/>
-      <c r="AF42" s="95"/>
-      <c r="AG42" s="95"/>
-      <c r="AH42" s="95"/>
-      <c r="AI42" s="95"/>
-      <c r="AJ42" s="95"/>
-      <c r="AK42" s="95"/>
-      <c r="AL42" s="95"/>
-      <c r="AM42" s="95"/>
-      <c r="AN42" s="96"/>
-      <c r="AQ42" s="94"/>
-      <c r="AR42" s="95"/>
-      <c r="AS42" s="95"/>
-      <c r="AT42" s="95"/>
-      <c r="AU42" s="95"/>
-      <c r="AV42" s="95"/>
-      <c r="AW42" s="95"/>
-      <c r="AX42" s="95"/>
-      <c r="AY42" s="95"/>
-      <c r="AZ42" s="95"/>
-      <c r="BA42" s="95"/>
-      <c r="BB42" s="95"/>
-      <c r="BC42" s="95"/>
-      <c r="BD42" s="95"/>
-      <c r="BE42" s="95"/>
-      <c r="BF42" s="95"/>
-      <c r="BG42" s="95"/>
-      <c r="BH42" s="95"/>
-      <c r="BI42" s="95"/>
-      <c r="BJ42" s="95"/>
-      <c r="BK42" s="95"/>
-      <c r="BL42" s="95"/>
-      <c r="BM42" s="95"/>
-      <c r="BN42" s="95"/>
-      <c r="BO42" s="95"/>
-      <c r="BP42" s="95"/>
-      <c r="BQ42" s="95"/>
-      <c r="BR42" s="95"/>
-      <c r="BS42" s="95"/>
-      <c r="BT42" s="95"/>
-      <c r="BU42" s="95"/>
-      <c r="BV42" s="95"/>
-      <c r="BW42" s="95"/>
-      <c r="BX42" s="95"/>
-      <c r="BY42" s="95"/>
-      <c r="BZ42" s="95"/>
-      <c r="CA42" s="95"/>
-      <c r="CB42" s="96"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="113"/>
+      <c r="F42" s="113"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="113"/>
+      <c r="I42" s="113"/>
+      <c r="J42" s="113"/>
+      <c r="K42" s="113"/>
+      <c r="L42" s="113"/>
+      <c r="M42" s="113"/>
+      <c r="N42" s="113"/>
+      <c r="O42" s="113"/>
+      <c r="P42" s="113"/>
+      <c r="Q42" s="113"/>
+      <c r="R42" s="113"/>
+      <c r="S42" s="113"/>
+      <c r="T42" s="113"/>
+      <c r="U42" s="113"/>
+      <c r="V42" s="113"/>
+      <c r="W42" s="113"/>
+      <c r="X42" s="113"/>
+      <c r="Y42" s="113"/>
+      <c r="Z42" s="113"/>
+      <c r="AA42" s="113"/>
+      <c r="AB42" s="113"/>
+      <c r="AC42" s="113"/>
+      <c r="AD42" s="113"/>
+      <c r="AE42" s="113"/>
+      <c r="AF42" s="113"/>
+      <c r="AG42" s="113"/>
+      <c r="AH42" s="113"/>
+      <c r="AI42" s="113"/>
+      <c r="AJ42" s="113"/>
+      <c r="AK42" s="113"/>
+      <c r="AL42" s="113"/>
+      <c r="AM42" s="113"/>
+      <c r="AN42" s="114"/>
+      <c r="AQ42" s="112"/>
+      <c r="AR42" s="113"/>
+      <c r="AS42" s="113"/>
+      <c r="AT42" s="113"/>
+      <c r="AU42" s="113"/>
+      <c r="AV42" s="113"/>
+      <c r="AW42" s="113"/>
+      <c r="AX42" s="113"/>
+      <c r="AY42" s="113"/>
+      <c r="AZ42" s="113"/>
+      <c r="BA42" s="113"/>
+      <c r="BB42" s="113"/>
+      <c r="BC42" s="113"/>
+      <c r="BD42" s="113"/>
+      <c r="BE42" s="113"/>
+      <c r="BF42" s="113"/>
+      <c r="BG42" s="113"/>
+      <c r="BH42" s="113"/>
+      <c r="BI42" s="113"/>
+      <c r="BJ42" s="113"/>
+      <c r="BK42" s="113"/>
+      <c r="BL42" s="113"/>
+      <c r="BM42" s="113"/>
+      <c r="BN42" s="113"/>
+      <c r="BO42" s="113"/>
+      <c r="BP42" s="113"/>
+      <c r="BQ42" s="113"/>
+      <c r="BR42" s="113"/>
+      <c r="BS42" s="113"/>
+      <c r="BT42" s="113"/>
+      <c r="BU42" s="113"/>
+      <c r="BV42" s="113"/>
+      <c r="BW42" s="113"/>
+      <c r="BX42" s="113"/>
+      <c r="BY42" s="113"/>
+      <c r="BZ42" s="113"/>
+      <c r="CA42" s="113"/>
+      <c r="CB42" s="114"/>
     </row>
     <row r="43" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C43" s="94"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="95"/>
-      <c r="G43" s="95"/>
-      <c r="H43" s="95"/>
-      <c r="I43" s="95"/>
-      <c r="J43" s="95"/>
-      <c r="K43" s="95"/>
-      <c r="L43" s="95"/>
-      <c r="M43" s="95"/>
-      <c r="N43" s="95"/>
-      <c r="O43" s="95"/>
-      <c r="P43" s="95"/>
-      <c r="Q43" s="95"/>
-      <c r="R43" s="95"/>
-      <c r="S43" s="95"/>
-      <c r="T43" s="95"/>
-      <c r="U43" s="95"/>
-      <c r="V43" s="95"/>
-      <c r="W43" s="95"/>
-      <c r="X43" s="95"/>
-      <c r="Y43" s="95"/>
-      <c r="Z43" s="95"/>
-      <c r="AA43" s="95"/>
-      <c r="AB43" s="95"/>
-      <c r="AC43" s="95"/>
-      <c r="AD43" s="95"/>
-      <c r="AE43" s="95"/>
-      <c r="AF43" s="95"/>
-      <c r="AG43" s="95"/>
-      <c r="AH43" s="95"/>
-      <c r="AI43" s="95"/>
-      <c r="AJ43" s="95"/>
-      <c r="AK43" s="95"/>
-      <c r="AL43" s="95"/>
-      <c r="AM43" s="95"/>
-      <c r="AN43" s="96"/>
-      <c r="AQ43" s="94"/>
-      <c r="AR43" s="95"/>
-      <c r="AS43" s="95"/>
-      <c r="AT43" s="95"/>
-      <c r="AU43" s="95"/>
-      <c r="AV43" s="95"/>
-      <c r="AW43" s="95"/>
-      <c r="AX43" s="95"/>
-      <c r="AY43" s="95"/>
-      <c r="AZ43" s="95"/>
-      <c r="BA43" s="95"/>
-      <c r="BB43" s="95"/>
-      <c r="BC43" s="95"/>
-      <c r="BD43" s="95"/>
-      <c r="BE43" s="95"/>
-      <c r="BF43" s="95"/>
-      <c r="BG43" s="95"/>
-      <c r="BH43" s="95"/>
-      <c r="BI43" s="95"/>
-      <c r="BJ43" s="95"/>
-      <c r="BK43" s="95"/>
-      <c r="BL43" s="95"/>
-      <c r="BM43" s="95"/>
-      <c r="BN43" s="95"/>
-      <c r="BO43" s="95"/>
-      <c r="BP43" s="95"/>
-      <c r="BQ43" s="95"/>
-      <c r="BR43" s="95"/>
-      <c r="BS43" s="95"/>
-      <c r="BT43" s="95"/>
-      <c r="BU43" s="95"/>
-      <c r="BV43" s="95"/>
-      <c r="BW43" s="95"/>
-      <c r="BX43" s="95"/>
-      <c r="BY43" s="95"/>
-      <c r="BZ43" s="95"/>
-      <c r="CA43" s="95"/>
-      <c r="CB43" s="96"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="113"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="113"/>
+      <c r="I43" s="113"/>
+      <c r="J43" s="113"/>
+      <c r="K43" s="113"/>
+      <c r="L43" s="113"/>
+      <c r="M43" s="113"/>
+      <c r="N43" s="113"/>
+      <c r="O43" s="113"/>
+      <c r="P43" s="113"/>
+      <c r="Q43" s="113"/>
+      <c r="R43" s="113"/>
+      <c r="S43" s="113"/>
+      <c r="T43" s="113"/>
+      <c r="U43" s="113"/>
+      <c r="V43" s="113"/>
+      <c r="W43" s="113"/>
+      <c r="X43" s="113"/>
+      <c r="Y43" s="113"/>
+      <c r="Z43" s="113"/>
+      <c r="AA43" s="113"/>
+      <c r="AB43" s="113"/>
+      <c r="AC43" s="113"/>
+      <c r="AD43" s="113"/>
+      <c r="AE43" s="113"/>
+      <c r="AF43" s="113"/>
+      <c r="AG43" s="113"/>
+      <c r="AH43" s="113"/>
+      <c r="AI43" s="113"/>
+      <c r="AJ43" s="113"/>
+      <c r="AK43" s="113"/>
+      <c r="AL43" s="113"/>
+      <c r="AM43" s="113"/>
+      <c r="AN43" s="114"/>
+      <c r="AQ43" s="112"/>
+      <c r="AR43" s="113"/>
+      <c r="AS43" s="113"/>
+      <c r="AT43" s="113"/>
+      <c r="AU43" s="113"/>
+      <c r="AV43" s="113"/>
+      <c r="AW43" s="113"/>
+      <c r="AX43" s="113"/>
+      <c r="AY43" s="113"/>
+      <c r="AZ43" s="113"/>
+      <c r="BA43" s="113"/>
+      <c r="BB43" s="113"/>
+      <c r="BC43" s="113"/>
+      <c r="BD43" s="113"/>
+      <c r="BE43" s="113"/>
+      <c r="BF43" s="113"/>
+      <c r="BG43" s="113"/>
+      <c r="BH43" s="113"/>
+      <c r="BI43" s="113"/>
+      <c r="BJ43" s="113"/>
+      <c r="BK43" s="113"/>
+      <c r="BL43" s="113"/>
+      <c r="BM43" s="113"/>
+      <c r="BN43" s="113"/>
+      <c r="BO43" s="113"/>
+      <c r="BP43" s="113"/>
+      <c r="BQ43" s="113"/>
+      <c r="BR43" s="113"/>
+      <c r="BS43" s="113"/>
+      <c r="BT43" s="113"/>
+      <c r="BU43" s="113"/>
+      <c r="BV43" s="113"/>
+      <c r="BW43" s="113"/>
+      <c r="BX43" s="113"/>
+      <c r="BY43" s="113"/>
+      <c r="BZ43" s="113"/>
+      <c r="CA43" s="113"/>
+      <c r="CB43" s="114"/>
     </row>
     <row r="44" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C44" s="94"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="95"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="95"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="95"/>
-      <c r="K44" s="95"/>
-      <c r="L44" s="95"/>
-      <c r="M44" s="95"/>
-      <c r="N44" s="95"/>
-      <c r="O44" s="95"/>
-      <c r="P44" s="95"/>
-      <c r="Q44" s="95"/>
-      <c r="R44" s="95"/>
-      <c r="S44" s="95"/>
-      <c r="T44" s="95"/>
-      <c r="U44" s="95"/>
-      <c r="V44" s="95"/>
-      <c r="W44" s="95"/>
-      <c r="X44" s="95"/>
-      <c r="Y44" s="95"/>
-      <c r="Z44" s="95"/>
-      <c r="AA44" s="95"/>
-      <c r="AB44" s="95"/>
-      <c r="AC44" s="95"/>
-      <c r="AD44" s="95"/>
-      <c r="AE44" s="95"/>
-      <c r="AF44" s="95"/>
-      <c r="AG44" s="95"/>
-      <c r="AH44" s="95"/>
-      <c r="AI44" s="95"/>
-      <c r="AJ44" s="95"/>
-      <c r="AK44" s="95"/>
-      <c r="AL44" s="95"/>
-      <c r="AM44" s="95"/>
-      <c r="AN44" s="96"/>
-      <c r="AQ44" s="94"/>
-      <c r="AR44" s="95"/>
-      <c r="AS44" s="95"/>
-      <c r="AT44" s="95"/>
-      <c r="AU44" s="95"/>
-      <c r="AV44" s="95"/>
-      <c r="AW44" s="95"/>
-      <c r="AX44" s="95"/>
-      <c r="AY44" s="95"/>
-      <c r="AZ44" s="95"/>
-      <c r="BA44" s="95"/>
-      <c r="BB44" s="95"/>
-      <c r="BC44" s="95"/>
-      <c r="BD44" s="95"/>
-      <c r="BE44" s="95"/>
-      <c r="BF44" s="95"/>
-      <c r="BG44" s="95"/>
-      <c r="BH44" s="95"/>
-      <c r="BI44" s="95"/>
-      <c r="BJ44" s="95"/>
-      <c r="BK44" s="95"/>
-      <c r="BL44" s="95"/>
-      <c r="BM44" s="95"/>
-      <c r="BN44" s="95"/>
-      <c r="BO44" s="95"/>
-      <c r="BP44" s="95"/>
-      <c r="BQ44" s="95"/>
-      <c r="BR44" s="95"/>
-      <c r="BS44" s="95"/>
-      <c r="BT44" s="95"/>
-      <c r="BU44" s="95"/>
-      <c r="BV44" s="95"/>
-      <c r="BW44" s="95"/>
-      <c r="BX44" s="95"/>
-      <c r="BY44" s="95"/>
-      <c r="BZ44" s="95"/>
-      <c r="CA44" s="95"/>
-      <c r="CB44" s="96"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
+      <c r="G44" s="113"/>
+      <c r="H44" s="113"/>
+      <c r="I44" s="113"/>
+      <c r="J44" s="113"/>
+      <c r="K44" s="113"/>
+      <c r="L44" s="113"/>
+      <c r="M44" s="113"/>
+      <c r="N44" s="113"/>
+      <c r="O44" s="113"/>
+      <c r="P44" s="113"/>
+      <c r="Q44" s="113"/>
+      <c r="R44" s="113"/>
+      <c r="S44" s="113"/>
+      <c r="T44" s="113"/>
+      <c r="U44" s="113"/>
+      <c r="V44" s="113"/>
+      <c r="W44" s="113"/>
+      <c r="X44" s="113"/>
+      <c r="Y44" s="113"/>
+      <c r="Z44" s="113"/>
+      <c r="AA44" s="113"/>
+      <c r="AB44" s="113"/>
+      <c r="AC44" s="113"/>
+      <c r="AD44" s="113"/>
+      <c r="AE44" s="113"/>
+      <c r="AF44" s="113"/>
+      <c r="AG44" s="113"/>
+      <c r="AH44" s="113"/>
+      <c r="AI44" s="113"/>
+      <c r="AJ44" s="113"/>
+      <c r="AK44" s="113"/>
+      <c r="AL44" s="113"/>
+      <c r="AM44" s="113"/>
+      <c r="AN44" s="114"/>
+      <c r="AQ44" s="112"/>
+      <c r="AR44" s="113"/>
+      <c r="AS44" s="113"/>
+      <c r="AT44" s="113"/>
+      <c r="AU44" s="113"/>
+      <c r="AV44" s="113"/>
+      <c r="AW44" s="113"/>
+      <c r="AX44" s="113"/>
+      <c r="AY44" s="113"/>
+      <c r="AZ44" s="113"/>
+      <c r="BA44" s="113"/>
+      <c r="BB44" s="113"/>
+      <c r="BC44" s="113"/>
+      <c r="BD44" s="113"/>
+      <c r="BE44" s="113"/>
+      <c r="BF44" s="113"/>
+      <c r="BG44" s="113"/>
+      <c r="BH44" s="113"/>
+      <c r="BI44" s="113"/>
+      <c r="BJ44" s="113"/>
+      <c r="BK44" s="113"/>
+      <c r="BL44" s="113"/>
+      <c r="BM44" s="113"/>
+      <c r="BN44" s="113"/>
+      <c r="BO44" s="113"/>
+      <c r="BP44" s="113"/>
+      <c r="BQ44" s="113"/>
+      <c r="BR44" s="113"/>
+      <c r="BS44" s="113"/>
+      <c r="BT44" s="113"/>
+      <c r="BU44" s="113"/>
+      <c r="BV44" s="113"/>
+      <c r="BW44" s="113"/>
+      <c r="BX44" s="113"/>
+      <c r="BY44" s="113"/>
+      <c r="BZ44" s="113"/>
+      <c r="CA44" s="113"/>
+      <c r="CB44" s="114"/>
     </row>
     <row r="45" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C45" s="94"/>
-      <c r="D45" s="95"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="95"/>
-      <c r="G45" s="95"/>
-      <c r="H45" s="95"/>
-      <c r="I45" s="95"/>
-      <c r="J45" s="95"/>
-      <c r="K45" s="95"/>
-      <c r="L45" s="95"/>
-      <c r="M45" s="95"/>
-      <c r="N45" s="95"/>
-      <c r="O45" s="95"/>
-      <c r="P45" s="95"/>
-      <c r="Q45" s="95"/>
-      <c r="R45" s="95"/>
-      <c r="S45" s="95"/>
-      <c r="T45" s="95"/>
-      <c r="U45" s="95"/>
-      <c r="V45" s="95"/>
-      <c r="W45" s="95"/>
-      <c r="X45" s="95"/>
-      <c r="Y45" s="95"/>
-      <c r="Z45" s="95"/>
-      <c r="AA45" s="95"/>
-      <c r="AB45" s="95"/>
-      <c r="AC45" s="95"/>
-      <c r="AD45" s="95"/>
-      <c r="AE45" s="95"/>
-      <c r="AF45" s="95"/>
-      <c r="AG45" s="95"/>
-      <c r="AH45" s="95"/>
-      <c r="AI45" s="95"/>
-      <c r="AJ45" s="95"/>
-      <c r="AK45" s="95"/>
-      <c r="AL45" s="95"/>
-      <c r="AM45" s="95"/>
-      <c r="AN45" s="96"/>
-      <c r="AQ45" s="94"/>
-      <c r="AR45" s="95"/>
-      <c r="AS45" s="95"/>
-      <c r="AT45" s="95"/>
-      <c r="AU45" s="95"/>
-      <c r="AV45" s="95"/>
-      <c r="AW45" s="95"/>
-      <c r="AX45" s="95"/>
-      <c r="AY45" s="95"/>
-      <c r="AZ45" s="95"/>
-      <c r="BA45" s="95"/>
-      <c r="BB45" s="95"/>
-      <c r="BC45" s="95"/>
-      <c r="BD45" s="95"/>
-      <c r="BE45" s="95"/>
-      <c r="BF45" s="95"/>
-      <c r="BG45" s="95"/>
-      <c r="BH45" s="95"/>
-      <c r="BI45" s="95"/>
-      <c r="BJ45" s="95"/>
-      <c r="BK45" s="95"/>
-      <c r="BL45" s="95"/>
-      <c r="BM45" s="95"/>
-      <c r="BN45" s="95"/>
-      <c r="BO45" s="95"/>
-      <c r="BP45" s="95"/>
-      <c r="BQ45" s="95"/>
-      <c r="BR45" s="95"/>
-      <c r="BS45" s="95"/>
-      <c r="BT45" s="95"/>
-      <c r="BU45" s="95"/>
-      <c r="BV45" s="95"/>
-      <c r="BW45" s="95"/>
-      <c r="BX45" s="95"/>
-      <c r="BY45" s="95"/>
-      <c r="BZ45" s="95"/>
-      <c r="CA45" s="95"/>
-      <c r="CB45" s="96"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="113"/>
+      <c r="F45" s="113"/>
+      <c r="G45" s="113"/>
+      <c r="H45" s="113"/>
+      <c r="I45" s="113"/>
+      <c r="J45" s="113"/>
+      <c r="K45" s="113"/>
+      <c r="L45" s="113"/>
+      <c r="M45" s="113"/>
+      <c r="N45" s="113"/>
+      <c r="O45" s="113"/>
+      <c r="P45" s="113"/>
+      <c r="Q45" s="113"/>
+      <c r="R45" s="113"/>
+      <c r="S45" s="113"/>
+      <c r="T45" s="113"/>
+      <c r="U45" s="113"/>
+      <c r="V45" s="113"/>
+      <c r="W45" s="113"/>
+      <c r="X45" s="113"/>
+      <c r="Y45" s="113"/>
+      <c r="Z45" s="113"/>
+      <c r="AA45" s="113"/>
+      <c r="AB45" s="113"/>
+      <c r="AC45" s="113"/>
+      <c r="AD45" s="113"/>
+      <c r="AE45" s="113"/>
+      <c r="AF45" s="113"/>
+      <c r="AG45" s="113"/>
+      <c r="AH45" s="113"/>
+      <c r="AI45" s="113"/>
+      <c r="AJ45" s="113"/>
+      <c r="AK45" s="113"/>
+      <c r="AL45" s="113"/>
+      <c r="AM45" s="113"/>
+      <c r="AN45" s="114"/>
+      <c r="AQ45" s="112"/>
+      <c r="AR45" s="113"/>
+      <c r="AS45" s="113"/>
+      <c r="AT45" s="113"/>
+      <c r="AU45" s="113"/>
+      <c r="AV45" s="113"/>
+      <c r="AW45" s="113"/>
+      <c r="AX45" s="113"/>
+      <c r="AY45" s="113"/>
+      <c r="AZ45" s="113"/>
+      <c r="BA45" s="113"/>
+      <c r="BB45" s="113"/>
+      <c r="BC45" s="113"/>
+      <c r="BD45" s="113"/>
+      <c r="BE45" s="113"/>
+      <c r="BF45" s="113"/>
+      <c r="BG45" s="113"/>
+      <c r="BH45" s="113"/>
+      <c r="BI45" s="113"/>
+      <c r="BJ45" s="113"/>
+      <c r="BK45" s="113"/>
+      <c r="BL45" s="113"/>
+      <c r="BM45" s="113"/>
+      <c r="BN45" s="113"/>
+      <c r="BO45" s="113"/>
+      <c r="BP45" s="113"/>
+      <c r="BQ45" s="113"/>
+      <c r="BR45" s="113"/>
+      <c r="BS45" s="113"/>
+      <c r="BT45" s="113"/>
+      <c r="BU45" s="113"/>
+      <c r="BV45" s="113"/>
+      <c r="BW45" s="113"/>
+      <c r="BX45" s="113"/>
+      <c r="BY45" s="113"/>
+      <c r="BZ45" s="113"/>
+      <c r="CA45" s="113"/>
+      <c r="CB45" s="114"/>
     </row>
     <row r="46" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C46" s="97"/>
-      <c r="D46" s="98"/>
-      <c r="E46" s="98"/>
-      <c r="F46" s="98"/>
-      <c r="G46" s="98"/>
-      <c r="H46" s="98"/>
-      <c r="I46" s="98"/>
-      <c r="J46" s="98"/>
-      <c r="K46" s="98"/>
-      <c r="L46" s="98"/>
-      <c r="M46" s="98"/>
-      <c r="N46" s="98"/>
-      <c r="O46" s="98"/>
-      <c r="P46" s="98"/>
-      <c r="Q46" s="98"/>
-      <c r="R46" s="98"/>
-      <c r="S46" s="98"/>
-      <c r="T46" s="98"/>
-      <c r="U46" s="98"/>
-      <c r="V46" s="98"/>
-      <c r="W46" s="98"/>
-      <c r="X46" s="98"/>
-      <c r="Y46" s="98"/>
-      <c r="Z46" s="98"/>
-      <c r="AA46" s="98"/>
-      <c r="AB46" s="98"/>
-      <c r="AC46" s="98"/>
-      <c r="AD46" s="98"/>
-      <c r="AE46" s="98"/>
-      <c r="AF46" s="98"/>
-      <c r="AG46" s="98"/>
-      <c r="AH46" s="98"/>
-      <c r="AI46" s="98"/>
-      <c r="AJ46" s="98"/>
-      <c r="AK46" s="98"/>
-      <c r="AL46" s="98"/>
-      <c r="AM46" s="98"/>
-      <c r="AN46" s="99"/>
-      <c r="AQ46" s="97"/>
-      <c r="AR46" s="98"/>
-      <c r="AS46" s="98"/>
-      <c r="AT46" s="98"/>
-      <c r="AU46" s="98"/>
-      <c r="AV46" s="98"/>
-      <c r="AW46" s="98"/>
-      <c r="AX46" s="98"/>
-      <c r="AY46" s="98"/>
-      <c r="AZ46" s="98"/>
-      <c r="BA46" s="98"/>
-      <c r="BB46" s="98"/>
-      <c r="BC46" s="98"/>
-      <c r="BD46" s="98"/>
-      <c r="BE46" s="98"/>
-      <c r="BF46" s="98"/>
-      <c r="BG46" s="98"/>
-      <c r="BH46" s="98"/>
-      <c r="BI46" s="98"/>
-      <c r="BJ46" s="98"/>
-      <c r="BK46" s="98"/>
-      <c r="BL46" s="98"/>
-      <c r="BM46" s="98"/>
-      <c r="BN46" s="98"/>
-      <c r="BO46" s="98"/>
-      <c r="BP46" s="98"/>
-      <c r="BQ46" s="98"/>
-      <c r="BR46" s="98"/>
-      <c r="BS46" s="98"/>
-      <c r="BT46" s="98"/>
-      <c r="BU46" s="98"/>
-      <c r="BV46" s="98"/>
-      <c r="BW46" s="98"/>
-      <c r="BX46" s="98"/>
-      <c r="BY46" s="98"/>
-      <c r="BZ46" s="98"/>
-      <c r="CA46" s="98"/>
-      <c r="CB46" s="99"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="116"/>
+      <c r="I46" s="116"/>
+      <c r="J46" s="116"/>
+      <c r="K46" s="116"/>
+      <c r="L46" s="116"/>
+      <c r="M46" s="116"/>
+      <c r="N46" s="116"/>
+      <c r="O46" s="116"/>
+      <c r="P46" s="116"/>
+      <c r="Q46" s="116"/>
+      <c r="R46" s="116"/>
+      <c r="S46" s="116"/>
+      <c r="T46" s="116"/>
+      <c r="U46" s="116"/>
+      <c r="V46" s="116"/>
+      <c r="W46" s="116"/>
+      <c r="X46" s="116"/>
+      <c r="Y46" s="116"/>
+      <c r="Z46" s="116"/>
+      <c r="AA46" s="116"/>
+      <c r="AB46" s="116"/>
+      <c r="AC46" s="116"/>
+      <c r="AD46" s="116"/>
+      <c r="AE46" s="116"/>
+      <c r="AF46" s="116"/>
+      <c r="AG46" s="116"/>
+      <c r="AH46" s="116"/>
+      <c r="AI46" s="116"/>
+      <c r="AJ46" s="116"/>
+      <c r="AK46" s="116"/>
+      <c r="AL46" s="116"/>
+      <c r="AM46" s="116"/>
+      <c r="AN46" s="117"/>
+      <c r="AQ46" s="115"/>
+      <c r="AR46" s="116"/>
+      <c r="AS46" s="116"/>
+      <c r="AT46" s="116"/>
+      <c r="AU46" s="116"/>
+      <c r="AV46" s="116"/>
+      <c r="AW46" s="116"/>
+      <c r="AX46" s="116"/>
+      <c r="AY46" s="116"/>
+      <c r="AZ46" s="116"/>
+      <c r="BA46" s="116"/>
+      <c r="BB46" s="116"/>
+      <c r="BC46" s="116"/>
+      <c r="BD46" s="116"/>
+      <c r="BE46" s="116"/>
+      <c r="BF46" s="116"/>
+      <c r="BG46" s="116"/>
+      <c r="BH46" s="116"/>
+      <c r="BI46" s="116"/>
+      <c r="BJ46" s="116"/>
+      <c r="BK46" s="116"/>
+      <c r="BL46" s="116"/>
+      <c r="BM46" s="116"/>
+      <c r="BN46" s="116"/>
+      <c r="BO46" s="116"/>
+      <c r="BP46" s="116"/>
+      <c r="BQ46" s="116"/>
+      <c r="BR46" s="116"/>
+      <c r="BS46" s="116"/>
+      <c r="BT46" s="116"/>
+      <c r="BU46" s="116"/>
+      <c r="BV46" s="116"/>
+      <c r="BW46" s="116"/>
+      <c r="BX46" s="116"/>
+      <c r="BY46" s="116"/>
+      <c r="BZ46" s="116"/>
+      <c r="CA46" s="116"/>
+      <c r="CB46" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C9:CB10"/>
+    <mergeCell ref="C11:CB24"/>
+    <mergeCell ref="C26:AN27"/>
+    <mergeCell ref="C28:AN46"/>
+    <mergeCell ref="AQ26:CB27"/>
+    <mergeCell ref="AQ28:CB46"/>
     <mergeCell ref="W2:AN3"/>
     <mergeCell ref="W4:AN7"/>
     <mergeCell ref="AQ2:BH3"/>
     <mergeCell ref="AQ4:BH7"/>
     <mergeCell ref="BK2:CB3"/>
     <mergeCell ref="BK4:CB7"/>
-    <mergeCell ref="C9:CB10"/>
-    <mergeCell ref="C11:CB24"/>
-    <mergeCell ref="C26:AN27"/>
-    <mergeCell ref="C28:AN46"/>
-    <mergeCell ref="AQ26:CB27"/>
-    <mergeCell ref="AQ28:CB46"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/Meteora_Ecommerce_2.xlsx
+++ b/Meteora_Ecommerce_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Exel\Meteora-Exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E42FBC-9BAD-4BE9-8C6E-9E7E0E79320E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800D3C8A-B4C6-4EB8-9D26-BE2A06F1D772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
   </bookViews>
   <sheets>
     <sheet name="Meu Gráfico" sheetId="6" r:id="rId1"/>
@@ -327,7 +327,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,14 +346,6 @@
       <b/>
       <sz val="14"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -394,19 +386,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -427,12 +456,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor theme="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE3D1FF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -443,8 +466,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2EBFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -472,187 +501,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -693,18 +541,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -713,98 +596,134 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="4">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="7">
     <cellStyle name="Cabeçalho Meteora" xfId="3" xr:uid="{43DBFFA1-791E-423B-B2A6-377CC2810274}"/>
     <cellStyle name="Ênfase4" xfId="1" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Linha cod" xfId="6" xr:uid="{C3956360-20AE-4C4C-B044-427199240EA5}"/>
+    <cellStyle name="Meu Cabeçalho" xfId="4" xr:uid="{E0011BB7-023D-44C5-AD64-41CA72016F9E}"/>
+    <cellStyle name="Meu estilo" xfId="5" xr:uid="{FDF0D75C-C6BC-4AD1-8104-8DD22652A39F}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Título Meteora" xfId="2" xr:uid="{52F1EA3C-B23E-4AE6-AE73-27AD9F7C9021}"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF2EBFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -937,38 +856,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFE3D1FF"/>
@@ -982,79 +869,15 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFE3D1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFE3D1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFE3D1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF2EBFF"/>
+      <color rgb="FFECE1FF"/>
+      <color rgb="FF9353FF"/>
       <color rgb="FFE3D1FF"/>
       <color rgb="FFFCBCEB"/>
-      <color rgb="FF9353FF"/>
       <color rgb="FFDAFF01"/>
       <color rgb="FFCCCCCC"/>
       <color rgb="FFF87F46"/>
@@ -1175,19 +998,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:alpha val="70000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2202,7 +2013,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8D58BA28-6F2B-4BE7-9135-3BC55F666805}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -2213,7 +2024,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9644063" cy="6016625"/>
+    <xdr:ext cx="9645063" cy="6011155"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -2805,29 +2616,29 @@
     <dataField name="Soma de Qtd" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="12">
+    <format dxfId="20">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="18">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="17">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="16">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -2855,36 +2666,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40AC111B-A369-4C0B-9503-7C5B9442DAEA}" name="TB_Produtos" displayName="TB_Produtos" ref="A3:F42" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40AC111B-A369-4C0B-9503-7C5B9442DAEA}" name="TB_Produtos" displayName="TB_Produtos" ref="A3:F42" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A3:F42" xr:uid="{40AC111B-A369-4C0B-9503-7C5B9442DAEA}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2F8ED5FF-48A1-488E-9DF1-FE060F71A415}" name="Código"/>
+    <tableColumn id="1" xr3:uid="{2F8ED5FF-48A1-488E-9DF1-FE060F71A415}" name="Código" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{E100D4E2-C3A0-43FF-A1D9-90A4BC2A9918}" name="Produtos"/>
-    <tableColumn id="3" xr3:uid="{2EF7FEE0-6B6F-4534-86A0-46B6555B7BEF}" name="Tamanho" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{2EF7FEE0-6B6F-4534-86A0-46B6555B7BEF}" name="Tamanho" dataDxfId="12"/>
     <tableColumn id="4" xr3:uid="{4435A4B8-E7F0-4D66-A4F8-6A9FEAA36D5A}" name="Categoria"/>
-    <tableColumn id="6" xr3:uid="{15F9CACC-A558-4A20-80CF-C2ADA2603221}" name="Estoque" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{CA8AD0DE-58EC-4839-85FB-1DD75DA28087}" name="Preço Unitário" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{15F9CACC-A558-4A20-80CF-C2ADA2603221}" name="Estoque" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{CA8AD0DE-58EC-4839-85FB-1DD75DA28087}" name="Preço Unitário" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AD739091-30BD-4C30-BDDA-7504C0C4B6E2}" name="TB_Vendas" displayName="TB_Vendas" ref="A2:H61" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowCellStyle="Cabeçalho Meteora">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AD739091-30BD-4C30-BDDA-7504C0C4B6E2}" name="TB_Vendas" displayName="TB_Vendas" ref="A2:H61" totalsRowShown="0" dataDxfId="9" headerRowCellStyle="Meu estilo">
   <autoFilter ref="A2:H61" xr:uid="{AD739091-30BD-4C30-BDDA-7504C0C4B6E2}"/>
   <tableColumns count="8">
-    <tableColumn id="7" xr3:uid="{5E8DE7C3-CDB6-4314-A5CC-C44D3C21973F}" name="Mês" dataDxfId="20">
+    <tableColumn id="7" xr3:uid="{5E8DE7C3-CDB6-4314-A5CC-C44D3C21973F}" name="Mês" dataDxfId="8">
       <calculatedColumnFormula>MONTH(TB_Vendas[[#This Row],[Data]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{43632F1F-6978-4CE7-BB13-7CCE587D6821}" name="Data" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{49DF5362-33BE-4541-BD47-0B512249381E}" name="Código" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{B3C718A1-FEFF-4C65-9CA1-DF94EF755918}" name="Tamanho" dataDxfId="17">
+    <tableColumn id="1" xr3:uid="{43632F1F-6978-4CE7-BB13-7CCE587D6821}" name="Data" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{49DF5362-33BE-4541-BD47-0B512249381E}" name="Código" dataCellStyle="Linha cod"/>
+    <tableColumn id="3" xr3:uid="{B3C718A1-FEFF-4C65-9CA1-DF94EF755918}" name="Tamanho" dataDxfId="6">
       <calculatedColumnFormula>_xlfn.XLOOKUP(C3,TB_Produtos[Código],TB_Produtos[Tamanho])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1F3EAF93-84E7-4086-BE54-3AB7D71B21A8}" name="Categoria" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{7DC2ADED-AF8A-4BC8-A38E-FEF676FE49C9}" name="Qtd" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{9459B662-6A4F-4486-82B1-12F67B8F842E}" name="Total" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{192FEBCA-1287-48A6-9BE6-69528F71C305}" name="Vendedor" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{1F3EAF93-84E7-4086-BE54-3AB7D71B21A8}" name="Categoria" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{7DC2ADED-AF8A-4BC8-A38E-FEF676FE49C9}" name="Qtd" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{9459B662-6A4F-4486-82B1-12F67B8F842E}" name="Total" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{192FEBCA-1287-48A6-9BE6-69528F71C305}" name="Vendedor" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3202,10 +3013,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3213,7 +3024,7 @@
       <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="2">
         <v>40</v>
       </c>
     </row>
@@ -3221,7 +3032,7 @@
       <c r="F5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="2">
         <v>11</v>
       </c>
     </row>
@@ -3229,7 +3040,7 @@
       <c r="F6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="2">
         <v>6</v>
       </c>
     </row>
@@ -3237,7 +3048,7 @@
       <c r="F7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="2">
         <v>21</v>
       </c>
     </row>
@@ -3245,7 +3056,7 @@
       <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="2">
         <v>22</v>
       </c>
     </row>
@@ -3253,7 +3064,7 @@
       <c r="F9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="2">
         <v>28</v>
       </c>
     </row>
@@ -3261,7 +3072,7 @@
       <c r="F10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="2">
         <v>3</v>
       </c>
     </row>
@@ -3269,7 +3080,7 @@
       <c r="F11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="2">
         <v>2</v>
       </c>
     </row>
@@ -3277,7 +3088,7 @@
       <c r="F12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="2">
         <v>4</v>
       </c>
     </row>
@@ -3285,7 +3096,7 @@
       <c r="F13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="2">
         <v>4</v>
       </c>
     </row>
@@ -3293,7 +3104,7 @@
       <c r="F14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="2">
         <v>19</v>
       </c>
     </row>
@@ -3301,7 +3112,7 @@
       <c r="F15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="2">
         <v>6</v>
       </c>
     </row>
@@ -3309,7 +3120,7 @@
       <c r="F16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="2">
         <v>7</v>
       </c>
     </row>
@@ -3317,7 +3128,7 @@
       <c r="F17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="2">
         <v>10</v>
       </c>
     </row>
@@ -3325,7 +3136,7 @@
       <c r="F18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3333,7 +3144,7 @@
       <c r="F19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="2">
         <v>9</v>
       </c>
     </row>
@@ -3341,7 +3152,7 @@
       <c r="F20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3349,7 +3160,7 @@
       <c r="F21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="2">
         <v>2</v>
       </c>
     </row>
@@ -3362,8 +3173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8ADA2D8-DE9E-4ACF-B5A7-8907124C5CF1}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3377,45 +3188,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
@@ -3430,12 +3241,12 @@
       <c r="E4" s="1">
         <v>12</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="6">
         <v>65.900000000000006</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B5" t="s">
@@ -3450,12 +3261,12 @@
       <c r="E5" s="1">
         <v>15</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="6">
         <v>69.900000000000006</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B6" t="s">
@@ -3470,12 +3281,12 @@
       <c r="E6" s="1">
         <v>5</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="6">
         <v>70.900000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B7" t="s">
@@ -3490,12 +3301,12 @@
       <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="6">
         <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B8" t="s">
@@ -3510,12 +3321,12 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="6">
         <v>259.89999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B9" t="s">
@@ -3530,12 +3341,12 @@
       <c r="E9" s="1">
         <v>11</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="6">
         <v>39.9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B10" t="s">
@@ -3550,12 +3361,12 @@
       <c r="E10" s="1">
         <v>6</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="6">
         <v>85.9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B11" t="s">
@@ -3570,12 +3381,12 @@
       <c r="E11" s="1">
         <v>5</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="6">
         <v>89.9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B12" t="s">
@@ -3590,12 +3401,12 @@
       <c r="E12" s="1">
         <v>8</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="6">
         <v>92.9</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B13" t="s">
@@ -3610,12 +3421,12 @@
       <c r="E13" s="1">
         <v>2</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="6">
         <v>44.9</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B14" t="s">
@@ -3630,12 +3441,12 @@
       <c r="E14" s="1">
         <v>3</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="6">
         <v>46.9</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B15" t="s">
@@ -3650,12 +3461,12 @@
       <c r="E15" s="1">
         <v>5</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="6">
         <v>48.9</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B16" t="s">
@@ -3670,12 +3481,12 @@
       <c r="E16" s="1">
         <v>6</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="6">
         <v>39.9</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B17" t="s">
@@ -3690,12 +3501,12 @@
       <c r="E17" s="1">
         <v>10</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="6">
         <v>39.9</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B18" t="s">
@@ -3710,12 +3521,12 @@
       <c r="E18" s="1">
         <v>12</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="6">
         <v>42.5</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B19" t="s">
@@ -3730,12 +3541,12 @@
       <c r="E19" s="1">
         <v>6</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="6">
         <v>25.9</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="15" t="s">
         <v>59</v>
       </c>
       <c r="B20" t="s">
@@ -3750,12 +3561,12 @@
       <c r="E20" s="1">
         <v>10</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="6">
         <v>29.9</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B21" t="s">
@@ -3770,12 +3581,12 @@
       <c r="E21" s="1">
         <v>12</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="6">
         <v>32.9</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B22" t="s">
@@ -3790,12 +3601,12 @@
       <c r="E22" s="1">
         <v>21</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="6">
         <v>49.9</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B23" t="s">
@@ -3810,12 +3621,12 @@
       <c r="E23" s="1">
         <v>5</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="6">
         <v>299.89999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="15" t="s">
         <v>63</v>
       </c>
       <c r="B24" t="s">
@@ -3830,12 +3641,12 @@
       <c r="E24" s="1">
         <v>5</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="6">
         <v>302.89999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B25" t="s">
@@ -3850,12 +3661,12 @@
       <c r="E25" s="1">
         <v>5</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="6">
         <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="15" t="s">
         <v>65</v>
       </c>
       <c r="B26" t="s">
@@ -3870,12 +3681,12 @@
       <c r="E26" s="1">
         <v>5</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="6">
         <v>249.9</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B27" t="s">
@@ -3890,12 +3701,12 @@
       <c r="E27" s="1">
         <v>5</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="6">
         <v>259.89999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B28" t="s">
@@ -3910,12 +3721,12 @@
       <c r="E28" s="1">
         <v>5</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="6">
         <v>299.89999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B29" t="s">
@@ -3930,12 +3741,12 @@
       <c r="E29" s="1">
         <v>3</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="6">
         <v>349.9</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="15" t="s">
         <v>69</v>
       </c>
       <c r="B30" t="s">
@@ -3950,12 +3761,12 @@
       <c r="E30" s="1">
         <v>3</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="6">
         <v>399.9</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B31" t="s">
@@ -3970,12 +3781,12 @@
       <c r="E31" s="1">
         <v>5</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F31" s="6">
         <v>249.9</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="15" t="s">
         <v>71</v>
       </c>
       <c r="B32" t="s">
@@ -3990,12 +3801,12 @@
       <c r="E32" s="1">
         <v>3</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F32" s="6">
         <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="15" t="s">
         <v>72</v>
       </c>
       <c r="B33" t="s">
@@ -4010,12 +3821,12 @@
       <c r="E33" s="1">
         <v>5</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F33" s="6">
         <v>259.89999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="15" t="s">
         <v>73</v>
       </c>
       <c r="B34" t="s">
@@ -4030,12 +3841,12 @@
       <c r="E34" s="1">
         <v>5</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F34" s="6">
         <v>199.9</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="15" t="s">
         <v>74</v>
       </c>
       <c r="B35" t="s">
@@ -4050,12 +3861,12 @@
       <c r="E35" s="1">
         <v>5</v>
       </c>
-      <c r="F35" s="25">
+      <c r="F35" s="6">
         <v>249.9</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B36" t="s">
@@ -4070,12 +3881,12 @@
       <c r="E36" s="1">
         <v>5</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F36" s="6">
         <v>259.89999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="15" t="s">
         <v>76</v>
       </c>
       <c r="B37" t="s">
@@ -4090,12 +3901,12 @@
       <c r="E37" s="1">
         <v>3</v>
       </c>
-      <c r="F37" s="25">
+      <c r="F37" s="6">
         <v>89.9</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="15" t="s">
         <v>77</v>
       </c>
       <c r="B38" t="s">
@@ -4110,12 +3921,12 @@
       <c r="E38" s="1">
         <v>3</v>
       </c>
-      <c r="F38" s="25">
+      <c r="F38" s="6">
         <v>91.4</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="15" t="s">
         <v>78</v>
       </c>
       <c r="B39" t="s">
@@ -4130,12 +3941,12 @@
       <c r="E39" s="1">
         <v>3</v>
       </c>
-      <c r="F39" s="25">
+      <c r="F39" s="6">
         <v>93.5</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="15" t="s">
         <v>79</v>
       </c>
       <c r="B40" t="s">
@@ -4150,12 +3961,12 @@
       <c r="E40" s="1">
         <v>2</v>
       </c>
-      <c r="F40" s="25">
+      <c r="F40" s="6">
         <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="15" t="s">
         <v>80</v>
       </c>
       <c r="B41" t="s">
@@ -4170,12 +3981,12 @@
       <c r="E41" s="1">
         <v>2</v>
       </c>
-      <c r="F41" s="25">
+      <c r="F41" s="6">
         <v>142.9</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="15" t="s">
         <v>81</v>
       </c>
       <c r="B42" t="s">
@@ -4190,7 +4001,7 @@
       <c r="E42" s="1">
         <v>2</v>
       </c>
-      <c r="F42" s="25">
+      <c r="F42" s="6">
         <v>146</v>
       </c>
     </row>
@@ -4210,7 +4021,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4226,52 +4037,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="17" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="28">
+      <c r="A3" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>1</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="7">
         <v>44931</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="18" t="s">
         <v>69</v>
       </c>
       <c r="D3" s="1" t="str">
@@ -4284,7 +4095,7 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="6">
         <v>359.90999999999997</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -4292,14 +4103,14 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="28">
+      <c r="A4" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>1</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="7">
         <v>44932</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="18" t="s">
         <v>73</v>
       </c>
       <c r="D4" s="1">
@@ -4312,7 +4123,7 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="6">
         <v>179.91</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -4320,14 +4131,14 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+      <c r="A5" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>1</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="7">
         <v>44933</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D5" s="1">
@@ -4340,7 +4151,7 @@
       <c r="F5" s="1">
         <v>2</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="6">
         <v>449.82</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -4348,14 +4159,14 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
+      <c r="A6" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>1</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="7">
         <v>44938</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="18" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="1" t="str">
@@ -4368,7 +4179,7 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="6">
         <v>42.21</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -4376,14 +4187,14 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
+      <c r="A7" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>1</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="7">
         <v>44939</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="18" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="1" t="str">
@@ -4396,7 +4207,7 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="6">
         <v>128.61000000000001</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -4404,14 +4215,14 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
+      <c r="A8" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>1</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="7">
         <v>44943</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="18" t="s">
         <v>73</v>
       </c>
       <c r="D8" s="1">
@@ -4424,7 +4235,7 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="6">
         <v>179.91</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -4432,14 +4243,14 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
+      <c r="A9" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>1</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="7">
         <v>44949</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="18" t="s">
         <v>68</v>
       </c>
       <c r="D9" s="1" t="str">
@@ -4452,7 +4263,7 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="6">
         <v>314.90999999999997</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -4460,14 +4271,14 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
+      <c r="A10" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>1</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="7">
         <v>44952</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="1" t="str">
@@ -4480,7 +4291,7 @@
       <c r="F10" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="6">
         <v>71.819999999999993</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -4488,14 +4299,14 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
+      <c r="A11" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>1</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="7">
         <v>44954</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="18" t="s">
         <v>57</v>
       </c>
       <c r="D11" s="1" t="str">
@@ -4508,7 +4319,7 @@
       <c r="F11" s="1">
         <v>2</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="6">
         <v>76.5</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -4516,14 +4327,14 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="28">
+      <c r="A12" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>1</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="7">
         <v>44955</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="18" t="s">
         <v>77</v>
       </c>
       <c r="D12" s="1" t="str">
@@ -4536,7 +4347,7 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="6">
         <v>82.26</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -4544,14 +4355,14 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
+      <c r="A13" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>1</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="7">
         <v>44956</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="18" t="s">
         <v>81</v>
       </c>
       <c r="D13" s="1" t="str">
@@ -4564,7 +4375,7 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="6">
         <v>131.4</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -4572,14 +4383,14 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="28">
+      <c r="A14" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>2</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="7">
         <v>44960</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="18" t="s">
         <v>47</v>
       </c>
       <c r="D14" s="1" t="str">
@@ -4592,7 +4403,7 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="6">
         <v>233.90999999999997</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -4600,14 +4411,14 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
+      <c r="A15" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>2</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="7">
         <v>44962</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="18" t="s">
         <v>62</v>
       </c>
       <c r="D15" s="1" t="str">
@@ -4620,7 +4431,7 @@
       <c r="F15" s="1">
         <v>2</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="6">
         <v>539.81999999999994</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -4628,14 +4439,14 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="28">
+      <c r="A16" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>2</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="7">
         <v>44975</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D16" s="1">
@@ -4648,7 +4459,7 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="6">
         <v>224.91</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -4656,14 +4467,14 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
+      <c r="A17" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>2</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="7">
         <v>44978</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="18" t="s">
         <v>78</v>
       </c>
       <c r="D17" s="1" t="str">
@@ -4676,7 +4487,7 @@
       <c r="F17" s="1">
         <v>2</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="6">
         <v>168.3</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -4684,14 +4495,14 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
+      <c r="A18" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>2</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="7">
         <v>44981</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="18" t="s">
         <v>72</v>
       </c>
       <c r="D18" s="1">
@@ -4704,7 +4515,7 @@
       <c r="F18" s="1">
         <v>4</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="6">
         <v>935.63999999999987</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -4712,14 +4523,14 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
+      <c r="A19" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>2</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="7">
         <v>44982</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="18" t="s">
         <v>55</v>
       </c>
       <c r="D19" s="1" t="str">
@@ -4732,7 +4543,7 @@
       <c r="F19" s="1">
         <v>3</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G19" s="6">
         <v>107.72999999999999</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -4740,14 +4551,14 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="28">
+      <c r="A20" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>2</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="7">
         <v>44983</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="1" t="str">
@@ -4760,7 +4571,7 @@
       <c r="F20" s="1">
         <v>2</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="6">
         <v>125.82000000000001</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -4768,14 +4579,14 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="28">
+      <c r="A21" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>3</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="7">
         <v>44986</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="18" t="s">
         <v>59</v>
       </c>
       <c r="D21" s="1" t="str">
@@ -4788,7 +4599,7 @@
       <c r="F21" s="1">
         <v>3</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="6">
         <v>80.72999999999999</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -4796,14 +4607,14 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="28">
+      <c r="A22" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>3</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="7">
         <v>44986</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D22" s="1">
@@ -4816,7 +4627,7 @@
       <c r="F22" s="1">
         <v>1</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="6">
         <v>224.91</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -4824,14 +4635,14 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="28">
+      <c r="A23" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>3</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="7">
         <v>44987</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="18" t="s">
         <v>47</v>
       </c>
       <c r="D23" s="1" t="str">
@@ -4844,7 +4655,7 @@
       <c r="F23" s="1">
         <v>4</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="6">
         <v>935.63999999999987</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -4852,14 +4663,14 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="28">
+      <c r="A24" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>3</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="7">
         <v>44988</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="18" t="s">
         <v>54</v>
       </c>
       <c r="D24" s="1" t="str">
@@ -4872,7 +4683,7 @@
       <c r="F24" s="1">
         <v>2</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="6">
         <v>88.02</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -4880,14 +4691,14 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="28">
+      <c r="A25" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>3</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="7">
         <v>44989</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D25" s="1" t="str">
@@ -4900,7 +4711,7 @@
       <c r="F25" s="1">
         <v>3</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="6">
         <v>107.72999999999999</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -4908,14 +4719,14 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="28">
+      <c r="A26" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>3</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="7">
         <v>44994</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="18" t="s">
         <v>66</v>
       </c>
       <c r="D26" s="1" t="str">
@@ -4928,7 +4739,7 @@
       <c r="F26" s="1">
         <v>2</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="6">
         <v>467.81999999999994</v>
       </c>
       <c r="H26" s="1" t="s">
@@ -4936,14 +4747,14 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="28">
+      <c r="A27" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>3</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="7">
         <v>44999</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D27" s="1">
@@ -4956,7 +4767,7 @@
       <c r="F27" s="1">
         <v>1</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G27" s="6">
         <v>224.91</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -4964,14 +4775,14 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="28">
+      <c r="A28" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>3</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="7">
         <v>45004</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="18" t="s">
         <v>45</v>
       </c>
       <c r="D28" s="1" t="str">
@@ -4984,7 +4795,7 @@
       <c r="F28" s="1">
         <v>5</v>
       </c>
-      <c r="G28" s="25">
+      <c r="G28" s="6">
         <v>319.05</v>
       </c>
       <c r="H28" s="1" t="s">
@@ -4992,14 +4803,14 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="28">
+      <c r="A29" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>3</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="7">
         <v>45006</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="18" t="s">
         <v>71</v>
       </c>
       <c r="D29" s="1">
@@ -5012,7 +4823,7 @@
       <c r="F29" s="1">
         <v>2</v>
       </c>
-      <c r="G29" s="25">
+      <c r="G29" s="6">
         <v>459</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -5020,14 +4831,14 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="28">
+      <c r="A30" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>3</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="7">
         <v>45010</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="18" t="s">
         <v>45</v>
       </c>
       <c r="D30" s="1" t="str">
@@ -5040,7 +4851,7 @@
       <c r="F30" s="1">
         <v>3</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30" s="6">
         <v>191.43</v>
       </c>
       <c r="H30" s="1" t="s">
@@ -5048,14 +4859,14 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="28">
+      <c r="A31" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>4</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="7">
         <v>45018</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="18" t="s">
         <v>64</v>
       </c>
       <c r="D31" s="1" t="str">
@@ -5068,7 +4879,7 @@
       <c r="F31" s="1">
         <v>1</v>
       </c>
-      <c r="G31" s="25">
+      <c r="G31" s="6">
         <v>270</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -5076,14 +4887,14 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="28">
+      <c r="A32" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>4</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B32" s="7">
         <v>45020</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="18" t="s">
         <v>70</v>
       </c>
       <c r="D32" s="1">
@@ -5096,7 +4907,7 @@
       <c r="F32" s="1">
         <v>4</v>
       </c>
-      <c r="G32" s="25">
+      <c r="G32" s="6">
         <v>899.64</v>
       </c>
       <c r="H32" s="1" t="s">
@@ -5104,14 +4915,14 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="28">
+      <c r="A33" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>4</v>
       </c>
-      <c r="B33" s="26">
+      <c r="B33" s="7">
         <v>45024</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="18" t="s">
         <v>80</v>
       </c>
       <c r="D33" s="1" t="str">
@@ -5124,7 +4935,7 @@
       <c r="F33" s="1">
         <v>3</v>
       </c>
-      <c r="G33" s="25">
+      <c r="G33" s="6">
         <v>385.83000000000004</v>
       </c>
       <c r="H33" s="1" t="s">
@@ -5132,14 +4943,14 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="28">
+      <c r="A34" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>4</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="7">
         <v>45027</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="18" t="s">
         <v>43</v>
       </c>
       <c r="D34" s="1" t="str">
@@ -5152,7 +4963,7 @@
       <c r="F34" s="1">
         <v>2</v>
       </c>
-      <c r="G34" s="25">
+      <c r="G34" s="6">
         <v>118.62</v>
       </c>
       <c r="H34" s="1" t="s">
@@ -5160,14 +4971,14 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="28">
+      <c r="A35" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>4</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="7">
         <v>45028</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="18" t="s">
         <v>51</v>
       </c>
       <c r="D35" s="1" t="str">
@@ -5180,7 +4991,7 @@
       <c r="F35" s="1">
         <v>1</v>
       </c>
-      <c r="G35" s="25">
+      <c r="G35" s="6">
         <v>83.61</v>
       </c>
       <c r="H35" s="1" t="s">
@@ -5188,14 +4999,14 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="28">
+      <c r="A36" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>4</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B36" s="7">
         <v>45029</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="18" t="s">
         <v>55</v>
       </c>
       <c r="D36" s="1" t="str">
@@ -5208,7 +5019,7 @@
       <c r="F36" s="1">
         <v>3</v>
       </c>
-      <c r="G36" s="25">
+      <c r="G36" s="6">
         <v>107.72999999999999</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -5216,14 +5027,14 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="28">
+      <c r="A37" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>4</v>
       </c>
-      <c r="B37" s="26">
+      <c r="B37" s="7">
         <v>45031</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="18" t="s">
         <v>63</v>
       </c>
       <c r="D37" s="1" t="str">
@@ -5236,7 +5047,7 @@
       <c r="F37" s="1">
         <v>4</v>
       </c>
-      <c r="G37" s="25">
+      <c r="G37" s="6">
         <v>1090.4399999999998</v>
       </c>
       <c r="H37" s="1" t="s">
@@ -5244,14 +5055,14 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="28">
+      <c r="A38" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>4</v>
       </c>
-      <c r="B38" s="26">
+      <c r="B38" s="7">
         <v>45038</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D38" s="1" t="str">
@@ -5264,7 +5075,7 @@
       <c r="F38" s="1">
         <v>2</v>
       </c>
-      <c r="G38" s="25">
+      <c r="G38" s="6">
         <v>125.82000000000001</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -5272,14 +5083,14 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="28">
+      <c r="A39" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>4</v>
       </c>
-      <c r="B39" s="26">
+      <c r="B39" s="7">
         <v>45039</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="18" t="s">
         <v>81</v>
       </c>
       <c r="D39" s="1" t="str">
@@ -5292,7 +5103,7 @@
       <c r="F39" s="1">
         <v>3</v>
       </c>
-      <c r="G39" s="25">
+      <c r="G39" s="6">
         <v>394.20000000000005</v>
       </c>
       <c r="H39" s="1" t="s">
@@ -5300,14 +5111,14 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="28">
+      <c r="A40" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>4</v>
       </c>
-      <c r="B40" s="26">
+      <c r="B40" s="7">
         <v>45042</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="18" t="s">
         <v>60</v>
       </c>
       <c r="D40" s="1" t="str">
@@ -5320,7 +5131,7 @@
       <c r="F40" s="1">
         <v>1</v>
       </c>
-      <c r="G40" s="25">
+      <c r="G40" s="6">
         <v>29.61</v>
       </c>
       <c r="H40" s="1" t="s">
@@ -5328,14 +5139,14 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="28">
+      <c r="A41" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>4</v>
       </c>
-      <c r="B41" s="26">
+      <c r="B41" s="7">
         <v>45043</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D41" s="1" t="str">
@@ -5348,7 +5159,7 @@
       <c r="F41" s="1">
         <v>4</v>
       </c>
-      <c r="G41" s="25">
+      <c r="G41" s="6">
         <v>143.63999999999999</v>
       </c>
       <c r="H41" s="1" t="s">
@@ -5356,14 +5167,14 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="28">
+      <c r="A42" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>5</v>
       </c>
-      <c r="B42" s="26">
+      <c r="B42" s="7">
         <v>45054</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="18" t="s">
         <v>67</v>
       </c>
       <c r="D42" s="1" t="str">
@@ -5376,7 +5187,7 @@
       <c r="F42" s="1">
         <v>2</v>
       </c>
-      <c r="G42" s="25">
+      <c r="G42" s="6">
         <v>539.81999999999994</v>
       </c>
       <c r="H42" s="1" t="s">
@@ -5384,14 +5195,14 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="28">
+      <c r="A43" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>5</v>
       </c>
-      <c r="B43" s="26">
+      <c r="B43" s="7">
         <v>45055</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="18" t="s">
         <v>57</v>
       </c>
       <c r="D43" s="1" t="str">
@@ -5404,7 +5215,7 @@
       <c r="F43" s="1">
         <v>3</v>
       </c>
-      <c r="G43" s="25">
+      <c r="G43" s="6">
         <v>114.75</v>
       </c>
       <c r="H43" s="1" t="s">
@@ -5412,14 +5223,14 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="28">
+      <c r="A44" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>5</v>
       </c>
-      <c r="B44" s="26">
+      <c r="B44" s="7">
         <v>45056</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D44" s="1">
@@ -5432,7 +5243,7 @@
       <c r="F44" s="1">
         <v>1</v>
       </c>
-      <c r="G44" s="25">
+      <c r="G44" s="6">
         <v>224.91</v>
       </c>
       <c r="H44" s="1" t="s">
@@ -5440,14 +5251,14 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="28">
+      <c r="A45" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>5</v>
       </c>
-      <c r="B45" s="26">
+      <c r="B45" s="7">
         <v>45057</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D45" s="1">
@@ -5460,7 +5271,7 @@
       <c r="F45" s="1">
         <v>2</v>
       </c>
-      <c r="G45" s="25">
+      <c r="G45" s="6">
         <v>449.82</v>
       </c>
       <c r="H45" s="1" t="s">
@@ -5468,14 +5279,14 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="28">
+      <c r="A46" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>5</v>
       </c>
-      <c r="B46" s="26">
+      <c r="B46" s="7">
         <v>45058</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="18" t="s">
         <v>54</v>
       </c>
       <c r="D46" s="1" t="str">
@@ -5488,7 +5299,7 @@
       <c r="F46" s="1">
         <v>3</v>
       </c>
-      <c r="G46" s="25">
+      <c r="G46" s="6">
         <v>132.03</v>
       </c>
       <c r="H46" s="1" t="s">
@@ -5496,14 +5307,14 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="28">
+      <c r="A47" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>5</v>
       </c>
-      <c r="B47" s="26">
+      <c r="B47" s="7">
         <v>45061</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D47" s="1" t="str">
@@ -5516,7 +5327,7 @@
       <c r="F47" s="1">
         <v>2</v>
       </c>
-      <c r="G47" s="25">
+      <c r="G47" s="6">
         <v>89.82</v>
       </c>
       <c r="H47" s="1" t="s">
@@ -5524,14 +5335,14 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="28">
+      <c r="A48" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>5</v>
       </c>
-      <c r="B48" s="26">
+      <c r="B48" s="7">
         <v>45064</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="18" t="s">
         <v>54</v>
       </c>
       <c r="D48" s="1" t="str">
@@ -5544,7 +5355,7 @@
       <c r="F48" s="1">
         <v>4</v>
       </c>
-      <c r="G48" s="25">
+      <c r="G48" s="6">
         <v>176.04</v>
       </c>
       <c r="H48" s="1" t="s">
@@ -5552,14 +5363,14 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="28">
+      <c r="A49" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>6</v>
       </c>
-      <c r="B49" s="26">
+      <c r="B49" s="7">
         <v>45084</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="18" t="s">
         <v>70</v>
       </c>
       <c r="D49" s="1">
@@ -5572,7 +5383,7 @@
       <c r="F49" s="1">
         <v>3</v>
       </c>
-      <c r="G49" s="25">
+      <c r="G49" s="6">
         <v>674.73</v>
       </c>
       <c r="H49" s="1" t="s">
@@ -5580,14 +5391,14 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="28">
+      <c r="A50" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>6</v>
       </c>
-      <c r="B50" s="26">
+      <c r="B50" s="7">
         <v>45084</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="18" t="s">
         <v>64</v>
       </c>
       <c r="D50" s="1" t="str">
@@ -5600,7 +5411,7 @@
       <c r="F50" s="1">
         <v>2</v>
       </c>
-      <c r="G50" s="25">
+      <c r="G50" s="6">
         <v>540</v>
       </c>
       <c r="H50" s="1" t="s">
@@ -5608,14 +5419,14 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="28">
+      <c r="A51" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>6</v>
       </c>
-      <c r="B51" s="26">
+      <c r="B51" s="7">
         <v>45086</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D51" s="1" t="str">
@@ -5628,7 +5439,7 @@
       <c r="F51" s="1">
         <v>2</v>
       </c>
-      <c r="G51" s="25">
+      <c r="G51" s="6">
         <v>89.82</v>
       </c>
       <c r="H51" s="1" t="s">
@@ -5636,14 +5447,14 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="28">
+      <c r="A52" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>6</v>
       </c>
-      <c r="B52" s="26">
+      <c r="B52" s="7">
         <v>45086</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="18" t="s">
         <v>78</v>
       </c>
       <c r="D52" s="1" t="str">
@@ -5656,7 +5467,7 @@
       <c r="F52" s="1">
         <v>2</v>
       </c>
-      <c r="G52" s="25">
+      <c r="G52" s="6">
         <v>168.3</v>
       </c>
       <c r="H52" s="1" t="s">
@@ -5664,14 +5475,14 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="28">
+      <c r="A53" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>6</v>
       </c>
-      <c r="B53" s="26">
+      <c r="B53" s="7">
         <v>45088</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="18" t="s">
         <v>46</v>
       </c>
       <c r="D53" s="1" t="str">
@@ -5684,7 +5495,7 @@
       <c r="F53" s="1">
         <v>1</v>
       </c>
-      <c r="G53" s="25">
+      <c r="G53" s="6">
         <v>130.5</v>
       </c>
       <c r="H53" s="1" t="s">
@@ -5692,14 +5503,14 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="28">
+      <c r="A54" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>6</v>
       </c>
-      <c r="B54" s="26">
+      <c r="B54" s="7">
         <v>45090</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="18" t="s">
         <v>63</v>
       </c>
       <c r="D54" s="1" t="str">
@@ -5712,7 +5523,7 @@
       <c r="F54" s="1">
         <v>1</v>
       </c>
-      <c r="G54" s="25">
+      <c r="G54" s="6">
         <v>272.60999999999996</v>
       </c>
       <c r="H54" s="1" t="s">
@@ -5720,14 +5531,14 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="28">
+      <c r="A55" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>6</v>
       </c>
-      <c r="B55" s="26">
+      <c r="B55" s="7">
         <v>45093</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D55" s="1" t="str">
@@ -5740,7 +5551,7 @@
       <c r="F55" s="1">
         <v>3</v>
       </c>
-      <c r="G55" s="25">
+      <c r="G55" s="6">
         <v>188.73000000000002</v>
       </c>
       <c r="H55" s="1" t="s">
@@ -5748,14 +5559,14 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="28">
+      <c r="A56" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>6</v>
       </c>
-      <c r="B56" s="26">
+      <c r="B56" s="7">
         <v>45093</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="18" t="s">
         <v>57</v>
       </c>
       <c r="D56" s="1" t="str">
@@ -5768,7 +5579,7 @@
       <c r="F56" s="1">
         <v>4</v>
       </c>
-      <c r="G56" s="25">
+      <c r="G56" s="6">
         <v>153</v>
       </c>
       <c r="H56" s="1" t="s">
@@ -5776,14 +5587,14 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="28">
+      <c r="A57" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>6</v>
       </c>
-      <c r="B57" s="26">
+      <c r="B57" s="7">
         <v>45094</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D57" s="1" t="str">
@@ -5796,7 +5607,7 @@
       <c r="F57" s="1">
         <v>2</v>
       </c>
-      <c r="G57" s="25">
+      <c r="G57" s="6">
         <v>89.82</v>
       </c>
       <c r="H57" s="1" t="s">
@@ -5804,14 +5615,14 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="28">
+      <c r="A58" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>6</v>
       </c>
-      <c r="B58" s="26">
+      <c r="B58" s="7">
         <v>45097</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D58" s="1" t="str">
@@ -5824,7 +5635,7 @@
       <c r="F58" s="1">
         <v>1</v>
       </c>
-      <c r="G58" s="25">
+      <c r="G58" s="6">
         <v>62.910000000000004</v>
       </c>
       <c r="H58" s="1" t="s">
@@ -5832,14 +5643,14 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="28">
+      <c r="A59" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>6</v>
       </c>
-      <c r="B59" s="26">
+      <c r="B59" s="7">
         <v>45105</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D59" s="1" t="str">
@@ -5852,7 +5663,7 @@
       <c r="F59" s="1">
         <v>5</v>
       </c>
-      <c r="G59" s="25">
+      <c r="G59" s="6">
         <v>404.55000000000007</v>
       </c>
       <c r="H59" s="1" t="s">
@@ -5860,14 +5671,14 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="28">
+      <c r="A60" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>6</v>
       </c>
-      <c r="B60" s="26">
+      <c r="B60" s="7">
         <v>45105</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="18" t="s">
         <v>79</v>
       </c>
       <c r="D60" s="1" t="str">
@@ -5880,7 +5691,7 @@
       <c r="F60" s="1">
         <v>2</v>
       </c>
-      <c r="G60" s="25">
+      <c r="G60" s="6">
         <v>252</v>
       </c>
       <c r="H60" s="1" t="s">
@@ -5888,14 +5699,14 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="28">
+      <c r="A61" s="8">
         <f>MONTH(TB_Vendas[[#This Row],[Data]])</f>
         <v>6</v>
       </c>
-      <c r="B61" s="26">
+      <c r="B61" s="7">
         <v>45106</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="18" t="s">
         <v>48</v>
       </c>
       <c r="D61" s="1" t="str">
@@ -5908,7 +5719,7 @@
       <c r="F61" s="1">
         <v>3</v>
       </c>
-      <c r="G61" s="25">
+      <c r="G61" s="6">
         <v>107.72999999999999</v>
       </c>
       <c r="H61" s="1" t="s">
@@ -5920,7 +5731,7 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5948,7 +5759,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5958,51 +5769,52 @@
     <col min="6" max="8" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="21" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
-      <c r="F2" s="32" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="34"/>
-    </row>
-    <row r="3" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="27" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="e">
         <f>COUNTIF(#REF!,"&gt;0")</f>
         <v>#REF!</v>
@@ -6011,7 +5823,7 @@
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="D4" s="24" t="e">
+      <c r="D4" s="23" t="e">
         <f>AVERAGE(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -6023,7 +5835,7 @@
         <f>SUMIF(#REF!,F2,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="H4" s="24" t="e">
+      <c r="H4" s="23" t="e">
         <f>AVERAGEIF(#REF!,F2,#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -6048,7 +5860,7 @@
   <dimension ref="B2:H14"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6063,10 +5875,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="28" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6079,123 +5891,123 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="30" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="16">
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4">
         <v>92.9</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="4">
         <v>83.61</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="24">
         <v>6</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="25">
         <v>501.65999999999997</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="16">
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4">
         <v>48.9</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="4">
         <v>44.01</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="24">
         <v>2</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="25">
         <v>88.02</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="16">
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4">
         <v>42.5</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="4">
         <v>38.25</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="24">
         <v>6</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="25">
         <v>229.5</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="16">
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4">
         <v>32.9</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="4">
         <v>29.61</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="24">
         <v>6</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="25">
         <v>177.66</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -6204,21 +6016,21 @@
       <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="4">
         <v>299.89999999999998</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="4">
         <v>269.90999999999997</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="24">
         <v>1</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="25">
         <v>269.90999999999997</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -6227,21 +6039,21 @@
       <c r="D12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="4">
         <v>299.89999999999998</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="4">
         <v>269.90999999999997</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="24">
         <v>1</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="25">
         <v>269.90999999999997</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -6250,39 +6062,39 @@
       <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="4">
         <v>93.5</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="4">
         <v>84.15</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="24">
         <v>2</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="25">
         <v>168.3</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="15">
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="4">
         <v>146</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="4">
         <v>131.4</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="24">
         <v>2</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="26">
         <v>262.8</v>
       </c>
     </row>

--- a/Meteora_Ecommerce_2.xlsx
+++ b/Meteora_Ecommerce_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Exel\Meteora-Exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800D3C8A-B4C6-4EB8-9D26-BE2A06F1D772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1900FBF1-31F6-48F3-AAC9-E59DDF423484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
   </bookViews>
   <sheets>
     <sheet name="Meu Gráfico" sheetId="6" r:id="rId1"/>
@@ -587,7 +587,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -612,31 +612,13 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="4">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -661,6 +643,27 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="4">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Cabeçalho Meteora" xfId="3" xr:uid="{43DBFFA1-791E-423B-B2A6-377CC2810274}"/>
@@ -672,14 +675,6 @@
     <cellStyle name="Título Meteora" xfId="2" xr:uid="{52F1EA3C-B23E-4AE6-AE73-27AD9F7C9021}"/>
   </cellStyles>
   <dxfs count="21">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF2EBFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -723,6 +718,14 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF2EBFF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2013,7 +2016,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8D58BA28-6F2B-4BE7-9135-3BC55F666805}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -2669,33 +2672,33 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40AC111B-A369-4C0B-9503-7C5B9442DAEA}" name="TB_Produtos" displayName="TB_Produtos" ref="A3:F42" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A3:F42" xr:uid="{40AC111B-A369-4C0B-9503-7C5B9442DAEA}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2F8ED5FF-48A1-488E-9DF1-FE060F71A415}" name="Código" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{2F8ED5FF-48A1-488E-9DF1-FE060F71A415}" name="Código" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{E100D4E2-C3A0-43FF-A1D9-90A4BC2A9918}" name="Produtos"/>
-    <tableColumn id="3" xr3:uid="{2EF7FEE0-6B6F-4534-86A0-46B6555B7BEF}" name="Tamanho" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{2EF7FEE0-6B6F-4534-86A0-46B6555B7BEF}" name="Tamanho" dataDxfId="11"/>
     <tableColumn id="4" xr3:uid="{4435A4B8-E7F0-4D66-A4F8-6A9FEAA36D5A}" name="Categoria"/>
-    <tableColumn id="6" xr3:uid="{15F9CACC-A558-4A20-80CF-C2ADA2603221}" name="Estoque" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{CA8AD0DE-58EC-4839-85FB-1DD75DA28087}" name="Preço Unitário" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{15F9CACC-A558-4A20-80CF-C2ADA2603221}" name="Estoque" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{CA8AD0DE-58EC-4839-85FB-1DD75DA28087}" name="Preço Unitário" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AD739091-30BD-4C30-BDDA-7504C0C4B6E2}" name="TB_Vendas" displayName="TB_Vendas" ref="A2:H61" totalsRowShown="0" dataDxfId="9" headerRowCellStyle="Meu estilo">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AD739091-30BD-4C30-BDDA-7504C0C4B6E2}" name="TB_Vendas" displayName="TB_Vendas" ref="A2:H61" totalsRowShown="0" dataDxfId="8" headerRowCellStyle="Meu estilo">
   <autoFilter ref="A2:H61" xr:uid="{AD739091-30BD-4C30-BDDA-7504C0C4B6E2}"/>
   <tableColumns count="8">
-    <tableColumn id="7" xr3:uid="{5E8DE7C3-CDB6-4314-A5CC-C44D3C21973F}" name="Mês" dataDxfId="8">
+    <tableColumn id="7" xr3:uid="{5E8DE7C3-CDB6-4314-A5CC-C44D3C21973F}" name="Mês" dataDxfId="7">
       <calculatedColumnFormula>MONTH(TB_Vendas[[#This Row],[Data]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{43632F1F-6978-4CE7-BB13-7CCE587D6821}" name="Data" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{43632F1F-6978-4CE7-BB13-7CCE587D6821}" name="Data" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{49DF5362-33BE-4541-BD47-0B512249381E}" name="Código" dataCellStyle="Linha cod"/>
-    <tableColumn id="3" xr3:uid="{B3C718A1-FEFF-4C65-9CA1-DF94EF755918}" name="Tamanho" dataDxfId="6">
+    <tableColumn id="3" xr3:uid="{B3C718A1-FEFF-4C65-9CA1-DF94EF755918}" name="Tamanho" dataDxfId="5">
       <calculatedColumnFormula>_xlfn.XLOOKUP(C3,TB_Produtos[Código],TB_Produtos[Tamanho])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1F3EAF93-84E7-4086-BE54-3AB7D71B21A8}" name="Categoria" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{7DC2ADED-AF8A-4BC8-A38E-FEF676FE49C9}" name="Qtd" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{9459B662-6A4F-4486-82B1-12F67B8F842E}" name="Total" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{192FEBCA-1287-48A6-9BE6-69528F71C305}" name="Vendedor" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{1F3EAF93-84E7-4086-BE54-3AB7D71B21A8}" name="Categoria" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{7DC2ADED-AF8A-4BC8-A38E-FEF676FE49C9}" name="Qtd" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{9459B662-6A4F-4486-82B1-12F67B8F842E}" name="Total" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{192FEBCA-1287-48A6-9BE6-69528F71C305}" name="Vendedor" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3001,7 +3004,7 @@
   <dimension ref="F3:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3171,31 +3174,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8ADA2D8-DE9E-4ACF-B5A7-8907124C5CF1}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B12" sqref="B12:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
@@ -3226,7 +3229,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
@@ -3246,7 +3249,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B5" t="s">
@@ -3266,7 +3269,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B6" t="s">
@@ -3286,7 +3289,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="12" t="s">
         <v>46</v>
       </c>
       <c r="B7" t="s">
@@ -3306,7 +3309,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B8" t="s">
@@ -3326,7 +3329,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="12" t="s">
         <v>48</v>
       </c>
       <c r="B9" t="s">
@@ -3346,7 +3349,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B10" t="s">
@@ -3366,7 +3369,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="12" t="s">
         <v>50</v>
       </c>
       <c r="B11" t="s">
@@ -3386,7 +3389,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="12" t="s">
         <v>51</v>
       </c>
       <c r="B12" t="s">
@@ -3406,7 +3409,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B13" t="s">
@@ -3426,7 +3429,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="12" t="s">
         <v>53</v>
       </c>
       <c r="B14" t="s">
@@ -3446,7 +3449,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B15" t="s">
@@ -3466,7 +3469,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B16" t="s">
@@ -3485,8 +3488,8 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>56</v>
       </c>
       <c r="B17" t="s">
@@ -3504,9 +3507,13 @@
       <c r="F17" s="6">
         <v>39.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="J17">
+        <f>COUNTA(TB_Produtos[Produtos])</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>57</v>
       </c>
       <c r="B18" t="s">
@@ -3525,8 +3532,8 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B19" t="s">
@@ -3544,9 +3551,13 @@
       <c r="F19" s="6">
         <v>25.9</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="J19">
+        <f>COUNTA(TB_Produtos[Produtos],TB_Produtos[Categoria])</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B20" t="s">
@@ -3565,8 +3576,8 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B21" t="s">
@@ -3585,8 +3596,8 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B22" t="s">
@@ -3605,8 +3616,8 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B23" t="s">
@@ -3625,8 +3636,8 @@
         <v>299.89999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>63</v>
       </c>
       <c r="B24" t="s">
@@ -3645,8 +3656,8 @@
         <v>302.89999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>64</v>
       </c>
       <c r="B25" t="s">
@@ -3665,8 +3676,8 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B26" t="s">
@@ -3685,8 +3696,8 @@
         <v>249.9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
         <v>66</v>
       </c>
       <c r="B27" t="s">
@@ -3705,8 +3716,8 @@
         <v>259.89999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
         <v>67</v>
       </c>
       <c r="B28" t="s">
@@ -3725,8 +3736,8 @@
         <v>299.89999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B29" t="s">
@@ -3745,8 +3756,8 @@
         <v>349.9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
         <v>69</v>
       </c>
       <c r="B30" t="s">
@@ -3765,8 +3776,8 @@
         <v>399.9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
         <v>70</v>
       </c>
       <c r="B31" t="s">
@@ -3785,8 +3796,8 @@
         <v>249.9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B32" t="s">
@@ -3806,7 +3817,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B33" t="s">
@@ -3826,7 +3837,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B34" t="s">
@@ -3846,7 +3857,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B35" t="s">
@@ -3866,7 +3877,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="12" t="s">
         <v>75</v>
       </c>
       <c r="B36" t="s">
@@ -3886,7 +3897,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="12" t="s">
         <v>76</v>
       </c>
       <c r="B37" t="s">
@@ -3906,7 +3917,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="12" t="s">
         <v>77</v>
       </c>
       <c r="B38" t="s">
@@ -3926,7 +3937,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="12" t="s">
         <v>78</v>
       </c>
       <c r="B39" t="s">
@@ -3946,7 +3957,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="12" t="s">
         <v>79</v>
       </c>
       <c r="B40" t="s">
@@ -3966,7 +3977,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="12" t="s">
         <v>80</v>
       </c>
       <c r="B41" t="s">
@@ -3986,7 +3997,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="12" t="s">
         <v>81</v>
       </c>
       <c r="B42" t="s">
@@ -4037,40 +4048,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="13" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4082,7 +4093,7 @@
       <c r="B3" s="7">
         <v>44931</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="14" t="s">
         <v>69</v>
       </c>
       <c r="D3" s="1" t="str">
@@ -4110,7 +4121,7 @@
       <c r="B4" s="7">
         <v>44932</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="14" t="s">
         <v>73</v>
       </c>
       <c r="D4" s="1">
@@ -4138,7 +4149,7 @@
       <c r="B5" s="7">
         <v>44933</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D5" s="1">
@@ -4166,7 +4177,7 @@
       <c r="B6" s="7">
         <v>44938</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="14" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="1" t="str">
@@ -4194,7 +4205,7 @@
       <c r="B7" s="7">
         <v>44939</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="14" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="1" t="str">
@@ -4222,7 +4233,7 @@
       <c r="B8" s="7">
         <v>44943</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="14" t="s">
         <v>73</v>
       </c>
       <c r="D8" s="1">
@@ -4250,7 +4261,7 @@
       <c r="B9" s="7">
         <v>44949</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="14" t="s">
         <v>68</v>
       </c>
       <c r="D9" s="1" t="str">
@@ -4278,7 +4289,7 @@
       <c r="B10" s="7">
         <v>44952</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="14" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="1" t="str">
@@ -4306,7 +4317,7 @@
       <c r="B11" s="7">
         <v>44954</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="14" t="s">
         <v>57</v>
       </c>
       <c r="D11" s="1" t="str">
@@ -4334,7 +4345,7 @@
       <c r="B12" s="7">
         <v>44955</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D12" s="1" t="str">
@@ -4362,7 +4373,7 @@
       <c r="B13" s="7">
         <v>44956</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="14" t="s">
         <v>81</v>
       </c>
       <c r="D13" s="1" t="str">
@@ -4390,7 +4401,7 @@
       <c r="B14" s="7">
         <v>44960</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="14" t="s">
         <v>47</v>
       </c>
       <c r="D14" s="1" t="str">
@@ -4418,7 +4429,7 @@
       <c r="B15" s="7">
         <v>44962</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="14" t="s">
         <v>62</v>
       </c>
       <c r="D15" s="1" t="str">
@@ -4446,7 +4457,7 @@
       <c r="B16" s="7">
         <v>44975</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D16" s="1">
@@ -4474,7 +4485,7 @@
       <c r="B17" s="7">
         <v>44978</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="14" t="s">
         <v>78</v>
       </c>
       <c r="D17" s="1" t="str">
@@ -4502,7 +4513,7 @@
       <c r="B18" s="7">
         <v>44981</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="14" t="s">
         <v>72</v>
       </c>
       <c r="D18" s="1">
@@ -4530,7 +4541,7 @@
       <c r="B19" s="7">
         <v>44982</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="14" t="s">
         <v>55</v>
       </c>
       <c r="D19" s="1" t="str">
@@ -4558,7 +4569,7 @@
       <c r="B20" s="7">
         <v>44983</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="1" t="str">
@@ -4586,7 +4597,7 @@
       <c r="B21" s="7">
         <v>44986</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="14" t="s">
         <v>59</v>
       </c>
       <c r="D21" s="1" t="str">
@@ -4614,7 +4625,7 @@
       <c r="B22" s="7">
         <v>44986</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D22" s="1">
@@ -4642,7 +4653,7 @@
       <c r="B23" s="7">
         <v>44987</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="14" t="s">
         <v>47</v>
       </c>
       <c r="D23" s="1" t="str">
@@ -4670,7 +4681,7 @@
       <c r="B24" s="7">
         <v>44988</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="14" t="s">
         <v>54</v>
       </c>
       <c r="D24" s="1" t="str">
@@ -4698,7 +4709,7 @@
       <c r="B25" s="7">
         <v>44989</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="14" t="s">
         <v>56</v>
       </c>
       <c r="D25" s="1" t="str">
@@ -4726,7 +4737,7 @@
       <c r="B26" s="7">
         <v>44994</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="14" t="s">
         <v>66</v>
       </c>
       <c r="D26" s="1" t="str">
@@ -4754,7 +4765,7 @@
       <c r="B27" s="7">
         <v>44999</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D27" s="1">
@@ -4782,7 +4793,7 @@
       <c r="B28" s="7">
         <v>45004</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="14" t="s">
         <v>45</v>
       </c>
       <c r="D28" s="1" t="str">
@@ -4810,7 +4821,7 @@
       <c r="B29" s="7">
         <v>45006</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="14" t="s">
         <v>71</v>
       </c>
       <c r="D29" s="1">
@@ -4838,7 +4849,7 @@
       <c r="B30" s="7">
         <v>45010</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="14" t="s">
         <v>45</v>
       </c>
       <c r="D30" s="1" t="str">
@@ -4866,7 +4877,7 @@
       <c r="B31" s="7">
         <v>45018</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="14" t="s">
         <v>64</v>
       </c>
       <c r="D31" s="1" t="str">
@@ -4894,7 +4905,7 @@
       <c r="B32" s="7">
         <v>45020</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="14" t="s">
         <v>70</v>
       </c>
       <c r="D32" s="1">
@@ -4922,7 +4933,7 @@
       <c r="B33" s="7">
         <v>45024</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="14" t="s">
         <v>80</v>
       </c>
       <c r="D33" s="1" t="str">
@@ -4950,7 +4961,7 @@
       <c r="B34" s="7">
         <v>45027</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="14" t="s">
         <v>43</v>
       </c>
       <c r="D34" s="1" t="str">
@@ -4978,7 +4989,7 @@
       <c r="B35" s="7">
         <v>45028</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D35" s="1" t="str">
@@ -5006,7 +5017,7 @@
       <c r="B36" s="7">
         <v>45029</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="14" t="s">
         <v>55</v>
       </c>
       <c r="D36" s="1" t="str">
@@ -5034,7 +5045,7 @@
       <c r="B37" s="7">
         <v>45031</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="14" t="s">
         <v>63</v>
       </c>
       <c r="D37" s="1" t="str">
@@ -5062,7 +5073,7 @@
       <c r="B38" s="7">
         <v>45038</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D38" s="1" t="str">
@@ -5090,7 +5101,7 @@
       <c r="B39" s="7">
         <v>45039</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="14" t="s">
         <v>81</v>
       </c>
       <c r="D39" s="1" t="str">
@@ -5118,7 +5129,7 @@
       <c r="B40" s="7">
         <v>45042</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="14" t="s">
         <v>60</v>
       </c>
       <c r="D40" s="1" t="str">
@@ -5146,7 +5157,7 @@
       <c r="B41" s="7">
         <v>45043</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="14" t="s">
         <v>56</v>
       </c>
       <c r="D41" s="1" t="str">
@@ -5174,7 +5185,7 @@
       <c r="B42" s="7">
         <v>45054</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="14" t="s">
         <v>67</v>
       </c>
       <c r="D42" s="1" t="str">
@@ -5202,7 +5213,7 @@
       <c r="B43" s="7">
         <v>45055</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="14" t="s">
         <v>57</v>
       </c>
       <c r="D43" s="1" t="str">
@@ -5230,7 +5241,7 @@
       <c r="B44" s="7">
         <v>45056</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D44" s="1">
@@ -5258,7 +5269,7 @@
       <c r="B45" s="7">
         <v>45057</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D45" s="1">
@@ -5286,7 +5297,7 @@
       <c r="B46" s="7">
         <v>45058</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="14" t="s">
         <v>54</v>
       </c>
       <c r="D46" s="1" t="str">
@@ -5314,7 +5325,7 @@
       <c r="B47" s="7">
         <v>45061</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="14" t="s">
         <v>61</v>
       </c>
       <c r="D47" s="1" t="str">
@@ -5342,7 +5353,7 @@
       <c r="B48" s="7">
         <v>45064</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="14" t="s">
         <v>54</v>
       </c>
       <c r="D48" s="1" t="str">
@@ -5370,7 +5381,7 @@
       <c r="B49" s="7">
         <v>45084</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="14" t="s">
         <v>70</v>
       </c>
       <c r="D49" s="1">
@@ -5398,7 +5409,7 @@
       <c r="B50" s="7">
         <v>45084</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="14" t="s">
         <v>64</v>
       </c>
       <c r="D50" s="1" t="str">
@@ -5426,7 +5437,7 @@
       <c r="B51" s="7">
         <v>45086</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="14" t="s">
         <v>61</v>
       </c>
       <c r="D51" s="1" t="str">
@@ -5454,7 +5465,7 @@
       <c r="B52" s="7">
         <v>45086</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="14" t="s">
         <v>78</v>
       </c>
       <c r="D52" s="1" t="str">
@@ -5482,7 +5493,7 @@
       <c r="B53" s="7">
         <v>45088</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D53" s="1" t="str">
@@ -5510,7 +5521,7 @@
       <c r="B54" s="7">
         <v>45090</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="14" t="s">
         <v>63</v>
       </c>
       <c r="D54" s="1" t="str">
@@ -5538,7 +5549,7 @@
       <c r="B55" s="7">
         <v>45093</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D55" s="1" t="str">
@@ -5566,7 +5577,7 @@
       <c r="B56" s="7">
         <v>45093</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="14" t="s">
         <v>57</v>
       </c>
       <c r="D56" s="1" t="str">
@@ -5594,7 +5605,7 @@
       <c r="B57" s="7">
         <v>45094</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="14" t="s">
         <v>61</v>
       </c>
       <c r="D57" s="1" t="str">
@@ -5622,7 +5633,7 @@
       <c r="B58" s="7">
         <v>45097</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D58" s="1" t="str">
@@ -5650,7 +5661,7 @@
       <c r="B59" s="7">
         <v>45105</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D59" s="1" t="str">
@@ -5678,7 +5689,7 @@
       <c r="B60" s="7">
         <v>45105</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D60" s="1" t="str">
@@ -5706,7 +5717,7 @@
       <c r="B61" s="7">
         <v>45106</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="14" t="s">
         <v>48</v>
       </c>
       <c r="D61" s="1" t="str">
@@ -5731,7 +5742,7 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5758,8 +5769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87920B21-B994-41DD-BEC6-B8D0834CB666}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5770,74 +5781,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="F2" s="21" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="F2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="27" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="e">
-        <f>COUNTIF(#REF!,"&gt;0")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C4" s="22" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D4" s="23" t="e">
-        <f>AVERAGE(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F4" s="22" t="e">
-        <f>COUNTIF(#REF!,F2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G4" s="22" t="e">
-        <f>SUMIF(#REF!,F2,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H4" s="23" t="e">
-        <f>AVERAGEIF(#REF!,F2,#REF!)</f>
-        <v>#REF!</v>
+      <c r="B4" s="16">
+        <f>COUNTA(TB_Produtos[Produtos])</f>
+        <v>39</v>
+      </c>
+      <c r="C4" s="16">
+        <f>SUM(TB_Produtos[Estoque])</f>
+        <v>231</v>
+      </c>
+      <c r="D4" s="31">
+        <f>AVERAGE(TB_Produtos[Estoque])</f>
+        <v>5.9230769230769234</v>
+      </c>
+      <c r="F4" s="16">
+        <f>COUNTIF(TB_Produtos[Produtos],F2)</f>
+        <v>3</v>
+      </c>
+      <c r="G4" s="16">
+        <f>SUMIF(TB_Produtos[Produtos],F2,TB_Produtos[Estoque])</f>
+        <v>28</v>
+      </c>
+      <c r="H4" s="17">
+        <f>AVERAGEIF(TB_Produtos[Produtos],F2,TB_Produtos[Estoque])</f>
+        <v>9.3333333333333339</v>
       </c>
     </row>
   </sheetData>
@@ -5860,7 +5871,7 @@
   <dimension ref="B2:H14"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5875,10 +5886,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="22" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5892,25 +5903,25 @@
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="24" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5930,10 +5941,10 @@
       <c r="F7" s="4">
         <v>83.61</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="18">
         <v>6</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="19">
         <v>501.65999999999997</v>
       </c>
     </row>
@@ -5953,10 +5964,10 @@
       <c r="F8" s="4">
         <v>44.01</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="18">
         <v>2</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="19">
         <v>88.02</v>
       </c>
     </row>
@@ -5976,10 +5987,10 @@
       <c r="F9" s="4">
         <v>38.25</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="18">
         <v>6</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="19">
         <v>229.5</v>
       </c>
     </row>
@@ -5999,10 +6010,10 @@
       <c r="F10" s="4">
         <v>29.61</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="18">
         <v>6</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="19">
         <v>177.66</v>
       </c>
     </row>
@@ -6022,10 +6033,10 @@
       <c r="F11" s="4">
         <v>269.90999999999997</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="18">
         <v>1</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="19">
         <v>269.90999999999997</v>
       </c>
     </row>
@@ -6045,10 +6056,10 @@
       <c r="F12" s="4">
         <v>269.90999999999997</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="18">
         <v>1</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="19">
         <v>269.90999999999997</v>
       </c>
     </row>
@@ -6068,10 +6079,10 @@
       <c r="F13" s="4">
         <v>84.15</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="18">
         <v>2</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="19">
         <v>168.3</v>
       </c>
     </row>
@@ -6091,10 +6102,10 @@
       <c r="F14" s="4">
         <v>131.4</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="18">
         <v>2</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="20">
         <v>262.8</v>
       </c>
     </row>

--- a/Meteora_Ecommerce_2.xlsx
+++ b/Meteora_Ecommerce_2.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Exel\Meteora-Exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1900FBF1-31F6-48F3-AAC9-E59DDF423484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5801944C-959D-426F-A8AF-25D70034E08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Meu Gráfico" sheetId="6" r:id="rId1"/>
-    <sheet name="Tab Meu Gráfico" sheetId="5" r:id="rId2"/>
+    <sheet name="Meu Gráfico" sheetId="6" state="hidden" r:id="rId1"/>
+    <sheet name="Tab Meu Gráfico" sheetId="5" state="hidden" r:id="rId2"/>
     <sheet name="Produtos" sheetId="17" r:id="rId3"/>
     <sheet name="Vendas" sheetId="16" r:id="rId4"/>
-    <sheet name="Meus Números (Tabela)" sheetId="12" r:id="rId5"/>
-    <sheet name="Filtro Avançado" sheetId="9" r:id="rId6"/>
+    <sheet name="Meus Números (Tabela)" sheetId="12" state="hidden" r:id="rId5"/>
+    <sheet name="Filtro Avançado" sheetId="9" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Vendas!$B$2:$F$61</definedName>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="90">
   <si>
     <t>Produtos</t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>Estoque</t>
+  </si>
+  <si>
+    <t>Situação</t>
   </si>
 </sst>
 </file>
@@ -587,7 +590,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -661,9 +664,6 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Cabeçalho Meteora" xfId="3" xr:uid="{43DBFFA1-791E-423B-B2A6-377CC2810274}"/>
@@ -674,7 +674,65 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Título Meteora" xfId="2" xr:uid="{52F1EA3C-B23E-4AE6-AE73-27AD9F7C9021}"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="8"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -876,6 +934,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF3737"/>
+      <color rgb="FF5A0A12"/>
+      <color rgb="FFFEDEE5"/>
       <color rgb="FFF2EBFF"/>
       <color rgb="FFECE1FF"/>
       <color rgb="FF9353FF"/>
@@ -883,9 +944,6 @@
       <color rgb="FFFCBCEB"/>
       <color rgb="FFDAFF01"/>
       <color rgb="FFCCCCCC"/>
-      <color rgb="FFF87F46"/>
-      <color rgb="FFEE6471"/>
-      <color rgb="FF4472C4"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2059,7 +2117,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Office Resolve Testes" refreshedDate="45091.695904398148" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="39" xr:uid="{D9D057AD-0FAE-4908-B186-309A9CA94BEA}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A3:G42" sheet="Produtos"/>
+    <worksheetSource ref="A3:H42" sheet="Produtos"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="Produtos" numFmtId="0">
@@ -2619,29 +2677,29 @@
     <dataField name="Soma de Qtd" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="20">
+    <format dxfId="26">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="24">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="23">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="22">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -2669,36 +2727,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40AC111B-A369-4C0B-9503-7C5B9442DAEA}" name="TB_Produtos" displayName="TB_Produtos" ref="A3:F42" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A3:F42" xr:uid="{40AC111B-A369-4C0B-9503-7C5B9442DAEA}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2F8ED5FF-48A1-488E-9DF1-FE060F71A415}" name="Código" dataDxfId="12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40AC111B-A369-4C0B-9503-7C5B9442DAEA}" name="TB_Produtos" displayName="TB_Produtos" ref="A3:G42" totalsRowShown="0" headerRowDxfId="19">
+  <autoFilter ref="A3:G42" xr:uid="{40AC111B-A369-4C0B-9503-7C5B9442DAEA}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{2F8ED5FF-48A1-488E-9DF1-FE060F71A415}" name="Código" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{E100D4E2-C3A0-43FF-A1D9-90A4BC2A9918}" name="Produtos"/>
-    <tableColumn id="3" xr3:uid="{2EF7FEE0-6B6F-4534-86A0-46B6555B7BEF}" name="Tamanho" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{2EF7FEE0-6B6F-4534-86A0-46B6555B7BEF}" name="Tamanho" dataDxfId="17"/>
     <tableColumn id="4" xr3:uid="{4435A4B8-E7F0-4D66-A4F8-6A9FEAA36D5A}" name="Categoria"/>
-    <tableColumn id="6" xr3:uid="{15F9CACC-A558-4A20-80CF-C2ADA2603221}" name="Estoque" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{CA8AD0DE-58EC-4839-85FB-1DD75DA28087}" name="Preço Unitário" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{15F9CACC-A558-4A20-80CF-C2ADA2603221}" name="Estoque" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{B76300DD-4437-4C69-886B-EB89CE395B66}" name="Situação" dataDxfId="5">
+      <calculatedColumnFormula>TB_Produtos[[#This Row],[Estoque]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{CA8AD0DE-58EC-4839-85FB-1DD75DA28087}" name="Preço Unitário" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AD739091-30BD-4C30-BDDA-7504C0C4B6E2}" name="TB_Vendas" displayName="TB_Vendas" ref="A2:H61" totalsRowShown="0" dataDxfId="8" headerRowCellStyle="Meu estilo">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AD739091-30BD-4C30-BDDA-7504C0C4B6E2}" name="TB_Vendas" displayName="TB_Vendas" ref="A2:H61" totalsRowShown="0" dataDxfId="14" headerRowCellStyle="Meu estilo">
   <autoFilter ref="A2:H61" xr:uid="{AD739091-30BD-4C30-BDDA-7504C0C4B6E2}"/>
   <tableColumns count="8">
-    <tableColumn id="7" xr3:uid="{5E8DE7C3-CDB6-4314-A5CC-C44D3C21973F}" name="Mês" dataDxfId="7">
+    <tableColumn id="7" xr3:uid="{5E8DE7C3-CDB6-4314-A5CC-C44D3C21973F}" name="Mês" dataDxfId="13">
       <calculatedColumnFormula>MONTH(TB_Vendas[[#This Row],[Data]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{43632F1F-6978-4CE7-BB13-7CCE587D6821}" name="Data" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{43632F1F-6978-4CE7-BB13-7CCE587D6821}" name="Data" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{49DF5362-33BE-4541-BD47-0B512249381E}" name="Código" dataCellStyle="Linha cod"/>
-    <tableColumn id="3" xr3:uid="{B3C718A1-FEFF-4C65-9CA1-DF94EF755918}" name="Tamanho" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{B3C718A1-FEFF-4C65-9CA1-DF94EF755918}" name="Tamanho" dataDxfId="11">
       <calculatedColumnFormula>_xlfn.XLOOKUP(C3,TB_Produtos[Código],TB_Produtos[Tamanho])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1F3EAF93-84E7-4086-BE54-3AB7D71B21A8}" name="Categoria" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{7DC2ADED-AF8A-4BC8-A38E-FEF676FE49C9}" name="Qtd" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{9459B662-6A4F-4486-82B1-12F67B8F842E}" name="Total" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{192FEBCA-1287-48A6-9BE6-69528F71C305}" name="Vendedor" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{1F3EAF93-84E7-4086-BE54-3AB7D71B21A8}" name="Categoria" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{7DC2ADED-AF8A-4BC8-A38E-FEF676FE49C9}" name="Qtd" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{9459B662-6A4F-4486-82B1-12F67B8F842E}" name="Total" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{192FEBCA-1287-48A6-9BE6-69528F71C305}" name="Vendedor" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3174,10 +3235,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8ADA2D8-DE9E-4ACF-B5A7-8907124C5CF1}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3187,10 +3248,11 @@
     <col min="3" max="3" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>15</v>
       </c>
@@ -3199,16 +3261,18 @@
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
-    </row>
-    <row r="2" spans="1:6" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>41</v>
       </c>
@@ -3225,10 +3289,13 @@
         <v>88</v>
       </c>
       <c r="F3" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>43</v>
       </c>
@@ -3244,11 +3311,15 @@
       <c r="E4" s="1">
         <v>12</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>12</v>
+      </c>
+      <c r="G4" s="6">
         <v>65.900000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>44</v>
       </c>
@@ -3264,11 +3335,15 @@
       <c r="E5" s="1">
         <v>15</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>15</v>
+      </c>
+      <c r="G5" s="6">
         <v>69.900000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>45</v>
       </c>
@@ -3284,11 +3359,15 @@
       <c r="E6" s="1">
         <v>5</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>5</v>
+      </c>
+      <c r="G6" s="6">
         <v>70.900000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>46</v>
       </c>
@@ -3304,11 +3383,15 @@
       <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>2</v>
+      </c>
+      <c r="G7" s="6">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>47</v>
       </c>
@@ -3324,11 +3407,15 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
         <v>259.89999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>48</v>
       </c>
@@ -3344,11 +3431,15 @@
       <c r="E9" s="1">
         <v>11</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>11</v>
+      </c>
+      <c r="G9" s="6">
         <v>39.9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>49</v>
       </c>
@@ -3364,11 +3455,15 @@
       <c r="E10" s="1">
         <v>6</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>6</v>
+      </c>
+      <c r="G10" s="6">
         <v>85.9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>50</v>
       </c>
@@ -3384,11 +3479,15 @@
       <c r="E11" s="1">
         <v>5</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>5</v>
+      </c>
+      <c r="G11" s="6">
         <v>89.9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>51</v>
       </c>
@@ -3404,11 +3503,15 @@
       <c r="E12" s="1">
         <v>8</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>8</v>
+      </c>
+      <c r="G12" s="6">
         <v>92.9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>52</v>
       </c>
@@ -3424,11 +3527,15 @@
       <c r="E13" s="1">
         <v>2</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>2</v>
+      </c>
+      <c r="G13" s="6">
         <v>44.9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>53</v>
       </c>
@@ -3444,11 +3551,15 @@
       <c r="E14" s="1">
         <v>3</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>3</v>
+      </c>
+      <c r="G14" s="6">
         <v>46.9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>54</v>
       </c>
@@ -3464,11 +3575,15 @@
       <c r="E15" s="1">
         <v>5</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>5</v>
+      </c>
+      <c r="G15" s="6">
         <v>48.9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>55</v>
       </c>
@@ -3484,11 +3599,15 @@
       <c r="E16" s="1">
         <v>6</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>6</v>
+      </c>
+      <c r="G16" s="6">
         <v>39.9</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>56</v>
       </c>
@@ -3504,15 +3623,19 @@
       <c r="E17" s="1">
         <v>10</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>10</v>
+      </c>
+      <c r="G17" s="6">
         <v>39.9</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <f>COUNTA(TB_Produtos[Produtos])</f>
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>57</v>
       </c>
@@ -3528,11 +3651,15 @@
       <c r="E18" s="1">
         <v>12</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>12</v>
+      </c>
+      <c r="G18" s="6">
         <v>42.5</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>58</v>
       </c>
@@ -3548,15 +3675,19 @@
       <c r="E19" s="1">
         <v>6</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>6</v>
+      </c>
+      <c r="G19" s="6">
         <v>25.9</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <f>COUNTA(TB_Produtos[Produtos],TB_Produtos[Categoria])</f>
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>59</v>
       </c>
@@ -3572,11 +3703,15 @@
       <c r="E20" s="1">
         <v>10</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>10</v>
+      </c>
+      <c r="G20" s="6">
         <v>29.9</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>60</v>
       </c>
@@ -3592,11 +3727,15 @@
       <c r="E21" s="1">
         <v>12</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>12</v>
+      </c>
+      <c r="G21" s="6">
         <v>32.9</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>61</v>
       </c>
@@ -3612,11 +3751,15 @@
       <c r="E22" s="1">
         <v>21</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>21</v>
+      </c>
+      <c r="G22" s="6">
         <v>49.9</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>62</v>
       </c>
@@ -3632,11 +3775,15 @@
       <c r="E23" s="1">
         <v>5</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>5</v>
+      </c>
+      <c r="G23" s="6">
         <v>299.89999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>63</v>
       </c>
@@ -3652,11 +3799,15 @@
       <c r="E24" s="1">
         <v>5</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>5</v>
+      </c>
+      <c r="G24" s="6">
         <v>302.89999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>64</v>
       </c>
@@ -3672,11 +3823,15 @@
       <c r="E25" s="1">
         <v>5</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>5</v>
+      </c>
+      <c r="G25" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>65</v>
       </c>
@@ -3692,11 +3847,15 @@
       <c r="E26" s="1">
         <v>5</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>5</v>
+      </c>
+      <c r="G26" s="6">
         <v>249.9</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>66</v>
       </c>
@@ -3712,11 +3871,15 @@
       <c r="E27" s="1">
         <v>5</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>5</v>
+      </c>
+      <c r="G27" s="6">
         <v>259.89999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>67</v>
       </c>
@@ -3732,11 +3895,15 @@
       <c r="E28" s="1">
         <v>5</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>5</v>
+      </c>
+      <c r="G28" s="6">
         <v>299.89999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>68</v>
       </c>
@@ -3752,11 +3919,15 @@
       <c r="E29" s="1">
         <v>3</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>3</v>
+      </c>
+      <c r="G29" s="6">
         <v>349.9</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>69</v>
       </c>
@@ -3772,11 +3943,15 @@
       <c r="E30" s="1">
         <v>3</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>3</v>
+      </c>
+      <c r="G30" s="6">
         <v>399.9</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>70</v>
       </c>
@@ -3792,11 +3967,15 @@
       <c r="E31" s="1">
         <v>5</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>5</v>
+      </c>
+      <c r="G31" s="6">
         <v>249.9</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>71</v>
       </c>
@@ -3812,11 +3991,15 @@
       <c r="E32" s="1">
         <v>3</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>3</v>
+      </c>
+      <c r="G32" s="6">
         <v>255</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>72</v>
       </c>
@@ -3832,11 +4015,15 @@
       <c r="E33" s="1">
         <v>5</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>5</v>
+      </c>
+      <c r="G33" s="6">
         <v>259.89999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>73</v>
       </c>
@@ -3852,11 +4039,15 @@
       <c r="E34" s="1">
         <v>5</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>5</v>
+      </c>
+      <c r="G34" s="6">
         <v>199.9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>74</v>
       </c>
@@ -3872,11 +4063,15 @@
       <c r="E35" s="1">
         <v>5</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>5</v>
+      </c>
+      <c r="G35" s="6">
         <v>249.9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>75</v>
       </c>
@@ -3892,11 +4087,15 @@
       <c r="E36" s="1">
         <v>5</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>5</v>
+      </c>
+      <c r="G36" s="6">
         <v>259.89999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>76</v>
       </c>
@@ -3912,11 +4111,15 @@
       <c r="E37" s="1">
         <v>3</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>3</v>
+      </c>
+      <c r="G37" s="6">
         <v>89.9</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>77</v>
       </c>
@@ -3932,11 +4135,15 @@
       <c r="E38" s="1">
         <v>3</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>3</v>
+      </c>
+      <c r="G38" s="6">
         <v>91.4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>78</v>
       </c>
@@ -3952,11 +4159,15 @@
       <c r="E39" s="1">
         <v>3</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>3</v>
+      </c>
+      <c r="G39" s="6">
         <v>93.5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>79</v>
       </c>
@@ -3972,11 +4183,15 @@
       <c r="E40" s="1">
         <v>2</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>2</v>
+      </c>
+      <c r="G40" s="6">
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>80</v>
       </c>
@@ -3992,11 +4207,15 @@
       <c r="E41" s="1">
         <v>2</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>2</v>
+      </c>
+      <c r="G41" s="6">
         <v>142.9</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>81</v>
       </c>
@@ -4012,14 +4231,23 @@
       <c r="E42" s="1">
         <v>2</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="1">
+        <f>TB_Produtos[[#This Row],[Estoque]]</f>
+        <v>2</v>
+      </c>
+      <c r="G42" s="6">
         <v>146</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
+  <conditionalFormatting sqref="F4:F42">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -4032,7 +4260,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5742,7 +5970,7 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5769,8 +5997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87920B21-B994-41DD-BEC6-B8D0834CB666}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5834,7 +6062,7 @@
         <f>SUM(TB_Produtos[Estoque])</f>
         <v>231</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="16">
         <f>AVERAGE(TB_Produtos[Estoque])</f>
         <v>5.9230769230769234</v>
       </c>
